--- a/experimental results/e3000_CartPole.xlsx
+++ b/experimental results/e3000_CartPole.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="92">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,16 +70,16 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[5, 7, 8, 11, 14, 21, 23, 27, 34, 36, 38, 45, 74, 81, 96, 99, 100, 101, 112, 118, 135, 146, 149, 151, 157, 159, 182, 188, 195, 196, 197, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1, 0, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, -0.20479400662066377, 0.0221124503711613, 0.32788878955093564)', '(-0.01596358060234466, -0.0099937261243348, 0.028670226162180013, 0.04226033375042554)', '(-0.016163455124831354, -0.20551481871787833, 0.029515432837188525, 0.34384933658757677)', '(-0.02027375149918892, -0.401043954484018, 0.03639241956894006, 0.6456915739131274)', '(-0.02829463058886928, -0.20644751341962594, 0.049306251047202605, 0.3646871946132612)', '(-0.0324235808572618, -0.012059696278496235, 0.05659999493946783, 0.08794999515407315)', '(-0.032664774782831724, -0.20794534693470532, 0.05835899484254929, 0.3979394634630517)', '(-0.03682368172152583, -0.013697791231185058, 0.06631778411181033, 0.12421196833546444)', '(-0.03709763754614953, 0.18041447416570805, 0.06880202347851962, -0.14683323812764232)', '(-0.03348934806283537, -0.015621847787604531, 0.06586535871596677, 0.1667373736441919)', '(-0.03380178501858746, 0.17849848151289785, 0.06920010618885061, -0.1044613251468332)', '(-0.030231815388329503, 0.3725640132703717, 0.06711087968591395, -0.37453431854689134)', '(-0.02278053512292207, 0.566671688596043, 0.05962019331497612, -0.6453246094751119)', '(-0.011447101351001208, 0.3707718211722302, 0.046713701125473885, -0.33447895372385)', '(-0.004031664927556605, 0.5651988787975741, 0.04002412205099688, -0.612072559620144)', '(0.007272312648394877, 0.3695410823088636, 0.027782670858594004, -0.3070569556714441)', '(0.01466313429457215, 0.1740344863111104, 0.021641531745165123, -0.00574318017135389)', '(0.01814382402079436, 0.36883948897732893, 0.021526668141738044, -0.2915201446039675)', '(0.025520613800340937, 0.1734173190457552, 0.015696265249658694, 0.0078735459662429)', '(0.02898896018125604, 0.36831068766485286, 0.015853736168983553, -0.27981598289516535)', '(0.0363551739345531, 0.5632029382517804, 0.010257416511080246, -0.5674568180562317)', '(0.047619232699588704, 0.3679386165475462, -0.0010917198500443887, -0.271560116284683)', '(0.05497800503053963, 0.17283226064572335, -0.0065229221757380496, 0.020778277592453653)', '(0.058434650243454095, 0.36804714695892604, -0.0061073566238889765, -0.2739555478421929)', '(0.06579559318263262, 0.5632557044802213, -0.011586467580732835, -0.5685584748953598)', '(0.07706070727223704, 0.3682981662589545, -0.02295763707864003, -0.2795481418326045)', '(0.08442667059741614, 0.1735111059307991, -0.02854859991529212, 0.005806502276404613)', '(0.08789689271603213, 0.36903060569264723, -0.02843246986976403, -0.2957453891830713)', '(0.09527750482988508, 0.1743252861328706, -0.03434737765342546, -0.012163472430524735)', '(0.09876401055254248, -0.020287672819393032, -0.03459064710203595, 0.2694876444481319)', '(0.09835825709615462, 0.17531039521830374, -0.029200894213073314, -0.03390157075527256)', '(0.1018644650005207, -0.01938089945554569, -0.029878925628178767, 0.24942702840667524)', '(0.10147684701140978, 0.1761547218114724, -0.02489038506004526, -0.052528587032062424)', '(0.10499994144763923, -0.018601652487218012, -0.02594095680068651, 0.23219846820728307)', '(0.10462790839789488, 0.17688117554280525, -0.02129698743654085, -0.0685529051587947)', '(0.10816553190875099, 0.3723018822134918, -0.02266804553971674, -0.36787833217197663)', '(0.11561156955302082, 0.17750924247230365, -0.030025612183156275, -0.08242827323879015)', '(0.11916175440246689, 0.3730484520550299, -0.03167417764793208, -0.38443108676480925)', '(0.12662272344356748, 0.17839016988225542, -0.039362799383228265, -0.1019007711894242)', '(0.1301905268412126, -0.016146199025793034, -0.04140081480701675, 0.17810807125453765)', '(0.12986760286069673, -0.2106519808191462, -0.037838653381926, 0.4574483757613042)', '(0.12565456324431382, -0.01501609453713823, -0.028689685866699913, 0.15308268988324897)', '(0.12535424135357104, 0.18050465485114567, -0.025628032069034933, -0.14851135349915662)', '(0.12896433445059396, -0.014241108101485683, -0.028598259139018065, 0.13597754832934522)', '(0.12867951228856425, 0.18127854722459238, -0.02587870817243116, -0.16558875414592605)', '(0.1323050832330561, -0.013463582513046884, -0.029190483255349682, 0.1188191397113793)', '(0.13203581158279515, 0.18206417595380786, -0.026814100461122096, -0.18292833562364907)', '(0.13567709510187131, -0.012664039319640552, -0.030472667173595078, 0.1011765860872515)', '(0.1354238143154785, 0.18288107753955857, -0.028449135451850047, -0.20096249245994074)', '(0.13908143586626967, -0.011822684888756207, -0.03246838530104886, 0.08261205342919103)', '(0.13884498216849456, 0.18374928676298502, -0.03081614423246504, -0.22013531742565046)', '(0.14251996790375426, -0.010918929943639188, -0.03521885058097805, 0.06266985829675353)', '(0.1423015893048815, -0.20551868948865745, -0.033965453415042986, 0.344036283249897)', '(0.13819121551510835, -0.009930423846222669, -0.027084727750045046, 0.04083917573320045)', '(0.1379926070381839, 0.1855692367777191, -0.026267944235381036, -0.2602646968529851)', '(0.14170399177373827, -0.009168073014064776, -0.031473238172440736, 0.02401860884629181)', '(0.14152063031345696, -0.20382486353384652, -0.0309928659955149, 0.3066075869904032)', '(0.13744413304278003, -0.0082752956512685, -0.024860714255706837, 0.004313657457463427)', '(0.13727862712975467, -0.20303204941069272, -0.02477444110655757, 0.2890502178254346)', '(0.13321798614154082, -0.0075657376669973075, -0.018993436750048876, -0.011342216063770783)', '(0.13306667138820086, -0.2024102205258176, -0.019220281071324292, 0.27528805743767026)', '(0.12901846697768451, -0.007019392091630355, -0.013714519922570887, -0.023394465761548633)', '(0.12887807913585192, -0.20194200654782346, -0.01418240923780186, 0.2649300169308131)', '(0.12483923900489545, -0.006620531693946163, -0.008883808899185597, -0.0321922190525708)', '(0.12470682837101653, -0.20161396576296242, -0.009527653280237013, 0.2576745847029548)', '(0.12067454905575728, -0.006357296369436827, -0.004374161586177917, -0.0379982136826732)', '(0.12054740312836855, -0.20141624959223228, -0.00513412585983138, 0.2533014176609775)', '(0.1165190781365239, -0.006221366640347253, -6.809750661183021e-05, -0.04099647425407582)', '(0.11639465080371696, -0.2013423412874165, -0.0008880269916933467, 0.2516649663709781)', '(0.11236780397796862, -0.3964516005204678, 0.004145272335726216, 0.5440676599231276)', '(0.10443877196755927, -0.20138814603672886, 0.015026625534188768, 0.2526936986432536)', '(0.10041100904682469, -0.0064839500525849525, 0.020080499507053838, -0.035211927353473726)', '(0.100281330045773, 0.18834437159997444, 0.019376260959984362, -0.3214922217506)', '(0.10404821747777249, -0.007048073311316183, 0.012946416524972363, -0.022762306919199893)', '(0.10390725601154616, 0.18788584407913317, 0.012491170386588365, -0.3113325386035289)', '(0.10766497289312882, -0.007411819432689398, 0.006264519614517787, -0.014736588568506459)', '(0.10751673650447503, -0.20262304880626103, 0.005969787843147657, 0.2799162665486001)', '(0.10346427552834982, -0.007586763293609272, 0.01156811317411966, -0.0108778414538514)', '(0.10331254026247763, 0.18736739152341436, 0.011350556345042631, -0.2998885577233879)', '(0.10705988809294592, -0.007914492595411743, 0.005352785190574873, -0.003647608806927327)', '(0.10690159824103769, 0.18713028447745497, 0.0052798330144363265, -0.294636871732849)', '(0.11064420393058678, -0.008066540551358053, -0.0006129044202206543, -0.00029345155913640397)', '(0.11048287311955962, 0.1870641952487175, -0.0006187734514033824, -0.2931696941716014)', '(0.11422415702453398, -0.008048928275514317, -0.00648216733483541, -0.0006819842971255707)', '(0.1140631784590237, 0.18716538391996398, -0.006495807020777921, -0.2954030445037195)', '(0.11780648613742298, -0.007863361417245834, -0.012403867910852313, -0.004775852312601581)', '(0.11764921890907806, -0.20280524704582722, -0.012499384957104344, 0.2839678380390302)', '(0.11359311396816152, -0.007507270829169355, -0.00682002819632374, -0.012630965843578312)', '(0.11344296855157814, 0.18771182108741258, -0.007072647513195306, -0.30745786635321753)', '(0.11719720497332639, -0.007308639870184486, -0.013221804840259657, -0.01701383245478605)', '(0.1170510321759227, -0.2022385036063132, -0.013562081489355378, 0.27146830849324083)', '(0.11300626210379644, -0.39716433042153476, -0.008132715319490561, 0.5598430298600341)', '(0.10506297549536575, -0.20192918093486503, 0.0030641452777101213, 0.2646089984246235)', '(0.10102439187666845, -0.0068510984737656655, 0.00835632524620259, -0.02710589427706439)', '(0.10088736990719314, -0.2020918825216099, 0.007814207360661303, 0.268201787904614)', '(0.09684553225676094, -0.3973244757005716, 0.013178243118753583, 0.5633390903567765)', '(0.08889904274274951, -0.5926288386819242, 0.02444502492588911, 0.8601444882236955)', '(0.07704646596911102, -0.39784819736574306, 0.041647914690363025, 0.5752469382214698)', '(0.06908950202179616, -0.20333407920815766, 0.05315285345479242, 0.29596971753219725)', '(0.06502282043763301, -0.009008576253989847, 0.059072247805436365, 0.020512707923144136)', '(0.06484264891255322, 0.18521865152036163, 0.059482501963899245, -0.2529628181364049)', '(0.06854702194296045, 0.3794430351129531, 0.05442324560117115, -0.5263066016850945)', '(0.0761358826452195, 0.1835992174970208, 0.04389711356746926, -0.21698328193516564)', '(0.07980786699515992, 0.3780670422574445, 0.03955744792876595, -0.49550240892832975)', '(0.08736920784030881, 0.18241023429660463, 0.029647399750199352, -0.19061993178679504)', '(0.0910174125262409, 0.37709578087704754, 0.025835001114463452, -0.4738048605526501)', '(0.09855932814378185, 0.1816186849268243, 0.01635890390341045, -0.17309241875288206)', '(0.10219170184231834, -0.013733531960051948, 0.01289705552835281, 0.12470600148422206)', '(0.10191703120311729, 0.18120130041335897, 0.015391175558037252, -0.16388029997866627)', '(0.10554105721138447, 0.37609957980697006, 0.012113569558463926, -0.4516682659505514)', '(0.11306304880752388, 0.18080842688631785, 0.003080204239452898, -0.15519172651280672)', '(0.11667921734525023, 0.37588614069820925, -2.363029080323627e-05, -0.4469013304943168)', '(0.12419694015921443, 0.18076452377526844, -0.008961656900689572, -0.15422585249711668)', '(0.1278122306347198, -0.014227973177252717, -0.012046173950631905, 0.13561645607284445)', '(0.12752767117117475, 0.18106443147000673, -0.009333844829175016, -0.16084238643841908)', '(0.1311489598005749, 0.37631875568472317, -0.012550692557943399, -0.4564552253736115)', '(0.13867533491426937, 0.18137647651093045, -0.02167979706541563, -0.16775464351506675)', '(0.14230286444448798, -0.01342854874815938, -0.025034889935716963, 0.1180108652558855)', '(0.14203429346952479, 0.1820429869778118, -0.022674672630599253, -0.1824640487516942)', '(0.14567515320908103, -0.012747297373301075, -0.026323953605633138, 0.10298048624435602)', '(0.145420207261615, 0.1827418214277827, -0.02426434388074602, -0.1978899481794847)', '(0.14907504369017066, -0.012024818220411349, -0.02822214284433571, 0.0870409955277055)', '(0.14883454732576243, 0.18349006484718852, -0.026481322933781602, -0.21441075127140746)', '(0.1525043486227062, -0.011243480758921398, -0.030769537959209753, 0.06980255489087006)', '(0.15227947900752778, 0.18430578346057325, -0.02937348686139235, -0.2324273148559765)', '(0.15596559467673923, -0.010384411526154547, -0.03402203315851188, 0.05084743904474642)', '(0.15575790644621615, -0.20500242241153632, -0.03300508437761695, 0.33260497087452406)', '(0.15165785799798542, -0.009426618375725726, -0.026352984960126467, 0.02969930290399303)', '(0.1514693256304709, -0.20416093360780302, -0.025758998902046606, 0.31395247150319416)', '(0.14738610695831486, -0.00868168935801189, -0.019479949471982724, 0.013258570715589613)', '(0.14721247317115463, -0.20351893444177074, -0.019214778057670932, 0.299732246214496)', '(0.1431420944823192, -0.008128444908984234, -0.013220133133381013, 0.0010518178675764656)', '(0.14297952558413954, 0.18718058275867977, -0.013199096776029484, -0.29577272903375756)', '(0.14672313723931313, -0.007750737815983483, -0.019114551356704635, -0.007281639718796529)', '(0.14656812248299345, -0.202593417842482, -0.019260184151080564, 0.27930965436933114)', '(0.1425162541261438, -0.007202084381054047, -0.013673991063693942, -0.019385130562859454)', '(0.14237221243852272, -0.20212529337447213, -0.014061693674951132, 0.2689523204908958)', '(0.13832970657103327, -0.00680552151562161, -0.008682647265133216, -0.028132373861176174)', '(0.13819359614072085, -0.20180188821313857, -0.00924529474235674, 0.2617984846895172)', '(0.13415755837645807, -0.006549192821704353, -0.004009325048566395, -0.033786119431514106)', '(0.13402657452002398, -0.20161342010126113, -0.004685047437196678, 0.2576291313873247)', '(0.12999430611799875, -0.3966681719716891, 0.0004675351905498162, 0.5488306492507238)', '(0.12206094267856497, -0.20155279161696893, 0.011444148175564293, 0.2562950660472364)', '(0.11802988684622559, -0.006596086718185151, 0.01657004949650902, -0.03275633549376289)', '(0.11789796511186189, -0.20195169147467512, 0.015914922786633763, 0.2651082156025755)', '(0.11385893128236839, -0.007060465409048061, 0.021217087098685274, -0.0225128122607528)', '(0.11371772197418743, -0.20248016296475377, 0.020766830853470218, 0.27678811385772684)', '(0.10966811871489236, -0.00766054759079729, 0.026302593130624753, -0.009273288412820213)', '(0.10951490776307642, 0.18707450661680367, 0.026117127362368348, -0.2935427626433194)', '(0.11325639789541249, -0.008409882400078034, 0.02024627210950196, 0.0072613835621507805)', '(0.11308820024741092, 0.1864159453165733, 0.020391499780744976, -0.27896546669464334)', '(0.11681651915374239, -0.008990876201066617, 0.01481219044685211, 0.020078513602744097)', '(0.11663670162972105, -0.20432208344708588, 0.015213760718906993, 0.31739780791732813)', '(0.11255025996077933, -0.009420091542047815, 0.021561716877253556, 0.029551326308413006)', '(0.11236185812993837, -0.20484450828856615, 0.022152743403421816, 0.32895846692776226)', '(0.10826496796416706, -0.010044811071339421, 0.02873191274197706, 0.043342989641382224)', '(0.10806407174274027, 0.18465360451483473, 0.029598772534804706, -0.24013807587261898)', '(0.11175714383303696, 0.37934050232681626, 0.024796011017352328, -0.5233397413288665)', '(0.11934395387957329, 0.18387850242190387, 0.014329216190774997, -0.22294759033638978)', '(0.12302152392801137, 0.3787927465187363, 0.0098702643840472, -0.511076295814438)', '(0.1305973788583861, 0.18353315749131638, -0.00035126153224156013, -0.21529936849805453)', '(0.13426804200821243, -0.011583770247835745, -0.004657248902202651, 0.07727273416649105)', '(0.1340363666032557, 0.1836046348646187, -0.00311179421887283, -0.21687592451282095)', '(0.1377084593005481, -0.011472693535747036, -0.00744931270912925, 0.07482378532616019)', '(0.13747900542983316, 0.183755254398354, -0.005952837002606046, -0.22020008906351402)', '(0.14115411051780025, -0.011281102340495008, -0.010356838783876327, 0.07059913879714125)', '(0.14092848847099035, 0.18398778758997708, -0.008944856007933502, -0.22533334339909078)', '(0.1446082442227899, -0.011005189698635426, -0.013451522875915318, 0.06451466890703905)', '(0.14438814042881717, 0.18430701242198932, -0.012161229497774538, -0.23238175778551423)', '(0.14807428067725695, -0.010639077325029056, -0.01680886465348482, 0.05644044002199977)', '(0.14786149913075636, 0.1847198015986698, -0.015680055853044828, -0.24149805562161025)', '(0.15155589516272974, -0.010174697794852944, -0.02051001696547703, 0.04619800850684197)', '(0.1513524012068327, 0.185235258010276, -0.01958605679534019, -0.2528847986178441)', '(0.1550571063670382, -0.009601626003871017, -0.02464375276769707, 0.033556540088992004)', '(0.1548650738469608, 0.18586489823223867, -0.02397262196591723, -0.26679874849973795)', '(0.15858237181160556, -0.008906858209961566, -0.02930859693591199, 0.01822766482755167)', '(0.15840423464740633, -0.20359649805729607, -0.028944043639360956, 0.30152121174086555)', '(0.1543323046862604, -0.39829421652987373, -0.022913619404543645, 0.5849371051376684)', '(0.14636642035566294, -0.2028589202738981, -0.011214877301790277, 0.28512510038201105)', '(0.142309241950185, -0.00757883133499096, -0.005512375294150056, -0.011073717239181491)', '(0.14215766532348517, 0.18762173915028776, -0.0057338496389336855, -0.3054907545427323)', '(0.14591010010649091, -0.0074180349420234215, -0.01184366472978833, -0.014621645194489219)', '(0.14576173940765044, -0.20236814818897705, -0.012136097633678115, 0.274301059300821)', '(0.14171437644387092, -0.3973148571111371, -0.0066500764476616955, 0.563131663304242)', '(0.13376807930164816, -0.20210022595805305, 0.0046125568184231455, 0.26836108329364294)', '(0.1297260747824871, -0.00704440418515509, 0.009979778484296004, -0.02286345001623613)', '(0.129585186698784, 0.18793301614586833, 0.009522509483971282, -0.3123810102371315)', '(0.13334384702170135, -0.007323291508262053, 0.003274889279228652, -0.01671025229378892)', '(0.1331973811915361, 0.18775154115023662, 0.0029406842333528733, -0.3083581164373413)', '(0.13695241201454084, -0.007412187257507502, -0.003226478095393953, -0.014749229683144405)', '(0.13680416826939068, -0.20248771847311775, -0.003521462689056841, 0.2769139611516145)', '(0.13275441389992831, -0.39755925362466615, 0.0020168165339754488, 0.5684841417223773)', '(0.124803228827435, -0.5927094348991544, 0.013386499368422993, 0.8618017619561452)', '(0.11294904012945191, -0.39777229921234875, 0.0306225346075459, 0.573357770619012)', '(0.10499359414520493, -0.5933099154934721, 0.04208969001992614, 0.8755283014170632)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
+    <t>[7, 11, 25, 35, 41, 43, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, -0.20535498527219764, 0.017811089502435474, 0.3402405405228112)', '(-0.01246594538384614, -0.010490928408630806, 0.024615900312891698, 0.05322700071629072)', '(-0.012675763952018755, 0.18426957199857452, 0.025680440327217512, -0.2315889002694535)', '(-0.008990372512047266, -0.011209738044711759, 0.02104866232182844, 0.06908260297828756)', '(-0.009214567272941501, -0.20662703663099782, 0.022430314381394194, 0.3683314688703309)', '(-0.013347108005561457, -0.011830862394619474, 0.029796943758800813, 0.08280466814808407)', '(-0.013583725253453846, 0.18285156539267755, 0.03145303712176249, -0.20033034017628149)', '(-0.009926693945600295, 0.37750987661497604, 0.02744643031823686, -0.4829277199672296)', '(-0.0023764964133007735, 0.18201151835740706, 0.01778787591889227, -0.1817223908422667)', '(0.0012637339538473678, 0.3768744813044038, 0.014153428102046936, -0.4687412345133655)', '(0.008801223579935444, 0.18155547284071213, 0.004778603411779625, -0.17163109704832014)', '(0.012432333036749687, -0.013634546038685857, 0.0013459814708132226, 0.12255549245288105)', '(0.01215964211597597, 0.18146809572049516, 0.0037970913198708436, -0.16970248665736198)', '(0.015789004030385873, -0.013707998233402324, 0.000403041586723604, 0.12417588591908701)', '(0.015514844065717827, 0.18140817652458785, 0.002886559305105344, -0.16837985822323748)', '(0.019143007596209585, -0.013754973120981617, -0.0004810378593594054, 0.1252122938957429)', '(0.018867908133789954, 0.18137386622267734, 0.0020232080185554526, -0.16762235638071088)', '(0.022495385458243502, -0.013776986770867444, -0.001329239109058765, 0.12569814674287505)', '(0.02221984572282615, -0.2088798700449436, 0.0011847238257987362, 0.41796141692900485)', '(0.01804224832192728, -0.013774727606695597, 0.009543952164378835, 0.12565221737778742)', '(0.017766753769793368, 0.18120920518078615, 0.012056996511934584, -0.1640044821857367)', '(0.02139093787340909, 0.3761565010313237, 0.00877690686821985, -0.4528595003415194)', '(0.028914067894035562, 0.18091153914349287, -0.00028028313861053894, -0.1574229603369926)', '(0.03253229867690542, 0.37603750213499154, -0.003428742345350391, -0.4501942965692909)', '(0.04005304871960525, 0.18096421354790376, -0.012432628276736208, -0.15859413196263922)', '(0.04367233299056333, -0.013977554351462307, -0.015604510915988992, 0.13014082247967707)', '(0.04339278190353408, 0.18136441408137732, -0.013001694466395451, -0.16742399648077055)', '(0.047020070185161626, -0.013569039363292484, -0.01635017439601086, 0.12112907929879918)', '(0.046748689397895775, -0.20845296926780804, -0.013927592810034879, 0.4086091644449535)', '(0.042579630012539615, -0.013136342443693105, -0.005755409521135809, 0.111568059165854)', '(0.04231690316366575, 0.18206760493322244, -0.0035240483378187293, -0.18292509341063934)', '(0.0459582552623302, -0.013003744477493556, -0.007182550206031516, 0.10864404570934594)', '(0.04569818037278033, 0.1822203918486505, -0.005009669291844597, -0.18629625684896778)', '(0.04934258820975334, -0.012829526032784255, -0.008735594428823951, 0.10480211202505907)', '(0.04908599768909765, -0.207825207253391, -0.0066395521883227705, 0.3947162416495089)', '(0.044929493544029836, -0.012609676832370187, 0.0012547726446674075, 0.09994738635327405)', '(0.04467730000738243, -0.20774958859928552, 0.0032537203717328883, 0.39302592663523794)', '(0.04052230823539672, -0.01267396093347986, 0.011114238904437648, 0.10137062614140496)', '(0.040268829016727126, 0.18228695829970346, 0.013141651427265748, -0.18778517182643345)', '(0.04391456818272119, 0.37721844963721146, 0.009385947990737078, -0.4762936259456895)', '(0.05145893717546542, 0.18196523396002987, -0.00013992452817671204, -0.18066727491547047)', '(0.05509824185466602, -0.013154714713311588, -0.0037532700264861214, 0.11197150741822037)', '(0.05483514756039978, -0.20822268389572413, -0.0015138398781217137, 0.40346794145010745)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
   </si>
   <si>
     <t>Omitted</t>
@@ -88,46 +88,64 @@
     <t>['[1,1]', '[1,0]', '[0,0]']</t>
   </si>
   <si>
-    <t>[1, 23, 24, 25, 31, 42, 44, 46, 47, 54, 60, 67, 68, 70, 71, 72, 74, 76]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, 0.18594877956501746, 0.03869444837171655, -0.26877324231361266)', '(-0.019488118724880973, -0.009703402418254486, 0.033318983525444296, 0.0358586805708071)', '(-0.019682186773246062, 0.18492529718191608, 0.03403615713686044, -0.246128364066799)', '(-0.01598368082960774, 0.3795450175582019, 0.02911358985552446, -0.5278841683214563)', '(-0.008392780478443702, 0.18402580719474337, 0.01855590648909533, -0.22617144941287243)', '(-0.004712264334548835, -0.011356353854746565, 0.014032477500837883, 0.07230646131810359)', '(-0.004939391411643766, 0.18356164088285176, 0.015478606727199955, -0.2159163322291212)', '(-0.001268158593986731, -0.011778132587385526, 0.01116028008261753, 0.08160875664990119)', '(-0.0015037212457344414, 0.18318207298051023, 0.012792455215615554, -0.20753228566696746)', '(0.002159920213875763, -0.012120444782189488, 0.008641809502276205, 0.08915840006913389)', '(0.0019175113182319733, 0.18287657790643175, 0.010424977503658884, -0.20078555175080548)', '(0.005575042876360609, -0.012392909124185836, 0.006409266468642774, 0.09516765037049968)', '(0.005327184693876892, 0.18263659678023433, 0.008312619476052767, -0.19548628839738796)', '(0.008979916629481579, -0.01260326703736439, 0.0044028937081050075, 0.09980727111417653)', '(0.008727851288734292, 0.18245530716977032, 0.006399039130388538, -0.1914833076561332)', '(0.012376957432129698, -0.01275759934429993, 0.002569372977265874, 0.10321136166060718)', '(0.012121805445243699, 0.18232743593616216, 0.004633600210478018, -0.1886598305200819)', '(0.015768354163966943, -0.012860499404697273, 0.0008604036000763797, 0.10548120303351327)', '(0.015511144175872998, 0.1822491111450849, 0.002970027660746645, -0.1869301458350474)', '(0.019156126398774696, -0.012915207149845648, -0.0007685752559543034, 0.1066882272890648)', '(0.018897822255777783, -0.20802613598143943, 0.0013651892898269924, 0.3991285729932766)', '(0.014737299536148994, -0.40316742720206755, 0.009347760749692523, 0.6922416025810612)', '(0.006673950992107642, -0.5984178127297937, 0.023192592801313746, 0.9878525867761391)', '(-0.005294405262488231, -0.4036139451756544, 0.04294964453683653, 0.7025433811555519)', '(-0.013366684166001319, -0.20911275920657896, 0.057000512159947565, 0.4236839676821993)', '(-0.017548939350132898, -0.014842667129771281, 0.06547419151359155, 0.14950117490799808)', '(-0.017845792692728322, 0.17928359103110972, 0.06846421501175151, -0.12182862781679915)', '(-0.014260120872106128, 0.3733612610214341, 0.06602764245541552, -0.3921503589460576)', '(-0.0067928956516774466, 0.177367456560691, 0.05818463527649437, -0.07940224275025393)', '(-0.0032455465204636264, 0.3716091322156143, 0.05659659042148929, -0.35317506616543903)', '(0.00418663612384866, 0.5658825363451226, 0.04953308909818051, -0.6274880624247359)', '(0.015504286850751114, 0.3701055076782074, 0.03698332784968579, -0.3196259300110031)', '(0.022906397004315262, 0.5646817682027331, 0.03059080924946573, -0.6004201224596525)', '(0.03420003236836992, 0.3691455159000882, 0.018582406800272677, -0.2982606748006538)', '(0.041582942686371686, 0.5639977196017208, 0.0126171933042596, -0.5850256059112642)', '(0.05286289707840611, 0.3687013261824391, 0.0009166811860343172, -0.28839497650809953)', '(0.06023692360205489, 0.5638101932455535, -0.004851218344127673, -0.5807886499087007)', '(0.07151312746696596, 0.3687565539164669, -0.016466991342301687, -0.2896378863481522)', '(0.0788882585452953, 0.1738732394490125, -0.02225974906926473, -0.0021936240965729215)', '(0.08236572333427555, -0.02092251862492933, -0.02230362155119619, 0.28338379976349226)', '(0.08194727296177697, 0.17451033344666733, -0.016635945555926342, -0.016249288683361618)', '(0.08543747963071031, -0.020369136258504505, -0.016960931329593573, 0.2711387240558217)', '(0.08503009690554023, 0.17499068467217013, -0.01153815684847714, -0.02684513324651766)', '(0.08852991059898363, -0.019963916293090883, -0.012075059513407493, 0.26217515997792656)', '(0.08813063227312182, -0.21491144029004056, -0.0068315563138489615, 0.5510251464613052)', '(0.083832403467321, -0.01969420788814291, 0.004188946615377142, 0.25619766901308516)', '(0.08343851930955815, 0.1753676862058841, 0.009312899995638845, -0.0351610583251703)', '(0.08694587303367583, 0.37035485839237126, 0.00860967882913544, -0.3248911802317802)', '(0.09435297020152325, 0.5653531693073452, 0.0021118552244998355, -0.614846591450527)', '(0.10566003358767015, 0.3702017736536548, -0.010185076604510703, -0.32149926576680093)', '(0.11306406906074325, 0.17522633407798952, -0.01661506191984672, -0.03204563647064884)', '(0.11656859574230304, -0.01965345721727002, -0.0172559746492597, 0.255349099016405)', '(0.11617552659795763, 0.17571056700085727, -0.012148992668931598, -0.042726313204969224)', '(0.11968973793797477, 0.371004604729769, -0.013003518933030983, -0.3392174672839742)', '(0.12710983003257015, 0.17607007392145876, -0.019787868278710465, -0.050663318879781816)', '(0.1306312315109993, 0.3714700908881755, -0.020801134656306102, -0.34952321674156533)', '(0.1380606333287628, 0.17665006041348644, -0.02779159899113741, -0.06347148343014392)', '(0.14159363453703255, -0.018062631648695954, -0.029061028659740286, 0.22031509047145814)', '(0.14123238190405862, 0.1774624074080057, -0.024654726850311122, -0.08139136965058752)', '(0.14478163005221872, 0.37292894884542604, -0.026282554243322872, -0.38174983013029956)', '(0.15224020902912724, 0.17818985866748135, -0.033917550845928866, -0.09746826075500498)', '(0.15580400620247686, -0.01642997654275341, -0.035866916061028965, 0.18432374198690354)', '(0.1554754066716218, 0.17918632373794263, -0.03218044122129089, -0.11945460541074981)', '(0.15905913314638065, -0.015460135247388901, -0.03456953332950589, 0.1629045001552279)', '(0.15874993044143287, -0.2100705879901874, -0.03131144332640133, 0.4444843507271979)', '(0.15454851868162914, -0.40473585480564134, -0.022421756311857374, 0.7271350641147103)', '(0.1464538015855163, -0.20931120297737577, -0.007879055029563167, 0.4274803243859709)', '(0.14226757752596877, -0.4043206805826666, 0.0006705514581562509, 0.7176690430600356)', '(0.13418116391431545, -0.5994519051254438, 0.015023932319356965, 1.0105629561841338)', '(0.12219212581180658, -0.7947710952316624, 0.035235191443039646, 1.3079255465291932)', '(0.10629670390717333, -0.6001129326104968, 0.061393702373623515, 1.0264765405647898)', '(0.09429444525496339, -0.7959961226477535, 0.08192323318491931, 1.3377861711159267)', '(0.07837452280200832, -0.6019959974342812, 0.10867895660723785, 1.071820447318912)', '(0.0663346028533227, -0.79837370672817, 0.13011536555361608, 1.3965378959235437)', '(0.0503671287187593, -0.6050880215544545, 0.15804612347208696, 1.147206222730768)', '(0.03826536828767021, -0.4123423998396442, 0.18099024792670232, 0.9079635248757447)', '(0.030018520290877322, -0.22007086674941562, 0.19914951842421721, 0.6771881891819455)', '(0.02561710295588901, -0.028191090733373975, 0.21269328220785613, 0.4532209314744708)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80]</t>
-  </si>
-  <si>
-    <t>[3, 4, 6, 7, 9, 11, 12, 14]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.3995926886560538, 0.03324521137881013, 0.6136121422661903)', '(-0.02747662635541598, -0.20495069645425082, 0.04551745422413394, 0.33158277607097986)', '(-0.031575640284500994, -0.40068999934945054, 0.052149109745553535, 0.6382651388197)', '(-0.03958944027149001, -0.5964988441456166, 0.06491441252194753, 0.9469040055260922)', '(-0.051519417154402336, -0.4023082941834021, 0.08385249263246938, 0.6753031235617661)', '(-0.05956558303807038, -0.5984892254877665, 0.09735855510370471, 0.9931643332934792)', '(-0.0715353675478257, -0.40479510514207645, 0.1172218417695743, 0.7325772579844678)', '(-0.07963126965066723, -0.6013249018408517, 0.13187338692926365, 1.0597332395061783)', '(-0.09165776768748427, -0.7979234706886109, 0.1530680517193872, 1.3907290818668125)', '(-0.10761623710125648, -0.6050030682699912, 0.18088263335672344, 1.1495584147031115)', '(-0.1197162984666563, -0.8019645792561942, 0.20387380165078567, 1.493070602696258)', '(-0.13575559005178017, -0.6098221039605474, 0.23373521370471084, 1.2703504428682124)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
+    <t>[0, 3, 8, 11, 16, 17, 18, 20, 21, 23, 26, 27, 31, 33, 34, 35, 36, 37, 38, 42, 43, 44, 45, 46, 47, 49]</t>
+  </si>
+  <si>
+    <t>[13, 21, 23, 28, 29, 30, 32, 34, 36, 41, 42, 43, 46, 47]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, -0.2063645790204402, 0.007299072508378151, 0.3624784850587858)', '(-0.002067893560726774, -0.011347128052371896, 0.014548642209553868, 0.07210600921452692)', '(-0.002294836121774212, 0.18356325911430615, 0.015990762393844407, -0.21595148067457304)', '(0.0013764290605119112, -0.011783601792080406, 0.011671732780352946, 0.08173243197217583)', '(0.0011407570246703032, 0.1831691077660547, 0.013306381419796462, -0.20724530235468408)', '(0.0048041391799913975, -0.012140566145772025, 0.00916147537270278, 0.08960523347208371)', '(0.004561327857075957, 0.18284887774787523, 0.010953580042144456, -0.20017322189011344)', '(0.008218305412033462, -0.012428008800080104, 0.006950115604342186, 0.09594482411872818)', '(0.00796974523603186, -0.20764887923410683, 0.008869012086716751, 0.3908123748583686)', '(0.003816767651349723, -0.012653916687551059, 0.016685259583884123, 0.10093888996931122)', '(0.0035636893175987018, -0.20801096952433326, 0.018704037383270346, 0.3988389186366264)', '(-0.0005965300728879635, -0.013159283710983294, 0.026680815756002875, 0.11211118012747123)', '(-0.0008597157471076294, 0.18157039363937177, 0.0289230393585523, -0.17203614679797619)', '(0.0027716921256798065, 0.37626669834745863, 0.025482316422592778, -0.455456270569103)', '(0.01029702609262898, 0.18079389372719562, 0.01637319101121072, -0.15485126570318514)', '(0.013912903967172893, -0.014558616393671814, 0.013276165697147017, 0.14295172565927494)', '(0.013621731639299457, -0.20986816148506904, 0.016135200210332514, 0.4397933032872967)', '(0.009424368409598077, -0.40521470938400994, 0.024931066276078447, 0.737518525916049)', '(0.0013200742219178774, -0.21044578550665288, 0.03968143679439943, 0.4527849047435251)', '(-0.0028888414882151806, -0.40610576333812304, 0.04873713488926993, 0.7577071157375668)', '(-0.011010956754977642, -0.21168814357806492, 0.06389127720402127, 0.4807500146979629)', '(-0.015244719626538939, -0.4076510484784179, 0.07350627749798053, 0.7928658800720656)', '(-0.023397740596107296, -0.2136110270103726, 0.08936359509942184, 0.5241832073616937)', '(-0.027669961136314748, -0.40986947233154863, 0.0998472592466557, 0.8436341315432027)', '(-0.03586735058294572, -0.2162415416349178, 0.11671994187751976, 0.5839451524492589)', '(-0.040192181415644075, -0.02293144822334925, 0.12839884492650494, 0.33019074662542774)', '(-0.04065081038011106, 0.17015122697479215, 0.1350026598590135, 0.0805964863880721)', '(-0.03724778584061522, 0.36310557250259556, 0.13661458958677494, -0.16663116044534132)', '(-0.02998567439056331, 0.16631941272779374, 0.13328196637786813, 0.1658376849655191)', '(-0.026659286136007435, -0.030433643783297798, 0.13659872007717852, 0.4974187819292376)', '(-0.027267959011673393, -0.22719050382444606, 0.14654709571576327, 0.8298401028899103)', '(-0.031811769088162314, -0.03434306743307372, 0.16314389777356147, 0.5866003905340851)', '(-0.032498630436823786, 0.15816338969010255, 0.17487590558424318, 0.3494268128860094)', '(-0.029335362643021737, -0.03895837581674133, 0.18186444184196338, 0.6917516154874186)', '(-0.030114530159356563, -0.23607515645100596, 0.19569947415171174, 1.0357244611947214)', '(-0.034836033288376686, -0.04401657577022455, 0.21641396337560617, 0.8103047370062194)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48]</t>
   </si>
   <si>
     <t>['[0,0]', '[1,0]', '[1,1]']</t>
   </si>
   <si>
-    <t>[1, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+    <t>[0, 1, 3, 5, 7, 10, 12, 13, 14, 17, 20, 23, 24, 25, 31, 33, 34, 38, 39, 40, 43, 45, 46, 47, 48]</t>
+  </si>
+  <si>
+    <t>['[0,0]', '[1,1]', '[1,0]']</t>
+  </si>
+  <si>
+    <t>[5, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, -0.20479400662066377, 0.0221124503711613, 0.32788878955093564)', '(-0.01596358060234466, -0.0099937261243348, 0.028670226162180013, 0.04226033375042554)', '(-0.016163455124831354, 0.18470562033696747, 0.029515432837188525, -0.24124077287849488)', '(-0.012469342718092004, -0.01082524381590183, 0.024690617379618626, 0.0606040558979552)', '(-0.01268584759441004, -0.2062923448674995, 0.02590269849757773, 0.3609736445406305)', '(-0.01681169449176003, -0.4017727253192722, 0.03312217138839034, 0.6617103943738543)', '(-0.024847148998145475, -0.5973395098306135, 0.04635637927586743, 0.9646358097469538)', '(-0.03679393919475774, -0.793052507463653, 0.06564909547080651, 1.271513829746378)', '(-0.0526549893440308, -0.9889480978021314, 0.09107937206573408, 1.5840112122308634)', '(-0.07243395130007343, -1.1850277156821278, 0.12275959631035135, 1.903651884398392)', '(-0.09613450561371599, -1.3812443782612764, 0.1608326339983192, 2.2317626758315594)', '(-0.12375939317894152, -1.5774869274517918, 0.2054678875149504, 2.569408728900894)', '(-0.15530913172797736, -1.7735620473598919, 0.2568560620929683, 2.9173183511121206)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[1,1]', '[0,0]']</t>
+  </si>
+  <si>
+    <t>[0, 2, 3, 6, 8, 9, 11, 13, 15, 17]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[0,0]', '[1,1]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 8, 9]</t>
   </si>
   <si>
     <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
   </si>
   <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.5956248027752826, 0.0574309101881717, 0.9272407954660062)', '(-0.0472027292383609, -0.7914732264619257, 0.07597572609749183, 1.2374044949200487)', '(-0.06303219376759941, -0.9874845783584121, 0.10072381599589281, 1.5528887324727623)', '(-0.08278188533476766, -1.183659602708179, 0.13178159064534806, 1.8752225971580518)', '(-0.10645507738893123, -1.3799509059964268, 0.1692860425885091, 2.205738341832266)', '(-0.13405409550885977, -1.5762471462834955, 0.2134008094251544, 2.5455064301418893)']</t>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -0.7922666038825532, 0.12304959880142835, 1.2600857217662162)', '(-0.09427328681678551, -0.5989146048637253, 0.14825131323675267, 1.008335999006276)', '(-0.10625157891406002, -0.795671053600708, 0.16841803321687818, 1.3436597094543195)', '(-0.12216499998607418, -0.9924631143818925, 0.19529122740596455, 1.6839523906424212)', '(-0.14201426227371203, -0.8000645259528414, 0.22897027521881297, 1.4578917650635328)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
-    <t>['[1,0]', '[0,0]', '[1,1]']</t>
+    <t>[0, 1, 2, 3, 6, 10]</t>
   </si>
   <si>
     <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
@@ -142,57 +160,69 @@
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
   </si>
   <si>
+    <t>[0, 2, 4, 6, 7, 9]</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[14, 23, 29, 33, 37, 45, 47]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, 0.1838783157507662, 0.007299072508378151, -0.22287552841176522)', '(0.005736964334697355, 0.37889518481465034, 0.0028415619401428466, -0.5132471314229992)', '(0.013314868030990362, 0.18373332723601268, -0.007423380688317136, -0.2196701088401533)', '(0.016989534575710615, -0.011281728903743987, -0.011816782865120203, 0.07066196156913584)', '(0.016763899997635737, 0.18400762370118764, -0.010403543633737486, -0.2257256687662253)', '(0.02044405247165949, -0.010964109356650847, -0.014918057009061993, 0.06365751742236891)', '(0.02022477028452647, 0.184368517348623, -0.013644906660614613, -0.23369456609683975)', '(0.02391214063149893, -0.010555841897847001, -0.01831879798255141, 0.05465327634681194)', '(0.02370102379354199, 0.18482391862281383, -0.01722573245561517, -0.24375261728437336)', '(0.027397502165998268, -0.010047807143910376, -0.02210078480130264, 0.04344748993697223)', '(0.02719654602312006, 0.18538397420661817, -0.021231835002563197, -0.2561256935801254)', '(0.030904225507252425, -0.009428506807414194, -0.026354348874165705, 0.029785475140334805)', '(0.030715655371104142, -0.20416280161627245, -0.02575863937135901, 0.3140382017657373)', '(0.026632399338778694, -0.008683563568976593, -0.019477875336044264, 0.013344413230521046)', '(0.026458728067399163, -0.20352083957016845, -0.019210987071433844, 0.29981875658401186)', '(0.022388311275995793, -0.008130402921825819, -0.013214611939753606, 0.001139500547557848)', '(0.022225703217559276, 0.18717854767555359, -0.01319182192880245, -0.29568332904789196)', '(0.025969274171070346, -0.007752878630135324, -0.01910548850976029, -0.007189914463489877)', '(0.02581421659846764, -0.20259569344448836, -0.019249286799030086, 0.27940429637448444)', '(0.021762302729577875, -0.007204510312568829, -0.013661200871540397, -0.01928712137096289)', '(0.021618212523326498, 0.18811066617940939, -0.014046943298959655, -0.31624881614214506)', '(0.025380425846914686, -0.006808414368794785, -0.020371919621802556, -0.02802870594372814)', '(0.02524425755953879, -0.20163238349619295, -0.02093249374067712, 0.25815767857715277)', '(0.02121160988961493, -0.006217942598092385, -0.015769340169134064, -0.04105347040189011)', '(0.021087251037653083, 0.18912654651819563, -0.016590409577171866, -0.33866976615337485)', '(0.024869781968016997, -0.00575544949053583, -0.023363804900239364, -0.05126435762150611)', '(0.024754672978206282, -0.20053473301334582, -0.024389092052669488, 0.23395649481294284)', '(0.020743978317939366, -0.005072953062804864, -0.019709962156410632, -0.06631866208455289)', '(0.02064251925668327, -0.19990685480650489, -0.02103633539810169, 0.22008107149261663)', '(0.016644382160553174, -0.004490621388541394, -0.016634713968249358, -0.0791626497153215)', '(0.016554569732782347, -0.19937020674126335, -0.018217966962555787, 0.20822590449658473)', '(0.01256716559795708, -0.0039925558194830735, -0.014053448872624092, -0.09014772569804708)', '(0.012487314481567419, 0.19132798204331927, -0.015856403386585033, -0.38723117916598315)', '(0.016313874122433805, -0.003565337659493434, -0.023601026969904695, -0.0995895369582579)', '(0.016242567369243937, 0.19188676829679374, -0.025592817709069855, -0.3996241061176585)', '(0.02008030273517981, -0.0028629601608068933, -0.03358529983142303, -0.11511864493307444)', '(0.020023043531963672, -0.1974879880433404, -0.035887672730084516, 0.166782041653125)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 3, 9, 10, 11, 13, 14, 15, 16, 18, 19, 20, 22, 23, 24, 25, 26, 28, 31, 38, 42, 43, 44, 45, 49]</t>
+  </si>
+  <si>
+    <t>[4, 8, 15, 16, 18, 26, 27, 30, 34, 36, 42, 44, 45, 46]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, 0.3802478236181868, 0.0009930658321914924, -0.5430831938294477)', '(0.010758013827932775, 0.18511193022202863, -0.009868598044397462, -0.2500875367578215)', '(0.014460252432373347, -0.009867712816153923, -0.014870348779553892, 0.03946636549582372)', '(0.01426289817605027, -0.20477330215763803, -0.014081021469637418, 0.32742070447839394)', '(0.01016743213289751, -0.009453741352684342, -0.007532607380069539, 0.030330724545252208)', '(0.009978357305843823, 0.1857754171116128, -0.006925992889164495, -0.26471927081529784)', '(0.013693865648076078, -0.00924699740825144, -0.012220378305470452, 0.025771109034767925)', '(0.013508925699911049, 0.18604805264266017, -0.011704956124775094, -0.27074229443584674)', '(0.017229886752764254, 0.3813350600568367, -0.01711980201349203, -0.5670939176901328)', '(0.02485658795390099, 0.18645739160450836, -0.028461680367294687, -0.27985322707263793)', '(0.028585735785991155, 0.3819735444328842, -0.03405874490874745, -0.5813752827454706)', '(0.03622520667464884, 0.18734495227559125, -0.045686250563656855, -0.29961303996003147)', '(0.03997210572016066, -0.007097026948893248, -0.051678511362857484, -0.021681488159394413)', '(0.0398301651811828, -0.2014412313117427, -0.05211214112604537, 0.25425891284676244)', '(0.03580134055494794, -0.395781873680047, -0.04702696286911012, 0.5300601054442438)', '(0.027885703081347003, -0.2000310197568625, -0.036425760760225245, 0.22293761560044545)', '(0.023885082686209754, -0.39461391724993844, -0.03196700844821634, 0.5039115429463459)', '(0.015992804341210986, -0.19905635989097253, -0.02188877758928942, 0.20132837293027173)', '(0.012011677143391535, -0.003628307456061658, -0.017862210130683988, -0.09817827036189386)', '(0.011939110994270303, 0.19174503089449874, -0.019825775537921864, -0.39644273800754465)', '(0.01577401161216028, -0.0030901011085121555, -0.027754630298072756, -0.11007587091654131)', '(0.015712209589990034, -0.1978035705684915, -0.02995614771640358, 0.1737230330760537)', '(0.011756138178620205, -0.0022659786152192662, -0.02648168705488251, -0.12825755268386246)', '(0.01171081860631582, -0.19699875615334034, -0.029046838108559757, 0.15595449195007044)', '(0.007770843483249013, -0.3916930404518121, -0.02592774826955835, 0.43933415704444506)', '(-6.301732578722907e-05, -0.19621390907498762, -0.017141065128669447, 0.13859210836267155)', '(-0.003987295507286982, -0.0008506988935586823, -0.014369222961416015, -0.15944888369087273)', '(-0.004004309485158155, -0.19576401466525628, -0.01755820063523347, 0.12866650082885406)', '(-0.007919589778463281, -0.00039499512647492296, -0.014984870618656387, -0.1695037025961783)', '(-0.007927489680992779, -0.19529929148189581, -0.018374944670579953, 0.11841453167662985)', '(-0.011833475510630695, -0.3901532163972828, -0.016006654037047357, 0.40524414804658676)', '(-0.019636539838576352, -0.19480797185921267, -0.007901771076115621, 0.10755806259253103)', '(-0.023532699275760606, -0.3898158031172595, -0.005750609824265, 0.3977375810836268)', '(-0.031329015338105795, -0.19461274141280085, 0.0022041417974075356, 0.10324715999626238)', '(-0.03522127016636181, 0.0004775528623579828, 0.0042690849973327834, -0.18873955340627113)', '(-0.03521171910911465, -0.1947052138901889, 0.0004942939292073606, 0.10528703598626576)', '(-0.039105823386918426, 0.00040965028978245943, 0.002600034648932676, -0.18723990212062558)', '(-0.039097630381122774, 0.19549430580833949, -0.0011447633934798356, -0.47910148696792465)', '(-0.03518774426495598, 0.3906323995262804, -0.010726793132838329, -0.7721449961151315)', '(-0.027375096274430372, 0.1956596765992461, -0.026169693055140962, -0.4828563540348175)', '(-0.023461902742445452, 0.0009166703431370271, -0.03582682013583731, -0.19853487825823246)', '(-0.023443569335582712, -0.19367502076087778, -0.039797517701001955, 0.08263451874401068)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 3, 4, 5, 7, 8, 10, 15, 16, 18, 20, 21, 23, 25, 26, 30, 32, 36, 37, 39, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
     <t>['[1,1]', '[0,0]', '[1,0]']</t>
   </si>
   <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>[6, 7, 8, 18, 24, 35, 73, 81, 83, 103, 104, 113, 117, 123, 126, 139, 145, 146, 155, 161, 162, 165, 170]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, 0.38023603625130564, 0.01696602298203639, -0.5429484893896719)', '(-0.0005542468138891605, 0.5751154916696841, 0.006107053194242953, -0.8302378306182653)', '(0.010948063019504522, 0.7701534356009525, -0.010497703418122353, -1.1209938284378815)', '(0.02635113173152357, 0.5751707282303192, -0.03291757998687998, -0.8316221509333978)', '(0.03785454629612996, 0.380513743835014, -0.049550023005547936, -0.5494708738395142)', '(0.04546482117283024, 0.18612155449561923, -0.06053944048233822, -0.2728022174512748)', '(0.04918725226274262, -0.008086667505094375, -0.06599548483136372, 0.0001887198000710133)', '(0.04902551891264073, -0.2022031198378239, -0.0659917104353623, 0.27134094553291066)', '(0.044981456515884255, -0.39632436811214, -0.06056489152470408, 0.5425015292512063)', '(0.037054969153641454, -0.200405849434646, -0.04971486093967996, 0.23136737959211978)', '(0.033046852164948536, -0.3947834627672626, -0.04508751334783756, 0.5079634117149606)', '(0.025151182909603283, -0.19905620703352092, -0.03492824511353835, 0.20141965749348717)', '(0.021170058768932864, -0.0034525770170402426, -0.030899851963668606, -0.10207364721071283)', '(0.02110100722859206, -0.19811837950788191, -0.03294132490788286, 0.1807025564220705)', '(0.01713863963843442, -0.3927538464000059, -0.02932727377944145, 0.46281436928508407)', '(0.009283562710434302, -0.1972299694496873, -0.02007098639373977, 0.16103368820478592)', '(0.005338963321440556, -0.3920589163101548, -0.01685031262964405, 0.44731777232614556)', '(-0.0025022150047625405, -0.19670270018742936, -0.00790395718312114, 0.1493712907375747)', '(-0.006436269008511128, -0.0014684638530569616, -0.004916531368369646, -0.14579465544443126)', '(-0.006465638285572267, -0.19651966292597717, -0.00783242447725827, 0.14533315264885882)', '(-0.01039603154409181, -0.3915285763707749, -0.004925761424281094, 0.4355348412194677)', '(-0.018226603071507308, -0.1963372417743524, 0.0037849354001082604, 0.1413032232790124)', '(-0.02215334790699436, -0.39151319567187043, 0.006610999865688508, 0.43517782544916)', '(-0.029983611820431768, -0.19648545533828504, 0.015314556374671709, 0.1445862275404215)', '(-0.03391332092719747, -0.001586135030317376, 0.01820628092548014, -0.14322616688683848)', '(-0.03394504362780382, -0.19696403078353533, 0.015341757587743369, 0.15514445773812208)', '(-0.03788432424347452, -0.002065064361940011, 0.01844464674250581, -0.13265928781634728)', '(-0.037925625530713325, -0.1974462990713533, 0.015791460986178864, 0.16578513208177353)', '(-0.04187455151214039, -0.002553915271526236, 0.019107163627814335, -0.12187449753078333)', '(-0.04192562981757091, 0.19228915052140652, 0.016669673677198668, -0.40846858301963856)', '(-0.038079846807142784, -0.003065138930993694, 0.008500302016805896, -0.11057720430611262)', '(-0.03814114958576266, -0.19830785743327714, 0.006288757930683644, 0.18477535174209098)', '(-0.0421073067344282, -0.0032764487282189447, 0.009984264965525463, -0.1059170937934602)', '(-0.04217283570899258, -0.1985400459107309, 0.007865923089656258, 0.18989902851377327)', '(-0.0461436366272072, -0.003531504988451256, 0.011663903659931724, -0.10029217609005098)', '(-0.046214266726976226, -0.19881866010301213, 0.009658060138130704, 0.19604774060710567)', '(-0.05019063992903647, -0.003836179599688072, 0.013579014950272817, -0.09357291401626272)', '(-0.05026736352103023, -0.1991500988353906, 0.011707556669947564, 0.20336306256270803)', '(-0.05425036549773804, -0.004197518550949492, 0.015774817921201723, -0.08560382390565019)', '(-0.05433431586875703, -0.1995419968721429, 0.014062741443088719, 0.21201404059972273)', '(-0.05832515580619989, -0.004623903010652658, 0.018303022255083172, -0.07619988060159849)', '(-0.05841763386641294, -0.20000339540320053, 0.016779024643051203, 0.22220105827212144)', '(-0.06241770177447695, -0.005125240743484666, 0.021223045808493633, -0.06514222404175157)', '(-0.06252020658934664, -0.20054494269706227, 0.0199202013276586, 0.2341604230765703)', '(-0.06653110544328789, -0.005713191441145932, 0.024603409789190005, -0.05217306981678982)', '(-0.0666453692721108, -0.2011791279708049, 0.023559948392854208, 0.24816977147083652)', '(-0.0706689518315269, -0.006401429801386055, 0.02852334382227094, -0.036989708870274196)', '(-0.07079698042755461, 0.18830012732786863, 0.027783549644865454, -0.3205385224488312)', '(-0.06703097788099724, -0.0072062511740798585, 0.02137277919588883, -0.019224821962224636)', '(-0.06717510290447884, 0.18760277383567425, 0.020988282756644338, -0.3050885023672296)', '(-0.06342304742776536, -0.007811888166581821, 0.014886512709299745, -0.005860966176661209)', '(-0.063579285191097, 0.18709344051147395, 0.01476929338576652, -0.29381009223023175)', '(-0.05983741638086752, -0.00823593197756678, 0.008893091541161885, 0.0034940257862208224)', '(-0.06000213502041886, 0.18675735775629954, 0.0089629720568863, -0.28636980835365705)', '(-0.05626698786529287, -0.008491263947563249, 0.00323557588981316, 0.009126438829635819)', '(-0.05643681314424413, -0.20365946797115383, 0.003418104666405876, 0.3028284701133603)', '(-0.06051000250366721, -0.008586397945727381, 0.009474674068673082, 0.011225495231965421)', '(-0.06068173046258176, 0.1863984011602593, 0.00969918397331239, -0.27845306326667885)', '(-0.056953762439376575, -0.008860564126345893, 0.0041301227079788136, 0.017273123531119483)', '(-0.05713097372190349, 0.1862019135013404, 0.004475585178601203, -0.2741038447707562)', '(-0.053406935451876685, -0.008983609164794043, -0.0010064917168139216, 0.019987324582208754)', '(-0.05358660763517257, -0.20409111176009126, -0.0006067452251697465, 0.31235252172371664)', '(-0.05766842987037439, -0.008960521937237564, 0.005640305209304587, 0.01947830778067705)', '(-0.05784764030911914, 0.18608008884726, 0.006029871364918128, -0.2714197138427033)', '(-0.05412603853217394, -0.009127384748696371, 0.0006014770880640617, 0.023158944793350456)', '(-0.05430858622714787, 0.18598593556106288, 0.0010646559839310708, -0.2693341484777662)', '(-0.05058886751592661, -0.009151192839999628, -0.004322026985624254, 0.023684387034153098)', '(-0.0507718913727266, 0.18603247265429476, -0.0038483392449411916, -0.27035904867826005)', '(-0.047051241919640704, -0.00903435134206168, -0.009255520218506393, 0.021107611710537655)', '(-0.04723192894648194, -0.20402235428219256, -0.00883336798429564, 0.3108560044315044)', '(-0.051312376032125795, -0.008775673691368724, -0.0026162478956655516, 0.015400433144974801)', '(-0.05148788950595317, -0.20386000715903038, -0.0023082392327660557, 0.3072567558651184)', '(-0.05556508964913378, -0.008705241207938946, 0.003836895884536313, 0.013846765040127718)', '(-0.05573919447329256, 0.18636147444203388, 0.004113831185338868, -0.2776231100197311)', '(-0.05201196498445188, -0.00881892344074739, -0.0014386310150557545, 0.01635447239774085)', '(-0.05218834345326683, 0.1863236298968923, -0.0011115415671009376, -0.2767820120723658)', '(-0.048461870855328985, -0.008782445640985515, -0.006647181808548253, 0.015550127287260351)', '(-0.048637519768148695, 0.18643420038102254, -0.006336179262803046, -0.27922262959029337)', '(-0.044908835760528246, -0.008596792222503674, -0.011920631854608912, 0.011455162639488814)', '(-0.045080771604978316, -0.20354577493888773, -0.011691528601819136, 0.3003532772954176)', '(-0.04915168710375607, -0.00825914747499254, -0.005684463055910784, 0.004006125337223665)', '(-0.049316870053255926, -0.20329911587814567, -0.005604340549166311, 0.29489012805422116)', '(-0.05338285237081884, -0.00809771596769035, 0.00029346201191811274, 0.00044495893709028955)', '(-0.05354480669017265, -0.2032238746320321, 0.00030236119065991853, 0.29322046216067693)', '(-0.05760928418281329, -0.00810623565701446, 0.006166770433873457, 0.0006329112654259172)', '(-0.05777140889595358, -0.2033160819577317, 0.006179428659181975, 0.2952551320155556)', '(-0.061837730535108215, -0.0082827699048581, 0.012084531299493087, 0.004527489941865193)', '(-0.062003385933205375, 0.18666380555463905, 0.012175081098330391, -0.2843182558800641)', '(-0.058270109822112594, -0.008629658618992508, 0.00648871598072911, 0.01217961441626042)', '(-0.058442702994492446, 0.18639863764588052, 0.006732308269054318, -0.2784490023700511)', '(-0.05471473024157483, -0.008818705155609702, 0.0011633282216532963, 0.016349659517351567)', '(-0.054891104344687025, -0.2039573205623508, 0.0014903214120003277, 0.30939940298192736)', '(-0.05897025075593404, -0.008856635222464215, 0.007678309471638875, 0.017186854302411514)', '(-0.059147383460383327, 0.18615436310487765, 0.008022046557687105, -0.2730636195627092)', '(-0.055424296198285775, -0.009081128207803518, 0.0025607741664329204, 0.02213865082290123)', '(-0.05560591876244184, 0.186004005541821, 0.003003547182890945, -0.269735223557472)', '(-0.051885838651605426, -0.009160678654808824, -0.002391157288258495, 0.02389352380379578)', '(-0.0520690522247016, 0.18599548215090023, -0.0019132868121825792, -0.2695428801044936)', '(-0.048349142581683595, 0.38114468474867325, -0.007304144414272452, -0.5628286541988066)', '(-0.04072624888671013, 0.18612598587909582, -0.018560717498248586, -0.2724558084858464)', '(-0.03700372916912821, -0.008726271597979923, -0.024009833667965514, 0.014315696553365509)', '(-0.03717825460108781, -0.20349580981144613, -0.023723519736898204, 0.29932758560450223)', '(-0.041248170797316734, -0.008043877134765648, -0.01773696802480816, -0.0007418768156200461)', '(-0.04140904834001205, -0.20290702244849063, -0.017751805561120562, 0.2862924692150264)', '(-0.045467188788981865, -0.0075364616657759564, -0.012025956176820035, -0.011935955056137815)', '(-0.045617918022297387, -0.20248389849806858, -0.012264675277942791, 0.2769285090498674)', '(-0.049667595992258756, -0.007189138537244177, -0.0067261050969454434, -0.01959732279149451)', '(-0.04981137876300364, 0.1880286232273066, -0.0071180515527753336, -0.3143948016411399)', '(-0.04605080629845751, -0.006991211587479312, -0.013405947585598132, -0.02396514962492763)', '(-0.0461906305302071, -0.20191836926808418, -0.013885250578096685, 0.26445808260605264)', '(-0.05022899791556878, -0.006601011451078775, -0.008596088925975631, -0.03257184415074538)', '(-0.050361018144590354, 0.18864314967564308, -0.009247525808990539, -0.3279544845823346)', '(-0.04658815515107749, -0.006345936314073958, -0.015806615500637233, -0.03820209546884218)', '(-0.046715073877358966, -0.20123769515280363, -0.016570657410014077, 0.24945207195720775)', '(-0.05073982778041504, -0.005883070541833069, -0.011581615970869923, -0.048411184873041635)', '(-0.0508574891912517, -0.2008370524490934, -0.012549839668330755, 0.24059525678898358)', '(-0.054874230240233565, -0.00553809634583477, -0.007737934532551084, -0.05601966421356913)', '(-0.05498499216715026, 0.1896939447357455, -0.008858327816822466, -0.35113388869873735)', '(-0.051191113272435355, -0.005300917706518193, -0.015881005590797213, -0.061257385209059156)', '(-0.05129713162656572, -0.20019161226056323, -0.017106153294978395, 0.22637297350847257)', '(-0.055300963871776986, -0.004829419344695551, -0.012578693824808944, -0.07165640547413682)', '(-0.0553975522586709, -0.19976879896621122, -0.01401182193429168, 0.21703149280110812)', '(-0.05939292823799512, -0.39468767036895064, -0.009671192078269518, 0.5052617580364862)', '(-0.06728668164537413, -0.1994307737055827, 0.0004340430824602056, 0.2095468238567988)', '(-0.07127529711948578, -0.004315031393996527, 0.0046249795595961814, -0.08299915337945624)', '(-0.07136159774736571, -0.19950297406217848, 0.0029649964920070567, 0.21113936840495284)', '(-0.07535165722860929, -0.004423541513388557, 0.007187783860106114, -0.08060678649040759)', '(-0.07544012805887705, -0.19964778896342794, 0.0055756481302979615, 0.2143352103921059)', '(-0.07943308383814561, -0.00460599280713489, 0.00986235233814008, -0.07658370422432509)', '(-0.07952520369428831, -0.19986792935007788, 0.008330678253653578, 0.2191944410291755)', '(-0.08352256228128987, -0.004866046438809168, 0.012714567074237088, -0.07084904244186135)', '(-0.08361988321006605, -0.20016795117995242, 0.01129758622539986, 0.22581811758188752)', '(-0.0876232422336651, -0.005209268726585392, 0.01581394857703761, -0.06327982387256526)', '(-0.08772742760819681, 0.18968242096554003, 0.014548352099586305, -0.3509316980450323)', '(-0.083933779188886, -0.005643372780020528, 0.007529718138685658, -0.05369694843751699)', '(-0.08404664664448641, -0.20087247601433436, 0.006455779169935318, 0.24135212103955722)', '(-0.08806409616477309, -0.005843335404621813, 0.011282821590726463, -0.04928750781953262)', '(-0.08818096287286553, -0.20112523939326277, 0.01029707143433581, 0.24693378268740634)', '(-0.09220346766073079, -0.006151852858830326, 0.015235747088083937, -0.042483507022869405)', '(-0.09232650471790739, 0.18874834597106596, 0.01438607694762655, -0.330320738230236)', '(-0.08855153779848607, 0.3836625881597133, 0.007779662183021829, -0.6184324868269258)', '(-0.0808782860352918, 0.18843283706309005, -0.004588987553516686, -0.3233095244657551)', '(-0.07710962929403001, -0.006623469706684759, -0.011055178042831789, -0.0320773026509385)', '(-0.0772420986881637, -0.20158515409644565, -0.011696724095850559, 0.2570971972575821)', '(-0.08127380177009261, -0.006298179179703739, -0.0065547801506989165, -0.03925198541796393)', '(-0.08139976535368668, -0.2013255246883603, -0.007339819859058195, 0.2513556567695974)', '(-0.08542627584745388, -0.006099535456401767, -0.002312706723666247, -0.043633326726114585)', '(-0.08554826655658192, -0.2011882471408557, -0.0031853732581885387, 0.2483190230398506)', '(-0.08957203149939903, -0.006020949841295503, 0.0017810072026084732, -0.04536693585115553)', '(-0.08969245049622494, 0.18907541747762882, 0.0008736684855853626, -0.3374874068566098)', '(-0.08591094214667237, -0.006058955439871755, -0.005876079651546832, -0.044529100687322076)', '(-0.0860321212554698, -0.20109615563657365, -0.006766661665293274, 0.24629409141737063)', '(-0.09005404436820127, -0.005878218037654093, -0.0018407798369458614, -0.04851549441780356)', '(-0.09017160872895436, -0.20097372569586583, -0.002811089725301933, 0.24358608229671008)', '(-0.09419108324287168, -0.00581173511827085, 0.002060631920632269, -0.04998220620066823)', '(-0.0943073179452371, 0.18928060811526384, 0.0010609877966189043, -0.342014274393864)', '(-0.09052170578293182, 0.38438744823868054, -0.005779297691258376, -0.6343624395022105)', '(-0.08283395681815821, 0.18934658647596192, -0.01846654648130259, -0.3435051367221106)', '(-0.07904702508863896, -0.005507851861988156, -0.0253366492157448, -0.056702169872112684)', '(-0.07915718212587873, 0.18996804917316648, -0.026470692613187054, -0.3572700906820927)', '(-0.0753578211424154, -0.004767764983053063, -0.033616094426828905, -0.07305017646625012)', '(-0.07545317644207647, -0.19939206366775655, -0.03507709795615391, 0.20884006642368974)', '(-0.0794410177154316, -0.393995349902455, -0.030900296627680113, 0.4902548817264509)', '(-0.08732092471348071, -0.19845142725610723, -0.021095198993151095, 0.1879957782149525)', '(-0.09128995325860285, -0.003034119215369002, -0.017335283428852044, -0.11126649317639287)', '(-0.09135063564291024, -0.19790343178513484, -0.019560613292379903, 0.17589723827715004)', '(-0.09530870427861293, -0.39274006310898935, -0.016042668526836903, 0.4623458225160587)', '(-0.10316350554079272, -0.19739509994459814, -0.006795752076515728, 0.16464974126689602)', '(-0.10711140753968468, -0.392419113857043, -0.0035027572511778077, 0.4551810714440589)', '(-0.11495978981682553, -0.19724781163189695, 0.00560086417770337, 0.16139610554116762)', '(-0.11890474604946347, -0.3924494953741776, 0.008828786288526722, 0.455840684064986)', '(-0.12675373595694703, -0.19745347764448934, 0.01794559996982644, 0.16595368642876057)', '(-0.13070280550983682, -0.002592946432307258, 0.021264673698401654, -0.12101432311148763)', '(-0.13075466443848296, -0.1980130036230136, 0.018844387236171902, 0.17830083337431524)', '(-0.13471492451094325, -0.003165722337782756, 0.022410403903658206, -0.10837827383699489)', '(-0.13477823895769891, -0.19860152643534265, 0.02024283842691831, 0.19128992791585903)', '(-0.13875026948640576, -0.0037749259913766875, 0.024068636985235488, -0.09493911080336581)', '(-0.13882576800623328, -0.19923342831860366, 0.022169854769168173, 0.2052392211479891)', '(-0.14281043657260536, -0.004435414565947149, 0.026274639192127955, -0.08036859125990975)', '(-0.1428991448639243, -0.19992397099068554, 0.02466726736692976, 0.22048688672766176)', '(-0.146897624283738, -0.005163140656927384, 0.029077005101482995, -0.06431404192395473)', '(-0.14700088709687656, -0.20068965374609418, 0.0277907242630039, 0.23739918721237863)', '(-0.15101468017179845, -0.005975529921786182, 0.03253870800725147, -0.046389797673091704)', '(-0.15113419077023418, 0.1886650925831695, 0.03161091205378964, -0.32863149354214216)', '(-0.1473608889185708, -0.006892279737414464, 0.025038282182946795, -0.026149920402291915)', '(-0.14749873451331907, -0.20236418501530926, 0.024515283774900958, 0.2743265198679704)', '(-0.15154601821362526, -0.007600441395467117, 0.030001814172260367, -0.010524538824933483)', '(-0.1516980270415346, 0.1870786832554299, 0.0297913233957617, -0.29359260117004543)', '(-0.147956453376426, -0.008455067134829325, 0.02391947137236079, 0.00833523207538106)', '(-0.1481255547191226, 0.18631582398174037, 0.02408617601386841, -0.2767058772364223)', '(-0.14439923823948778, -0.00914133016987434, 0.018552058469139966, 0.02347546421835711)', '(-0.14458206484288527, 0.18570972186980758, 0.019021567753507107, -0.2632968252528729)', '(-0.14086787040548912, -0.009678502027750863, 0.013755631248449649, 0.03532449434971907)', '(-0.14106144044604413, 0.18524351638001527, 0.01446212113544403, -0.25298684367044694)']</t>
-  </si>
-  <si>
-    <t>[8, 9, 12, 13, 20, 32, 33, 34, 44, 46, 48, 50, 51, 54, 57, 58, 61, 62, 67, 72, 74, 75, 76, 77, 78, 79, 82, 85]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, 0.3797437874814581, 0.012910514665105136, -0.532040829553236)', '(0.002933644048253645, 0.5746817915426519, 0.0022696980740404167, -0.8206278807133297)', '(0.014427279879106683, 0.37952885440577855, -0.014142859540226177, -0.5272319383489185)', '(0.022017856967222256, 0.18460872270872425, -0.02468749830720455, -0.23903884342107884)', '(0.02571003142139674, 0.38007449372059243, -0.029468275175626127, -0.5394055434604699)', '(0.03331152129580859, 0.5755980348448553, -0.04025638604483552, -0.8412259419871435)', '(0.044823481992705694, 0.38104806706346495, -0.05708090488457839, -0.5614696017963867)', '(0.052444443333974994, 0.18677168289159543, -0.06831029692050612, -0.28730231883180724)', '(0.056179876991806904, -0.007312975644267222, -0.07405634329714227, -0.016921921275344254)', '(0.05603361747892156, -0.20129904702415968, -0.07439478172264916, 0.251506966910389)', '(0.052007636538438366, -0.39528417416640105, -0.06936464238444137, 0.5198279128189874)', '(0.044101953055110346, -0.19925779424367535, -0.05896808412806162, 0.20611858292754587)', '(0.04011679717023684, -0.003344345077359867, -0.054845712469510706, -0.10456738226935147)', '(0.04004991026868964, -0.19763916801242024, -0.056937060114897735, 0.17032006855448045)', '(0.03609712690844124, -0.3919019019136054, -0.05353065874380813, 0.4445115193861243)', '(0.028259088870169133, -0.5862272192707089, -0.04464042835608564, 0.7198514627110549)', '(0.016534544484754957, -0.3905169875318225, -0.030243399101864542, 0.41345864289550327)', '(0.008724204734118507, -0.19497969197728296, -0.021974226243954474, 0.11139662348025059)', '(0.004824610894572847, -0.3897799865650794, -0.01974629377434946, 0.39706661867302634)', '(-0.002970988836728741, -0.19438352933588568, -0.011804961400888934, 0.09822403903709903)', '(-0.006858659423446455, -0.38933431918111205, -0.009840480620146953, 0.38715927016476676)', '(-0.014645345807068695, -0.19407407266273752, -0.002097295216851618, 0.09139002669058832)', '(-0.018526827260323446, -0.38916589998682416, -0.00026949468303985157, 0.3834105197301437)', '(-0.02631014526005993, -0.19404012350673341, 0.007398715711563022, 0.09064263420275886)', '(-0.030190947730194595, 0.000975001372813894, 0.0092115683956182, -0.1996968440881094)', '(-0.030171447702738316, 0.1959640004712388, 0.005217631513856012, -0.4894597709648153)', '(-0.02625216769331354, 0.39101195554928553, -0.004571563905440295, -0.7804937444438176)', '(-0.01843192858232783, 0.19595314768762467, -0.020181438794316647, -0.4892526251819192)', '(-0.014512865628575334, 0.0011216421330542958, -0.02996649129795503, -0.20299781984002585)', '(-0.014490432785914248, -0.1935592195529532, -0.034026447694755546, 0.08008353638344906)', '(-0.01836161717697331, -0.38817729005434964, -0.032424776967086566, 0.361839816623658)', '(-0.026125162978060303, -0.5828237206790642, -0.025187980634613406, 0.6441247784138153)', '(-0.03778163739164159, -0.38735995607305285, -0.012305485066337099, 0.3436176499797151)', '(-0.04552883651310265, -0.5823047040623249, -0.005433132066742796, 0.6323949113114278)', '(-0.057174930594349145, -0.3871073767479441, 0.00721476615948576, 0.3380059088715329)', '(-0.06491707812930803, -0.192088830844454, 0.013974884336916418, 0.047606826285746695)', '(-0.06875885474619711, 0.002829971856557395, 0.014927020862631353, -0.24063434561732555)', '(-0.06870225530906597, -0.1925019952748942, 0.010114333950284842, 0.056719344539804206)', '(-0.07255229521456386, 0.0024734838218039568, 0.011248720841080926, -0.23275535129386737)', '(-0.07250282553812777, -0.19280737443956708, 0.006593613815203578, 0.06345445826737478)', '(-0.07635897302691912, 0.0022194229497608797, 0.007862702980551074, -0.22714087022319462)', '(-0.0763145845679239, -0.193014007393924, 0.0033198855760871813, 0.06801183389175214)', '(-0.08017486471580237, 0.0020601898205691582, 0.004680122253922224, -0.22362180483682054)', '(-0.08013366091939099, 0.1971149379349188, 0.00020768615718581244, -0.5148247718018484)', '(-0.07619136216069261, 0.0019900625113987436, -0.010088809278851155, -0.22207640524911454)', '(-0.07615156091046464, -0.1929862435928724, -0.014530337383833445, 0.06740711031054403)', '(-0.08001128578232208, 0.002340982871982228, -0.013182195177622565, -0.22982456911993682)', '(-0.07996446612488244, -0.19259013916501586, -0.017778686560021302, 0.05867125623801683)', '(-0.08381626890818275, -0.38745272513714757, -0.016605261435260966, 0.34569228354385584)', '(-0.0915653234109257, -0.19209855088178632, -0.00969141576438385, 0.047819698165715296)', '(-0.09540729442856143, 0.003161017228479196, -0.008735021801069543, -0.24790513113760487)', '(-0.09534407408399184, -0.1918351024654068, -0.013693124423821642, 0.04200982598086633)', '(-0.09918077613329998, -0.3867580482602949, -0.012852927904204316, 0.3303411810449922)', '(-0.10691593709850587, -0.19145551649484052, -0.006246104283304472, 0.03363292395441703)', '(-0.11074504742840269, 0.003755446522269751, -0.005573445804216131, -0.2610141513647567)', '(-0.1106699384979573, -0.19128650211917975, -0.010793728831511265, 0.029905643041429064)', '(-0.11449566854034089, -0.38625201494914946, -0.010195615970682683, 0.31916358201168443)', '(-0.12222070883932389, -0.5812272865218607, -0.003812344330448995, 0.6086138294937917)', '(-0.1338452545697611, -0.3860522464833086, 0.00835993225942684, 0.3147325704162781)', '(-0.14156629949942726, -0.1910503726165964, 0.014654583667752403, 0.02469777229874842)', '(-0.1453873069517592, -0.38637938403869143, 0.01514853911372737, 0.32196812220511195)', '(-0.15311489463253303, -0.19147639219686974, 0.02158790155782961, 0.034100678461810696)', '(-0.15694442247647042, -0.38690116183653767, 0.02226991512706582, 0.3335158792133529)', '(-0.16468244571320118, -0.1921031395231022, 0.028940232711332878, 0.04793811404770526)', '(-0.1685245085036632, 0.0025921347693299845, 0.029898994992286983, -0.23547526676489922)', '(-0.1684726658082766, -0.19294395271602122, 0.025189489656989, 0.0664867695338846)', '(-0.17233154486259702, 0.0018079658254215314, 0.026519225047666694, -0.21814350727459303)', '(-0.1722953855460886, 0.19654098350869428, 0.022156354902174834, -0.5023445891660737)', '(-0.1683645658759147, 0.3913437423651194, 0.01210946311885336, -0.7879635728866963)', '(-0.16053769102861232, 0.5862972864940632, -0.003649808338880565, -1.0768123533360967)', '(-0.14881174529873106, 0.781467261793583, -0.025186055405602502, -1.370638407647618)', '(-0.13318240006285942, 0.9768950394745974, -0.05259882355855486, -1.6710910211921868)', '(-0.11364449927336748, 0.7824221380037755, -0.08602064398239859, -1.395242027336621)', '(-0.09799605651329196, 0.5884693545087136, -0.11392548452913101, -1.1306474528717536)', '(-0.08622666942311769, 0.7848835585660088, -0.1365384335865661, -1.4567805647315801)', '(-0.07052899825179751, 0.5916756254798852, -0.1656740448811977, -1.2096836039368062)', '(-0.05869548574219981, 0.3990343703847471, -0.18986771695993382, -0.9731640076743925)', '(-0.05071479833450487, 0.5961262857328651, -0.20933099711342168, -1.318975357674221)', '(-0.038792272619847565, 0.40417333301637276, -0.2357105042669061, -1.0984262141195635)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86]</t>
-  </si>
-  <si>
-    <t>['[0,0]', '[1,1]', '[1,0]']</t>
-  </si>
-  <si>
-    <t>[4, 6, 7, 8, 9, 11, 12, 14, 15]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, 0.38040738179611044, 0.005265175450724404, -0.5466236997317906)', '(0.007253620959484813, 0.575454963293308, -0.005667298543911408, -0.8376430622141495)', '(0.018762720225350974, 0.7706538519620605, -0.0224201597881944, -1.1321028699942544)', '(0.03417579726459218, 0.9660620156328168, -0.045062217188079484, -1.4317324249346146)', '(0.05349703757724852, 0.7715242453671645, -0.07369686568677178, -1.1534657998386106)', '(0.0689275224845918, 0.9675259688375545, -0.09676618168354399, -1.4683176196749392)', '(0.08827804186134289, 1.1636898416334045, -0.12613253407704278, -1.789591769489724)', '(0.11155183869401097, 0.9701886937246154, -0.16192436946683725, -1.5386305710563857)', '(0.13095561256850327, 1.1668461411050255, -0.19269698088796497, -1.8771559931835218)', '(0.15429253539060378, 1.3634777231023332, -0.2302401007516354, -2.2229472338701384)']</t>
-  </si>
-  <si>
-    <t>[6, 8, 9, 10, 11, 12, 13, 15, 16]</t>
+    <t>[2, 3, 5, 6, 8, 9, 12, 14]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.5761698848745367, -0.013061057913666957, -0.8534235321243873)', '(0.02307224758776747, 0.7714674113554434, -0.0301295285561547, -1.1501846770170077)', '(0.03850159581487634, 0.5767513489850298, -0.053133222096494855, -0.8670998854287831)', '(0.050036622794576935, 0.7725545096021644, -0.07047521980507052, -1.1760039573961951)', '(0.06548771298662022, 0.9685177256345916, -0.09399529895299441, -1.4899216745825932)', '(0.08485806749931205, 0.7746575668650204, -0.12379373244464628, -1.228009017050252)', '(0.10035121883661245, 0.5813269353202777, -0.14835391278565133, -0.9765347805709144)', '(0.111977757543018, 0.7780933453527331, -0.16788460839706962, -1.3118986277377345)', '(0.12753962445007266, 0.5854471277042254, -0.1941225809518243, -1.0761186202860635)', '(0.13924856700415716, 0.7825290938758378, -0.21564495335754558, -1.4229032413972393)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>[0, 2, 6, 7, 8, 10, 13, 14]</t>
+  </si>
+  <si>
+    <t>[6, 7, 9, 10, 11, 12, 14, 15, 16]</t>
   </si>
   <si>
     <t>[1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, 0.38023603625130564, 0.01696602298203639, -0.5429484893896719)', '(-0.0005542468138891605, 0.1848798075461529, 0.006107053194242953, -0.2449685482289371)', '(0.003143349337033898, 0.3799140021659907, 0.0012076822296642102, -0.5357189221862833)', '(0.010741629380353711, 0.5750189507951597, -0.009506696214061455, -0.828021073220956)', '(0.022242008396256906, 0.7702695836882658, -0.026067117678480575, -1.1236787145823401)', '(0.03764740007002222, 0.9657233832711511, -0.04854069197012738, -1.42442267695832)', '(0.056961867735445246, 1.1614106269173992, -0.07702914550929378, -1.7318731616837013)', '(0.08019008027379323, 1.3573228533424098, -0.1116666087429678, -2.0474942798959144)', '(0.10733653734064143, 1.1635094200830391, -0.1526164943408861, -1.7913466017836326)', '(0.1306067257423022, 1.3599781038618444, -0.18844342637655875, -2.127319473944324)', '(0.1578062878195391, 1.5564076175535109, -0.23098981585544523, -2.4718227131406065)']</t>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, 0.38023603625130564, 0.01696602298203639, -0.5429484893896719)', '(-0.0005542468138891605, 0.5751154916696841, 0.006107053194242953, -0.8302378306182653)', '(0.010948063019504522, 0.37991059811469263, -0.010497703418122353, -0.5356404880761081)', '(0.018546274981798373, 0.5751785778202176, -0.021210513179644515, -0.831612586742662)', '(0.030049846538202727, 0.7705838862236679, -0.037842764914497756, -1.1308900425664956)', '(0.045461524262676085, 0.966180348214207, -0.06046056576582767, -1.4351977966258085)', '(0.06478513122696022, 1.1619935449409295, -0.08916452169834385, -1.7461454905181089)', '(0.08802500212577882, 0.9679912521757492, -0.12408743150870602, -1.4824777170131216)', '(0.1073848271692938, 1.1643890687431586, -0.15373698584896844, -1.811197450566611)', '(0.13067260854415697, 1.3608540715102306, -0.18996093486030066, -2.147440050440477)', '(0.1578896899743616, 1.5572733528716092, -0.2329097358691102, -2.4922823097797884)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
   </si>
   <si>
+    <t>[0, 1, 7, 8, 11, 13, 14, 15, 16]</t>
+  </si>
+  <si>
     <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
@@ -202,37 +232,64 @@
     <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
   </si>
   <si>
+    <t>[0, 1, 2, 6, 7, 10]</t>
+  </si>
+  <si>
     <t>[1,0]</t>
   </si>
   <si>
-    <t>[3, 8, 12, 14, 21, 23, 36, 39, 42, 56, 65, 76, 85, 89, 98, 99, 107, 117, 122, 123, 126, 127, 130, 135, 139, 143, 146, 147, 153, 154, 155, 167, 170, 175, 182, 185, 190, 191]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, 0.18437040116260206, 0.02973729382904814, -0.2338432242158895)', '(-0.01248610864317289, -0.011163540404074773, 0.02506042934473035, 0.06806948961303566)', '(-0.012709379451254384, 0.1835903236523686, 0.026421819136991063, -0.2166025834722322)', '(-0.009037572978207013, 0.3783247879040249, 0.022089767467546418, -0.5008352148214954)', '(-0.0014710772201265146, 0.1828985218720756, 0.01207306317111651, -0.20127346921397377)', '(0.0021868932173149972, 0.37784574260754844, 0.008047593786837035, -0.4901235947684808)', '(0.009743808069465967, 0.1826111932895975, -0.0017548781085325801, -0.1949152867988579)', '(0.013396031935257917, 0.37775820295884177, -0.005653183844509738, -0.48815128447130224)', '(0.020951195994434752, 0.18271646678366504, -0.015416209533935785, -0.19725538232287115)', '(0.02460552533010805, -0.01218162469030315, -0.019361317180393207, 0.09052482995799233)', '(0.02436189283630199, 0.1832124132240611, -0.017550820581233362, -0.20820316611018064)', '(0.028026141100783213, -0.011654235813811198, -0.021714883903436975, 0.07889211348028552)', '(0.02779305638450699, 0.18377216721530268, -0.020137041633831267, -0.22056205496513664)', '(0.03146849972881304, -0.011056243157793716, -0.024548282733134, 0.06570142020620545)', '(0.03124737486565717, 0.18440890445588182, -0.02323425432900989, -0.23462443278780915)', '(0.0349355529547748, -0.010373508685761618, -0.027926742984766075, 0.05064007214198768)', '(0.03472808278105957, 0.18513752068338782, -0.02691394154192632, -0.25072151487089017)', '(0.03843083319472733, -0.009589963528705725, -0.031928371839344126, 0.03335218462230993)', '(0.03823903392415322, -0.20423984659982053, -0.03126132814689793, 0.31579285271993685)', '(0.034154236992156806, -0.008686874202092576, -0.024945471092499193, 0.013417380024242587)', '(0.03398049950811496, -0.20344235778682082, -0.02467712349201434, 0.29812650839127275)', '(0.02991165235237854, -0.007977491510221646, -0.018714593324188886, -0.002235860764857378)', '(0.02975210252217411, -0.20282611802115869, -0.018759310539486033, 0.28448412897096464)', '(0.025695580161750935, -0.007441705534696891, -0.013069627960066742, -0.014055836545616818)', '(0.025546746051056998, -0.20237380677256223, -0.013350744690979077, 0.27447498141677307)', '(0.021499269915605752, -0.007063937429924644, -0.007861245062643615, -0.02238871594890607)', '(0.02135799116700726, -0.20207227359192298, -0.008309019381621737, 0.26780356758168844)', '(0.0173165456951688, -0.006832731998405006, -0.002952948029987968, -0.02748845898141583)', '(0.0171798910552007, -0.20191221157637257, -0.003502717209616285, 0.26426131912189904)', '(0.01314164682367325, -0.39698399263659967, 0.001782509172821696, 0.5558373989543823)', '(0.005201966970941255, -0.20188711322757016, 0.012899257151909344, 0.2637166021766921)', '(0.0011642247063898513, -0.006951633715539862, 0.018173589195443186, -0.024870014386800088)', '(0.0010251920320790541, -0.20232943131635095, 0.017676188907707186, 0.27349102752091287)', '(-0.003021396594247965, -0.007464094446792913, 0.023146009458125442, -0.013564786137530593)', '(-0.0031706784831838234, 0.18731839765155847, 0.022874713735374832, -0.29885594434038576)', '(0.0005756894698473462, 0.38210694295088743, 0.016897594848567118, -0.5842377435632169)', '(0.008217828328865095, 0.18675240942096039, 0.005212839977302779, -0.286280120292953)', '(0.011952876517284303, -0.008443495286625163, -0.0005127624285562815, 0.008042326643505793)', '(0.0117840066115518, 0.18668580590886905, -0.0003519158956861657, -0.28480233881880207)', '(0.015517722729729181, -0.008431124402522971, -0.006047962672062207, 0.007769575253927463)', '(0.015349100241678721, -0.20346581946790535, -0.005892571166983657, 0.298538177219828)', '(0.011279783852320615, -0.00826037041984895, 7.819237741290338e-05, 0.0040026812360533515)', '(0.011114576443923637, 0.18686045932047893, 0.00015824600213397043, -0.2886555739207689)', '(0.014851785630333215, -0.008263748156929124, -0.0056148654762814085, 0.0040772579550807375)', '(0.014686510667194633, -0.20330472584996867, -0.005533320317179794, 0.29498335097972267)', '(0.01062041615019526, -0.008104327382169263, 0.00036634670241465946, 0.0005604478254931933)', '(0.010458329602551874, 0.18701236797400345, 0.0003775556589245233, -0.29200686964072026)', '(0.014198576962031943, -0.008114964502200755, -0.005462581733889882, 0.000795109573374364)', '(0.014036277671987929, -0.2031581500144042, -0.005446679542422395, 0.2917495317727549)', '(0.009973114671699843, -0.39820201834420244, 0.00038831109303270363, 0.5827096787351884)', '(0.0020090743048157937, -0.20308550959083632, 0.012042504667736473, 0.2901491011291776)', '(-0.0020526358870009325, -0.008137328314493486, 0.017845486690320024, 0.0012884435758863666)', '(-0.002215382453290802, 0.18672420668005357, 0.017871255561837752, -0.2857110236242829)', '(0.0015191016803102692, -0.00864800149683298, 0.012157035089352095, 0.012554360604295323)', '(0.0013461416503736095, 0.1862975110281672, 0.012408122301438002, -0.2762682194122081)', '(0.0050720918709369536, -0.008999248644042196, 0.00688275791319384, 0.02030226359809073)', '(0.00489210689805611, 0.18602332364953417, 0.007288803185155655, -0.27020115101056724)', '(0.008612573371046792, -0.009201877921325124, 0.00188478016494431, 0.024771761796399894)', '(0.00842853581262029, -0.204350807728954, 0.0023802154008723078, 0.31804876161366424)', '(0.0043415196580412095, -0.009262838126819523, 0.008741190633145593, 0.026117418819413096)', '(0.004156262895504819, 0.1857326736649947, 0.009263539009533854, -0.26379479714701637)', '(0.007870916368804713, -0.009520267803047683, 0.003987643066593527, 0.03179549020894401)', '(0.007680511012743759, 0.18554427236029364, 0.004623552870772407, -0.2596266297501722)', '(0.011391396459949632, -0.009643377067776182, -0.000568979724231037, 0.03451103466832989)', '(0.011198528918594108, 0.1854867288684716, 0.00012124096913556075, -0.25835135688767924)', '(0.014908263495963539, -0.00963695301917164, -0.005045786168618024, 0.034369808637477406)', '(0.014715524435580106, 0.18555699148637309, -0.004358389995868476, -0.25990083574528927)', '(0.018426664265307566, -0.009502470939835722, -0.009556406710774262, 0.031404216348064784)', '(0.018236614846510853, 0.1857552108653423, -0.008928322383812966, -0.26427847335293575)', '(0.0219517190638177, 0.3810034533108285, -0.014213891850871681, -0.5597640558538398)', '(0.02957178813003427, 0.18608385900648883, -0.02540917296794848, -0.271592942786832)', '(0.03329346531016405, -0.008666474446623829, -0.030841031823685118, 0.012968767504803969)', '(0.03312013582123157, -0.20333286156721642, -0.030581656473589038, 0.2957636626750774)', '(0.029053478589887244, -0.007788584874603516, -0.02466638322008749, -0.006405208380717842)', '(0.028897706892395174, -0.20254825971388699, -0.024794487387701847, 0.27839425378722416)', '(0.024846741698117434, -0.007081530436338385, -0.019226602311957365, -0.02200455234963694)', '(0.024705111089390667, -0.20192255157278546, -0.019666693358950105, 0.2645506891672978)', '(0.02066666005793496, -0.006525495865631059, -0.01437567957560415, -0.03426984976561337)', '(0.020536150140622336, 0.18879962536191353, -0.015061076570916418, -0.33145356191081976)', '(0.024312142647860607, -0.006104740124652647, -0.021690147809132813, -0.0435579606635873)', '(0.024190047845367553, -0.20090905567452375, -0.02256130702240456, 0.24220337580828422)', '(0.020171866731877076, -0.005472220970033664, -0.017717239506238876, -0.05750973112182778)', '(0.020062422312476402, 0.1898992241695892, -0.018867434128675434, -0.3557295005355621)', '(0.023860406795868188, -0.004949459140044882, -0.025982024139386675, -0.06905519224852841)', '(0.02376141761306729, -0.19968946162023363, -0.027363127984357243, 0.2153183646268768)', '(0.01976762838066262, -0.3944097536426864, -0.023056760691819708, 0.49924570745817115)', '(0.011879433307808891, -0.19897045902948426, -0.013071846542656284, 0.19938659876492382)', '(0.007900024127219206, -0.003664008498937138, -0.009084114567357807, -0.09739106134946934)', '(0.007826743957240463, -0.1986545941026114, -0.011031935794347194, 0.19241205605432826)', '(0.003853652075188235, -0.003376578982900169, -0.007183694673260629, -0.1037304656120992)', '(0.0037861204955302315, -0.1983948480848981, -0.009258303985502613, 0.1866774019975972)', '(-0.00018177646616773053, -0.3933831211124801, -0.005524755945550668, 0.4764253739030597)', '(-0.008049438888417334, -0.588426628679608, 0.004003751532510527, 0.7673619003058174)', '(-0.019817971462009497, -0.393360025222638, 0.019350989538626875, 0.47594144011505113)', '(-0.02768517196646226, -0.1985165879841467, 0.028869818340927896, 0.18941983933907997)', '(-0.031655503726145194, -0.0038193021326524412, 0.03265821512770949, -0.09401784505277444)', '(-0.03173188976879824, -0.19939374802595866, 0.030777858226654003, 0.2087872024998611)', '(-0.03571976472931741, -0.004725097686706176, 0.03495360227665122, -0.07403021835543055)', '(-0.035814266683051536, 0.18987877292380284, 0.03347299790954261, -0.35548345717086705)', '(-0.032016691224575476, -0.0057027171050227365, 0.026363328766125273, -0.05243633624318067)', '(-0.03213074556667593, -0.20119257173446384, 0.02531460204126166, 0.24844646968842277)', '(-0.03615459700136521, -0.0064411195182877135, 0.030283531435030115, -0.03614541370806246)', '(-0.036283419391730964, 0.18823376609219472, 0.029560623160868865, -0.3191218537938579)', '(-0.03251874406988707, -0.007296445903634069, 0.023178186084991708, -0.017265114110637136)', '(-0.032664672987959754, 0.18748556659755317, 0.022832883802778967, -0.3025458779888683)', '(-0.02891496165600869, -0.007954234835948176, 0.0167819662430016, -0.002750305972185507)', '(-0.029074046352727655, 0.1869230682022887, 0.01672696012355789, -0.29009143189655245)', '(-0.02533558498868188, -0.008433355065737003, 0.010925131485626838, 0.007819706662744563)', '(-0.02550425208999662, 0.1865302242431416, 0.011081525618881729, -0.28139628479338014)', '(-0.021773647605133787, -0.0087480286238526, 0.005453599923014126, 0.014761011385797995)', '(-0.02194860817761084, -0.20394776494259423, 0.005748820150730086, 0.3091596121176703)', '(-0.026027563476462727, -0.008908193977155643, 0.011932012393083492, 0.01829523385820514)', '(-0.02620572735600584, 0.18604062407224464, 0.012297917070247594, -0.2705992484853677)', '(-0.022484914874560946, -0.009254639898914202, 0.00688593210054024, 0.025936992072940035)', '(-0.02267000767253923, 0.18576788800460342, 0.007404671941999041, -0.26456541637078473)', '(-0.018954649912447163, 0.3807833725507369, 0.002113363614583346, -0.5549036701668675)', '(-0.011338982461432424, 0.5758755862475585, -0.008984709788754004, -0.8469200087660537)', '(0.00017852926351874694, 0.38087734652020544, -0.025923109964075076, -0.5570759241605305)', '(0.007796076193922856, 0.18612873027708937, -0.03706462844728569, -0.2726716894685979)', '(0.011518650799464644, 0.38175941190459417, -0.04251806223665765, -0.576810674774912)', '(0.019153839037556526, 0.5774507328471911, -0.05405427573215589, -0.8825789145154737)', '(0.03070285369450035, 0.38310294162729086, -0.07170585402246536, -0.6073672366331156)', '(0.038364912527046165, 0.1890529324587105, -0.08385319875512767, -0.3381036766053159)', '(0.042145971176220376, 0.38526178011124623, -0.09061527228723398, -0.656006803195255)', '(0.0498512067784453, 0.1915103799664291, -0.10373540835113908, -0.3931765212410266)', '(0.053681414377773885, -0.00199829913628341, -0.11159893877595961, -0.13491740857637113)', '(0.05364144839504822, -0.1953595134295897, -0.11429728694748703, 0.1205781234957427)', '(0.049734258126456425, -0.38867414606301465, -0.11188572447757218, 0.37512777059345115)', '(0.04196077520519613, -0.1921555339002526, -0.10438316906570316, 0.04936718959891234)', '(0.03811766452719108, -0.3856378801687589, -0.10339582527372491, 0.3073780764737635)', '(0.0304049069238159, -0.5791462110629424, -0.09724826374424965, 0.5657461621568602)', '(0.018821982702557055, -0.7727790050878343, -0.08593334050111244, 0.8262770679932658)', '(0.0033664026008003705, -0.5765936150414722, -0.06940779914124712, 0.5078515491870143)', '(-0.008165469700029074, -0.7706724990044158, -0.059250768157506836, 0.7778794208275401)', '(-0.02357891968011739, -0.9649318099881987, -0.04369317974095603, 1.0513475188805441)', '(-0.04287755587988136, -0.7692584505556024, -0.02266622936334515, 0.7452758963538252)', '(-0.058262724890993406, -0.964060405978977, -0.0077607114362686445, 1.0307404710672914)', '(-0.07754393301057294, -0.7688360635987856, 0.012854097985077183, 0.7356311497666197)', '(-0.09292065428254866, -0.5738940091487463, 0.027566720980409576, 0.4470212258887348)', '(-0.10439853446552358, -0.7693948657486784, 0.03650714549818427, 0.7482646830094959)', '(-0.11978643178049715, -0.9650009134052185, 0.051472439158374184, 1.0522089693661434)', '(-0.1390864500486015, -0.77059792980619, 0.07251661854569705, 0.7761169146699827)', '(-0.1544984086447253, -0.576544289835025, 0.0880389568390967, 0.5071026710544962)', '(-0.1660292944414258, -0.3827659882153849, 0.09818101026018662, 0.24341098206094403)', '(-0.1736846142057335, -0.1891735074108533, 0.1030492299014055, -0.01676039553712444)', '(-0.17746808435395056, 0.004331211824363884, 0.10271402199066301, -0.27523481526063315)', '(-0.17738146011746328, 0.197849146271484, 0.09720932568545035, -0.5338369757179802)', '(-0.1734244771920336, 0.39147926221216706, 0.08653258617109075, -0.794376374994815)', '(-0.16559489194779026, 0.58531366599006, 0.07064505867119444, -1.0586312590967006)', '(-0.15388861862798905, 0.38933055461229626, 0.049472433489260434, -0.7446374846225234)', '(-0.14610200753574312, 0.1935620361535675, 0.034579683796809965, -0.4368050314002809)', '(-0.14223076681267177, -0.0020319010210055055, 0.02584358316880435, -0.13342511884700464)', '(-0.1422714048330919, -0.19751432212248654, 0.023175080791864255, 0.1672977652794831)', '(-0.14622169127554163, -0.002731637090614858, 0.026521036097453918, -0.11798494086075278)', '(-0.14627632401735394, -0.1982233415459247, 0.02416133728023886, 0.1829457658974053)', '(-0.15024079084827244, -0.0034552934408518254, 0.02782025259818697, -0.1020182935171613)', '(-0.15030989671708947, -0.198964670342853, 0.025779886727843742, 0.19931039012038704)', '(-0.15428919012394654, -0.0042207458209855275, 0.02976609453025148, -0.08512998436503344)', '(-0.15437360504036626, -0.1997564508751588, 0.02806349484295081, 0.2167935858986934)', '(-0.15836873405786944, -0.005046690791882941, 0.03239936656092468, -0.06690646805343098)', '(-0.1584696678737071, 0.1895961276407747, 0.03106123719985606, -0.34919372155996686)', '(-0.1546777453208916, -0.005953505771966627, 0.024077362768656723, -0.04688022446560747)', '(-0.15479681543633092, -0.20141228708568484, 0.023139758279344575, 0.2533010289013855)', '(-0.15882506117804462, -0.39685687352759824, 0.028205778857372285, 0.5531919060292991)', '(-0.1667621986485966, -0.202142131774592, 0.03926961697795827, 0.26952736650246173)', '(-0.17080504128408844, -0.007601943079565576, 0.044660164308007504, -0.010515644434526183)', '(-0.17095708014567976, 0.18685201216930145, 0.04444985141931698, -0.28878001841141593)', '(-0.16722003990229373, -0.00887468280910153, 0.03867425105108866, 0.01758398916516629)', '(-0.16739753355847575, -0.20452931281015105, 0.039025930834391986, 0.32221387700403115)', '(-0.17148811981467876, -0.009984199772720304, 0.04547020837447261, 0.042089113251333854)', '(-0.17168780381013318, 0.18445722365196224, 0.04631199063949929, -0.2359079271111647)', '(-0.16799865933709393, 0.3788879645603477, 0.041593832097276, -0.5136304744103171)', '(-0.16042090004588697, 0.18320564399536618, 0.03132122260906965, -0.20813580071188764)', '(-0.15675678716597966, -0.012349849380871386, 0.027158506594831898, 0.09426050228783028)', '(-0.1570037841535971, 0.18237252948963809, 0.029043716640588503, -0.18973173506309465)', '(-0.15335633356380432, 0.3770671917695123, 0.02524908193932661, -0.47311291068885863)', '(-0.14581498972841409, 0.1815979150837622, 0.01578682372554944, -0.1725800104318443)', '(-0.14218303142673885, -0.013746383989089256, 0.012335223516912552, 0.12504105898843082)', '(-0.14245795910652065, -0.20904286004351907, 0.014836044696681169, 0.42158995019654905)', '(-0.14663881630739103, -0.01413421454238925, 0.023267843700612148, 0.1336207942326249)', '(-0.14692150059823883, 0.1806468527596506, 0.025940259585264646, -0.15163159171461593)', '(-0.14330856354304583, 0.37538794517668284, 0.022907627750972326, -0.4360193742728741)', '(-0.13580080463951216, 0.17994933136543473, 0.014187240265514843, -0.13620411533547222)', '(-0.13220181801220346, -0.015372925129415904, 0.011463157958805398, 0.16092069309403628)', '(-0.13250927651479177, -0.21065709325001788, 0.014681571820686124, 0.45719779427791707)', '(-0.13672241837979213, -0.015745746963163665, 0.023825527706244465, 0.169178510977337)', '(-0.1370373333190554, 0.1790272173232419, 0.027209097925791206, -0.11589397392277806)', '(-0.13345678897259056, 0.3737489536856916, 0.024891218447335644, -0.3998699778695286)', '(-0.12598180989887672, 0.1782829154729174, 0.016893818889945074, -0.09944448236202563)', '(-0.12241615158941838, 0.3731587244804927, 0.014904929242704562, -0.38674993703254446)', '(-0.11495297709980852, 0.17782839631114952, 0.007169930502053673, -0.08940510271472302)', '(-0.11139640917358554, 0.37284684611178787, 0.0053818284477592125, -0.37981731682398373)', '(-0.10393947225134978, 0.17764888421935207, -0.0022145178887204627, -0.08544236434621161)']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 7, 8, 9, 13, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.20594543118619407, 0.08090955078371513, 0.3542842256480458)', '(-0.055020315699918304, -0.012061555028628462, 0.08799523529667605, 0.0881712797458939)', '(-0.05526154680049088, -0.20832740357897422, 0.08975866089159393, 0.40726822462989637)', '(-0.05942809487207036, -0.4045998231537497, 0.09790402538419185, 0.7268453073713885)', '(-0.06752009133514536, -0.6009292678323183, 0.11244093153161962, 1.048667031375257)', '(-0.07953867669179172, -0.4074641656328126, 0.13341427215912477, 0.7932899453784741)', '(-0.08768796000444798, -0.2144012338711579, 0.14928007106669425, 0.5453765655063976)', '(-0.09197598468187114, -0.02165731133900267, 0.1601876023768222, 0.303201628212336)', '(-0.09240913090865119, -0.21865645703290204, 0.16625163494106893, 0.6418111907574019)', '(-0.09678226004930923, -0.026194265442409687, 0.17908785875621697, 0.405751537049253)', '(-0.09730614535815743, -0.2233436839354465, 0.18720288949720204, 0.7491168615480506)', '(-0.10177301903686636, -0.4204865696545795, 0.20218522672816305, 1.0943814095246123)', '(-0.11018275042995795, -0.617613492432307, 0.2240728549186553, 1.4430869039180831)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.3596653078811176, -0.17660946604285582, -2.1162168082390203)', '(0.1473301873171113, 1.166692082795916, -0.21893380220763622, -1.8829131879161638)']</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[1,1]', '[0,0]']</t>
+    <t>[3, 7, 13, 14, 18, 24, 36, 38, 39, 40, 41]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, -0.20584991601057387, 0.02973729382904814, 0.3512454526255887)', '(-0.020290514986636407, -0.011163204504964663, 0.036762202881559916, 0.06808597381183934)', '(-0.0205137790767357, 0.18341293159795002, 0.0381239223577967, -0.21277537785557532)', '(-0.0168455204447767, 0.37796966224727624, 0.03386841480068519, -0.49319269981758523)', '(-0.009286127199831176, 0.18238680477198674, 0.024004560804333486, -0.1900312474337154)', '(-0.005638391104391441, 0.37715726291252727, 0.020203935855659178, -0.4750461027324113)', '(0.001904754153859104, 0.571988168399905, 0.010703013801010951, -0.761293262617648)', '(0.013344517521857203, 0.7669610519604088, -0.0045228514513420085, -1.0505892108717771)', '(0.02868373856106538, 0.5718993858621881, -0.025534635668777554, -0.7593294181757325)', '(0.04012172627830914, 0.3771384071445405, -0.040721224032292204, -0.47478955272729545)', '(0.04766449442119995, 0.18261444840098062, -0.05021701508683811, -0.1952142349747839)', '(0.051316783389219564, 0.3784174098759035, -0.05412129978633379, -0.5033060287372781)', '(0.05888513158673764, 0.1840983604580562, -0.06418742036107936, -0.22815813299204263)', '(0.06256709879589877, -0.01005038442727213, -0.06875058302092021, 0.0436071210099212)', '(0.06236609110735332, -0.20412256856528918, -0.06787844060072179, 0.3138309336038347)', '(0.058283639736047534, -0.3982152137371337, -0.06160182192864509, 0.5843585095886203)', '(0.05031933546130486, -0.20228687909300985, -0.049914651736872685, 0.2729239773508928)', '(0.04627359787944466, -0.006489557747981267, -0.04445617218985483, -0.03507502757936126)', '(0.04614380672448504, -0.20094673330744312, -0.045157672741442056, 0.24325673660758035)', '(0.04212487205833618, -0.3953955494198991, -0.040292538009290446, 0.5213607750225887)', '(0.0342169610699382, -0.1997302825085037, -0.029865322508838672, 0.2162582865498333)', '(0.030222355419768122, -0.39441283646909986, -0.025540156777842007, 0.49937279405549645)', '(0.022334098690386127, -0.1989403020286509, -0.015552700896732078, 0.1987516274024485)', '(0.01835529264981311, -0.00359939470453835, -0.01157766834868311, -0.09879660627943049)', '(0.018283304755722343, -0.19855351828161824, -0.01355360047427172, 0.19021122176351546)', '(0.014312234390089978, -0.39347897331412396, -0.00974937603900141, 0.47858791231580183)', '(0.006442654923807498, -0.19822074715353738, -0.00017761779268537364, 0.18284822133596118)', '(0.0024782399807367506, -0.0030962548789687516, 0.00347934663403385, -0.10989073208981437)', '(0.0024163148831573755, -0.19826789074541717, 0.0012815319922375628, 0.18388787551880054)', '(-0.0015490429317509677, -0.3934081552612522, 0.0049592895026135736, 0.47697480223248295)', '(-0.009417206036976013, -0.19835657661690986, 0.014498785547263231, 0.18585905730046676)', '(-0.01338433756931421, -0.3936829396767656, 0.018215966693272568, 0.48308030067041574)', '(-0.021257996362849522, -0.5890571865562438, 0.027877572706680884, 0.7814482483455406)', '(-0.0330391400939744, -0.7845510155285547, 0.043506537673591694, 1.082769996650058)', '(-0.04873016040454549, -0.9802192974577373, 0.06516193760659285, 1.3887815772089378)', '(-0.06833454635370023, -0.7859669606243957, 0.0929375691507716, 1.1171655161317555)', '(-0.08405388556618815, -0.5921793311820645, 0.1152808794734067, 0.8550228615364217)', '(-0.09589747218982944, -0.39880123969657943, 0.13238133670413516, 0.6006985987120315)', '(-0.10387349698376103, -0.20575536065882177, 0.14439530867837577, 0.35246993185300546)', '(-0.10798860419693747, -0.012950250710435124, 0.15144470731543588, 0.1085768756391236)', '(-0.10824760921114616, 0.1797136889587291, 0.15361624482821837, -0.13275649106208975)', '(-0.10465333543197158, 0.37233968969446885, 0.15096111500697657, -0.3733072478501009)', '(-0.0972065416380822, 0.5650309467292245, 0.14349497004997455, -0.6148427296885728)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 6, 7, 8, 10, 12, 14, 15, 18, 22, 26, 29, 30, 33, 35, 37, 41, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[2, 3, 12, 14, 17, 19, 20, 23, 33, 36, 37, 39, 41, 42, 44, 45]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.18592608100371844, -0.013061057913666957, -0.2680588366431443)', '(0.015267371510351105, -0.009007059353799696, -0.018422234646529843, 0.020476091983435085)', '(0.015087230323275112, -0.20386003791969498, -0.01801271280686114, 0.30729013388006127)', '(0.011010029564881212, -0.008486111063197549, -0.011866910129259915, 0.00898133406309054)', '(0.010840307343617262, -0.2034358816365489, -0.011687283447998104, 0.29789661033210013)', '(0.006771589710886284, -0.008149296488200092, -0.005729351241356101, 0.0015507552970182026)', '(0.006608603781122282, -0.20318861378538422, -0.005698336135415737, 0.29242050951401055)', '(0.0025448315054145973, -0.398228856274205, 0.00015007405486447412, 0.583300821633917)', '(-0.005419745620069504, -0.20310900784199998, 0.011816090487542815, 0.29066517405347336)', '(-0.009481925776909504, -0.39839743439963227, 0.01762939396861228, 0.587051214266624)', '(-0.01744987446490215, -0.20352676611726822, 0.029370418253944763, 0.2999734077195918)', '(-0.021520409787247514, -0.008835494563640245, 0.0353698864083366, 0.016696111565863425)', '(-0.02169711967852032, -0.20444637064338014, 0.03570380863965387, 0.3203254872305918)', '(-0.025786047091387924, -0.009850599105927171, 0.0421103183842657, 0.03911254732871017)', '(-0.025983059073506468, -0.2055503199418356, 0.04289256933083991, 0.3447786693359812)', '(-0.03009406547234318, -0.40125535714614247, 0.04978814271755953, 0.6506727760041525)', '(-0.03811917261526603, -0.2068609350285067, 0.06280159823764259, 0.3740741427087178)', '(-0.04225639131583617, -0.01268467974913276, 0.07028308109181694, 0.10183548569356676)', '(-0.04251008491081882, -0.20873982059674245, 0.07231979080568827, 0.41583837234856125)', '(-0.04668488132275367, -0.01471336182527358, 0.0806365582526595, 0.1468029328660786)', '(-0.04697914855925914, 0.17916679969529542, 0.08357261690998108, -0.11939086317952563)', '(-0.04339581256535323, 0.37299810357804575, 0.08118479964639057, -0.38458130797714934)', '(-0.03593585049379231, 0.5668792598144818, 0.07349317348684758, -0.6506030492189022)', '(-0.024598265297502676, 0.7609047815219514, 0.06048111250246954, -0.9192681532568812)', '(-0.009380169667063648, 0.5650197550698122, 0.04209574943733192, -0.6082072467982039)', '(0.0019202254343325953, 0.36933534767749554, 0.029931604501367844, -0.30256817407251735)', '(0.009306932387882506, 0.564018206779673, 0.023880241019917495, -0.585663082262843)', '(0.020587296523475965, 0.3685700524290228, 0.012166979374660634, -0.28555431623669153)', '(0.02795869757205642, 0.17327670931463296, 0.006455893049926803, 0.010941019638913252)', '(0.03142423175834908, 0.3683054821453809, 0.0066747134427050684, -0.27969802386813225)', '(0.0387903414012567, 0.563331584725395, 0.0010807529653424231, -0.5702683100084429)', '(0.0500569730957646, 0.7584383625978439, -0.010324613234826436, -0.8626105645896931)', '(0.06522574034772148, 0.9536993554080062, -0.0275768245266203, -1.1585218255360088)', '(0.0842997274558816, 0.7589474244130807, -0.05074726103734048, -0.8746115597370887)', '(0.09947867594414321, 0.9547212018620039, -0.06823949223208226, -1.1828074689978951)', '(0.1185730999813833, 0.7605478587922956, -0.09189564161204015, -0.9122721799013831)', '(0.1337840571572292, 0.9567848954094228, -0.11014108521006782, -1.232365029702875)', '(0.15291975506541766, 1.15313723673462, -0.13478838580412533, -1.557424924097433)', '(0.17598249980011005, 0.9598623995600557, -0.165936884286074, -1.3096501353547196)', '(0.19517974779131117, 1.1566514288078358, -0.1921298869931684, -1.6493409160730135)', '(0.21831277636746788, 1.3534297232859682, -0.22511670531462868, -1.9952165127839196)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 6, 7, 9, 11, 13, 14, 16, 18, 20, 23, 25, 27, 31, 32, 33, 36, 37, 40, 43, 44, 45]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 7, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.40211259170445557, 0.09967117051882238, 0.6718791392529884)', '(-0.07086477751268125, -0.5984684418770909, 0.11310875330388215, 0.9942059556295573)', '(-0.08283414635022307, -0.4050263065775002, 0.13299287241647328, 0.7390800017270394)', '(-0.09093467248177307, -0.21196697558827612, 0.14777447245101408, 0.4910329738161191)', '(-0.0951740119935386, -0.40883059960160384, 0.15759513192733646, 0.8263977909204123)', '(-0.10335062398557068, -0.6057160463480604, 0.1741230877457447, 1.1642075440989075)', '(-0.1154649449125319, -0.802623490411381, 0.19740723862772286, 1.5060364043884462)', '(-0.1315174147207595, -0.6103667948085135, 0.22752796671549178, 1.2809137748133101)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 4, 7, 9, 10, 13]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 6, 7, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.2057675226194045, 0.06920609820418122, 0.35006240883399925)', '(-0.047212819080784105, -0.4018019665125764, 0.07620734638086121, 0.6637405329518147)', '(-0.055248858411035634, -0.5978967253412755, 0.08948215703989751, 0.9794122402495166)', '(-0.06720679291786115, -0.40408085999412857, 0.10907040184488784, 0.7161242470095285)', '(-0.07528841011774372, -0.6005298765929401, 0.12339288678507841, 1.0410498952709186)', '(-0.08729900764960252, -0.7970555784530557, 0.14421388469049679, 1.369782617383275)', '(-0.10324011921866363, -0.9936570196864203, 0.17160953703816229, 1.7038755239857573)', '(-0.12311325961239204, -1.1902888131058518, 0.20568704751787742, 2.044696710641799)', '(-0.14691903587450908, -1.3868451265486235, 0.2465809817307134, 2.393362826832739)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 3, 4, 8, 9, 11, 13]</t>
+  </si>
+  <si>
+    <t>[0, 2, 4, 5, 6, 9]</t>
   </si>
 </sst>
 </file>
@@ -280,8 +337,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P16" totalsRowShown="0">
-  <autoFilter ref="A1:P16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P61" totalsRowShown="0">
+  <autoFilter ref="A1:P61"/>
   <tableColumns count="16">
     <tableColumn id="1" name="01_i_domain_name"/>
     <tableColumn id="2" name="02_i_execution_fault_mode_name"/>
@@ -589,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,13 +719,13 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -680,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -703,34 +760,34 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -753,37 +810,37 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -792,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -803,37 +860,37 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
@@ -842,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -853,34 +910,34 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -892,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -900,37 +957,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L7">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -942,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -950,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -959,31 +1016,31 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
         <v>48</v>
       </c>
-      <c r="H8">
-        <v>86</v>
-      </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L8">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -992,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1000,49 +1057,49 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
         <v>31</v>
-      </c>
-      <c r="L9">
-        <v>16</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1050,37 +1107,37 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1092,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1100,37 +1157,37 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1142,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1150,49 +1207,49 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
         <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12">
-        <v>199</v>
-      </c>
-      <c r="I12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12">
-        <v>200</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1200,40 +1257,40 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
@@ -1242,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1250,34 +1307,34 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -1292,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1300,7 +1357,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0.8</v>
@@ -1309,28 +1366,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1342,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1350,48 +1407,2298 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>0.2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>0.2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>0.2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>0.4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>0.4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29">
+        <v>0.4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="K29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>0.6</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
         <v>62</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="L30">
+        <v>15</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>0.6</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>0.6</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
         <v>38</v>
       </c>
-      <c r="F16">
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+      <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16">
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34">
+        <v>17</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>0.8</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35">
         <v>100</v>
       </c>
-      <c r="K16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16">
+      <c r="K35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>0.8</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36">
+        <v>50</v>
+      </c>
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>0.8</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38">
         <v>10</v>
       </c>
-      <c r="M16">
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38">
+        <v>11</v>
+      </c>
+      <c r="M38">
         <v>0</v>
       </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="N38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39">
+        <v>11</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
+      <c r="K40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42">
+        <v>0.2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43">
+        <v>49</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
+      </c>
+      <c r="K44" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45">
+        <v>49</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45">
+        <v>50</v>
+      </c>
+      <c r="K45" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46">
+        <v>0.4</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46" t="s">
+        <v>81</v>
+      </c>
+      <c r="L46">
+        <v>46</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47">
+        <v>0.4</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47">
+        <v>46</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="P47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>0.4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="K48" t="s">
+        <v>82</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>0.4</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49">
+        <v>45</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49">
+        <v>24</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>0.6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>0.6</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>85</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>0.6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
+      </c>
+      <c r="K52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <v>0.6</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53">
+        <v>50</v>
+      </c>
+      <c r="K53" t="s">
+        <v>87</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>0.8</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>86</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>0.8</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56">
+        <v>0.8</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56">
+        <v>50</v>
+      </c>
+      <c r="K56" t="s">
+        <v>90</v>
+      </c>
+      <c r="L56">
+        <v>8</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+      <c r="P56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57">
+        <v>0.8</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+      <c r="J57">
+        <v>50</v>
+      </c>
+      <c r="K57" t="s">
+        <v>90</v>
+      </c>
+      <c r="L57">
+        <v>8</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57">
+        <v>3</v>
+      </c>
+      <c r="P57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="P58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59" t="s">
+        <v>47</v>
+      </c>
+      <c r="L59">
+        <v>10</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
+      </c>
+      <c r="K60" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60">
+        <v>6</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61">
+        <v>50</v>
+      </c>
+      <c r="K61" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61" t="s">
         <v>23</v>
       </c>
     </row>

--- a/experimental results/e3000_CartPole.xlsx
+++ b/experimental results/e3000_CartPole.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="94">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,13 +70,13 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[7, 11, 25, 35, 41, 43, 49]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, -0.20535498527219764, 0.017811089502435474, 0.3402405405228112)', '(-0.01246594538384614, -0.010490928408630806, 0.024615900312891698, 0.05322700071629072)', '(-0.012675763952018755, 0.18426957199857452, 0.025680440327217512, -0.2315889002694535)', '(-0.008990372512047266, -0.011209738044711759, 0.02104866232182844, 0.06908260297828756)', '(-0.009214567272941501, -0.20662703663099782, 0.022430314381394194, 0.3683314688703309)', '(-0.013347108005561457, -0.011830862394619474, 0.029796943758800813, 0.08280466814808407)', '(-0.013583725253453846, 0.18285156539267755, 0.03145303712176249, -0.20033034017628149)', '(-0.009926693945600295, 0.37750987661497604, 0.02744643031823686, -0.4829277199672296)', '(-0.0023764964133007735, 0.18201151835740706, 0.01778787591889227, -0.1817223908422667)', '(0.0012637339538473678, 0.3768744813044038, 0.014153428102046936, -0.4687412345133655)', '(0.008801223579935444, 0.18155547284071213, 0.004778603411779625, -0.17163109704832014)', '(0.012432333036749687, -0.013634546038685857, 0.0013459814708132226, 0.12255549245288105)', '(0.01215964211597597, 0.18146809572049516, 0.0037970913198708436, -0.16970248665736198)', '(0.015789004030385873, -0.013707998233402324, 0.000403041586723604, 0.12417588591908701)', '(0.015514844065717827, 0.18140817652458785, 0.002886559305105344, -0.16837985822323748)', '(0.019143007596209585, -0.013754973120981617, -0.0004810378593594054, 0.1252122938957429)', '(0.018867908133789954, 0.18137386622267734, 0.0020232080185554526, -0.16762235638071088)', '(0.022495385458243502, -0.013776986770867444, -0.001329239109058765, 0.12569814674287505)', '(0.02221984572282615, -0.2088798700449436, 0.0011847238257987362, 0.41796141692900485)', '(0.01804224832192728, -0.013774727606695597, 0.009543952164378835, 0.12565221737778742)', '(0.017766753769793368, 0.18120920518078615, 0.012056996511934584, -0.1640044821857367)', '(0.02139093787340909, 0.3761565010313237, 0.00877690686821985, -0.4528595003415194)', '(0.028914067894035562, 0.18091153914349287, -0.00028028313861053894, -0.1574229603369926)', '(0.03253229867690542, 0.37603750213499154, -0.003428742345350391, -0.4501942965692909)', '(0.04005304871960525, 0.18096421354790376, -0.012432628276736208, -0.15859413196263922)', '(0.04367233299056333, -0.013977554351462307, -0.015604510915988992, 0.13014082247967707)', '(0.04339278190353408, 0.18136441408137732, -0.013001694466395451, -0.16742399648077055)', '(0.047020070185161626, -0.013569039363292484, -0.01635017439601086, 0.12112907929879918)', '(0.046748689397895775, -0.20845296926780804, -0.013927592810034879, 0.4086091644449535)', '(0.042579630012539615, -0.013136342443693105, -0.005755409521135809, 0.111568059165854)', '(0.04231690316366575, 0.18206760493322244, -0.0035240483378187293, -0.18292509341063934)', '(0.0459582552623302, -0.013003744477493556, -0.007182550206031516, 0.10864404570934594)', '(0.04569818037278033, 0.1822203918486505, -0.005009669291844597, -0.18629625684896778)', '(0.04934258820975334, -0.012829526032784255, -0.008735594428823951, 0.10480211202505907)', '(0.04908599768909765, -0.207825207253391, -0.0066395521883227705, 0.3947162416495089)', '(0.044929493544029836, -0.012609676832370187, 0.0012547726446674075, 0.09994738635327405)', '(0.04467730000738243, -0.20774958859928552, 0.0032537203717328883, 0.39302592663523794)', '(0.04052230823539672, -0.01267396093347986, 0.011114238904437648, 0.10137062614140496)', '(0.040268829016727126, 0.18228695829970346, 0.013141651427265748, -0.18778517182643345)', '(0.04391456818272119, 0.37721844963721146, 0.009385947990737078, -0.4762936259456895)', '(0.05145893717546542, 0.18196523396002987, -0.00013992452817671204, -0.18066727491547047)', '(0.05509824185466602, -0.013154714713311588, -0.0037532700264861214, 0.11197150741822037)', '(0.05483514756039978, -0.20822268389572413, -0.0015138398781217137, 0.40346794145010745)']</t>
+    <t>[13, 33, 39, 41, 43, 45]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, -0.2063645790204402, 0.007299072508378151, 0.3624784850587858)', '(-0.002067893560726774, -0.011347128052371896, 0.014548642209553868, 0.07210600921452692)', '(-0.002294836121774212, 0.18356325911430615, 0.015990762393844407, -0.21595148067457304)', '(0.0013764290605119112, -0.011783601792080406, 0.011671732780352946, 0.08173243197217583)', '(0.0011407570246703032, 0.1831691077660547, 0.013306381419796462, -0.20724530235468408)', '(0.0048041391799913975, -0.012140566145772025, 0.00916147537270278, 0.08960523347208371)', '(0.004561327857075957, 0.18284887774787523, 0.010953580042144456, -0.20017322189011344)', '(0.008218305412033462, -0.012428008800080104, 0.006950115604342186, 0.09594482411872818)', '(0.00796974523603186, 0.18259364393567018, 0.008869012086716751, -0.19453727221578504)', '(0.011621618114745262, -0.01265404404039211, 0.00497826664240105, 0.1009301966476367)', '(0.01136853723393742, 0.18239620850453303, 0.006996870575353784, -0.19017795236173585)', '(0.01501646140402808, -0.012825138614345699, 0.003193311528119067, 0.10470396353938122)', '(0.014759958631741166, 0.1822509047567262, 0.005287390798906692, -0.18696977759710437)', '(0.01840497672687569, -0.012946294354008542, 0.0015479952469646045, 0.1073764139573044)', '(0.01814605083979552, 0.1821534395879425, 0.003695523526110693, -0.18481772589829593)', '(0.02178911963155437, -0.013021192179181712, -8.309918552258308e-07, 0.10902870408888204)', '(0.021528695787970738, 0.1821007709483226, 0.002179743089922415, -0.18365448491387887)', '(0.02517071120693719, -0.013052301304937092, -0.0014933466083551622, 0.10971527200709369)', '(0.02490966518083845, 0.18209101727800397, 0.0007009588317867118, -0.183438423217543)', '(0.02855148552639853, -0.01304095668655536, -0.0029678096325641483, 0.10946554770137945)', '(0.028290666392667422, -0.20812025439334345, -0.0007784986785365593, 0.4012106708330665)', '(0.02412826130480055, -0.01298726927982552, 0.00724571473812477, 0.10828240327116534)', '(0.02386851591920404, 0.18203010516312962, 0.009411362803548077, -0.18210575806854096)', '(0.027509118022466632, 0.3770161324564676, 0.0057692476421772575, -0.47180494630341663)', '(0.03504944067159598, 0.18181317192114943, -0.003666851283891076, -0.17730922897279955)', '(0.03868570411001897, -0.013256112308889678, -0.007213035863347067, 0.11421467836618782)', '(0.038420581863841174, -0.20827397102046263, -0.004928742296023311, 0.404613242536096)', '(0.03425510244343192, -0.013082469728596668, 0.0031635225546986093, 0.11038050249015185)', '(0.033993453048859985, -0.2082496096674379, 0.0053711326045016465, 0.4040598215731221)', '(0.029828460855511225, -0.013204243064751542, 0.013452329035964088, 0.11307509720943654)', '(0.029564375994216196, -0.208516343253138, 0.015713830980152818, 0.40997160483010625)', '(0.025394049129153436, -0.013620658680696701, 0.023913263076754943, 0.12228384680018761)', '(0.0251216359555395, -0.20907690475997906, 0.026358940012758694, 0.4224142213358253)', '(0.020940097860339922, -0.014338114108073424, 0.034807224439475204, 0.1381561379566486)', '(0.020653335578178455, 0.18026845689801405, 0.037570347198608176, -0.14334564799320387)', '(0.024258704716138738, 0.3748327685527072, 0.0347034342387441, -0.42394308083005416)', '(0.03175536008719288, 0.17923683192726111, 0.026224572622143016, -0.12052506759280651)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
@@ -85,211 +85,217 @@
     <t>Omitted</t>
   </si>
   <si>
+    <t>['[1,1]', '[0,0]', '[1,0]']</t>
+  </si>
+  <si>
+    <t>[0, 2, 4, 5, 6, 7, 8, 14, 16, 18, 19, 21, 24, 25, 27, 29, 30, 31, 35, 38, 39, 42, 43, 45, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[0,0]', '[1,1]']</t>
+  </si>
+  <si>
+    <t>[9, 13, 18, 19, 20, 21, 22, 23, 26, 27, 28]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, -0.205795726467411, 0.013974886535729519, 0.34994676770407274)', '(-0.008986967383984194, -0.010875285114496508, 0.02097382188981097, 0.06170313871853211)', '(-0.009204473086274124, 0.18393976714461902, 0.022207884664181613, -0.22428931594269658)', '(-0.005525677743381745, -0.01149243166815972, 0.017722098345327682, 0.07531527774385866)', '(-0.0057555263767449395, -0.20686390308079405, 0.019228403900204853, 0.37353648960532637)', '(-0.009892804438360821, -0.012020300570695697, 0.02669913369231138, 0.08697791643607211)', '(-0.010133210449774735, 0.18270897044573678, 0.028438692021032823, -0.19716327486092305)', '(-0.006479031040859999, 0.37741284848650375, 0.02449542652381436, -0.48074114996933276)', '(0.0010692259288700764, 0.18195383985290986, 0.014880603524427705, -0.18043965775155968)', '(0.004708302725928273, -0.0133778522374009, 0.011271810369396512, 0.1169001773948023)', '(0.004440745681180256, -0.20865947836352644, 0.013609813917292558, 0.41311785041474575)', '(0.00026755611390972666, -0.403971677173295, 0.02187217092558747, 0.7100601779920731)', '(-0.0078118774295561745, -0.5993896101206502, 0.03607337448542893, 1.0095468710012214)', '(-0.019799669631969177, -0.7949739819579218, 0.05626431190545336, 1.3133358378050253)', '(-0.03569914927112761, -0.9907612100230739, 0.08253102866155387, 1.623084935269589)', '(-0.05551437347158909, -0.7967021289600817, 0.11499272736694566, 1.3572236938318625)', '(-0.07144841605079072, -0.6031950463487937, 0.14213720124358292, 1.1026134640787582)', '(-0.08351231697776659, -0.7998712987546357, 0.1641894705251581, 1.4363005421951762)', '(-0.0995097429528593, -0.996592335900224, 0.19291548136906161, 1.7754687043275883)', '(-0.11944158967086378, -1.1932941860231523, 0.2284248554556134, 2.121414091973377)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[1,1]', '[0,0]']</t>
+  </si>
+  <si>
+    <t>[0, 2, 3, 4, 6, 8, 11, 12, 14, 15, 20, 21, 23, 26, 28]</t>
+  </si>
+  <si>
+    <t>[1, 5, 7, 8, 11, 12, 14, 15, 17, 18, 19]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, 0.18594877956501746, 0.03869444837171655, -0.26877324231361266)', '(-0.019488118724880973, -0.009703402418254486, 0.033318983525444296, 0.0358586805708071)', '(-0.019682186773246062, -0.2052869197231233, 0.03403615713686044, 0.33886509441263474)', '(-0.02378792516770853, -0.010665398408714943, 0.04081345902511313, 0.057106590315378625)', '(-0.02400123313588283, -0.2063480575502339, 0.041955590831420704, 0.3623819718534442)', '(-0.02812819428688751, -0.40204044333715305, 0.049203230268489585, 0.6679935598316754)', '(-0.03616900315363057, -0.20763599865408378, 0.06256310146512309, 0.391199718904166)', '(-0.04032172312671225, -0.013455160519589976, 0.0703870958432064, 0.11887986929179117)', '(-0.04059082633710405, -0.20951130961129638, 0.07276469322904222, 0.4329126195929736)', '(-0.04478105252932998, -0.4055840127089584, 0.08142294562090169, 0.7476173547402143)', '(-0.052892732783509144, -0.21167413852617611, 0.09637529271570597, 0.4816280876707913)', '(-0.05712621555403267, -0.40801490777575034, 0.1060078544691218, 0.8030630549963582)', '(-0.06528651370954767, -0.6044183370269123, 0.12206911556904895, 1.1271223807272535)', '(-0.07737488045008592, -0.41108852118909145, 0.14461156318359403, 0.8750848206079158)', '(-0.08559665087386775, -0.6078489711689263, 0.16211325959575235, 1.20951257377838)', '(-0.09775363029724628, -0.8046498406898029, 0.18630351107131995, 1.5482961265437212)', '(-0.11384662711104233, -1.001454991374855, 0.2172694336021944, 1.8928523992746298)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
+  </si>
+  <si>
+    <t>[0, 3, 4, 6, 7, 10, 11, 13, 16, 17, 19]</t>
+  </si>
+  <si>
+    <t>['[0,0]', '[1,1]', '[1,0]']</t>
+  </si>
+  <si>
+    <t>[3, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, -0.20495213504426485, 0.03381502625937853, 0.3314747470310424)', '(-0.023771207035731476, -0.40053869148949006, 0.040444521199999375, 0.6346265874098429)', '(-0.03178198086552128, -0.5962007505980312, 0.053137052948196234, 0.9397671145482214)', '(-0.043705995877481904, -0.7919971550869516, 0.07193239523916066, 1.2486621315516737)', '(-0.05954593897922093, -0.9879637770392886, 0.09690563787019413, 1.5629817954895868)', '(-0.0793052145200067, -1.1841018659796905, 0.12816527377998588, 1.8842542916155038)', '(-0.10298725183960052, -1.3803645007412, 0.16585035961229594, 2.213811160701268)', '(-0.1305945418544245, -1.5766408125139357, 0.2101265828263213, 2.552722546828726)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[0, 4, 6, 7, 9, 11, 12]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
     <t>['[1,1]', '[1,0]', '[0,0]']</t>
   </si>
   <si>
-    <t>[0, 3, 8, 11, 16, 17, 18, 20, 21, 23, 26, 27, 31, 33, 34, 35, 36, 37, 38, 42, 43, 44, 45, 46, 47, 49]</t>
-  </si>
-  <si>
-    <t>[13, 21, 23, 28, 29, 30, 32, 34, 36, 41, 42, 43, 46, 47]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, -0.2063645790204402, 0.007299072508378151, 0.3624784850587858)', '(-0.002067893560726774, -0.011347128052371896, 0.014548642209553868, 0.07210600921452692)', '(-0.002294836121774212, 0.18356325911430615, 0.015990762393844407, -0.21595148067457304)', '(0.0013764290605119112, -0.011783601792080406, 0.011671732780352946, 0.08173243197217583)', '(0.0011407570246703032, 0.1831691077660547, 0.013306381419796462, -0.20724530235468408)', '(0.0048041391799913975, -0.012140566145772025, 0.00916147537270278, 0.08960523347208371)', '(0.004561327857075957, 0.18284887774787523, 0.010953580042144456, -0.20017322189011344)', '(0.008218305412033462, -0.012428008800080104, 0.006950115604342186, 0.09594482411872818)', '(0.00796974523603186, -0.20764887923410683, 0.008869012086716751, 0.3908123748583686)', '(0.003816767651349723, -0.012653916687551059, 0.016685259583884123, 0.10093888996931122)', '(0.0035636893175987018, -0.20801096952433326, 0.018704037383270346, 0.3988389186366264)', '(-0.0005965300728879635, -0.013159283710983294, 0.026680815756002875, 0.11211118012747123)', '(-0.0008597157471076294, 0.18157039363937177, 0.0289230393585523, -0.17203614679797619)', '(0.0027716921256798065, 0.37626669834745863, 0.025482316422592778, -0.455456270569103)', '(0.01029702609262898, 0.18079389372719562, 0.01637319101121072, -0.15485126570318514)', '(0.013912903967172893, -0.014558616393671814, 0.013276165697147017, 0.14295172565927494)', '(0.013621731639299457, -0.20986816148506904, 0.016135200210332514, 0.4397933032872967)', '(0.009424368409598077, -0.40521470938400994, 0.024931066276078447, 0.737518525916049)', '(0.0013200742219178774, -0.21044578550665288, 0.03968143679439943, 0.4527849047435251)', '(-0.0028888414882151806, -0.40610576333812304, 0.04873713488926993, 0.7577071157375668)', '(-0.011010956754977642, -0.21168814357806492, 0.06389127720402127, 0.4807500146979629)', '(-0.015244719626538939, -0.4076510484784179, 0.07350627749798053, 0.7928658800720656)', '(-0.023397740596107296, -0.2136110270103726, 0.08936359509942184, 0.5241832073616937)', '(-0.027669961136314748, -0.40986947233154863, 0.0998472592466557, 0.8436341315432027)', '(-0.03586735058294572, -0.2162415416349178, 0.11671994187751976, 0.5839451524492589)', '(-0.040192181415644075, -0.02293144822334925, 0.12839884492650494, 0.33019074662542774)', '(-0.04065081038011106, 0.17015122697479215, 0.1350026598590135, 0.0805964863880721)', '(-0.03724778584061522, 0.36310557250259556, 0.13661458958677494, -0.16663116044534132)', '(-0.02998567439056331, 0.16631941272779374, 0.13328196637786813, 0.1658376849655191)', '(-0.026659286136007435, -0.030433643783297798, 0.13659872007717852, 0.4974187819292376)', '(-0.027267959011673393, -0.22719050382444606, 0.14654709571576327, 0.8298401028899103)', '(-0.031811769088162314, -0.03434306743307372, 0.16314389777356147, 0.5866003905340851)', '(-0.032498630436823786, 0.15816338969010255, 0.17487590558424318, 0.3494268128860094)', '(-0.029335362643021737, -0.03895837581674133, 0.18186444184196338, 0.6917516154874186)', '(-0.030114530159356563, -0.23607515645100596, 0.19569947415171174, 1.0357244611947214)', '(-0.034836033288376686, -0.04401657577022455, 0.21641396337560617, 0.8103047370062194)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48]</t>
+    <t>[0, 1, 2, 4, 7, 9]</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[2, 6, 16, 18, 21, 26, 28, 32, 34, 42]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, 0.18576798339470538, 0.010344260345701474, -0.26457614791114553)', '(-0.00034492595914050513, 0.38074077330267914, 0.005052737387478563, -0.5539785274968766)', '(0.007269889506913077, 0.18554823711507773, -0.006026833162458969, -0.25970796220825093)', '(0.010980854249214632, -0.00948716082132936, -0.011220992406623987, 0.031067943327481973)', '(0.010791111032788044, -0.20444641458336704, -0.010599633540074347, 0.32018951103723575)', '(0.006702182741120703, -0.009175125901709325, -0.004195843319329632, 0.02418279832704151)', '(0.006518680223086517, 0.18600674532356068, -0.0037121873527888012, -0.26982100568354583)', '(0.010238815129557731, -0.009062035163095117, -0.00910860746645972, 0.021688768388786583)', '(0.010057574426295828, -0.20405218332619537, -0.008674832098683988, 0.3114839638806613)', '(0.005976530759771921, -0.008807724721102195, -0.0024451528210707625, 0.016077926760462713)', '(0.005800376265349877, 0.18634920743635391, -0.0021235942858615084, -0.2773754705900731)', '(0.009527360414076955, 0.38150139022068047, -0.007671103697662971, -0.5707274209661728)', '(0.017157388218490565, 0.18648785147067543, -0.01908565211698643, -0.2804710019673711)', '(0.020887145247904075, 0.38187678062842206, -0.02469507215633385, -0.5791118588074042)', '(0.028524680860472516, 0.1871094590517179, -0.03627730933248194, -0.29430956884155984)', '(0.03226687004150688, -0.007477014117524938, -0.042163500709313136, -0.013285090889519291)', '(0.03211732975915638, 0.1882234580962539, -0.04242920252710352, -0.3189673030548704)', '(0.035881798921081454, -0.0062693323703337245, -0.048808548588200926, -0.0399611209645096)', '(0.03575641227367478, -0.2006586271269517, -0.04960777100749112, 0.2369315571615071)', '(0.03174323973113574, -0.3950380398964882, -0.04486913986426098, 0.5135632807221326)', '(0.023842478933205978, -0.19931381730356107, -0.034597874249818326, 0.20708532580694972)', '(0.019856202587134757, -0.0037146500054204, -0.030456167733679332, -0.09630758747061474)', '(0.019781909587026348, -0.19838715217070108, -0.03238231948309163, 0.1866130166709229)', '(0.015814166543612326, -0.002817216115237997, -0.02865005914967317, -0.1161068308755025)', '(0.015757822221307567, -0.19751719455389663, -0.03097219576718322, 0.1674013187753176)', '(0.011807478330229635, -0.3921824304294428, -0.02762416939167687, 0.4501547605938752)', '(0.003963829721640779, -0.19668088351333618, -0.018621074179799364, 0.14889384982797593)', '(3.021205137405513e-05, -0.0012972999037693111, -0.015643197183239844, -0.14960499536486943)', '(4.266053298668907e-06, -0.19619179353372604, -0.018635297090537233, 0.13810206399148706)', '(-0.003919569817375852, -0.0008079576699175639, -0.01587325581070749, -0.16040126268232652)', '(-0.0039357289707742035, -0.1956991070929008, -0.01908128106435402, 0.12723209236959637)', '(-0.00784971111263222, -0.39054258235482586, -0.016536639216962093, 0.413834544467219)', '(-0.015660562759728738, -0.19519018611942776, -0.008259948327617712, 0.1159844647156632)', '(-0.019564366482117294, -0.3901928179147308, -0.0059402590333044476, 0.40605003697453024)', '(-0.02736822284041191, -0.1949871362137126, 0.002180741706186158, 0.11150025464292534)', '(-0.03126796556468616, -0.39014026800313517, 0.004410746799044666, 0.40487039382307566)', '(-0.039070770924748865, -0.19508114482148492, 0.01250815467550618, 0.11358131051092257)', '(-0.04297239382117857, -0.00014063424366447808, 0.014779780885724632, -0.17512927966199793)', '(-0.042975206506051855, -0.19547095421028426, 0.011277195292484672, 0.12217929700688906)', '(-0.04688462559025754, -0.39075264185138603, 0.013720781232622454, 0.4183986275765696)', '(-0.054699678427285264, -0.19582778369366546, 0.022088753784153845, 0.13007264541287406)', '(-0.05861623410115857, -0.00102910329136488, 0.024690206692411325, -0.15556052894281602)', '(-0.05863681616698587, -0.19649570438834513, 0.021578996113555005, 0.14480819226402875)', '(-0.06256673025475278, -0.0016893265082361941, 0.02447515995883558, -0.14098961055382347)', '(-0.0626005167849175, -0.1971531067704031, 0.02165536774775911, 0.1593132258542746)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 3, 8, 9, 10, 14, 15, 22, 25, 26, 28, 31, 34, 36, 37, 38, 39, 40, 42, 43, 44, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 11, 15, 16, 18, 21, 23, 24, 27, 29, 30, 36, 40, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.18576708117914809, -0.0013614871701066334, -0.2645346995398835)', '(0.0074598004727930295, 0.38090843867426455, -0.006652181160904304, -0.5576467415945094)', '(0.01507796924627832, 0.18588049996896644, -0.017805115992794492, -0.26706703306114465)', '(0.01879557924565765, -0.008982872984182377, -0.023146456654017385, 0.019947268067625257)', '(0.018615921785974, -0.20376536321078514, -0.02274751129266488, 0.3052382889992435)', '(0.014540614521758298, -0.00832675788993864, -0.01664274551268001, 0.005469033348689645)', '(0.014374079363959525, 0.18702987119092332, -0.01653336484570622, -0.29241806996402886)', '(0.018114676787777992, -0.00785249222493109, -0.022381726244986796, -0.004995065380922814)', '(0.01795762694327937, -0.20264642563048296, -0.022481627552605254, 0.280542974339038)', '(0.013904698430669708, -0.0072111161130764545, -0.016870768065824493, -0.01914495158738516)', '(0.013760476108408179, 0.18814866648107845, -0.017253667097572197, -0.31710269410550823)', '(0.017523449438029748, 0.38351206389610304, -0.023595720979682364, -0.6151764996104198)', '(0.02519369071595181, 0.1887276069785928, -0.035899250971890756, -0.3300176445887913)', '(0.028968242855523664, 0.38434171176153165, -0.04249960386366658, -0.6338018608255045)', '(0.036655077090754294, 0.1898375731194123, -0.05517564108017667, -0.35480022308365466)', '(0.04045182855314254, -0.004458219595674967, -0.06227164554184976, -0.08001345897500184)', '(0.040362664161229043, 0.19149857388035602, -0.0638719147213498, -0.3916749624235325)', '(0.044192635638836165, -0.002661523228544349, -0.07170541396982046, -0.11979426704319562)', '(0.044139405174265275, 0.19341062430807393, -0.07410129931068436, -0.43421003985353884)', '(0.04800761766042676, 0.38949915240434085, -0.08278550010775514, -0.749301509330691)', '(0.05579760070851358, 0.1956107620819301, -0.09777153029436896, -0.4837761021472268)', '(0.05970981595015218, 0.0019947855558589966, -0.1074470523373135, -0.2234382079642016)', '(0.059749711661269356, 0.1984752902367625, -0.11191581649659753, -0.5479880306321994)', '(0.0637192174660046, 0.005088782771111355, -0.12287557710924152, -0.2925576270314085)', '(0.06382099312142683, 0.20172888141237022, -0.1287267296498697, -0.6213284432105675)', '(0.06785557074967424, 0.3983911514893881, -0.14115329851408104, -0.9516223412951537)', '(0.07582339377946201, 0.20542192917597038, -0.16018574533998411, -0.7064086996994157)', '(0.07993183236298142, 0.01283902338736101, -0.17431391933397242, -0.46812606836638193)', '(0.08018861283072863, -0.17944722330961146, -0.18367644070130007, -0.23505677988113324)', '(0.0765996683645364, -0.3715348070610147, -0.18837757629892274, -0.00546985138575648)', '(0.0691689722233161, -0.5635259699431128, -0.18848697332663786, 0.2223661871953032)', '(0.05789845282445384, -0.366280158851346, -0.1840396495827318, -0.12334998398690022)', '(0.05057284964742692, -0.5583539516801297, -0.18650664926246982, 0.10609249095087592)', '(0.039405770613824324, -0.7503816456456547, -0.1843847994434523, 0.33462319752490977)', '(0.024398137700911232, -0.9424663588760933, -0.1776923354929541, 0.5639638033094163)', '(0.005548810523389364, -0.7453548127471576, -0.16641305942676576, 0.2209849357865879)', '(-0.009358285731553789, -0.5482936056528331, -0.161993360711034, -0.11922328856714687)', '(-0.020324157844610453, -0.7407686460220695, -0.16437782648237695, 0.11829135118143394)', '(-0.035139530765051843, -0.5437198310377417, -0.16201199945874828, -0.22140739133574608)', '(-0.046013927385806674, -0.7362000025056981, -0.1664401472854632, 0.016108568263409367)', '(-0.06073792743592064, -0.5391307221114859, -0.166117975920195, -0.3241181260582672)', '(-0.07152054187815035, -0.731545876227019, -0.17260033844136036, -0.08808291990826467)', '(-0.08615145940269073, -0.5344241930149393, -0.17436199683952566, -0.42986496776004146)', '(-0.09683994326298952, -0.7267037703369796, -0.1829592961947265, -0.1968218574861)', '(-0.11137401866972911, -0.5295006048549923, -0.1868957333444485, -0.5411799408481273)']</t>
   </si>
   <si>
     <t>['[0,0]', '[1,0]', '[1,1]']</t>
   </si>
   <si>
-    <t>[0, 1, 3, 5, 7, 10, 12, 13, 14, 17, 20, 23, 24, 25, 31, 33, 34, 38, 39, 40, 43, 45, 46, 47, 48]</t>
-  </si>
-  <si>
-    <t>['[0,0]', '[1,1]', '[1,0]']</t>
-  </si>
-  <si>
-    <t>[5, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, -0.20479400662066377, 0.0221124503711613, 0.32788878955093564)', '(-0.01596358060234466, -0.0099937261243348, 0.028670226162180013, 0.04226033375042554)', '(-0.016163455124831354, 0.18470562033696747, 0.029515432837188525, -0.24124077287849488)', '(-0.012469342718092004, -0.01082524381590183, 0.024690617379618626, 0.0606040558979552)', '(-0.01268584759441004, -0.2062923448674995, 0.02590269849757773, 0.3609736445406305)', '(-0.01681169449176003, -0.4017727253192722, 0.03312217138839034, 0.6617103943738543)', '(-0.024847148998145475, -0.5973395098306135, 0.04635637927586743, 0.9646358097469538)', '(-0.03679393919475774, -0.793052507463653, 0.06564909547080651, 1.271513829746378)', '(-0.0526549893440308, -0.9889480978021314, 0.09107937206573408, 1.5840112122308634)', '(-0.07243395130007343, -1.1850277156821278, 0.12275959631035135, 1.903651884398392)', '(-0.09613450561371599, -1.3812443782612764, 0.1608326339983192, 2.2317626758315594)', '(-0.12375939317894152, -1.5774869274517918, 0.2054678875149504, 2.569408728900894)', '(-0.15530913172797736, -1.7735620473598919, 0.2568560620929683, 2.9173183511121206)']</t>
+    <t>[0, 3, 4, 5, 11, 12, 14, 15, 18, 20, 22, 24, 25, 27, 29, 31, 33, 34, 37, 38, 39, 42, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 6, 7, 9, 10, 11, 13]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.5760082163585145, -0.0013614871701066334, -0.8498680372101901)', '(0.015264623176380358, 0.7711487074207513, -0.018358847914310437, -1.142978779616701)', '(0.030687597324795382, 0.9665056771590287, -0.04121842350664446, -1.4413620502969484)', '(0.050017710867975955, 0.771914845773861, -0.07004566451258343, -1.1618385048286413)', '(0.06545600778345317, 0.9678756649961633, -0.09328243460915625, -1.4756355221245179)', '(0.08481352108337645, 1.1640052799812997, -0.12279514505164661, -1.7959361689484032)', '(0.10809362668300244, 1.3602697567115511, -0.1587138684306147, -2.124127232833193)', '(0.13529902181723347, 1.167043423421004, -0.20119641308727854, -1.8843968391247152)', '(0.15863989028565356, 1.3637065756273452, -0.23888434986977283, -2.232194463932257)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>[0, 2, 4, 6, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 7, 8, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 0.771597127803412, -0.053540969303457364, -1.1538662491508425)', '(0.05411364290672023, 0.9673749293981551, -0.07661829428647421, -1.4628456598169037)', '(0.07346114149468333, 1.1633475891356073, -0.10587520748281229, -1.7784459943452693)', '(0.09672809327739548, 1.3594902538402307, -0.14144412736971768, -2.1020817162272576)', '(0.1239178983542001, 1.5557206942096242, -0.18348576169426284, -2.4349339300580413)', '(0.1550323122383926, 1.7518822098410893, -0.23218444029542368, -2.7778795829060643)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>[0, 2, 4, 7, 8, 9, 11]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>[0, 2, 3, 4, 9, 10]</t>
+  </si>
+  <si>
+    <t>[1,0]</t>
+  </si>
+  <si>
+    <t>[2, 5, 14, 23, 33, 38, 41, 42, 44]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, -0.20447315178466105, 0.010344260345701474, 0.32075718975916107)', '(-0.008149748662727833, -0.009500030014722272, 0.016759404140884695, 0.031354312407115115)', '(-0.008339749263022278, 0.1853776231463992, 0.017386490389026996, -0.25599408155493186)', '(-0.0046321968000942945, -0.009988193180479193, 0.012266608757928357, 0.042121721840523985)', '(-0.004831960663703878, 0.18495572957699466, 0.013109043194738837, -0.24666587017414177)', '(-0.0011328460721639847, -0.010350969157677414, 0.008175725791256002, 0.05012295444913184)', '(-0.001339865455317533, 0.18465280172770854, 0.009178184880238638, -0.2399692894249627)', '(0.0023531905792366376, -0.01059905160602348, 0.0043787990917393835, 0.055594503255219585)', '(0.002141209547116168, 0.18445984157344217, 0.005490689156843775, -0.23570366867238024)', '(0.005830406378585012, 0.37950291721187185, 0.0007766157833961704, -0.5266496175696896)', '(0.01342046472282245, 0.18437004694980513, -0.009756376567997622, -0.23372207542738804)', '(0.01710786566181855, -0.010611154395542666, -0.014430818076545383, 0.05586747775540779)', '(0.016895642573907698, 0.18471470709154814, -0.013313468521437227, -0.2413333210262974)', '(0.02058993671573866, -0.01021456056684833, -0.018140134941963176, 0.04712062354546376)', '(0.02038564550440169, -0.20507176083044398, -0.017197722471053903, 0.33402542763651916)', '(0.01628421028779281, -0.009709317081359636, -0.010517213918323519, 0.035969215309797575)', '(0.016090023946165617, 0.1855618616016979, -0.009797829612127567, -0.26001335728259467)', '(0.019801261178199574, -0.009418860089630915, -0.01499809675777946, 0.02956317130701752)', '(0.019612883976406956, 0.1859149259393686, -0.01440683333163911, -0.26781382927864594)', '(0.02333118249519433, -0.008998486914850112, -0.01976310991721203, 0.020290486338060687)', '(0.023151212756897327, -0.20383152052988568, -0.019357300190450816, 0.3066729890406362)', '(0.019074582346299614, -0.008439159138909469, -0.013223840409638091, 0.00794866526901139)', '(0.018905799163521423, -0.2033689900061317, -0.013064867104257864, 0.2964301506430483)', '(0.014838419363398789, -0.008063249927564659, -0.007136264091396898, -0.0003444188246812807)', '(0.014677154364847496, -0.20308213346327766, -0.007143152467890523, 0.29007841398779005)', '(0.010615511695581942, -0.00785905772242515, -0.001341584188134722, -0.00484879773301039)', '(0.010458330541133438, -0.20296174302097658, -0.00143856014279493, 0.2874105412154594)', '(0.006399095680713907, -0.007819306255030772, 0.004309650681514258, -0.005725747590708319)', '(0.006242709555613291, -0.20300279801499438, 0.004195135729700092, 0.288313804561409)', '(0.002182653595313404, -0.007940921449740457, 0.009961411820928271, -0.003043069308989843)', '(0.002023835166318595, 0.18703676245720022, 0.009900550434748474, -0.2925664779622035)', '(0.005764570415462599, -0.008224940687377058, 0.004049220875504404, 0.003222436351636271)', '(0.005600071601715058, 0.18683870543416933, 0.00411366960253713, -0.2881801664243489)', '(0.009336845710398445, 0.38190175304626095, -0.001649933725949848, -0.5795628467105685)', '(0.016974880771323662, 0.18680296242592975, -0.013241190660161217, -0.28740013941066506)', '(0.020710940019842257, -0.008127679326454196, -0.01898919344837452, 0.001077394529207798)', '(0.020548386433313172, 0.18726138459074593, -0.018967645557790364, -0.2975358488674965)', '(0.02429361412512809, 0.3826485133586133, -0.024918362535140293, -0.5961399759712138)', '(0.03194658439230036, 0.18788398834156034, -0.03684116205456457, -0.31140912480394506)', '(0.03570426415913157, 0.3835109136024064, -0.04306934455064347, -0.6154792477624608)', '(0.043374482431179695, 0.18901634611275608, -0.05537892950589268, -0.3366664136060282)', '(0.047154809353434815, -0.0052755787695447365, -0.06211225777801325, -0.061948391214434295)', '(0.04704929777804392, -0.19945452711184788, -0.06335122560230193, 0.2105091005088171)', '(0.04306020723580696, -0.3936161534320465, -0.05914104359212559, 0.4825544979979461)', '(0.035187884167166034, -0.19771151602349346, -0.04948995363216667, 0.17183396574825338)']</t>
+  </si>
+  <si>
+    <t>[0, 6, 8, 14, 15, 18, 19, 20, 22, 24, 25, 27, 29, 30, 31, 33, 34, 36, 37, 40, 41, 42, 44, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 5, 12, 18, 21, 24, 25, 26, 27]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.595919684308709, 0.06920609820418122, 0.9343495519973364)', '(-0.055015862314570195, -0.40179610891623413, 0.08789308924412795, 0.6641915796089797)', '(-0.06305178449289488, -0.20799967496821611, 0.10117692083630754, 0.4004263529951278)', '(-0.0672117779922592, -0.01444754909857418, 0.1091854478962101, 0.14127819848718154)', '(-0.06750072897423069, 0.17895502420565948, 0.11201101186595373, -0.11506136879390827)', '(-0.0639216284901175, 0.3723086559761546, 0.10970978449007557, -0.3704118703547265)', '(-0.0564754553705944, 0.5657148087680153, 0.10230154708298103, -0.6265869269176539)', '(-0.0451611591952341, 0.36932490225818293, 0.08976980854462795, -0.3035180072917286)', '(-0.03777466115007044, 0.5630604552593389, 0.08369944839879337, -0.566594301854286)', '(-0.026513452044883666, 0.7569146775135109, 0.07236756236170765, -0.8317787651870253)', '(-0.011375158494613447, 0.9509769609689092, 0.05573198705796714, -1.1008527879964543)', '(0.007644380724764737, 0.7551677003704003, 0.033714931298038056, -0.7912182014122902)', '(0.022747734732172745, 0.5595994415863829, 0.017890567269792254, -0.48812221172414916)', '(0.033939723563900404, 0.36422970173015645, 0.00812812303530927, -0.1898549538403797)', '(0.041224317598503535, 0.5592344320765237, 0.004331023958501676, -0.47996274511038967)', '(0.05240900624003401, 0.7542949765038864, -0.005268230943706118, -0.7712775005172908)', '(0.06749490577011173, 0.9494890266142246, -0.020693780954051937, -1.0656133653256648)', '(0.08648468630239622, 0.7546469504270621, -0.04200604826056523, -0.7794963644880681)', '(0.10157762531093746, 0.5601269251412957, -0.0575959755503266, -0.5003198594566096)', '(0.11278016381376338, 0.7560115090804431, -0.0676023727394588, -0.810583370938174)', '(0.12790039399537223, 0.9519912895269885, -0.08381404015822227, -1.123741527395093)', '(0.146940219785912, 1.1481059288079356, -0.10628887070612414, -1.4414933303298587)', '(0.16990233836207072, 1.3443640740213214, -0.1351187373127213, -1.7654093421890686)', '(0.19678961984249715, 1.151003562142916, -0.17042692415650268, -1.5176163386948636)', '(0.21980969108535547, 0.9583032233650683, -0.20077925093039994, -1.2826167769418853)', '(0.23897575555265685, 0.766222893589889, -0.22643158646923764, -1.0589174988630783)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
+  </si>
+  <si>
+    <t>[0, 1, 3, 5, 6, 11, 14, 16, 18, 19, 20, 21, 22, 24, 25, 30]</t>
+  </si>
+  <si>
+    <t>[1, 2, 6, 7, 8, 10, 11, 13, 15, 16]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.009882199210565407, 0.056718967558805795, 0.039842350584417374)', '(-0.0352940394312487, 0.18438247066809094, 0.05751581457049414, -0.23441962477579703)', '(-0.031606390017886885, -0.011512076960013967, 0.0528274220749782, 0.07583663411384034)', '(-0.031836631557087165, -0.20734999272311222, 0.05434415475725501, 0.3847077432127951)', '(-0.03598363141154941, -0.40319966184369926, 0.06203830962151091, 0.6940178718692676)', '(-0.04404762464842339, -0.20899063798003817, 0.07591866705889626, 0.42149231860055925)', '(-0.048227437408024154, -0.4051015023636054, 0.08434851343090745, 0.7371099408145527)', '(-0.05632946745529627, -0.6012808606188833, 0.09909071224719851, 1.0551018528164025)', '(-0.06835508466767393, -0.4076019816839118, 0.12019274930352655, 0.7950936802886718)', '(-0.07650712430135216, -0.6041504062611642, 0.1360946229093, 1.1230409809701773)', '(-0.08859013242657544, -0.4110493856769036, 0.15855544252870354, 0.8759561571545378)', '(-0.09681112014011352, -0.6079300019973395, 0.1760745656717943, 1.2139929220589725)', '(-0.1089697201800603, -0.8048313270248372, 0.20035442411297374, 1.5562772969352947)', '(-0.12506634672055705, -0.6125933383478261, 0.23147997005167964, 1.332199480478648)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
   </si>
   <si>
-    <t>['[1,0]', '[1,1]', '[0,0]']</t>
-  </si>
-  <si>
-    <t>[0, 2, 3, 6, 8, 9, 11, 13, 15, 17]</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[0,0]', '[1,1]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 8, 9]</t>
+    <t>[0, 2, 3, 5, 6, 7, 10, 12, 13, 17]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
     <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
   </si>
   <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -0.7922666038825532, 0.12304959880142835, 1.2600857217662162)', '(-0.09427328681678551, -0.5989146048637253, 0.14825131323675267, 1.008335999006276)', '(-0.10625157891406002, -0.795671053600708, 0.16841803321687818, 1.3436597094543195)', '(-0.12216499998607418, -0.9924631143818925, 0.19529122740596455, 1.6839523906424212)', '(-0.14201426227371203, -0.8000645259528414, 0.22897027521881297, 1.4578917650635328)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 6, 10]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[0, 2, 4, 6, 7, 9]</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>[14, 23, 29, 33, 37, 45, 47]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, 0.1838783157507662, 0.007299072508378151, -0.22287552841176522)', '(0.005736964334697355, 0.37889518481465034, 0.0028415619401428466, -0.5132471314229992)', '(0.013314868030990362, 0.18373332723601268, -0.007423380688317136, -0.2196701088401533)', '(0.016989534575710615, -0.011281728903743987, -0.011816782865120203, 0.07066196156913584)', '(0.016763899997635737, 0.18400762370118764, -0.010403543633737486, -0.2257256687662253)', '(0.02044405247165949, -0.010964109356650847, -0.014918057009061993, 0.06365751742236891)', '(0.02022477028452647, 0.184368517348623, -0.013644906660614613, -0.23369456609683975)', '(0.02391214063149893, -0.010555841897847001, -0.01831879798255141, 0.05465327634681194)', '(0.02370102379354199, 0.18482391862281383, -0.01722573245561517, -0.24375261728437336)', '(0.027397502165998268, -0.010047807143910376, -0.02210078480130264, 0.04344748993697223)', '(0.02719654602312006, 0.18538397420661817, -0.021231835002563197, -0.2561256935801254)', '(0.030904225507252425, -0.009428506807414194, -0.026354348874165705, 0.029785475140334805)', '(0.030715655371104142, -0.20416280161627245, -0.02575863937135901, 0.3140382017657373)', '(0.026632399338778694, -0.008683563568976593, -0.019477875336044264, 0.013344413230521046)', '(0.026458728067399163, -0.20352083957016845, -0.019210987071433844, 0.29981875658401186)', '(0.022388311275995793, -0.008130402921825819, -0.013214611939753606, 0.001139500547557848)', '(0.022225703217559276, 0.18717854767555359, -0.01319182192880245, -0.29568332904789196)', '(0.025969274171070346, -0.007752878630135324, -0.01910548850976029, -0.007189914463489877)', '(0.02581421659846764, -0.20259569344448836, -0.019249286799030086, 0.27940429637448444)', '(0.021762302729577875, -0.007204510312568829, -0.013661200871540397, -0.01928712137096289)', '(0.021618212523326498, 0.18811066617940939, -0.014046943298959655, -0.31624881614214506)', '(0.025380425846914686, -0.006808414368794785, -0.020371919621802556, -0.02802870594372814)', '(0.02524425755953879, -0.20163238349619295, -0.02093249374067712, 0.25815767857715277)', '(0.02121160988961493, -0.006217942598092385, -0.015769340169134064, -0.04105347040189011)', '(0.021087251037653083, 0.18912654651819563, -0.016590409577171866, -0.33866976615337485)', '(0.024869781968016997, -0.00575544949053583, -0.023363804900239364, -0.05126435762150611)', '(0.024754672978206282, -0.20053473301334582, -0.024389092052669488, 0.23395649481294284)', '(0.020743978317939366, -0.005072953062804864, -0.019709962156410632, -0.06631866208455289)', '(0.02064251925668327, -0.19990685480650489, -0.02103633539810169, 0.22008107149261663)', '(0.016644382160553174, -0.004490621388541394, -0.016634713968249358, -0.0791626497153215)', '(0.016554569732782347, -0.19937020674126335, -0.018217966962555787, 0.20822590449658473)', '(0.01256716559795708, -0.0039925558194830735, -0.014053448872624092, -0.09014772569804708)', '(0.012487314481567419, 0.19132798204331927, -0.015856403386585033, -0.38723117916598315)', '(0.016313874122433805, -0.003565337659493434, -0.023601026969904695, -0.0995895369582579)', '(0.016242567369243937, 0.19188676829679374, -0.025592817709069855, -0.3996241061176585)', '(0.02008030273517981, -0.0028629601608068933, -0.03358529983142303, -0.11511864493307444)', '(0.020023043531963672, -0.1974879880433404, -0.035887672730084516, 0.166782041653125)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 3, 9, 10, 11, 13, 14, 15, 16, 18, 19, 20, 22, 23, 24, 25, 26, 28, 31, 38, 42, 43, 44, 45, 49]</t>
-  </si>
-  <si>
-    <t>[4, 8, 15, 16, 18, 26, 27, 30, 34, 36, 42, 44, 45, 46]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, 0.3802478236181868, 0.0009930658321914924, -0.5430831938294477)', '(0.010758013827932775, 0.18511193022202863, -0.009868598044397462, -0.2500875367578215)', '(0.014460252432373347, -0.009867712816153923, -0.014870348779553892, 0.03946636549582372)', '(0.01426289817605027, -0.20477330215763803, -0.014081021469637418, 0.32742070447839394)', '(0.01016743213289751, -0.009453741352684342, -0.007532607380069539, 0.030330724545252208)', '(0.009978357305843823, 0.1857754171116128, -0.006925992889164495, -0.26471927081529784)', '(0.013693865648076078, -0.00924699740825144, -0.012220378305470452, 0.025771109034767925)', '(0.013508925699911049, 0.18604805264266017, -0.011704956124775094, -0.27074229443584674)', '(0.017229886752764254, 0.3813350600568367, -0.01711980201349203, -0.5670939176901328)', '(0.02485658795390099, 0.18645739160450836, -0.028461680367294687, -0.27985322707263793)', '(0.028585735785991155, 0.3819735444328842, -0.03405874490874745, -0.5813752827454706)', '(0.03622520667464884, 0.18734495227559125, -0.045686250563656855, -0.29961303996003147)', '(0.03997210572016066, -0.007097026948893248, -0.051678511362857484, -0.021681488159394413)', '(0.0398301651811828, -0.2014412313117427, -0.05211214112604537, 0.25425891284676244)', '(0.03580134055494794, -0.395781873680047, -0.04702696286911012, 0.5300601054442438)', '(0.027885703081347003, -0.2000310197568625, -0.036425760760225245, 0.22293761560044545)', '(0.023885082686209754, -0.39461391724993844, -0.03196700844821634, 0.5039115429463459)', '(0.015992804341210986, -0.19905635989097253, -0.02188877758928942, 0.20132837293027173)', '(0.012011677143391535, -0.003628307456061658, -0.017862210130683988, -0.09817827036189386)', '(0.011939110994270303, 0.19174503089449874, -0.019825775537921864, -0.39644273800754465)', '(0.01577401161216028, -0.0030901011085121555, -0.027754630298072756, -0.11007587091654131)', '(0.015712209589990034, -0.1978035705684915, -0.02995614771640358, 0.1737230330760537)', '(0.011756138178620205, -0.0022659786152192662, -0.02648168705488251, -0.12825755268386246)', '(0.01171081860631582, -0.19699875615334034, -0.029046838108559757, 0.15595449195007044)', '(0.007770843483249013, -0.3916930404518121, -0.02592774826955835, 0.43933415704444506)', '(-6.301732578722907e-05, -0.19621390907498762, -0.017141065128669447, 0.13859210836267155)', '(-0.003987295507286982, -0.0008506988935586823, -0.014369222961416015, -0.15944888369087273)', '(-0.004004309485158155, -0.19576401466525628, -0.01755820063523347, 0.12866650082885406)', '(-0.007919589778463281, -0.00039499512647492296, -0.014984870618656387, -0.1695037025961783)', '(-0.007927489680992779, -0.19529929148189581, -0.018374944670579953, 0.11841453167662985)', '(-0.011833475510630695, -0.3901532163972828, -0.016006654037047357, 0.40524414804658676)', '(-0.019636539838576352, -0.19480797185921267, -0.007901771076115621, 0.10755806259253103)', '(-0.023532699275760606, -0.3898158031172595, -0.005750609824265, 0.3977375810836268)', '(-0.031329015338105795, -0.19461274141280085, 0.0022041417974075356, 0.10324715999626238)', '(-0.03522127016636181, 0.0004775528623579828, 0.0042690849973327834, -0.18873955340627113)', '(-0.03521171910911465, -0.1947052138901889, 0.0004942939292073606, 0.10528703598626576)', '(-0.039105823386918426, 0.00040965028978245943, 0.002600034648932676, -0.18723990212062558)', '(-0.039097630381122774, 0.19549430580833949, -0.0011447633934798356, -0.47910148696792465)', '(-0.03518774426495598, 0.3906323995262804, -0.010726793132838329, -0.7721449961151315)', '(-0.027375096274430372, 0.1956596765992461, -0.026169693055140962, -0.4828563540348175)', '(-0.023461902742445452, 0.0009166703431370271, -0.03582682013583731, -0.19853487825823246)', '(-0.023443569335582712, -0.19367502076087778, -0.039797517701001955, 0.08263451874401068)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 3, 4, 5, 7, 8, 10, 15, 16, 18, 20, 21, 23, 25, 26, 30, 32, 36, 37, 39, 44, 45, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['[1,1]', '[0,0]', '[1,0]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 6, 8, 9, 12, 14]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.5761698848745367, -0.013061057913666957, -0.8534235321243873)', '(0.02307224758776747, 0.7714674113554434, -0.0301295285561547, -1.1501846770170077)', '(0.03850159581487634, 0.5767513489850298, -0.053133222096494855, -0.8670998854287831)', '(0.050036622794576935, 0.7725545096021644, -0.07047521980507052, -1.1760039573961951)', '(0.06548771298662022, 0.9685177256345916, -0.09399529895299441, -1.4899216745825932)', '(0.08485806749931205, 0.7746575668650204, -0.12379373244464628, -1.228009017050252)', '(0.10035121883661245, 0.5813269353202777, -0.14835391278565133, -0.9765347805709144)', '(0.111977757543018, 0.7780933453527331, -0.16788460839706962, -1.3118986277377345)', '(0.12753962445007266, 0.5854471277042254, -0.1941225809518243, -1.0761186202860635)', '(0.13924856700415716, 0.7825290938758378, -0.21564495335754558, -1.4229032413972393)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
-  </si>
-  <si>
-    <t>[0, 2, 6, 7, 8, 10, 13, 14]</t>
-  </si>
-  <si>
-    <t>[6, 7, 9, 10, 11, 12, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, 0.38023603625130564, 0.01696602298203639, -0.5429484893896719)', '(-0.0005542468138891605, 0.5751154916696841, 0.006107053194242953, -0.8302378306182653)', '(0.010948063019504522, 0.37991059811469263, -0.010497703418122353, -0.5356404880761081)', '(0.018546274981798373, 0.5751785778202176, -0.021210513179644515, -0.831612586742662)', '(0.030049846538202727, 0.7705838862236679, -0.037842764914497756, -1.1308900425664956)', '(0.045461524262676085, 0.966180348214207, -0.06046056576582767, -1.4351977966258085)', '(0.06478513122696022, 1.1619935449409295, -0.08916452169834385, -1.7461454905181089)', '(0.08802500212577882, 0.9679912521757492, -0.12408743150870602, -1.4824777170131216)', '(0.1073848271692938, 1.1643890687431586, -0.15373698584896844, -1.811197450566611)', '(0.13067260854415697, 1.3608540715102306, -0.18996093486030066, -2.147440050440477)', '(0.1578896899743616, 1.5572733528716092, -0.2329097358691102, -2.4922823097797884)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>[0, 1, 7, 8, 11, 13, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 6, 7, 10]</t>
-  </si>
-  <si>
-    <t>[1,0]</t>
-  </si>
-  <si>
-    <t>[3, 7, 13, 14, 18, 24, 36, 38, 39, 40, 41]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, -0.20584991601057387, 0.02973729382904814, 0.3512454526255887)', '(-0.020290514986636407, -0.011163204504964663, 0.036762202881559916, 0.06808597381183934)', '(-0.0205137790767357, 0.18341293159795002, 0.0381239223577967, -0.21277537785557532)', '(-0.0168455204447767, 0.37796966224727624, 0.03386841480068519, -0.49319269981758523)', '(-0.009286127199831176, 0.18238680477198674, 0.024004560804333486, -0.1900312474337154)', '(-0.005638391104391441, 0.37715726291252727, 0.020203935855659178, -0.4750461027324113)', '(0.001904754153859104, 0.571988168399905, 0.010703013801010951, -0.761293262617648)', '(0.013344517521857203, 0.7669610519604088, -0.0045228514513420085, -1.0505892108717771)', '(0.02868373856106538, 0.5718993858621881, -0.025534635668777554, -0.7593294181757325)', '(0.04012172627830914, 0.3771384071445405, -0.040721224032292204, -0.47478955272729545)', '(0.04766449442119995, 0.18261444840098062, -0.05021701508683811, -0.1952142349747839)', '(0.051316783389219564, 0.3784174098759035, -0.05412129978633379, -0.5033060287372781)', '(0.05888513158673764, 0.1840983604580562, -0.06418742036107936, -0.22815813299204263)', '(0.06256709879589877, -0.01005038442727213, -0.06875058302092021, 0.0436071210099212)', '(0.06236609110735332, -0.20412256856528918, -0.06787844060072179, 0.3138309336038347)', '(0.058283639736047534, -0.3982152137371337, -0.06160182192864509, 0.5843585095886203)', '(0.05031933546130486, -0.20228687909300985, -0.049914651736872685, 0.2729239773508928)', '(0.04627359787944466, -0.006489557747981267, -0.04445617218985483, -0.03507502757936126)', '(0.04614380672448504, -0.20094673330744312, -0.045157672741442056, 0.24325673660758035)', '(0.04212487205833618, -0.3953955494198991, -0.040292538009290446, 0.5213607750225887)', '(0.0342169610699382, -0.1997302825085037, -0.029865322508838672, 0.2162582865498333)', '(0.030222355419768122, -0.39441283646909986, -0.025540156777842007, 0.49937279405549645)', '(0.022334098690386127, -0.1989403020286509, -0.015552700896732078, 0.1987516274024485)', '(0.01835529264981311, -0.00359939470453835, -0.01157766834868311, -0.09879660627943049)', '(0.018283304755722343, -0.19855351828161824, -0.01355360047427172, 0.19021122176351546)', '(0.014312234390089978, -0.39347897331412396, -0.00974937603900141, 0.47858791231580183)', '(0.006442654923807498, -0.19822074715353738, -0.00017761779268537364, 0.18284822133596118)', '(0.0024782399807367506, -0.0030962548789687516, 0.00347934663403385, -0.10989073208981437)', '(0.0024163148831573755, -0.19826789074541717, 0.0012815319922375628, 0.18388787551880054)', '(-0.0015490429317509677, -0.3934081552612522, 0.0049592895026135736, 0.47697480223248295)', '(-0.009417206036976013, -0.19835657661690986, 0.014498785547263231, 0.18585905730046676)', '(-0.01338433756931421, -0.3936829396767656, 0.018215966693272568, 0.48308030067041574)', '(-0.021257996362849522, -0.5890571865562438, 0.027877572706680884, 0.7814482483455406)', '(-0.0330391400939744, -0.7845510155285547, 0.043506537673591694, 1.082769996650058)', '(-0.04873016040454549, -0.9802192974577373, 0.06516193760659285, 1.3887815772089378)', '(-0.06833454635370023, -0.7859669606243957, 0.0929375691507716, 1.1171655161317555)', '(-0.08405388556618815, -0.5921793311820645, 0.1152808794734067, 0.8550228615364217)', '(-0.09589747218982944, -0.39880123969657943, 0.13238133670413516, 0.6006985987120315)', '(-0.10387349698376103, -0.20575536065882177, 0.14439530867837577, 0.35246993185300546)', '(-0.10798860419693747, -0.012950250710435124, 0.15144470731543588, 0.1085768756391236)', '(-0.10824760921114616, 0.1797136889587291, 0.15361624482821837, -0.13275649106208975)', '(-0.10465333543197158, 0.37233968969446885, 0.15096111500697657, -0.3733072478501009)', '(-0.0972065416380822, 0.5650309467292245, 0.14349497004997455, -0.6148427296885728)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 6, 7, 8, 10, 12, 14, 15, 18, 22, 26, 29, 30, 33, 35, 37, 41, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[2, 3, 12, 14, 17, 19, 20, 23, 33, 36, 37, 39, 41, 42, 44, 45]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.18592608100371844, -0.013061057913666957, -0.2680588366431443)', '(0.015267371510351105, -0.009007059353799696, -0.018422234646529843, 0.020476091983435085)', '(0.015087230323275112, -0.20386003791969498, -0.01801271280686114, 0.30729013388006127)', '(0.011010029564881212, -0.008486111063197549, -0.011866910129259915, 0.00898133406309054)', '(0.010840307343617262, -0.2034358816365489, -0.011687283447998104, 0.29789661033210013)', '(0.006771589710886284, -0.008149296488200092, -0.005729351241356101, 0.0015507552970182026)', '(0.006608603781122282, -0.20318861378538422, -0.005698336135415737, 0.29242050951401055)', '(0.0025448315054145973, -0.398228856274205, 0.00015007405486447412, 0.583300821633917)', '(-0.005419745620069504, -0.20310900784199998, 0.011816090487542815, 0.29066517405347336)', '(-0.009481925776909504, -0.39839743439963227, 0.01762939396861228, 0.587051214266624)', '(-0.01744987446490215, -0.20352676611726822, 0.029370418253944763, 0.2999734077195918)', '(-0.021520409787247514, -0.008835494563640245, 0.0353698864083366, 0.016696111565863425)', '(-0.02169711967852032, -0.20444637064338014, 0.03570380863965387, 0.3203254872305918)', '(-0.025786047091387924, -0.009850599105927171, 0.0421103183842657, 0.03911254732871017)', '(-0.025983059073506468, -0.2055503199418356, 0.04289256933083991, 0.3447786693359812)', '(-0.03009406547234318, -0.40125535714614247, 0.04978814271755953, 0.6506727760041525)', '(-0.03811917261526603, -0.2068609350285067, 0.06280159823764259, 0.3740741427087178)', '(-0.04225639131583617, -0.01268467974913276, 0.07028308109181694, 0.10183548569356676)', '(-0.04251008491081882, -0.20873982059674245, 0.07231979080568827, 0.41583837234856125)', '(-0.04668488132275367, -0.01471336182527358, 0.0806365582526595, 0.1468029328660786)', '(-0.04697914855925914, 0.17916679969529542, 0.08357261690998108, -0.11939086317952563)', '(-0.04339581256535323, 0.37299810357804575, 0.08118479964639057, -0.38458130797714934)', '(-0.03593585049379231, 0.5668792598144818, 0.07349317348684758, -0.6506030492189022)', '(-0.024598265297502676, 0.7609047815219514, 0.06048111250246954, -0.9192681532568812)', '(-0.009380169667063648, 0.5650197550698122, 0.04209574943733192, -0.6082072467982039)', '(0.0019202254343325953, 0.36933534767749554, 0.029931604501367844, -0.30256817407251735)', '(0.009306932387882506, 0.564018206779673, 0.023880241019917495, -0.585663082262843)', '(0.020587296523475965, 0.3685700524290228, 0.012166979374660634, -0.28555431623669153)', '(0.02795869757205642, 0.17327670931463296, 0.006455893049926803, 0.010941019638913252)', '(0.03142423175834908, 0.3683054821453809, 0.0066747134427050684, -0.27969802386813225)', '(0.0387903414012567, 0.563331584725395, 0.0010807529653424231, -0.5702683100084429)', '(0.0500569730957646, 0.7584383625978439, -0.010324613234826436, -0.8626105645896931)', '(0.06522574034772148, 0.9536993554080062, -0.0275768245266203, -1.1585218255360088)', '(0.0842997274558816, 0.7589474244130807, -0.05074726103734048, -0.8746115597370887)', '(0.09947867594414321, 0.9547212018620039, -0.06823949223208226, -1.1828074689978951)', '(0.1185730999813833, 0.7605478587922956, -0.09189564161204015, -0.9122721799013831)', '(0.1337840571572292, 0.9567848954094228, -0.11014108521006782, -1.232365029702875)', '(0.15291975506541766, 1.15313723673462, -0.13478838580412533, -1.557424924097433)', '(0.17598249980011005, 0.9598623995600557, -0.165936884286074, -1.3096501353547196)', '(0.19517974779131117, 1.1566514288078358, -0.1921298869931684, -1.6493409160730135)', '(0.21831277636746788, 1.3534297232859682, -0.22511670531462868, -1.9952165127839196)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45]</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 6, 7, 9, 11, 13, 14, 16, 18, 20, 23, 25, 27, 31, 32, 33, 36, 37, 40, 43, 44, 45]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 5, 7, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.40211259170445557, 0.09967117051882238, 0.6718791392529884)', '(-0.07086477751268125, -0.5984684418770909, 0.11310875330388215, 0.9942059556295573)', '(-0.08283414635022307, -0.4050263065775002, 0.13299287241647328, 0.7390800017270394)', '(-0.09093467248177307, -0.21196697558827612, 0.14777447245101408, 0.4910329738161191)', '(-0.0951740119935386, -0.40883059960160384, 0.15759513192733646, 0.8263977909204123)', '(-0.10335062398557068, -0.6057160463480604, 0.1741230877457447, 1.1642075440989075)', '(-0.1154649449125319, -0.802623490411381, 0.19740723862772286, 1.5060364043884462)', '(-0.1315174147207595, -0.6103667948085135, 0.22752796671549178, 1.2809137748133101)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 4, 7, 9, 10, 13]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 6, 7, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.2057675226194045, 0.06920609820418122, 0.35006240883399925)', '(-0.047212819080784105, -0.4018019665125764, 0.07620734638086121, 0.6637405329518147)', '(-0.055248858411035634, -0.5978967253412755, 0.08948215703989751, 0.9794122402495166)', '(-0.06720679291786115, -0.40408085999412857, 0.10907040184488784, 0.7161242470095285)', '(-0.07528841011774372, -0.6005298765929401, 0.12339288678507841, 1.0410498952709186)', '(-0.08729900764960252, -0.7970555784530557, 0.14421388469049679, 1.369782617383275)', '(-0.10324011921866363, -0.9936570196864203, 0.17160953703816229, 1.7038755239857573)', '(-0.12311325961239204, -1.1902888131058518, 0.20568704751787742, 2.044696710641799)', '(-0.14691903587450908, -1.3868451265486235, 0.2465809817307134, 2.393362826832739)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 3, 4, 8, 9, 11, 13]</t>
-  </si>
-  <si>
-    <t>[0, 2, 4, 5, 6, 9]</t>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.595919684308709, 0.06920609820418122, 0.9343495519973364)', '(-0.055015862314570195, -0.791903516316987, 0.08789308924412795, 1.2479519400188712)', '(-0.07085393264090993, -0.9880355484185881, 0.11285212804450537, 1.5668216613877721)', '(-0.09061464360928169, -1.184310416098135, 0.14418856127226082, 1.892469338400986)', '(-0.1143008519312444, -1.3806729853307276, 0.18203794804028053, 2.2262013605705073)', '(-0.14191431163785895, -1.5770022075612058, 0.2265619752516907, 2.5690532739686676)']</t>
+  </si>
+  <si>
+    <t>[0, 2, 3, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>[0, 1, 3, 4, 6, 9]</t>
   </si>
 </sst>
 </file>
@@ -719,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -769,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -819,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -840,7 +846,7 @@
         <v>26</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -849,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -869,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -890,7 +896,7 @@
         <v>26</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
@@ -899,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -916,28 +922,28 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -949,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -966,28 +972,28 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -999,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1016,31 +1022,31 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8">
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -1049,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1066,31 +1072,31 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9">
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
@@ -1099,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1119,13 +1125,13 @@
         <v>32</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
         <v>34</v>
@@ -1137,7 +1143,7 @@
         <v>35</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1149,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1169,13 +1175,13 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
@@ -1187,7 +1193,7 @@
         <v>35</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1199,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1219,13 +1225,13 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -1234,10 +1240,10 @@
         <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -1249,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1269,13 +1275,13 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -1284,10 +1290,10 @@
         <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1299,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1316,28 +1322,28 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
         <v>40</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1349,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1366,28 +1372,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
         <v>40</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1399,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1416,29 +1422,29 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
         <v>39</v>
       </c>
-      <c r="F16">
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16">
         <v>7</v>
       </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
-      </c>
       <c r="M16">
         <v>3</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1466,29 +1472,29 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
         <v>39</v>
       </c>
-      <c r="F17">
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17">
         <v>7</v>
       </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17">
-        <v>50</v>
-      </c>
-      <c r="K17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17">
-        <v>6</v>
-      </c>
       <c r="M17">
         <v>3</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1516,25 +1522,25 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
         <v>45</v>
-      </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -1549,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1566,25 +1572,25 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
         <v>45</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>46</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -1599,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1616,19 +1622,19 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
         <v>45</v>
-      </c>
-      <c r="H20">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
       </c>
       <c r="J20">
         <v>50</v>
@@ -1640,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
         <v>22</v>
@@ -1649,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1666,19 +1672,19 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
         <v>44</v>
       </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
         <v>45</v>
-      </c>
-      <c r="H21">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>46</v>
       </c>
       <c r="J21">
         <v>50</v>
@@ -1690,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
         <v>22</v>
@@ -1699,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1719,7 +1725,7 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
         <v>51</v>
@@ -1749,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1769,7 +1775,7 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
         <v>51</v>
@@ -1799,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1819,7 +1825,7 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
         <v>51</v>
@@ -1849,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1869,7 +1875,7 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>51</v>
@@ -1899,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="P25" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1919,7 +1925,7 @@
         <v>54</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
         <v>55</v>
@@ -1949,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1969,7 +1975,7 @@
         <v>54</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>55</v>
@@ -1999,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2019,7 +2025,7 @@
         <v>54</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>55</v>
@@ -2034,13 +2040,13 @@
         <v>50</v>
       </c>
       <c r="K28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L28">
         <v>26</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
         <v>22</v>
@@ -2049,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2069,7 +2075,7 @@
         <v>54</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
         <v>55</v>
@@ -2084,13 +2090,13 @@
         <v>50</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L29">
         <v>26</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
         <v>22</v>
@@ -2099,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2119,13 +2125,13 @@
         <v>59</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
         <v>60</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
         <v>61</v>
@@ -2137,7 +2143,7 @@
         <v>62</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2149,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2169,13 +2175,13 @@
         <v>59</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
         <v>60</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
         <v>61</v>
@@ -2187,7 +2193,7 @@
         <v>62</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2199,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2219,13 +2225,13 @@
         <v>59</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
         <v>60</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
         <v>61</v>
@@ -2249,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2269,13 +2275,13 @@
         <v>59</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
         <v>60</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
         <v>61</v>
@@ -2299,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2325,7 +2331,7 @@
         <v>65</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
         <v>66</v>
@@ -2337,7 +2343,7 @@
         <v>67</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2349,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2375,7 +2381,7 @@
         <v>65</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I35" t="s">
         <v>66</v>
@@ -2387,7 +2393,7 @@
         <v>67</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2399,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2425,7 +2431,7 @@
         <v>65</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
         <v>66</v>
@@ -2437,10 +2443,10 @@
         <v>68</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
         <v>22</v>
@@ -2449,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="P36" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2475,7 +2481,7 @@
         <v>65</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I37" t="s">
         <v>66</v>
@@ -2487,10 +2493,10 @@
         <v>68</v>
       </c>
       <c r="L37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
         <v>22</v>
@@ -2499,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="P37" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2534,7 +2540,7 @@
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="L38">
         <v>11</v>
@@ -2549,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="P38" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2584,7 +2590,7 @@
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="L39">
         <v>11</v>
@@ -2599,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="P39" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2634,13 +2640,13 @@
         <v>50</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L40">
         <v>6</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
         <v>22</v>
@@ -2684,13 +2690,13 @@
         <v>50</v>
       </c>
       <c r="K41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L41">
         <v>6</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
         <v>22</v>
@@ -2707,7 +2713,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -2716,19 +2722,19 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H42">
         <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -2749,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="P42" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2757,7 +2763,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>0.2</v>
@@ -2766,19 +2772,19 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H43">
         <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43">
         <v>100</v>
@@ -2799,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="P43" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2807,7 +2813,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.2</v>
@@ -2816,31 +2822,31 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H44">
         <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44">
         <v>50</v>
       </c>
       <c r="K44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L44">
         <v>26</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
         <v>22</v>
@@ -2849,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="P44" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2857,7 +2863,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45">
         <v>0.2</v>
@@ -2866,31 +2872,31 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H45">
         <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45">
         <v>50</v>
       </c>
       <c r="K45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L45">
         <v>26</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
         <v>22</v>
@@ -2899,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="P45" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2907,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46">
         <v>0.4</v>
@@ -2916,28 +2922,28 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L46">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2949,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="P46" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2957,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <v>0.4</v>
@@ -2966,28 +2972,28 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2999,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="P47" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3007,7 +3013,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48">
         <v>0.4</v>
@@ -3016,31 +3022,31 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H48">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J48">
         <v>50</v>
       </c>
       <c r="K48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
         <v>22</v>
@@ -3049,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="P48" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3057,7 +3063,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>0.4</v>
@@ -3066,31 +3072,31 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J49">
         <v>50</v>
       </c>
       <c r="K49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
         <v>22</v>
@@ -3099,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="P49" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3107,7 +3113,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>0.6</v>
@@ -3116,28 +3122,28 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3149,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="P50" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3157,7 +3163,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>0.6</v>
@@ -3166,28 +3172,28 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3199,7 +3205,7 @@
         <v>3</v>
       </c>
       <c r="P51" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3207,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>0.6</v>
@@ -3216,31 +3222,31 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J52">
         <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
         <v>22</v>
@@ -3249,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="P52" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3257,7 +3263,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53">
         <v>0.6</v>
@@ -3266,31 +3272,31 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H53">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J53">
         <v>50</v>
       </c>
       <c r="K53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L53">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
         <v>22</v>
@@ -3299,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="P53" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3307,7 +3313,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54">
         <v>0.8</v>
@@ -3316,28 +3322,28 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54">
         <v>10</v>
       </c>
-      <c r="G54" t="s">
-        <v>84</v>
-      </c>
-      <c r="H54">
-        <v>13</v>
-      </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3349,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="P54" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3357,7 +3363,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55">
         <v>0.8</v>
@@ -3366,28 +3372,28 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55">
         <v>10</v>
       </c>
-      <c r="G55" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55">
-        <v>13</v>
-      </c>
       <c r="I55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3399,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="P55" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3407,7 +3413,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56">
         <v>0.8</v>
@@ -3416,31 +3422,31 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56">
         <v>10</v>
       </c>
-      <c r="G56" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56">
-        <v>13</v>
-      </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J56">
         <v>50</v>
       </c>
       <c r="K56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
         <v>22</v>
@@ -3449,7 +3455,7 @@
         <v>3</v>
       </c>
       <c r="P56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3457,7 +3463,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57">
         <v>0.8</v>
@@ -3466,31 +3472,31 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="G57" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57">
-        <v>13</v>
-      </c>
       <c r="I57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J57">
         <v>50</v>
       </c>
       <c r="K57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
         <v>22</v>
@@ -3499,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="P57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3507,7 +3513,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3516,25 +3522,25 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
         <v>44</v>
       </c>
-      <c r="F58">
-        <v>9</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58" t="s">
         <v>45</v>
-      </c>
-      <c r="H58">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>46</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L58">
         <v>10</v>
@@ -3549,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="P58" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3557,7 +3563,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3566,25 +3572,25 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
         <v>44</v>
       </c>
-      <c r="F59">
-        <v>9</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
         <v>45</v>
-      </c>
-      <c r="H59">
-        <v>9</v>
-      </c>
-      <c r="I59" t="s">
-        <v>46</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L59">
         <v>10</v>
@@ -3599,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="P59" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3607,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3616,25 +3622,25 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
         <v>44</v>
       </c>
-      <c r="F60">
-        <v>9</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
         <v>45</v>
       </c>
-      <c r="H60">
-        <v>9</v>
-      </c>
-      <c r="I60" t="s">
-        <v>46</v>
-      </c>
       <c r="J60">
         <v>50</v>
       </c>
       <c r="K60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L60">
         <v>6</v>
@@ -3657,7 +3663,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3666,25 +3672,25 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
         <v>44</v>
       </c>
-      <c r="F61">
-        <v>9</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
         <v>45</v>
       </c>
-      <c r="H61">
-        <v>9</v>
-      </c>
-      <c r="I61" t="s">
-        <v>46</v>
-      </c>
       <c r="J61">
         <v>50</v>
       </c>
       <c r="K61" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L61">
         <v>6</v>

--- a/experimental results/e3000_CartPole.xlsx
+++ b/experimental results/e3000_CartPole.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="90">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,13 +70,13 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[13, 33, 39, 41, 43, 45]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, -0.2063645790204402, 0.007299072508378151, 0.3624784850587858)', '(-0.002067893560726774, -0.011347128052371896, 0.014548642209553868, 0.07210600921452692)', '(-0.002294836121774212, 0.18356325911430615, 0.015990762393844407, -0.21595148067457304)', '(0.0013764290605119112, -0.011783601792080406, 0.011671732780352946, 0.08173243197217583)', '(0.0011407570246703032, 0.1831691077660547, 0.013306381419796462, -0.20724530235468408)', '(0.0048041391799913975, -0.012140566145772025, 0.00916147537270278, 0.08960523347208371)', '(0.004561327857075957, 0.18284887774787523, 0.010953580042144456, -0.20017322189011344)', '(0.008218305412033462, -0.012428008800080104, 0.006950115604342186, 0.09594482411872818)', '(0.00796974523603186, 0.18259364393567018, 0.008869012086716751, -0.19453727221578504)', '(0.011621618114745262, -0.01265404404039211, 0.00497826664240105, 0.1009301966476367)', '(0.01136853723393742, 0.18239620850453303, 0.006996870575353784, -0.19017795236173585)', '(0.01501646140402808, -0.012825138614345699, 0.003193311528119067, 0.10470396353938122)', '(0.014759958631741166, 0.1822509047567262, 0.005287390798906692, -0.18696977759710437)', '(0.01840497672687569, -0.012946294354008542, 0.0015479952469646045, 0.1073764139573044)', '(0.01814605083979552, 0.1821534395879425, 0.003695523526110693, -0.18481772589829593)', '(0.02178911963155437, -0.013021192179181712, -8.309918552258308e-07, 0.10902870408888204)', '(0.021528695787970738, 0.1821007709483226, 0.002179743089922415, -0.18365448491387887)', '(0.02517071120693719, -0.013052301304937092, -0.0014933466083551622, 0.10971527200709369)', '(0.02490966518083845, 0.18209101727800397, 0.0007009588317867118, -0.183438423217543)', '(0.02855148552639853, -0.01304095668655536, -0.0029678096325641483, 0.10946554770137945)', '(0.028290666392667422, -0.20812025439334345, -0.0007784986785365593, 0.4012106708330665)', '(0.02412826130480055, -0.01298726927982552, 0.00724571473812477, 0.10828240327116534)', '(0.02386851591920404, 0.18203010516312962, 0.009411362803548077, -0.18210575806854096)', '(0.027509118022466632, 0.3770161324564676, 0.0057692476421772575, -0.47180494630341663)', '(0.03504944067159598, 0.18181317192114943, -0.003666851283891076, -0.17730922897279955)', '(0.03868570411001897, -0.013256112308889678, -0.007213035863347067, 0.11421467836618782)', '(0.038420581863841174, -0.20827397102046263, -0.004928742296023311, 0.404613242536096)', '(0.03425510244343192, -0.013082469728596668, 0.0031635225546986093, 0.11038050249015185)', '(0.033993453048859985, -0.2082496096674379, 0.0053711326045016465, 0.4040598215731221)', '(0.029828460855511225, -0.013204243064751542, 0.013452329035964088, 0.11307509720943654)', '(0.029564375994216196, -0.208516343253138, 0.015713830980152818, 0.40997160483010625)', '(0.025394049129153436, -0.013620658680696701, 0.023913263076754943, 0.12228384680018761)', '(0.0251216359555395, -0.20907690475997906, 0.026358940012758694, 0.4224142213358253)', '(0.020940097860339922, -0.014338114108073424, 0.034807224439475204, 0.1381561379566486)', '(0.020653335578178455, 0.18026845689801405, 0.037570347198608176, -0.14334564799320387)', '(0.024258704716138738, 0.3748327685527072, 0.0347034342387441, -0.42394308083005416)', '(0.03175536008719288, 0.17923683192726111, 0.026224572622143016, -0.12052506759280651)']</t>
+    <t>[5, 6, 9, 20, 24, 25, 28, 30, 31, 34, 35, 37, 41]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, -0.20479400662066377, 0.0221124503711613, 0.32788878955093564)', '(-0.01596358060234466, -0.4002236693499862, 0.028670226162180013, 0.6274621491600517)', '(-0.02396805398934438, -0.20551336259514813, 0.04121946914538105, 0.34394460884723665)', '(-0.028078321241247345, -0.01100130173611466, 0.04809836132232578, 0.06453943853980793)', '(-0.028298347275969638, -0.20677868001268537, 0.04938915009312194, 0.372001346678578)', '(-0.03243392087622335, -0.012391891712181274, 0.0568291770266935, 0.09529122358930786)', '(-0.032681758710466975, 0.18187144597717494, 0.05873500149847966, -0.17893458503177812)', '(-0.029044329790923477, 0.376105847748465, 0.0551563097978441, -0.452525616134286)', '(-0.021522212835954176, 0.5704061862318696, 0.046105797475158375, -0.7273251739236245)', '(-0.010114089111316785, 0.3746781562344713, 0.03155929399668589, -0.4204948219796057)', '(-0.002620525986627359, 0.17912358894895225, 0.023149397557093776, -0.11803214427247172)', '(0.0009619457923516861, 0.37390634072315554, 0.02078875467164434, -0.40332267313831627)', '(0.008440072606814796, 0.17849581165527934, 0.012722301208878016, -0.10415876187075657)', '(0.012009988839920382, 0.3734331522438055, 0.010639125971462885, -0.39280085344469196)', '(0.019478651884796493, 0.17816185060004058, 0.0027831089025690467, -0.09678263401078657)', '(0.023041888896797303, -0.01699987822546975, 0.0008474562223533151, 0.19677705844182358)', '(0.022701891332287907, 0.1781099409986256, 0.004782997391189787, -0.0956384132014993)', '(0.02626409015226042, 0.373163014260677, 0.002870229127159801, -0.38680848054832984)', '(0.03372735043747396, 0.17800043659527726, -0.004865940483806796, -0.09322197368814117)', '(0.03728735916937951, -0.017051434350523226, -0.006730379957569619, 0.19792178814308886)', '(0.03694633048236905, -0.21207647580538566, -0.002771944194707842, 0.48847400789625534)', '(0.032704800966261334, -0.01691552604861782, 0.0069975359632172655, 0.1949187573757032)', '(0.03236649044528898, 0.1781056341953137, 0.01089591111073133, -0.09554856225258473)', '(0.03592860312919525, -0.01717077464259653, 0.008984939865679635, 0.2005519981180291)', '(0.035585187636343316, 0.17782152710007376, 0.012995979828040218, -0.0892831116254652)', '(0.03914161817834479, -0.017484269942364156, 0.011210317595530914, 0.2074715551021199)', '(0.03879193277949751, -0.21276471367215746, 0.015359748697573311, 0.5036695793823945)', '(0.03453663850605436, -0.017862572009164496, 0.0254331402852212, 0.21586644102751312)', '(0.03417938706587107, 0.17688672862500027, 0.029750469105771463, -0.06868649845598407)', '(0.03771712163837108, -0.01864883955260338, 0.02837673913665178, 0.23323241110471765)', '(0.03734414484731901, -0.21416451385412877, 0.033041387358746135, 0.534729494496142)', '(0.033060854570236435, -0.01952240699265359, 0.04373597724866898, 0.2526380930873956)', '(0.03267040643038336, -0.21524069805522514, 0.04878873911041689, 0.5587890701103673)', '(0.028365592469278857, -0.020836315141649714, 0.059964520512624235, 0.28186768787105704)', '(0.027948866166445863, 0.17338132422428557, 0.06560187427004538, 0.008683845233975918)', '(0.03141649265093158, 0.36750410912905596, 0.0657755511747249, -0.26260086572173147)', '(0.038766574833512694, 0.17150793729956124, 0.060523533860290274, 0.050081720491972626)', '(0.04219673357950392, 0.36571216929576766, 0.06152516827012973, -0.2229081910122772)', '(0.04951097696541927, 0.5599032466530054, 0.05706700444988418, -0.4955666807513096)', '(0.06070904189847938, 0.7541759716659158, 0.04715567083485799, -0.7697327950550024)', '(0.0757925613317977, 0.9486182776989165, 0.03176101493375794, -1.0472134046497301)', '(0.09476492688577602, 0.7530895364562351, 0.01081674684076334, -0.7447320432900957)', '(0.10982671761490072, 0.5578199938287074, -0.004077894025038574, -0.44866480282072163)', '(0.12098311749147486, 0.7529993890234983, -0.013051190081453007, -0.742630358876068)', '(0.13604310527194483, 0.5580599972153463, -0.027903797258974367, -0.45408311530631)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
@@ -88,139 +88,124 @@
     <t>['[1,1]', '[0,0]', '[1,0]']</t>
   </si>
   <si>
-    <t>[0, 2, 4, 5, 6, 7, 8, 14, 16, 18, 19, 21, 24, 25, 27, 29, 30, 31, 35, 38, 39, 42, 43, 45, 48, 49]</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[0,0]', '[1,1]']</t>
-  </si>
-  <si>
-    <t>[9, 13, 18, 19, 20, 21, 22, 23, 26, 27, 28]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, -0.205795726467411, 0.013974886535729519, 0.34994676770407274)', '(-0.008986967383984194, -0.010875285114496508, 0.02097382188981097, 0.06170313871853211)', '(-0.009204473086274124, 0.18393976714461902, 0.022207884664181613, -0.22428931594269658)', '(-0.005525677743381745, -0.01149243166815972, 0.017722098345327682, 0.07531527774385866)', '(-0.0057555263767449395, -0.20686390308079405, 0.019228403900204853, 0.37353648960532637)', '(-0.009892804438360821, -0.012020300570695697, 0.02669913369231138, 0.08697791643607211)', '(-0.010133210449774735, 0.18270897044573678, 0.028438692021032823, -0.19716327486092305)', '(-0.006479031040859999, 0.37741284848650375, 0.02449542652381436, -0.48074114996933276)', '(0.0010692259288700764, 0.18195383985290986, 0.014880603524427705, -0.18043965775155968)', '(0.004708302725928273, -0.0133778522374009, 0.011271810369396512, 0.1169001773948023)', '(0.004440745681180256, -0.20865947836352644, 0.013609813917292558, 0.41311785041474575)', '(0.00026755611390972666, -0.403971677173295, 0.02187217092558747, 0.7100601779920731)', '(-0.0078118774295561745, -0.5993896101206502, 0.03607337448542893, 1.0095468710012214)', '(-0.019799669631969177, -0.7949739819579218, 0.05626431190545336, 1.3133358378050253)', '(-0.03569914927112761, -0.9907612100230739, 0.08253102866155387, 1.623084935269589)', '(-0.05551437347158909, -0.7967021289600817, 0.11499272736694566, 1.3572236938318625)', '(-0.07144841605079072, -0.6031950463487937, 0.14213720124358292, 1.1026134640787582)', '(-0.08351231697776659, -0.7998712987546357, 0.1641894705251581, 1.4363005421951762)', '(-0.0995097429528593, -0.996592335900224, 0.19291548136906161, 1.7754687043275883)', '(-0.11944158967086378, -1.1932941860231523, 0.2284248554556134, 2.121414091973377)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28]</t>
+    <t>[0, 2, 3, 4, 6, 8, 9, 11, 12, 13, 14, 17, 18, 19, 22, 24, 28, 29, 30, 33, 34, 36, 39, 43, 46, 49]</t>
+  </si>
+  <si>
+    <t>['[1,1]', '[1,0]', '[0,0]']</t>
+  </si>
+  <si>
+    <t>[1, 9, 12, 14, 18, 25, 28, 29, 30, 32, 37]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, 0.18594877956501746, 0.03869444837171655, -0.26877324231361266)', '(-0.019488118724880973, -0.009703402418254486, 0.033318983525444296, 0.0358586805708071)', '(-0.019682186773246062, 0.18492529718191608, 0.03403615713686044, -0.246128364066799)', '(-0.01598368082960774, 0.3795450175582019, 0.02911358985552446, -0.5278841683214563)', '(-0.008392780478443702, 0.18402580719474337, 0.01855590648909533, -0.22617144941287243)', '(-0.004712264334548835, -0.011356353854746565, 0.014032477500837883, 0.07230646131810359)', '(-0.004939391411643766, -0.2066766393409038, 0.015478606727199955, 0.36938345756304036)', '(-0.009072924198461844, -0.011777994618518473, 0.02286627587846076, 0.08162103986994967)', '(-0.009308484090832214, 0.18300883268892776, 0.024498696675859754, -0.20376071949984442)', '(-0.005648307437053659, -0.012454750614318971, 0.020423482285862864, 0.0965485703147847)', '(-0.005897402449340039, 0.18236861979515445, 0.02235445369215856, -0.18962145270611003)', '(-0.0022500300534369494, -0.01306589122389204, 0.01856202463803636, 0.1100287317577921)', '(-0.00251134787791479, 0.1817852219611189, 0.0207625992731922, -0.17674066581517245)', '(0.001124356561307588, 0.376603981138421, 0.01722778595688875, -0.4628020535595924)', '(0.008656436184076008, 0.18124284911382757, 0.007971744885696902, -0.16473912280751335)', '(0.012281293166352559, -0.01399230487786951, 0.004676962429546636, 0.13044797119507795)', '(0.01200144706879517, 0.18106233828961907, 0.007285921853448195, -0.16075577165491367)', '(0.015622693834587552, 0.3760792286375407, 0.004070806420349921, -0.4511313008343545)', '(0.023144278407338365, 0.18089994168327722, -0.0049518195963371685, -0.15716798242255475)', '(0.02676227724100391, -0.014150763738385808, -0.008095179244788264, 0.1339486596474272)', '(0.026479261966236192, 0.1810862012800708, -0.00541620605183972, -0.1612771489456653)', '(0.03010098599183761, -0.01395779392332605, -0.008641749030753026, 0.129692195822252)', '(0.029821830113371087, -0.20895489228203873, -0.006047905114307986, 0.41963627907390516)', '(0.02564273226773031, -0.01374776883059775, 0.0023448204671701178, 0.12505287570743268)', '(0.025367776891118358, 0.18134051164460455, 0.004845877981318771, -0.16688936394680776)', '(0.02899458712401045, -0.01385046841226073, 0.0015080907023826162, 0.12731835101181754)', '(0.028717577755765236, -0.2089939915020015, 0.004054457722618967, 0.4204766812782428)', '(0.024537697925725206, -0.4041731548308851, 0.012463991348183823, 0.7144350272213208)', '(0.016454234829107503, -0.20922594634417382, 0.026752691892610238, 0.4257012467204578)', '(0.012269715902224025, -0.4047164227712854, 0.035266716827019394, 0.7266963855058781)', '(0.004175387446798318, -0.21009936657979336, 0.04980064453713696, 0.44531858796867374)', '(-2.659988479754901e-05, -0.015716063930951846, 0.058707016296510435, 0.1687404656235828)', '(-0.0003409211634165859, 0.17851857921398004, 0.062081825608982094, -0.10485961889258905)', '(0.003229450420863015, 0.3726984470866608, 0.05998463323113031, -0.3773279671375194)', '(0.01068341936259623, 0.17677813764988534, 0.05243807388837993, -0.06635115017653676)', '(0.014218982115593937, 0.371110589006165, 0.05111105088484919, -0.34203941526026893)', '(0.021641193895717236, 0.5654695212698995, 0.04427026257964381, -0.6181769905432091)', '(0.03295058432111522, 0.3697580459633947, 0.03190672276877963, -0.3118861991457735)', '(0.04034574524038312, 0.5644112511095815, 0.025668998785864157, -0.5943384111207631)', '(0.05163397026257475, 0.3689395977261477, 0.013782230563448895, -0.2936816656577529)', '(0.059012762217097704, 0.563862367276826, 0.007908597250293838, -0.5819862037477641)', '(0.07029000956263423, 0.368630506737505, -0.0037311268246614446, -0.28682246775310904)', '(0.07766261969738433, 0.563805469006834, -0.009467576179723627, -0.5806798220827706)', '(0.08893872907752101, 0.36881745293873724, -0.02108117262137904, -0.2909943320099822)', '(0.09631507813629575, 0.17400233968571255, -0.026901059261578684, -0.005033999606525952)', '(0.09979512493001, 0.36949955537321233, -0.027001739253709203, -0.3060816809296805)', '(0.10718511603747424, 0.17477257856212755, -0.03312337287230281, -0.022035236657573287)']</t>
+  </si>
+  <si>
+    <t>['[0,0]', '[1,0]', '[1,1]']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 6, 9, 10, 13, 14, 15, 17, 19, 20, 21, 30, 32, 33, 35, 36, 38, 42, 44, 45, 48, 49]</t>
   </si>
   <si>
     <t>['[1,0]', '[1,1]', '[0,0]']</t>
   </si>
   <si>
-    <t>[0, 2, 3, 4, 6, 8, 11, 12, 14, 15, 20, 21, 23, 26, 28]</t>
-  </si>
-  <si>
-    <t>[1, 5, 7, 8, 11, 12, 14, 15, 17, 18, 19]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, 0.18594877956501746, 0.03869444837171655, -0.26877324231361266)', '(-0.019488118724880973, -0.009703402418254486, 0.033318983525444296, 0.0358586805708071)', '(-0.019682186773246062, -0.2052869197231233, 0.03403615713686044, 0.33886509441263474)', '(-0.02378792516770853, -0.010665398408714943, 0.04081345902511313, 0.057106590315378625)', '(-0.02400123313588283, -0.2063480575502339, 0.041955590831420704, 0.3623819718534442)', '(-0.02812819428688751, -0.40204044333715305, 0.049203230268489585, 0.6679935598316754)', '(-0.03616900315363057, -0.20763599865408378, 0.06256310146512309, 0.391199718904166)', '(-0.04032172312671225, -0.013455160519589976, 0.0703870958432064, 0.11887986929179117)', '(-0.04059082633710405, -0.20951130961129638, 0.07276469322904222, 0.4329126195929736)', '(-0.04478105252932998, -0.4055840127089584, 0.08142294562090169, 0.7476173547402143)', '(-0.052892732783509144, -0.21167413852617611, 0.09637529271570597, 0.4816280876707913)', '(-0.05712621555403267, -0.40801490777575034, 0.1060078544691218, 0.8030630549963582)', '(-0.06528651370954767, -0.6044183370269123, 0.12206911556904895, 1.1271223807272535)', '(-0.07737488045008592, -0.41108852118909145, 0.14461156318359403, 0.8750848206079158)', '(-0.08559665087386775, -0.6078489711689263, 0.16211325959575235, 1.20951257377838)', '(-0.09775363029724628, -0.8046498406898029, 0.18630351107131995, 1.5482961265437212)', '(-0.11384662711104233, -1.001454991374855, 0.2172694336021944, 1.8928523992746298)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
-  </si>
-  <si>
-    <t>[0, 3, 4, 6, 7, 10, 11, 13, 16, 17, 19]</t>
+    <t>[7, 15, 16, 18, 22, 23, 24, 25, 27, 28, 29]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, -0.20535498527219764, 0.017811089502435474, 0.3402405405228112)', '(-0.01246594538384614, -0.010490928408630806, 0.024615900312891698, 0.05322700071629072)', '(-0.012675763952018755, 0.18426957199857452, 0.025680440327217512, -0.2315889002694535)', '(-0.008990372512047266, -0.011209738044711759, 0.02104866232182844, 0.06908260297828756)', '(-0.009214567272941501, 0.1836042171540884, 0.022430314381394194, -0.2168857487432811)', '(-0.005542482929859733, 0.3783984521431807, 0.018092599406528572, -0.5024096413263224)', '(0.0020254861130038805, 0.18302621743276093, 0.008044406580002125, -0.20408031909907282)', '(0.005686010461659099, -0.012209846073418323, 0.003962800198020668, 0.09112933058081335)', '(0.005441813540190733, -0.20738837267529117, 0.005785386809636936, 0.3850598819142605)', '(0.0012940460866849093, -0.40259197801464686, 0.013486584447922147, 0.6795612839695407)', '(-0.006757793473608028, -0.2076599388067217, 0.02707781012731296, 0.39115475222728)', '(-0.01091099224974246, -0.40315550859109894, 0.03490090517185856, 0.6922505126982704)', '(-0.01897410242156444, -0.2085347064032089, 0.04874591542582397, 0.4107558713209524)', '(-0.023144796549628616, -0.014136487800276182, 0.056961032852243014, 0.13383054062044547)', '(-0.02342752630563414, 0.180125250291192, 0.05963764366465192, -0.1403519847569366)', '(-0.0198250212998103, -0.015797892901036226, 0.056830603969513185, 0.1705333382792909)', '(-0.020140979157831026, -0.2116852704016537, 0.060241270735099, 0.48058924177452933)', '(-0.0243746845658641, -0.40760355408967974, 0.06985305557058959, 0.7916338097331123)', '(-0.032526755647657696, -0.6036115038171886, 0.08568573176525184, 1.1054488188328517)', '(-0.04459898572400147, -0.4097142860602775, 0.10779470814190886, 0.8408308307560731)', '(-0.05279327144520702, -0.6061296647997088, 0.12461132475703032, 1.1653741452716024)', '(-0.0649158647412012, -0.8026334891935725, 0.14791880766246238, 1.494385350601577)', '(-0.08096853452507265, -0.9992124752022786, 0.1778065146744939, 1.8293635661902088)', '(-0.10095278402911823, -0.8064508844271261, 0.2143937859982981, 1.5967798945769762)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 11, 13, 14, 16, 17, 19, 21, 22, 25, 29, 30]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[0, 1, 5, 6, 7, 9]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 4, 7, 9]</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[2, 10, 23]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, 0.18576798339470538, 0.010344260345701474, -0.26457614791114553)', '(-0.00034492595914050513, -0.00950007383875101, 0.005052737387478563, 0.03135142557715925)', '(-0.0005349274359155254, 0.18554905545054978, 0.005679765899021748, -0.259733035167779)', '(0.0031760536730954707, -0.009653515590723472, 0.00048510519566616773, 0.03473594071475372)', '(0.0029829833612810015, 0.18546147572281405, 0.0011798240099612422, -0.2577938908967446)', '(0.0066922128757372825, 0.3805665631791757, -0.00397605380797365, -0.550104450215383)', '(0.014303544139320796, 0.18550068556802346, -0.01497814281228131, -0.2586769033830518)', '(0.018013557850681264, -0.009404267835119162, -0.020151680879942346, 0.02924432357017792)', '(0.01782547249397888, -0.204231521210469, -0.019566794408538788, 0.3155016743561342)', '(0.0137408420697695, -0.008836398342888574, -0.013256760921416104, 0.016712824427829787)', '(0.01356411410291173, -0.20376574761832789, -0.012922504432859508, 0.30518378225099263)', '(0.009488799150545173, -0.008462049839008723, -0.006818828787839655, 0.008453585164257205)', '(0.009319558153764998, -0.20348554908734492, -0.006649757084554511, 0.298977313013178)', '(0.005249847172018099, -0.008269444957397537, -0.0006702108242909515, 0.004204616854939169)', '(0.005084458272870148, 0.1868621116383025, -0.0005861184871921682, -0.2886896942689361)', '(0.008821700505636198, -0.008251476538496894, -0.00635991237257089, 0.0038083188996537176)', '(0.00865667097486626, -0.20328164264459014, -0.006283745994577815, 0.29447784994024956)', '(0.004591038121974458, -0.008070671291197179, -0.00039418899577282375, -0.00018023527678123763)', '(0.004429624696150514, 0.18705693095624942, -0.0003977937013084485, -0.2929875074697857)', '(0.008170763315275503, -0.008059346375310417, -0.0062575438507041625, -0.00043006597392070134)', '(0.008009576387769295, -0.2030909988175548, -0.006266145170182576, 0.29027197920265846)', '(0.003947756411418199, -0.00788026018625515, -0.0004607055861294068, -0.004380614737260424)', '(0.003790151207693096, -0.2029956011927881, -0.0005483178808746153, 0.2881569182751387)', '(-0.00026976081616266563, -0.007865835005455735, 0.005214820484628159, -0.004698892455071602)', '(-0.0004270775162717803, 0.18718094141852168, 0.005120842635526727, -0.29573192869831105)', '(0.0033165413120986535, -0.008013637436252968, -0.0007937959384394944, -0.00143837819769288)', '(0.003156268563373594, -0.203124195471022, -0.0008225635023933521, 0.2909939906669464)', '(-0.0009062153460468463, -0.007990525106921553, 0.0049973163109455765, -0.001948249499493071)', '(-0.0010660258481852774, 0.18705940208247543, 0.004958351320955715, -0.2930502821496202)', '(0.0026751621934642316, -0.008132891424883548, -0.0009026543220366891, 0.0011923082957663311)', '(0.0025125043649665605, -0.20324188563666062, -0.0008788081561213625, 0.2935903000499135)', '(-0.0015523333477666522, -0.008107415957223085, 0.004992997844876908, 0.00063033899342263)', '(-0.001714481666911114, 0.18694257376124426, 0.005005604624745361, -0.29047306337355405)', '(0.002024369808313771, -0.008250394053429339, -0.0008038566427257202, 0.003784361892557986)', '(0.0018593619272451844, -0.20336080758332475, -0.0007281694048745605, 0.29621355380175707)', '(-0.002207854224421311, -0.0082284832562933, 0.005196101671160581, 0.003301063123951231)', '(-0.002372423889547177, 0.18681856433191016, 0.005262122933639606, -0.2877379116246588)', '(0.0013639473970910262, -0.008378031515726442, -0.0004926352988535694, 0.006599985422771237)', '(0.0011963867667764974, 0.18675098132776616, -0.0003606355903981447, -0.28623833309764557)', '(0.00493140639333182, -0.008365824820307594, -0.006085402252351057, 0.0063308302308060505)', '(0.004764089896925668, -0.20339997638745366, -0.005958785647734936, 0.2970875434822797)', '(0.0006960903691765946, -0.008193589738619722, -1.7034778089342062e-05, 0.002531289293965955)', '(0.0005322185744042001, -0.20331529665044867, 3.3591007789977035e-05, 0.2952088413944856)', '(-0.003534087358604773, -0.0081938243352572, 0.0059377678356796896, 0.002536508843111629)', '(-0.003697963845309917, 0.18684246949675493, 0.0059884980125419224, -0.2882670811257568)']</t>
+  </si>
+  <si>
+    <t>[0, 2, 4, 8, 9, 11, 15, 16, 20, 22, 23, 24, 28, 29, 34, 35, 36, 38, 40, 42, 43, 44, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 8, 9, 10, 12, 13, 14, 16]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.5760082163585145, -0.0013614871701066334, -0.8498680372101901)', '(0.015264623176380358, 0.38090485791153295, -0.018358847914310437, -0.5576135478836375)', '(0.022882720334611018, 0.18604537653653322, -0.02951111887198319, -0.2707707801734356)', '(0.02660362786534168, 0.3815757475925402, -0.0349265344754519, -0.5726136392100497)', '(0.034235142817192483, 0.5771695675636315, -0.0463788072596529, -0.8760917527264338)', '(0.04577853416846511, 0.772890206243467, -0.06390064231418158, -1.1829875035288466)', '(0.061236338293334455, 0.5786529599898684, -0.08756039238475852, -0.9110002834495112)', '(0.07280939749313182, 0.7748436620794541, -0.10578039805374874, -1.2298688114977783)', '(0.0883062707347209, 0.9711554296836011, -0.1303777742837043, -1.5537319983712572)', '(0.10772937932839292, 1.1675769502867177, -0.16145241425112947, -1.8840862547288117)', '(0.13108091833412727, 0.9745387182067338, -0.1991341393457057, -1.6455557033788677)', '(0.15057169269826196, 1.171355474622074, -0.23204525341328305, -1.993105939578773)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
+  </si>
+  <si>
+    <t>[0, 5, 8, 9, 10, 11, 14, 15, 16]</t>
   </si>
   <si>
     <t>['[0,0]', '[1,1]', '[1,0]']</t>
   </si>
   <si>
-    <t>[3, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, -0.20495213504426485, 0.03381502625937853, 0.3314747470310424)', '(-0.023771207035731476, -0.40053869148949006, 0.040444521199999375, 0.6346265874098429)', '(-0.03178198086552128, -0.5962007505980312, 0.053137052948196234, 0.9397671145482214)', '(-0.043705995877481904, -0.7919971550869516, 0.07193239523916066, 1.2486621315516737)', '(-0.05954593897922093, -0.9879637770392886, 0.09690563787019413, 1.5629817954895868)', '(-0.0793052145200067, -1.1841018659796905, 0.12816527377998588, 1.8842542916155038)', '(-0.10298725183960052, -1.3803645007412, 0.16585035961229594, 2.213811160701268)', '(-0.1305945418544245, -1.5766408125139357, 0.2101265828263213, 2.552722546828726)']</t>
+    <t>[2, 3, 4, 5, 6, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 0.9673508153748098, -0.08832149577837754, -1.4634688048927638)', '(0.08126518704761529, 1.1634369092515942, -0.11759087187623282, -1.7823842601131068)', '(0.10453392523264718, 1.3596685305375775, -0.15323855707849496, -2.1091910721001104)', '(0.13172729584339873, 1.1663770403066074, -0.19542237852049715, -1.8675273649065207)', '(0.15505483664953087, 0.973857361412749, -0.23277292581862757, -1.641333733218128)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>[0, 4, 5, 6, 7, 10, 11]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.5760082163585145, -0.0013614871701066334, -0.8498680372101901)', '(0.015264623176380358, 0.7711487074207513, -0.018358847914310437, -1.142978779616701)', '(0.030687597324795382, 0.9665056771590287, -0.04121842350664446, -1.4413620502969484)', '(0.050017710867975955, 1.1621102689106992, -0.07004566451258343, -1.7466345155681449)', '(0.07325991624618994, 1.3579549924664167, -0.10497835482394632, -2.0602578163979106)', '(0.10041901609551827, 1.5539800288874153, -0.14618351115190453, -2.383483623618145)', '(0.13149861667326657, 1.7500569815548495, -0.19385318362426743, -2.7172871229411517)', '(0.16649975630436356, 1.9459702533623404, -0.24819892608309047, -3.062289173566951)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
   </si>
   <si>
-    <t>[0, 4, 6, 7, 9, 11, 12]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>['[1,1]', '[1,0]', '[0,0]']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 4, 7, 9]</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>[2, 6, 16, 18, 21, 26, 28, 32, 34, 42]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, 0.18576798339470538, 0.010344260345701474, -0.26457614791114553)', '(-0.00034492595914050513, 0.38074077330267914, 0.005052737387478563, -0.5539785274968766)', '(0.007269889506913077, 0.18554823711507773, -0.006026833162458969, -0.25970796220825093)', '(0.010980854249214632, -0.00948716082132936, -0.011220992406623987, 0.031067943327481973)', '(0.010791111032788044, -0.20444641458336704, -0.010599633540074347, 0.32018951103723575)', '(0.006702182741120703, -0.009175125901709325, -0.004195843319329632, 0.02418279832704151)', '(0.006518680223086517, 0.18600674532356068, -0.0037121873527888012, -0.26982100568354583)', '(0.010238815129557731, -0.009062035163095117, -0.00910860746645972, 0.021688768388786583)', '(0.010057574426295828, -0.20405218332619537, -0.008674832098683988, 0.3114839638806613)', '(0.005976530759771921, -0.008807724721102195, -0.0024451528210707625, 0.016077926760462713)', '(0.005800376265349877, 0.18634920743635391, -0.0021235942858615084, -0.2773754705900731)', '(0.009527360414076955, 0.38150139022068047, -0.007671103697662971, -0.5707274209661728)', '(0.017157388218490565, 0.18648785147067543, -0.01908565211698643, -0.2804710019673711)', '(0.020887145247904075, 0.38187678062842206, -0.02469507215633385, -0.5791118588074042)', '(0.028524680860472516, 0.1871094590517179, -0.03627730933248194, -0.29430956884155984)', '(0.03226687004150688, -0.007477014117524938, -0.042163500709313136, -0.013285090889519291)', '(0.03211732975915638, 0.1882234580962539, -0.04242920252710352, -0.3189673030548704)', '(0.035881798921081454, -0.0062693323703337245, -0.048808548588200926, -0.0399611209645096)', '(0.03575641227367478, -0.2006586271269517, -0.04960777100749112, 0.2369315571615071)', '(0.03174323973113574, -0.3950380398964882, -0.04486913986426098, 0.5135632807221326)', '(0.023842478933205978, -0.19931381730356107, -0.034597874249818326, 0.20708532580694972)', '(0.019856202587134757, -0.0037146500054204, -0.030456167733679332, -0.09630758747061474)', '(0.019781909587026348, -0.19838715217070108, -0.03238231948309163, 0.1866130166709229)', '(0.015814166543612326, -0.002817216115237997, -0.02865005914967317, -0.1161068308755025)', '(0.015757822221307567, -0.19751719455389663, -0.03097219576718322, 0.1674013187753176)', '(0.011807478330229635, -0.3921824304294428, -0.02762416939167687, 0.4501547605938752)', '(0.003963829721640779, -0.19668088351333618, -0.018621074179799364, 0.14889384982797593)', '(3.021205137405513e-05, -0.0012972999037693111, -0.015643197183239844, -0.14960499536486943)', '(4.266053298668907e-06, -0.19619179353372604, -0.018635297090537233, 0.13810206399148706)', '(-0.003919569817375852, -0.0008079576699175639, -0.01587325581070749, -0.16040126268232652)', '(-0.0039357289707742035, -0.1956991070929008, -0.01908128106435402, 0.12723209236959637)', '(-0.00784971111263222, -0.39054258235482586, -0.016536639216962093, 0.413834544467219)', '(-0.015660562759728738, -0.19519018611942776, -0.008259948327617712, 0.1159844647156632)', '(-0.019564366482117294, -0.3901928179147308, -0.0059402590333044476, 0.40605003697453024)', '(-0.02736822284041191, -0.1949871362137126, 0.002180741706186158, 0.11150025464292534)', '(-0.03126796556468616, -0.39014026800313517, 0.004410746799044666, 0.40487039382307566)', '(-0.039070770924748865, -0.19508114482148492, 0.01250815467550618, 0.11358131051092257)', '(-0.04297239382117857, -0.00014063424366447808, 0.014779780885724632, -0.17512927966199793)', '(-0.042975206506051855, -0.19547095421028426, 0.011277195292484672, 0.12217929700688906)', '(-0.04688462559025754, -0.39075264185138603, 0.013720781232622454, 0.4183986275765696)', '(-0.054699678427285264, -0.19582778369366546, 0.022088753784153845, 0.13007264541287406)', '(-0.05861623410115857, -0.00102910329136488, 0.024690206692411325, -0.15556052894281602)', '(-0.05863681616698587, -0.19649570438834513, 0.021578996113555005, 0.14480819226402875)', '(-0.06256673025475278, -0.0016893265082361941, 0.02447515995883558, -0.14098961055382347)', '(-0.0626005167849175, -0.1971531067704031, 0.02165536774775911, 0.1593132258542746)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 3, 8, 9, 10, 14, 15, 22, 25, 26, 28, 31, 34, 36, 37, 38, 39, 40, 42, 43, 44, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 11, 15, 16, 18, 21, 23, 24, 27, 29, 30, 36, 40, 41, 43, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.18576708117914809, -0.0013614871701066334, -0.2645346995398835)', '(0.0074598004727930295, 0.38090843867426455, -0.006652181160904304, -0.5576467415945094)', '(0.01507796924627832, 0.18588049996896644, -0.017805115992794492, -0.26706703306114465)', '(0.01879557924565765, -0.008982872984182377, -0.023146456654017385, 0.019947268067625257)', '(0.018615921785974, -0.20376536321078514, -0.02274751129266488, 0.3052382889992435)', '(0.014540614521758298, -0.00832675788993864, -0.01664274551268001, 0.005469033348689645)', '(0.014374079363959525, 0.18702987119092332, -0.01653336484570622, -0.29241806996402886)', '(0.018114676787777992, -0.00785249222493109, -0.022381726244986796, -0.004995065380922814)', '(0.01795762694327937, -0.20264642563048296, -0.022481627552605254, 0.280542974339038)', '(0.013904698430669708, -0.0072111161130764545, -0.016870768065824493, -0.01914495158738516)', '(0.013760476108408179, 0.18814866648107845, -0.017253667097572197, -0.31710269410550823)', '(0.017523449438029748, 0.38351206389610304, -0.023595720979682364, -0.6151764996104198)', '(0.02519369071595181, 0.1887276069785928, -0.035899250971890756, -0.3300176445887913)', '(0.028968242855523664, 0.38434171176153165, -0.04249960386366658, -0.6338018608255045)', '(0.036655077090754294, 0.1898375731194123, -0.05517564108017667, -0.35480022308365466)', '(0.04045182855314254, -0.004458219595674967, -0.06227164554184976, -0.08001345897500184)', '(0.040362664161229043, 0.19149857388035602, -0.0638719147213498, -0.3916749624235325)', '(0.044192635638836165, -0.002661523228544349, -0.07170541396982046, -0.11979426704319562)', '(0.044139405174265275, 0.19341062430807393, -0.07410129931068436, -0.43421003985353884)', '(0.04800761766042676, 0.38949915240434085, -0.08278550010775514, -0.749301509330691)', '(0.05579760070851358, 0.1956107620819301, -0.09777153029436896, -0.4837761021472268)', '(0.05970981595015218, 0.0019947855558589966, -0.1074470523373135, -0.2234382079642016)', '(0.059749711661269356, 0.1984752902367625, -0.11191581649659753, -0.5479880306321994)', '(0.0637192174660046, 0.005088782771111355, -0.12287557710924152, -0.2925576270314085)', '(0.06382099312142683, 0.20172888141237022, -0.1287267296498697, -0.6213284432105675)', '(0.06785557074967424, 0.3983911514893881, -0.14115329851408104, -0.9516223412951537)', '(0.07582339377946201, 0.20542192917597038, -0.16018574533998411, -0.7064086996994157)', '(0.07993183236298142, 0.01283902338736101, -0.17431391933397242, -0.46812606836638193)', '(0.08018861283072863, -0.17944722330961146, -0.18367644070130007, -0.23505677988113324)', '(0.0765996683645364, -0.3715348070610147, -0.18837757629892274, -0.00546985138575648)', '(0.0691689722233161, -0.5635259699431128, -0.18848697332663786, 0.2223661871953032)', '(0.05789845282445384, -0.366280158851346, -0.1840396495827318, -0.12334998398690022)', '(0.05057284964742692, -0.5583539516801297, -0.18650664926246982, 0.10609249095087592)', '(0.039405770613824324, -0.7503816456456547, -0.1843847994434523, 0.33462319752490977)', '(0.024398137700911232, -0.9424663588760933, -0.1776923354929541, 0.5639638033094163)', '(0.005548810523389364, -0.7453548127471576, -0.16641305942676576, 0.2209849357865879)', '(-0.009358285731553789, -0.5482936056528331, -0.161993360711034, -0.11922328856714687)', '(-0.020324157844610453, -0.7407686460220695, -0.16437782648237695, 0.11829135118143394)', '(-0.035139530765051843, -0.5437198310377417, -0.16201199945874828, -0.22140739133574608)', '(-0.046013927385806674, -0.7362000025056981, -0.1664401472854632, 0.016108568263409367)', '(-0.06073792743592064, -0.5391307221114859, -0.166117975920195, -0.3241181260582672)', '(-0.07152054187815035, -0.731545876227019, -0.17260033844136036, -0.08808291990826467)', '(-0.08615145940269073, -0.5344241930149393, -0.17436199683952566, -0.42986496776004146)', '(-0.09683994326298952, -0.7267037703369796, -0.1829592961947265, -0.1968218574861)', '(-0.11137401866972911, -0.5295006048549923, -0.1868957333444485, -0.5411799408481273)']</t>
-  </si>
-  <si>
-    <t>['[0,0]', '[1,0]', '[1,1]']</t>
-  </si>
-  <si>
-    <t>[0, 3, 4, 5, 11, 12, 14, 15, 18, 20, 22, 24, 25, 27, 29, 31, 33, 34, 37, 38, 39, 42, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 6, 7, 9, 10, 11, 13]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.5760082163585145, -0.0013614871701066334, -0.8498680372101901)', '(0.015264623176380358, 0.7711487074207513, -0.018358847914310437, -1.142978779616701)', '(0.030687597324795382, 0.9665056771590287, -0.04121842350664446, -1.4413620502969484)', '(0.050017710867975955, 0.771914845773861, -0.07004566451258343, -1.1618385048286413)', '(0.06545600778345317, 0.9678756649961633, -0.09328243460915625, -1.4756355221245179)', '(0.08481352108337645, 1.1640052799812997, -0.12279514505164661, -1.7959361689484032)', '(0.10809362668300244, 1.3602697567115511, -0.1587138684306147, -2.124127232833193)', '(0.13529902181723347, 1.167043423421004, -0.20119641308727854, -1.8843968391247152)', '(0.15863989028565356, 1.3637065756273452, -0.23888434986977283, -2.232194463932257)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>[0, 2, 4, 6, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 0.771597127803412, -0.053540969303457364, -1.1538662491508425)', '(0.05411364290672023, 0.9673749293981551, -0.07661829428647421, -1.4628456598169037)', '(0.07346114149468333, 1.1633475891356073, -0.10587520748281229, -1.7784459943452693)', '(0.09672809327739548, 1.3594902538402307, -0.14144412736971768, -2.1020817162272576)', '(0.1239178983542001, 1.5557206942096242, -0.18348576169426284, -2.4349339300580413)', '(0.1550323122383926, 1.7518822098410893, -0.23218444029542368, -2.7778795829060643)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>[0, 2, 4, 7, 8, 9, 11]</t>
+    <t>[0, 1, 6, 7, 8, 10, 12]</t>
   </si>
   <si>
     <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
@@ -235,67 +220,70 @@
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
-    <t>[0, 2, 3, 4, 9, 10]</t>
+    <t>[0, 2, 5, 7, 9, 10]</t>
   </si>
   <si>
     <t>[1,0]</t>
   </si>
   <si>
-    <t>[2, 5, 14, 23, 33, 38, 41, 42, 44]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, -0.20447315178466105, 0.010344260345701474, 0.32075718975916107)', '(-0.008149748662727833, -0.009500030014722272, 0.016759404140884695, 0.031354312407115115)', '(-0.008339749263022278, 0.1853776231463992, 0.017386490389026996, -0.25599408155493186)', '(-0.0046321968000942945, -0.009988193180479193, 0.012266608757928357, 0.042121721840523985)', '(-0.004831960663703878, 0.18495572957699466, 0.013109043194738837, -0.24666587017414177)', '(-0.0011328460721639847, -0.010350969157677414, 0.008175725791256002, 0.05012295444913184)', '(-0.001339865455317533, 0.18465280172770854, 0.009178184880238638, -0.2399692894249627)', '(0.0023531905792366376, -0.01059905160602348, 0.0043787990917393835, 0.055594503255219585)', '(0.002141209547116168, 0.18445984157344217, 0.005490689156843775, -0.23570366867238024)', '(0.005830406378585012, 0.37950291721187185, 0.0007766157833961704, -0.5266496175696896)', '(0.01342046472282245, 0.18437004694980513, -0.009756376567997622, -0.23372207542738804)', '(0.01710786566181855, -0.010611154395542666, -0.014430818076545383, 0.05586747775540779)', '(0.016895642573907698, 0.18471470709154814, -0.013313468521437227, -0.2413333210262974)', '(0.02058993671573866, -0.01021456056684833, -0.018140134941963176, 0.04712062354546376)', '(0.02038564550440169, -0.20507176083044398, -0.017197722471053903, 0.33402542763651916)', '(0.01628421028779281, -0.009709317081359636, -0.010517213918323519, 0.035969215309797575)', '(0.016090023946165617, 0.1855618616016979, -0.009797829612127567, -0.26001335728259467)', '(0.019801261178199574, -0.009418860089630915, -0.01499809675777946, 0.02956317130701752)', '(0.019612883976406956, 0.1859149259393686, -0.01440683333163911, -0.26781382927864594)', '(0.02333118249519433, -0.008998486914850112, -0.01976310991721203, 0.020290486338060687)', '(0.023151212756897327, -0.20383152052988568, -0.019357300190450816, 0.3066729890406362)', '(0.019074582346299614, -0.008439159138909469, -0.013223840409638091, 0.00794866526901139)', '(0.018905799163521423, -0.2033689900061317, -0.013064867104257864, 0.2964301506430483)', '(0.014838419363398789, -0.008063249927564659, -0.007136264091396898, -0.0003444188246812807)', '(0.014677154364847496, -0.20308213346327766, -0.007143152467890523, 0.29007841398779005)', '(0.010615511695581942, -0.00785905772242515, -0.001341584188134722, -0.00484879773301039)', '(0.010458330541133438, -0.20296174302097658, -0.00143856014279493, 0.2874105412154594)', '(0.006399095680713907, -0.007819306255030772, 0.004309650681514258, -0.005725747590708319)', '(0.006242709555613291, -0.20300279801499438, 0.004195135729700092, 0.288313804561409)', '(0.002182653595313404, -0.007940921449740457, 0.009961411820928271, -0.003043069308989843)', '(0.002023835166318595, 0.18703676245720022, 0.009900550434748474, -0.2925664779622035)', '(0.005764570415462599, -0.008224940687377058, 0.004049220875504404, 0.003222436351636271)', '(0.005600071601715058, 0.18683870543416933, 0.00411366960253713, -0.2881801664243489)', '(0.009336845710398445, 0.38190175304626095, -0.001649933725949848, -0.5795628467105685)', '(0.016974880771323662, 0.18680296242592975, -0.013241190660161217, -0.28740013941066506)', '(0.020710940019842257, -0.008127679326454196, -0.01898919344837452, 0.001077394529207798)', '(0.020548386433313172, 0.18726138459074593, -0.018967645557790364, -0.2975358488674965)', '(0.02429361412512809, 0.3826485133586133, -0.024918362535140293, -0.5961399759712138)', '(0.03194658439230036, 0.18788398834156034, -0.03684116205456457, -0.31140912480394506)', '(0.03570426415913157, 0.3835109136024064, -0.04306934455064347, -0.6154792477624608)', '(0.043374482431179695, 0.18901634611275608, -0.05537892950589268, -0.3366664136060282)', '(0.047154809353434815, -0.0052755787695447365, -0.06211225777801325, -0.061948391214434295)', '(0.04704929777804392, -0.19945452711184788, -0.06335122560230193, 0.2105091005088171)', '(0.04306020723580696, -0.3936161534320465, -0.05914104359212559, 0.4825544979979461)', '(0.035187884167166034, -0.19771151602349346, -0.04948995363216667, 0.17183396574825338)']</t>
-  </si>
-  <si>
-    <t>[0, 6, 8, 14, 15, 18, 19, 20, 22, 24, 25, 27, 29, 30, 31, 33, 34, 36, 37, 40, 41, 42, 44, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 5, 12, 18, 21, 24, 25, 26, 27]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.595919684308709, 0.06920609820418122, 0.9343495519973364)', '(-0.055015862314570195, -0.40179610891623413, 0.08789308924412795, 0.6641915796089797)', '(-0.06305178449289488, -0.20799967496821611, 0.10117692083630754, 0.4004263529951278)', '(-0.0672117779922592, -0.01444754909857418, 0.1091854478962101, 0.14127819848718154)', '(-0.06750072897423069, 0.17895502420565948, 0.11201101186595373, -0.11506136879390827)', '(-0.0639216284901175, 0.3723086559761546, 0.10970978449007557, -0.3704118703547265)', '(-0.0564754553705944, 0.5657148087680153, 0.10230154708298103, -0.6265869269176539)', '(-0.0451611591952341, 0.36932490225818293, 0.08976980854462795, -0.3035180072917286)', '(-0.03777466115007044, 0.5630604552593389, 0.08369944839879337, -0.566594301854286)', '(-0.026513452044883666, 0.7569146775135109, 0.07236756236170765, -0.8317787651870253)', '(-0.011375158494613447, 0.9509769609689092, 0.05573198705796714, -1.1008527879964543)', '(0.007644380724764737, 0.7551677003704003, 0.033714931298038056, -0.7912182014122902)', '(0.022747734732172745, 0.5595994415863829, 0.017890567269792254, -0.48812221172414916)', '(0.033939723563900404, 0.36422970173015645, 0.00812812303530927, -0.1898549538403797)', '(0.041224317598503535, 0.5592344320765237, 0.004331023958501676, -0.47996274511038967)', '(0.05240900624003401, 0.7542949765038864, -0.005268230943706118, -0.7712775005172908)', '(0.06749490577011173, 0.9494890266142246, -0.020693780954051937, -1.0656133653256648)', '(0.08648468630239622, 0.7546469504270621, -0.04200604826056523, -0.7794963644880681)', '(0.10157762531093746, 0.5601269251412957, -0.0575959755503266, -0.5003198594566096)', '(0.11278016381376338, 0.7560115090804431, -0.0676023727394588, -0.810583370938174)', '(0.12790039399537223, 0.9519912895269885, -0.08381404015822227, -1.123741527395093)', '(0.146940219785912, 1.1481059288079356, -0.10628887070612414, -1.4414933303298587)', '(0.16990233836207072, 1.3443640740213214, -0.1351187373127213, -1.7654093421890686)', '(0.19678961984249715, 1.151003562142916, -0.17042692415650268, -1.5176163386948636)', '(0.21980969108535547, 0.9583032233650683, -0.20077925093039994, -1.2826167769418853)', '(0.23897575555265685, 0.766222893589889, -0.22643158646923764, -1.0589174988630783)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
-  </si>
-  <si>
-    <t>[0, 1, 3, 5, 6, 11, 14, 16, 18, 19, 20, 21, 22, 24, 25, 30]</t>
-  </si>
-  <si>
-    <t>[1, 2, 6, 7, 8, 10, 11, 13, 15, 16]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.009882199210565407, 0.056718967558805795, 0.039842350584417374)', '(-0.0352940394312487, 0.18438247066809094, 0.05751581457049414, -0.23441962477579703)', '(-0.031606390017886885, -0.011512076960013967, 0.0528274220749782, 0.07583663411384034)', '(-0.031836631557087165, -0.20734999272311222, 0.05434415475725501, 0.3847077432127951)', '(-0.03598363141154941, -0.40319966184369926, 0.06203830962151091, 0.6940178718692676)', '(-0.04404762464842339, -0.20899063798003817, 0.07591866705889626, 0.42149231860055925)', '(-0.048227437408024154, -0.4051015023636054, 0.08434851343090745, 0.7371099408145527)', '(-0.05632946745529627, -0.6012808606188833, 0.09909071224719851, 1.0551018528164025)', '(-0.06835508466767393, -0.4076019816839118, 0.12019274930352655, 0.7950936802886718)', '(-0.07650712430135216, -0.6041504062611642, 0.1360946229093, 1.1230409809701773)', '(-0.08859013242657544, -0.4110493856769036, 0.15855544252870354, 0.8759561571545378)', '(-0.09681112014011352, -0.6079300019973395, 0.1760745656717943, 1.2139929220589725)', '(-0.1089697201800603, -0.8048313270248372, 0.20035442411297374, 1.5562772969352947)', '(-0.12506634672055705, -0.6125933383478261, 0.23147997005167964, 1.332199480478648)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>[0, 2, 3, 5, 6, 7, 10, 12, 13, 17]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 5, 6, 7, 8, 9, 10]</t>
+    <t>[3, 4, 6, 7, 9, 15, 19, 22, 26, 28, 29, 30, 33]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.3995926886560538, 0.03324521137881013, 0.6136121422661903)', '(-0.02747662635541598, -0.20495069645425082, 0.04551745422413394, 0.33158277607097986)', '(-0.031575640284500994, -0.40068999934945054, 0.052149109745553535, 0.6382651388197)', '(-0.03958944027149001, -0.5964988441456166, 0.06491441252194753, 0.9469040055260922)', '(-0.051519417154402336, -0.4023082941834021, 0.08385249263246938, 0.6753031235617661)', '(-0.05956558303807038, -0.5984892254877665, 0.09735855510370471, 0.9931643332934792)', '(-0.0715353675478257, -0.40479510514207645, 0.1172218417695743, 0.7325772579844678)', '(-0.07963126965066723, -0.2114711803358214, 0.13187338692926365, 0.478965782090343)', '(-0.08386069325738366, -0.018433422879403, 0.1414527025710705, 0.23058177859418)', '(-0.08422936171497171, 0.1744136925556349, 0.1460643381429541, -0.014351179443881257)', '(-0.08074108786385902, 0.36717178683531054, 0.14577731455407647, -0.2576190785225571)', '(-0.07339765212715281, 0.17030203547690573, 0.14062493298362533, 0.07726023197009729)', '(-0.0699916114176147, 0.36315729610442526, 0.14217013762302727, -0.16795943083277434)', '(-0.0627284654955262, 0.5559883110707236, 0.13881094900637178, -0.4126303412928237)', '(-0.05160869927411173, 0.7488977299227164, 0.13055834218051532, -0.6585316536002567)', '(-0.0366307446756574, 0.5522235739806658, 0.11738770910851018, -0.3277559549594357)', '(-0.025586273196044083, 0.745495731608337, 0.11083259000932147, -0.5812362552782566)', '(-0.010676358563877343, 0.9389044924916429, 0.09920786490375634, -0.8370512535603085)', '(0.008101731285955515, 0.7425777000702309, 0.08246683983255017, -0.5148898013701637)', '(0.022953285287360133, 0.9364473619601271, 0.0721690438051469, -0.7804882266957865)', '(0.041682232526562675, 1.130506918845765, 0.056559279271231166, -1.0496205549747717)', '(0.06429237090347797, 1.3248347775662492, 0.03556686817173573, -1.324026669268045)', '(0.09078906645480296, 1.5194898848196712, 0.009086334786374831, -1.6053702155084713)', '(0.12117886415119639, 1.3242616547461163, -0.023021069523794593, -1.3098686133951896)', '(0.1476640972461187, 1.5196675372424064, -0.04921844179169839, -1.6096673678134756)', '(0.17805744799096684, 1.7153351931165564, -0.0814117891479679, -1.9172778066639984)', '(0.212364151853298, 1.9112331176791246, -0.11975734528124787, -2.2340600753521387)', '(0.2505888142068805, 1.7174329509180577, -0.16443854678829065, -1.9805664810455366)', '(0.28493747322524166, 1.5243790714834788, -0.2040498764092014, -1.7430193379077799)', '(0.3154250546549112, 1.7211550064111223, -0.23891026316735697, -2.0916349878825193)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33]</t>
+  </si>
+  <si>
+    <t>[0, 3, 4, 5, 8, 9, 10, 11, 16, 18, 19, 20, 21, 28, 29, 30, 32, 33]</t>
+  </si>
+  <si>
+    <t>[3, 5, 9, 11, 12, 14, 15, 17, 21]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, -0.20495213504426485, 0.03381502625937853, 0.3314747470310424)', '(-0.023771207035731476, -0.010327424614466202, 0.040444521199999375, 0.049644297272201654)', '(-0.0239777555280208, 0.18419195325234866, 0.04143740714544341, -0.23000871411540208)', '(-0.020293916462973828, 0.37869802611569325, 0.036837232863135366, -0.5093382638621099)', '(-0.012719955940659963, 0.5732821648456403, 0.026650467585893168, -0.79018876176723)', '(-0.0012543126437471568, 0.37780457702032344, 0.010846692350548567, -0.4892421919457107)', '(0.006301778896659312, 0.5727718375406488, 0.0010618485116343519, -0.7784870143422631)', '(0.017757215647472287, 0.7678791720423431, -0.01450789177521091, -1.070835667700168)', '(0.03311479908831915, 0.572952028156075, -0.03592460512921427, -0.7827408929294609)', '(0.044573839651440655, 0.7685488159264325, -0.05157942298780349, -1.0865063326158757)', '(0.059944815969969305, 0.9643117277746793, -0.07330954964012101, -1.3949178031147131)', '(0.07923105052546289, 0.7701745442837697, -0.10120790570241528, -1.126027897068762)', '(0.09463454141113829, 0.9664664743468466, -0.12372846364379052, -1.4486634624426973)', '(0.11396387089807522, 0.7730637723302706, -0.15270173289264447, -1.1970605678875814)', '(0.12942514634468064, 0.5802117444719668, -0.1766429442503961, -0.9558686840071875)', '(0.14102938123411998, 0.3878487399862033, -0.19576031793053983, -0.7234775434564977)', '(0.14878635603384405, 0.585061705780027, -0.2102298687996698, -1.0708335007507763)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
+  </si>
+  <si>
+    <t>[0, 4, 6, 7, 10, 11, 14, 16, 17, 18, 20, 21]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 7, 10]</t>
   </si>
   <si>
     <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
   </si>
   <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.595919684308709, 0.06920609820418122, 0.9343495519973364)', '(-0.055015862314570195, -0.791903516316987, 0.08789308924412795, 1.2479519400188712)', '(-0.07085393264090993, -0.9880355484185881, 0.11285212804450537, 1.5668216613877721)', '(-0.09061464360928169, -1.184310416098135, 0.14418856127226082, 1.892469338400986)', '(-0.1143008519312444, -1.3806729853307276, 0.18203794804028053, 2.2262013605705073)', '(-0.14191431163785895, -1.5770022075612058, 0.2265619752516907, 2.5690532739686676)']</t>
-  </si>
-  <si>
-    <t>[0, 2, 3, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>[0, 1, 3, 4, 6, 9]</t>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -0.7922666038825532, 0.12304959880142835, 1.2600857217662162)', '(-0.09427328681678551, -0.988728810183323, 0.14825131323675267, 1.5886361973865297)', '(-0.11404786302045197, -0.7956465361116007, 0.18002403718448326, 1.3456161014154089)', '(-0.129960793742684, -0.6031861551720009, 0.20693635921279144, 1.1142325933190658)', '(-0.142024516846124, -0.8003340421284398, 0.22922101107917275, 1.4640511913763041)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 5, 9, 10]</t>
+  </si>
+  <si>
+    <t>[1, 4, 5, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, 0.18594877956501746, 0.03869444837171655, -0.26877324231361266)', '(-0.019488118724880973, 0.3804977726146236, 0.033318983525444296, -0.5490049620910891)', '(-0.011878163272588501, 0.575136225435839, 0.022338884283622514, -0.8310066284403257)', '(-0.0003754387638717216, 0.3797161919903389, 0.005718751714815999, -0.5313826291955268)', '(0.007218885075935056, 0.5747572384003111, -0.004908900869094537, -0.8222581109991509)', '(0.018714029843941278, 0.7699460071674182, -0.021354063089077554, -1.116480947573271)', '(0.03411294998728964, 0.965341628048156, -0.04368368204054297, -1.415785174144032)', '(0.05341978254825276, 1.1609765727032466, -0.07199938552342361, -1.721796561565592)', '(0.07663931400231769, 1.3568453065963686, -0.10643531675473544, -2.035988002082464)', '(0.10377622013424506, 1.5528906746828557, -0.14715507679638473, -2.359624889379327)', '(0.13483403362790217, 1.7489877646324088, -0.19434757458397128, -2.6936990806233085)', '(0.16981378892055035, 1.5557436208586817, -0.24822155619643746, -2.466069092825422)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>[0, 2, 4, 5, 6, 7, 13, 14]</t>
+  </si>
+  <si>
+    <t>[0, 2, 3, 5, 7, 9]</t>
   </si>
 </sst>
 </file>
@@ -725,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -775,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -825,7 +813,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -846,7 +834,7 @@
         <v>26</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -875,7 +863,7 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -896,7 +884,7 @@
         <v>26</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
@@ -931,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -940,10 +928,10 @@
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -955,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -981,7 +969,7 @@
         <v>27</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
         <v>28</v>
@@ -990,10 +978,10 @@
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1005,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1031,7 +1019,7 @@
         <v>27</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
@@ -1040,22 +1028,22 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
         <v>31</v>
-      </c>
-      <c r="L8">
-        <v>15</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1081,7 +1069,7 @@
         <v>27</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -1090,22 +1078,22 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
         <v>31</v>
-      </c>
-      <c r="L9">
-        <v>15</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1131,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>34</v>
@@ -1143,7 +1131,7 @@
         <v>35</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1155,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1181,7 +1169,7 @@
         <v>33</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
@@ -1193,7 +1181,7 @@
         <v>35</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1205,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1231,7 +1219,7 @@
         <v>33</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -1243,10 +1231,10 @@
         <v>36</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
@@ -1255,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1281,7 +1269,7 @@
         <v>33</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -1293,10 +1281,10 @@
         <v>36</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
@@ -1305,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1322,28 +1310,28 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>9</v>
       </c>
       <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
         <v>39</v>
-      </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1355,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1372,28 +1360,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>9</v>
       </c>
       <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
         <v>39</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1405,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1422,28 +1410,28 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
       <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
         <v>39</v>
       </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
       <c r="J16">
         <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -1455,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1472,28 +1460,28 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>9</v>
       </c>
       <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
       <c r="J17">
         <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>3</v>
@@ -1505,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1522,25 +1510,25 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -1555,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1572,25 +1560,25 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -1605,7 +1593,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1622,25 +1610,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -1655,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1672,25 +1660,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1705,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1713,7 +1701,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -1722,19 +1710,19 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H22">
         <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -1755,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1763,7 +1751,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>0.2</v>
@@ -1772,19 +1760,19 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H23">
         <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -1805,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1813,7 +1801,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>0.2</v>
@@ -1822,31 +1810,31 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>50</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L24">
         <v>26</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
         <v>22</v>
@@ -1855,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1863,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>0.2</v>
@@ -1872,31 +1860,31 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J25">
         <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L25">
         <v>26</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
         <v>22</v>
@@ -1905,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1913,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>0.4</v>
@@ -1922,28 +1910,28 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H26">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1955,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1963,7 +1951,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>0.4</v>
@@ -1972,28 +1960,28 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H27">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2005,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2013,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>0.4</v>
@@ -2022,31 +2010,31 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H28">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>50</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
         <v>22</v>
@@ -2055,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2063,7 +2051,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>0.4</v>
@@ -2072,31 +2060,31 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>50</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
         <v>22</v>
@@ -2105,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2113,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>0.6</v>
@@ -2122,28 +2110,28 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2155,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2163,7 +2151,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>0.6</v>
@@ -2172,28 +2160,28 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H31">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2205,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2213,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>0.6</v>
@@ -2222,28 +2210,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J32">
         <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -2255,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2263,7 +2251,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>0.6</v>
@@ -2272,28 +2260,28 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J33">
         <v>50</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M33">
         <v>3</v>
@@ -2305,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2313,7 +2301,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>0.8</v>
@@ -2322,28 +2310,28 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2355,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2363,7 +2351,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>0.8</v>
@@ -2372,28 +2360,28 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2405,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2413,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>0.8</v>
@@ -2422,31 +2410,31 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J36">
         <v>50</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L36">
         <v>7</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
         <v>22</v>
@@ -2455,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="P36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2463,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>0.8</v>
@@ -2472,31 +2460,31 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J37">
         <v>50</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L37">
         <v>7</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
         <v>22</v>
@@ -2505,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="P37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2513,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2522,25 +2510,25 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F38">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L38">
         <v>11</v>
@@ -2555,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="P38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2563,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2572,25 +2560,25 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F39">
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L39">
         <v>11</v>
@@ -2605,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="P39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2613,7 +2601,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2622,31 +2610,31 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J40">
         <v>50</v>
       </c>
       <c r="K40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L40">
         <v>6</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
         <v>22</v>
@@ -2655,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="P40" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2663,7 +2651,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2672,31 +2660,31 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F41">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J41">
         <v>50</v>
       </c>
       <c r="K41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L41">
         <v>6</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
         <v>22</v>
@@ -2705,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="P41" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2713,7 +2701,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -2722,28 +2710,28 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H42">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2755,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="P42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2763,7 +2751,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C43">
         <v>0.2</v>
@@ -2772,28 +2760,28 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H43">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="L43">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2805,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="P43" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2813,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>0.2</v>
@@ -2822,31 +2810,31 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H44">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J44">
         <v>50</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44" t="s">
         <v>22</v>
@@ -2863,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>0.2</v>
@@ -2872,31 +2860,31 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H45">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J45">
         <v>50</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N45" t="s">
         <v>22</v>
@@ -2913,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C46">
         <v>0.4</v>
@@ -2922,28 +2910,28 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H46">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2955,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="P46" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2963,7 +2951,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>0.4</v>
@@ -2972,28 +2960,28 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3005,7 +2993,7 @@
         <v>3</v>
       </c>
       <c r="P47" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3013,7 +3001,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <v>0.4</v>
@@ -3022,31 +3010,31 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="K48" t="s">
         <v>79</v>
       </c>
-      <c r="F48">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48">
-        <v>30</v>
-      </c>
-      <c r="I48" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48">
-        <v>50</v>
-      </c>
-      <c r="K48" t="s">
-        <v>83</v>
-      </c>
       <c r="L48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
         <v>22</v>
@@ -3055,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="P48" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3063,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C49">
         <v>0.4</v>
@@ -3072,31 +3060,31 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49" t="s">
         <v>79</v>
       </c>
-      <c r="F49">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49">
-        <v>30</v>
-      </c>
-      <c r="I49" t="s">
-        <v>81</v>
-      </c>
-      <c r="J49">
-        <v>50</v>
-      </c>
-      <c r="K49" t="s">
-        <v>83</v>
-      </c>
       <c r="L49">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
         <v>22</v>
@@ -3105,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="P49" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3113,7 +3101,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>0.6</v>
@@ -3122,28 +3110,28 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50">
         <v>10</v>
       </c>
-      <c r="G50" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50">
-        <v>17</v>
-      </c>
       <c r="I50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3155,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="P50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3163,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C51">
         <v>0.6</v>
@@ -3172,28 +3160,28 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51">
         <v>10</v>
       </c>
-      <c r="G51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H51">
-        <v>17</v>
-      </c>
       <c r="I51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3205,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="P51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3213,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C52">
         <v>0.6</v>
@@ -3222,28 +3210,28 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52">
         <v>10</v>
       </c>
-      <c r="G52" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52">
-        <v>17</v>
-      </c>
       <c r="I52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J52">
         <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M52">
         <v>3</v>
@@ -3255,7 +3243,7 @@
         <v>3</v>
       </c>
       <c r="P52" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3263,7 +3251,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>0.6</v>
@@ -3272,28 +3260,28 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53">
         <v>10</v>
       </c>
-      <c r="G53" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53">
-        <v>17</v>
-      </c>
       <c r="I53" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J53">
         <v>50</v>
       </c>
       <c r="K53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M53">
         <v>3</v>
@@ -3305,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="P53" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3313,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C54">
         <v>0.8</v>
@@ -3322,28 +3310,28 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L54">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3355,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="P54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3363,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>0.8</v>
@@ -3372,28 +3360,28 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3405,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="P55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3413,7 +3401,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C56">
         <v>0.8</v>
@@ -3422,31 +3410,31 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J56">
         <v>50</v>
       </c>
       <c r="K56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
         <v>22</v>
@@ -3455,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="P56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3463,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <v>0.8</v>
@@ -3472,31 +3460,31 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J57">
         <v>50</v>
       </c>
       <c r="K57" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
         <v>22</v>
@@ -3505,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="P57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3513,7 +3501,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3522,25 +3510,25 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F58">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L58">
         <v>10</v>
@@ -3555,7 +3543,7 @@
         <v>3</v>
       </c>
       <c r="P58" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3563,7 +3551,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3572,25 +3560,25 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F59">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L59">
         <v>10</v>
@@ -3605,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="P59" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3613,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3622,31 +3610,31 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F60">
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H60">
         <v>9</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>50</v>
       </c>
       <c r="K60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L60">
         <v>6</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
         <v>22</v>
@@ -3655,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="P60" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3663,7 +3651,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3672,31 +3660,31 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F61">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>9</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>50</v>
       </c>
       <c r="K61" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L61">
         <v>6</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" t="s">
         <v>22</v>
@@ -3705,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/experimental results/e3000_CartPole.xlsx
+++ b/experimental results/e3000_CartPole.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="70">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,13 +70,13 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[3, 7, 8, 18, 31, 32, 34, 35, 45]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, -0.20584991601057387, 0.02973729382904814, 0.3512454526255887)', '(-0.020290514986636407, -0.40138186514524166, 0.036762202881559916, 0.6531551791278435)', '(-0.02831815228954124, -0.20679059953974027, 0.049825306464116786, 0.3722711485400049)', '(-0.03245396428033605, -0.012410580281253802, 0.05727072943491689, 0.09570554482814725)', '(-0.032702175885961124, 0.1818457614946864, 0.05918484033147983, -0.17837284550242055)', '(-0.029065260656067397, 0.37607300885327766, 0.055617383421431424, -0.45181341808121556)', '(-0.021543800479001844, 0.5703661094245415, 0.04658111505980711, -0.7264593489273019)', '(-0.010136478290511014, 0.3746321107940197, 0.032051928081261075, -0.419486925303611)', '(-0.0026438360746306195, 0.17907099976034882, 0.023662189575188855, -0.11687427115062748)', '(0.000937583920576357, 0.37384606440926094, 0.021324704152176306, -0.4019990465560697)', '(0.008414505208761577, 0.17842824158961001, 0.013284723221054912, -0.10266997060146849)', '(0.011983070040553778, -0.016881550994635952, 0.011231323809025542, 0.19417446062948585)', '(0.011645439020661058, 0.17807795388558778, 0.01511481302161526, -0.09494441257595909)', '(0.015206998098372814, 0.3729800446891717, 0.013215924770096078, -0.3828205684444736)', '(0.02266659899215625, 0.17767296524599502, 0.005559513401206606, -0.08600016447939446)', '(0.02622005829707615, 0.37271478556845594, 0.0038395101116187164, -0.3769238851625317)', '(0.03367435400844527, 0.17753851340584778, -0.0036989675916319184, -0.08303282165934506)', '(0.03722512427656222, 0.3727132924715584, -0.005359624024818819, -0.37688048141334146)', '(0.04467939012599339, 0.17766787188446478, -0.012897233653085649, -0.08589227453511133)', '(0.04823274756368268, 0.3729722980304173, -0.014615079143787875, -0.382616230662679)', '(0.05569219352429103, 0.17806087738332566, -0.022267403757041455, -0.09457700432678834)', '(0.05925341107195754, 0.37349478658114976, -0.02415894384357722, -0.39420126927303883)', '(0.06672330680358055, 0.17872382927777503, -0.032042969229038, -0.10923212697714074)', '(0.07029778338913605, -0.01592464771819152, -0.034227611768580815, 0.17317168864733717)', '(0.06997929043477222, -0.21054043311501824, -0.030764177995634072, 0.4548634317082621)', '(0.06576848177247185, -0.40521419107204426, -0.021666909361468832, 0.7376926533495388)', '(0.05766419795103097, -0.20979981585225266, -0.0069130562944780555, 0.43827031856046744)', '(0.05346820163398592, -0.40482324039741324, 0.001852350076731294, 0.7287660428660249)', '(0.04537173682603765, -0.5999707481848918, 0.016427670934051793, 1.0220313929657974)', '(0.033372321862339814, -0.40507145943225675, 0.03686829879336774, 0.734551424840485)', '(0.02527089267369468, -0.21047771658729855, 0.05155932729017744, 0.45369599181808795)', '(0.021061338341948708, -0.016121313916980406, 0.0606332471265392, 0.1777005315641203)', '(0.0207389120636091, 0.17808288653865342, 0.06418725775782161, -0.09525520127112314)', '(0.02430056979438217, 0.37222894503797604, 0.06228215373239915, -0.3670164847365114)', '(0.03174514869514169, 0.5664131218284794, 0.054941824037668924, -0.6394288752336585)', '(0.04307341113171127, 0.7607277409179768, 0.04215324653299575, -0.9143162243890193)', '(0.05828796595007081, 0.5650617604916658, 0.023866922045215365, -0.6086885891303786)', '(0.06958920115990412, 0.36961442364002073, 0.011693150262607793, -0.3085848704546208)', '(0.07698148963270454, 0.1743278307911013, 0.005521452853515376, -0.012237299233778809)', '(0.08046804624852656, 0.36937016363309494, 0.0052767068688397995, -0.3031730400072767)', '(0.08785544952118846, 0.5644165163580646, -0.0007867539313057342, -0.5941871513842998)', '(0.09914377984834975, 0.3693055861782998, -0.01267049695899173, -0.301752152324168)', '(0.10652989157191575, 0.17436649325985604, -0.018705540005475092, -0.013092010926139208)']</t>
+    <t>[1, 3, 4, 5, 10, 30, 35, 37, 39, 40, 43]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.5956248027752826, 0.0574309101881717, 0.9272407954660062)', '(-0.0472027292383609, -0.4013233792000955, 0.07597572609749183, 0.6531445849773836)', '(-0.05522919682236281, -0.20733702810799612, 0.0890386177970395, 0.3853198470539871)', '(-0.05937593738452274, -0.013584499374372339, 0.09674501473811925, 0.12198510636795673)', '(-0.05964762737201018, 0.180027848286615, 0.09918471686547839, -0.13867668869199345)', '(-0.056047070406277884, -0.01636448321923309, 0.09641118309163851, 0.183576491992188)', '(-0.056374360070662544, 0.1772552285097267, 0.10008271293148227, -0.07720333579285737)', '(-0.05282925550046801, 0.3708106064570766, 0.09853864621562512, -0.3367083277706396)', '(-0.045413043371326484, 0.5644022829034105, 0.09180447966021232, -0.596763669380681)', '(-0.034124997713258276, 0.7581277277603421, 0.0798692062725987, -0.8591755288228657)', '(-0.018962443158051435, 0.5620140032912275, 0.0626856956961414, -0.5424861243342046)', '(-0.007722163092226885, 0.7562015287503885, 0.0518359732094573, -0.8147777784394346)', '(0.007401867482780886, 0.5604095220934291, 0.035540417640668606, -0.5062512930314003)', '(0.018610057924649467, 0.75501310707412, 0.0254153917800406, -0.7875256507348121)', '(0.033710320066131866, 0.5595514316405885, 0.009664878765344359, -0.48695650440449)', '(0.04490134869894363, 0.7545356862037311, -7.425132274544062e-05, -0.7765777961431899)', '(0.05999206242301826, 0.5594147562487539, -0.015605807245609239, -0.48391823190640537)', '(0.07118035754799333, 0.3645164863897747, -0.02528417188373735, -0.19619434681749992)', '(0.07847068727578882, 0.5599908039008202, -0.029208058820087347, -0.49674485911822497)', '(0.08967050335380522, 0.365292620466971, -0.03914295600245185, -0.2134080978165871)', '(0.09697635576314464, 0.17075152340358143, -0.04341111795878359, 0.06667493307092126)', '(0.10039138623121627, 0.36646811266086643, -0.04207761929736517, -0.23938223002630388)', '(0.1077207484844336, 0.17197173460961998, -0.04686526389789125, 0.03973693455715788)', '(0.111160183176626, 0.36773330884985, -0.04607052520674809, -0.26735635912520395)', '(0.118514849353623, 0.17329810550812996, -0.05141765238925217, 0.010447041583067473)', '(0.1219808114637856, -0.021050182840357978, -0.051208711557590825, 0.28647406935806746)', '(0.12155980780697845, 0.17476325528352202, -0.04547923017042947, -0.02190983810916558)', '(0.1250550729126489, 0.37050692082103964, -0.04591742693261278, -0.328588022261152)', '(0.1324652113290697, 0.17606770819776396, -0.052489187377835825, -0.050731597699544495)', '(0.13598656549302496, -0.018263844819245922, -0.05350381933182671, 0.22493953371730235)', '(0.13562128859664005, -0.2125819128207489, -0.049005028657480666, 0.5002769165443919)', '(0.13136965034022507, -0.01680461757962831, -0.03899949032659283, 0.19256180890782476)', '(0.1310335579886325, -0.21134759679302342, -0.03514825414843633, 0.4726914428908999)', '(0.12680660605277203, -0.01574731755889741, -0.02569442529061833, 0.16914077962148594)', '(0.12649165970159407, -0.2104922467740536, -0.022311609698188614, 0.4536084204387448)', '(0.122281814766113, -0.40529170716095103, -0.013239441289413718, 0.7391758154725374)', '(0.11417598062289397, -0.20998946701974125, 0.00154407502003703, 0.4423558477007372)', '(0.10997619128249915, -0.01488939932273528, 0.010391191974051774, 0.1501600528941195)', '(0.10967840329604445, -0.21015859341535922, 0.013394393031934165, 0.44610298622021893)', '(0.10547523142773726, -0.015228672718956032, 0.02231645275633854, 0.15767216783315552)', '(0.10517065797335814, 0.1795667780621714, 0.025469896113001652, -0.12788775921014456)', '(0.10876199353460157, 0.3743147759107447, 0.02291214092879876, -0.412427669185536)', '(0.11624828905281646, 0.5691045693886316, 0.014663587545088041, -0.6978000891422337)', '(0.1276303804405891, 0.3737823895066685, 0.0007075857622433675, -0.40053737725929556)', '(0.13510602823072249, 0.17865040837324503, -0.007303161782942543, -0.10763144863607771)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
@@ -88,157 +88,142 @@
     <t>['[1,1]', '[1,0]', '[0,0]']</t>
   </si>
   <si>
-    <t>[11, 12, 13, 14, 16, 19, 21]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, -0.2061289758985688, 0.010501521455371832, 0.3572873645489475)', '(-0.005522271685957336, -0.4013986397347141, 0.01764726874635078, 0.6532630999716023)', '(-0.013550244480651619, -0.5967618277841353, 0.030712530745782826, 0.9514502800544299)', '(-0.025485481036334325, -0.7922833538825941, 0.04974153634687142, 1.253622323996892)', '(-0.04133114811398621, -0.5978325332715474, 0.07481398282680926, 0.9769248362606839)', '(-0.05328779877941715, -0.7938736944564517, 0.09435247955202294, 1.2921388088666317)', '(-0.06916527266854619, -0.6000692853901572, 0.12019525572935558, 1.030423716603244)', '(-0.08116665837634934, -0.40673373879160557, 0.14080373006142047, 0.7777650809862291)', '(-0.08930133315218146, -0.6034820805776943, 0.15635903168114504, 1.1112265671737416)', '(-0.10137097476373534, -0.410720604007037, 0.17858356302461986, 0.8713941252631567)', '(-0.10958538684387609, -0.6077630590744812, 0.196011445529883, 1.2144821861956956)', '(-0.12174064802536572, -0.4156337341034644, 0.2203010892537969, 0.9890658338459123)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22]</t>
+    <t>[3, 4, 5, 8, 9, 10, 16, 17]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.3995926886560538, 0.03324521137881013, 0.6136121422661903)', '(-0.02747662635541598, -0.5951630534519876, 0.04551745422413394, 0.9165778814353094)', '(-0.03937988742445573, -0.40068515562440654, 0.06384901185284013, 0.6385406887243138)', '(-0.047393590536943864, -0.2065088679539981, 0.0766198256273264, 0.36662861159510374)', '(-0.05152376789602382, -0.40263124532874317, 0.08395239785922848, 0.6824532781397541)', '(-0.05957639280259869, -0.5988125110957992, 0.09760146342202355, 1.0003417928355505)', '(-0.07155264302451467, -0.7950938232084819, 0.11760829927873456, 1.3220118292199068)', '(-0.08745451948868431, -0.6016378576497645, 0.1440485358631327, 1.0683296247657184)', '(-0.0994872766416796, -0.40868441002828143, 0.16541512835844707, 0.8241010599687244)', '(-0.10766096484224523, -0.21616455772928703, 0.18189714955782155, 0.5876736723542353)', '(-0.11198425599683097, -0.02399329773719594, 0.19365062300490626, 0.35735571493798773)', '(-0.11246412195157489, 0.16792424822280694, 0.200797737303666, 0.13143842234578634)', '(-0.10910563698711875, -0.029422854615087396, 0.20342650575058174, 0.4801499888449752)', '(-0.1096940940794205, -0.2267476780276798, 0.21302950552748123, 0.8294297424167503)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.40211259170445557, 0.09967117051882238, 0.6718791392529884)', '(-0.07086477751268125, -0.2085070661330625, 0.11310875330388215, 0.4121669947743199)', '(-0.0750349188353425, -0.4050354656691434, 0.12135209319936854, 0.7382589883515283)', '(-0.08313562814872537, -0.6016056051670152, 0.1361172729663991, 1.0665358063524102)', '(-0.09516774025206567, -0.7982401279438637, 0.15744798909344732, 1.398654402607817)', '(-0.11113254281094295, -0.9949298921542513, 0.18542107714560366, 1.7361383551779639)', '(-0.131031140654028, -1.1916192157326233, 0.22014384424916295, 2.0803170371011985)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[1,1]', '[0,0]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.7921700633318426, 0.09967117051882238, 1.2550513000759314)', '(-0.07866592694522898, -0.988416901412974, 0.12477219652034101, 1.5772154098656272)', '(-0.09843426497348845, -1.1847851949795187, 0.15631650471765357, 1.9060659311545185)', '(-0.12212996887307882, -1.3812124622389594, 0.19443782334074394, 2.2428845249413913)', '(-0.14975421811785802, -1.188387736442827, 0.23929551383957176, 2.01590289586726)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
     <t>['[0,0]', '[1,0]', '[1,1]']</t>
   </si>
   <si>
-    <t>[3, 4, 5, 7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.3995926886560538, 0.03324521137881013, 0.6136121422661903)', '(-0.02747662635541598, -0.5951630534519876, 0.04551745422413394, 0.9165778814353094)', '(-0.03937988742445573, -0.40068515562440654, 0.06384901185284013, 0.6385406887243138)', '(-0.047393590536943864, -0.5966365553654367, 0.0766198256273264, 0.9506277238098771)', '(-0.0593263216442526, -0.7927015093780913, 0.09563238010352394, 1.2663665080198185)', '(-0.07518035183181443, -0.988906328557114, 0.12095971026392031, 1.5874020445078667)', '(-0.09495847840295671, -1.1852403385210988, 0.15270775115407764, 1.9152267242644372)', '(-0.11866328517337868, -1.3816415648624862, 0.1910122856393664, 2.2511220155464446)', '(-0.1462961164706284, -1.188762931105031, 0.2360347259502953, 2.0228827626909203)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[4, 8, 19, 34, 35]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, 0.3802478236181868, 0.0009930658321914924, -0.5430831938294477)', '(0.010758013827932775, 0.18511193022202863, -0.009868598044397462, -0.2500875367578215)', '(0.014460252432373347, -0.009867712816153923, -0.014870348779553892, 0.03946636549582372)', '(0.01426289817605027, -0.20477330215763803, -0.014081021469637418, 0.32742070447839394)', '(0.01016743213289751, -0.009453741352684342, -0.007532607380069539, 0.030330724545252208)', '(0.009978357305843823, 0.1857754171116128, -0.006925992889164495, -0.26471927081529784)', '(0.013693865648076078, -0.00924699740825144, -0.012220378305470452, 0.025771109034767925)', '(0.013508925699911049, -0.20419158580358335, -0.011704956124775094, 0.3145734556757393)', '(0.009425093983839382, -0.008904871347055782, -0.005413487011260308, 0.018222271827824266)', '(0.009246996556898266, 0.18629429536054548, -0.0050490415747038225, -0.2761637452947864)', '(0.012972882464109176, -0.008755258294893958, -0.01057231648059955, 0.01492244400783338)', '(0.012797777298211297, 0.18651670483268, -0.010273867600442882, -0.28107733424978154)', '(0.016528111394864896, -0.008457200531533371, -0.015895414285438513, 0.008347625028384209)', '(0.01635896738423423, -0.20334762496860398, -0.01572846178487083, 0.29597327607888513)', '(0.01229201488486215, -0.008005021609525403, -0.009808996263293127, -0.001628363265420485)', '(0.01213191445267164, -0.202984933858294, -0.009841563528601537, 0.28794363636440284)', '(0.008072215775505761, -0.007724029172838459, -0.00408269080131348, -0.007826909550995298)', '(0.007917735192048992, -0.20278719162142436, -0.004239228992333386, 0.2835650878263467)', '(0.0038619913596205048, -0.007605033595039501, 0.0014320727641935482, -0.010451848084867543)', '(0.003709890687719715, -0.20274749336976633, 0.0012230358024961975, 0.28268257067267716)', '(-0.00034505917967561205, -0.007643008261785794, 0.00687668721594974, -0.00961436567263757)', '(-0.0004979193449113279, 0.18737965013026886, 0.006684399902496988, -0.30011970638620805)', '(0.003249673657694049, -0.007836936700281932, 0.0006820057747728269, -0.005336169063161644)', '(0.0030929349236884104, -0.2029686622175625, 0.000575282393509594, 0.2875618608235119)', '(-0.0009664383206628396, -0.007854919701596741, 0.0063265196099798315, -0.0049395715064301515)', '(-0.0011235367146947743, 0.18717573137155025, 0.006227728179851229, -0.2956197092235302)', '(0.0026199779127362307, 0.3822083476588586, 0.0003153339953806244, -0.5863320202271303)', '(0.010264144865913403, 0.5773258808711756, -0.011411306409161982, -0.8789155973012892)', '(0.021810662483336914, 0.3823608278921569, -0.028989618355187766, -0.5898419098559087)', '(0.029457879041180052, 0.18765652833406085, -0.040786456552305936, -0.3064299278169081)', '(0.03321100960786127, -0.0068612053021434305, -0.0469150551086441, -0.02688387788751273)', '(0.0330737855018184, -0.2012800576136548, -0.047452732666394354, 0.2506355522902441)', '(0.029048184349545304, -0.3956933873540992, -0.04244002162058947, 0.5279814108857925)', '(0.02113431660246332, -0.20000082865717764, -0.031880393402873616, 0.22223326661989)', '(0.017134300029319767, -0.39465294300705756, -0.027435728070475816, 0.5046918252734851)', '(0.009241241169178616, -0.1991553023986395, -0.017341891565006113, 0.2034906313828972)', '(0.005258135121205826, -0.39402500816064795, -0.01327207893734817, 0.49065297654684276)', '(-0.0026223650420071328, -0.1987183724981648, -0.0034590194064113133, 0.19381694818705286)', '(-0.006596732491970429, -0.0035471119094402648, 0.0004173195573297442, -0.09995514098426961)', '(-0.0066676747301592345, -0.19867504154712964, -0.0015817832623556479, 0.19285941993159045)', '(-0.010641175561101827, -0.003530498403958693, 0.0022754051362761612, -0.10032207267410936)', '(-0.010711785529181, -0.19868498587603556, 0.0002689636827939738, 0.1930778692624735)']</t>
+  </si>
+  <si>
+    <t>['[1,1]', '[0,0]', '[1,0]']</t>
+  </si>
+  <si>
+    <t>[6, 7, 9, 12, 15, 23, 28, 32, 39, 41, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, 0.38023603625130564, 0.01696602298203639, -0.5429484893896719)', '(-0.0005542468138891605, 0.5751154916696841, 0.006107053194242953, -0.8302378306182653)', '(0.010948063019504522, 0.37991059811469263, -0.010497703418122353, -0.5356404880761081)', '(0.018546274981798373, 0.5751785778202176, -0.021210513179644515, -0.831612586742662)', '(0.030049846538202727, 0.3803528276709872, -0.037842764914497756, -0.5456751193804581)', '(0.03765690309162247, 0.18578246693985118, -0.048756267302106915, -0.2651516504215351)', '(0.0413725524304195, 0.3815651764971851, -0.054059300310537614, -0.5728053908412897)', '(0.0490038559603632, 0.18724122177026162, -0.06551540812736341, -0.2976309696767902)', '(0.05274868039576843, -0.006888604112311569, -0.07146802752089922, -0.026308704050765852)', '(0.0526109083135222, 0.1891816152968106, -0.07199420160191454, -0.34065697291409386)', '(0.05639454061945841, -0.004846082564850057, -0.07880734106019642, -0.07151737385494333)', '(0.056297618968161406, -0.19875495125084613, -0.08023768853729529, 0.19529779603116681)', '(0.052322519943144484, -0.3926429509190926, -0.07633173261667196, 0.4616295206014173)', '(0.044469660924762636, -0.5866077620860309, -0.06709914220464362, 0.7293097989669459)', '(0.03273750568304202, -0.3906256564622035, -0.0525129462253047, 0.4162858209652274)', '(0.02492499255379795, -0.5849655759256716, -0.04418722980600016, 0.691962145839055)', '(0.013225681035284518, -0.389259316047718, -0.030347986889219056, 0.3857024799556524)', '(0.005440494714330157, -0.1937199748413794, -0.02263393729010601, 0.08360758799132739)', '(0.0015660952175025693, -0.38851028700246787, -0.02096178553027946, 0.3690644074233519)', '(-0.006204110522546788, -0.5833282262609842, -0.013580497381812422, 0.6550648032887227)', '(-0.017870675047766474, -0.3880198554967429, -0.0004792013160379669, 0.3581367187524231)', '(-0.025631072157701332, -0.19289109507295674, 0.006683533059010495, 0.06530272654135394)', '(-0.029488894059160466, 0.0021343977293594163, 0.007989587589837574, -0.22526403481091684)', '(-0.02944620610457328, -0.19310082358759523, 0.003484306893619237, 0.06992836406349195)', '(-0.03330822257632519, -0.38827255446537956, 0.004882874174889076, 0.36370856743958924)', '(-0.041073673665632776, -0.19322033980475617, 0.01215704552368086, 0.07256929263808126)', '(-0.0449380804617279, 0.0017252331566672274, 0.013608431376442486, -0.21625337492179958)', '(-0.04490357579859455, -0.19358859149960927, 0.009283363878006493, 0.08069099028218357)', '(-0.048775347628586735, -0.3888423819056871, 0.010897183683650166, 0.37628832540741086)', '(-0.05655219526670048, -0.19387688854769675, 0.018422950191798383, 0.08706115770604822)', '(-0.060429733037654414, -0.38925800418116085, 0.02016417334591935, 0.3854991385257917)', '(-0.06821489312127763, -0.19442803058827812, 0.027874156116435185, 0.09924145386960775)', '(-0.0721034537330432, 0.00028357251984145737, 0.02985898519382734, -0.18451855381100896)', '(-0.07209778228264636, 0.19496585181840578, 0.02616861411760716, -0.4676345671032967)', '(-0.06819846524627825, -0.000515849142091962, 0.016815922775541225, -0.16681971430971743)', '(-0.0682087822291201, 0.19436140732868737, 0.013479528489346877, -0.4541506218417407)', '(-0.06432155408254635, -0.0009485278618479587, 0.004396516052512062, -0.15724947280953672)', '(-0.0643405246397833, -0.19613314862427894, 0.0012515265963213276, 0.13681720029961664)', '(-0.06826318761226888, -0.3912730033273736, 0.00398787060231366, 0.4298947018391324)', '(-0.07608864767881635, -0.19620775136806967, 0.012585764639096308, 0.13847158135502102)', '(-0.08001280270617774, -0.3915076829031066, 0.01535519626619673, 0.43509839423452007)', '(-0.08784295636423986, -0.1966064394045436, 0.02405716415088713, 0.14729524427173218)', '(-0.09177508515233074, -0.00183710723466729, 0.027003069036321777, -0.13770209236151015)', '(-0.09181182729702408, 0.19288788141057556, 0.024249027189091575, -0.4217451541715838)']</t>
   </si>
   <si>
     <t>['[0,0]', '[1,1]', '[1,0]']</t>
   </si>
   <si>
-    <t>[1, 2, 4, 6, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.2057675226194045, 0.06920609820418122, 0.35006240883399925)', '(-0.047212819080784105, -0.4018019665125764, 0.07620734638086121, 0.6637405329518147)', '(-0.055248858411035634, -0.2078182635244849, 0.08948215703989751, 0.3959927783533833)', '(-0.05940522368152533, -0.4040883246880589, 0.09740201260696518, 0.715492657540721)', '(-0.0674869901752865, -0.6004139199106888, 0.11171186575777961, 1.0371761602125489)', '(-0.07949526857350028, -0.7968290802194471, 0.13245538896203057, 1.3627374530638643)', '(-0.09543185017788923, -0.9933384240513154, 0.15971013802330786, 1.6937476290465336)', '(-0.11529861865891554, -1.1899032427891238, 0.19358509060423854, 2.0315978808036426)', '(-0.139096683514698, -0.9972358321129366, 0.2342170482203114, 1.804554265003185)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[1,1]', '[0,0]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>[6, 16, 18, 22, 23, 32, 41]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, 0.38023603625130564, 0.01696602298203639, -0.5429484893896719)', '(-0.0005542468138891605, 0.1848798075461529, 0.006107053194242953, -0.2449685482289371)', '(0.003143349337033898, -0.010328835320269097, 0.0012076822296642102, 0.0496344181754903)', '(0.002936772630628516, 0.18477577806681272, 0.002200370593174016, -0.24266722999641827)', '(0.0066322881919647705, -0.010377534035573233, -0.0026529740067543495, 0.050708937944616894)', '(0.006424737511253306, 0.18478235737339838, -0.0016387952478620115, -0.24280984242132092)', '(0.010120384658721273, -0.010316147088394761, -0.00649499209628843, 0.04935571570954156)', '(0.009914061716953379, 0.18489833120696178, -0.005507877782097599, -0.245369339675293)', '(0.013612028341092614, -0.010144521156756015, -0.01041526457560346, 0.045571193281050915)', '(0.013409137917957495, 0.1851252184177625, -0.00950384070998244, -0.25037956183400595)', '(0.017111642286312744, 0.38038158874892025, -0.014511431946662559, -0.546044977432746)', '(0.02471927406129115, 0.1854665054827648, -0.02543233149531748, -0.2579693474068964)', '(0.028428604170946444, 0.3809421359841108, -0.030591718443455408, -0.5585642719799957)', '(0.03604744689062866, 0.18626265783283583, -0.04176300388305532, -0.2756742501112287)', '(0.03977270004728538, -0.00823933446710165, -0.047276488885279896, 0.0035495907995276577)', '(0.03960791335794334, -0.2026525111202209, -0.047205497069289344, 0.28094941103269744)', '(0.035554863135538926, -0.006890098579558773, -0.04158650884863539, -0.02624035919869816)', '(0.03541706116394775, 0.18880279917395862, -0.042111316032609356, -0.3317488231633861)', '(0.039193117147426924, -0.00569522536417752, -0.04874629249587708, -0.052637502805155056)', '(0.03907921264014337, -0.20008555049309767, -0.04979904255198018, 0.22427588566435758)', '(0.035077501630281414, -0.39446169129752473, -0.045313524838693026, 0.5008437722123696)', '(0.02718826780433092, -0.19873123958360353, -0.03529664939444563, 0.19423184768603685)', '(0.02321364301265885, -0.3933309720374422, -0.03141201244072489, 0.47557457287374294)', '(0.015347023571910005, -0.1977798668210243, -0.02190052098325003, 0.17315900499442122)', '(0.01139142623548952, -0.3925816380479594, -0.018437340883361606, 0.45885335116837916)', '(0.003539793474530331, -0.19720397446126736, -0.009260273859994023, 0.16041639511873634)', '(-0.00040428601469501627, -0.001950682536696391, -0.006051945957619296, -0.13517346684367537)', '(-0.00044329966542894407, -0.19698542731860322, -0.008755415294492804, 0.15559403158104462)', '(-0.004383008211801008, -0.3919809325630548, -0.005643534662871912, 0.44550201943852186)', '(-0.012222626863062103, -0.19677959417726146, 0.0032665057258985247, 0.1510454842603507)', '(-0.016158218746607333, -0.0017045686917688263, 0.006287415411105539, -0.14060514189707823)', '(-0.01619231012044271, -0.19691600235206755, 0.003475312573163974, 0.15405470880015726)', '(-0.02013063016748406, -0.0018439837246299051, 0.00655640674916712, -0.13752981227274674)', '(-0.02016750984197666, -0.19705922572001228, 0.003805810503712185, 0.15721432680662617)', '(-0.024108694356376904, -0.0019919698293416055, 0.006950097039844708, -0.1342655324010018)', '(-0.024148533752963736, 0.19302974299255127, 0.004264786391824671, -0.42474772435812636)', '(-0.02028793889311271, -0.0021523603607399577, -0.004230168095337857, -0.1307233884639279)', '(-0.02033098610032751, -0.19721346062744152, -0.006844635864616415, 0.1606219783644789)', '(-0.02427525531287634, -0.39223675657199264, -0.003632196297326837, 0.45113776258572874)', '(-0.03211999044431619, -0.19706362441791425, 0.005390558954387737, 0.15731213215648832)', '(-0.036061262932674476, -0.002019264758525957, 0.008536801597517504, -0.13366533996796298)', '(-0.03610164822784499, -0.1972624503558439, 0.005863494798158245, 0.16169855612740308)', '(-0.04004689723496187, -0.002224929376590218, 0.009097465920706305, -0.1291288386370959)', '(-0.04009139582249367, -0.1974760139931574, 0.006514889147964387, 0.16641028665413754)']</t>
-  </si>
-  <si>
-    <t>[2, 3, 7, 9, 10, 12, 14, 15, 18, 27, 28, 32, 35, 36, 37, 40, 41, 43, 45]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.18592608100371844, -0.013061057913666957, -0.2680588366431443)', '(0.015267371510351105, -0.009007059353799696, -0.018422234646529843, 0.020476091983435085)', '(0.015087230323275112, 0.1863741750893349, -0.01801271280686114, -0.2779618605490733)', '(0.01881471382506181, -0.008486235392693386, -0.023571950017842607, 0.00898588727171934)', '(0.018644989117207942, 0.1869657001271611, -0.02339223227240822, -0.2910400811076732)', '(0.022384303119751165, 0.3824132508494567, -0.029213033894561685, -0.5910078887803702)', '(0.0300325681367403, 0.1877122198810553, -0.04103319167016909, -0.3076683624828957)', '(0.0337868125343614, 0.38339410406130103, -0.047186558919827, -0.6130044911810444)', '(0.04145469461558742, 0.18896223377828175, -0.05944664874344789, -0.33554901358667016)', '(0.045233939291153054, 0.3848776037835674, -0.0661576290151813, -0.646369984595631)', '(0.0529314913668244, 0.5808559679759212, -0.07908502870709391, -0.9591305997844025)', '(0.06454861072634283, 0.3868811702706034, -0.09826764070278196, -0.6923046011534081)', '(0.07228623413175489, 0.19324996528101973, -0.11211373272585012, -0.43210323110171045)', '(0.07615123343737529, 0.38976598862425316, -0.12075579734788433, -0.757919055697786)', '(0.08394655320986034, 0.19649676752908785, -0.13591417846184006, -0.505542325583419)', '(0.0878764885604421, 0.0035255528239230005, -0.14602502497350844, -0.2585907676654715)', '(0.08794699961692055, -0.18924268867859792, -0.15119684032681788, -0.015294720534328926)', '(0.08416214584334859, -0.38190935767806566, -0.15150273473750445, 0.2261255317929148)', '(0.07652395868978729, -0.5745780448378618, -0.14698022410164616, 0.4674465429742136)', '(0.06503239779303005, -0.7673509998946969, -0.1376312932421619, 0.7104314448457345)', '(0.04968537779513611, -0.9603257213814077, -0.1234226643452472, 0.9568203275681975)', '(0.030478863367507956, -1.153591164385627, -0.10428625779388324, 1.20831905413573)', '(0.007407040079795417, -0.9572883425235911, -0.08011987671116864, 0.8848599421284262)', '(-0.011738726770676406, -0.7611753192981706, -0.06242267786860012, 0.5681040171930574)', '(-0.02696223315663982, -0.9553687081763547, -0.051060597524738974, 0.8404864145827345)', '(-0.04606960732016692, -1.149757771579273, -0.03425086923308428, 1.1166846927048573)', '(-0.06906476275175238, -0.9542034367632206, -0.011917175378987132, 0.813457443658774)', '(-0.0881488314870168, -0.7589203144384112, 0.0043519734941883485, 0.5170499937396398)', '(-0.10332723777578502, -0.9541032729708921, 0.014692973368981144, 0.811101135185109)', '(-0.12240930323520287, -0.7591856587459946, 0.030914996072683325, 0.5230758516432963)', '(-0.13759301641012275, -0.5645121499583307, 0.041376513105549254, 0.24029268098307993)', '(-0.14888325940928937, -0.37000494318809496, 0.04618236672521085, -0.039057191112637446)', '(-0.15628335827305126, -0.17557462574836655, 0.0454012229029581, -0.3168189202893944)', '(-0.15979485078801858, -0.3713128562379311, 0.039064844497170216, -0.010170750360485536)', '(-0.1672211079127772, -0.5669726438841607, 0.038861429489960506, 0.2945771612018063)', '(-0.1785605607904604, -0.3724256595779727, 0.044752972713996635, 0.014399396944129506)', '(-0.18600907398201985, -0.1779731434899129, 0.04504096065287923, -0.26383435222122886)', '(-0.1895685368518181, -0.37370808162642843, 0.03976427360845465, 0.042707857024598894)', '(-0.19704269848434666, -0.17917823131640248, 0.04061843074894663, -0.23716864045691227)', '(-0.20062626311067472, -0.37485623185256073, 0.035875057939808386, 0.0680447983043263)', '(-0.20812338774772593, -0.18026649518967294, 0.03723595390589491, -0.21310699144757966)', '(-0.21172871765151938, -0.3759004832029301, 0.03297381407694332, 0.09108541763663336)', '(-0.21924672731557798, -0.571479163700972, 0.034795522429675985, 0.393986512065067)', '(-0.23067631058959742, -0.7670771415868451, 0.042675252670977326, 0.697433704246688)', '(-0.24601785342133434, -0.5725721311436058, 0.05662392675591109, 0.41848453572250177)']</t>
-  </si>
-  <si>
-    <t>[2, 4, 8, 10, 11, 14, 15, 18, 19, 20, 21]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.18576708117914809, -0.0013614871701066334, -0.2645346995398835)', '(0.0074598004727930295, -0.009335410834953733, -0.006652181160904304, 0.027718490138554097)', '(0.007273092256093955, 0.1858813025106682, -0.006097811358133222, -0.2670558277646516)', '(0.01099071830630732, 0.3810897477190676, -0.011438927913426253, -0.5616557971522018)', '(0.018612513260688673, 0.1861301792760515, -0.02267204385647029, -0.2725985484531272)', '(0.0223351168462097, 0.38156817642078394, -0.028124014825532832, -0.5723452127539959)', '(0.02996648037462538, 0.5770729556872374, -0.03957091908061275, -0.8737537823199538)', '(0.04150793948837013, 0.3825107317238796, -0.05704599472701183, -0.5937697234076216)', '(0.04915815412284772, 0.18823172938346788, -0.06892138919516426, -0.31958769248786434)', '(0.05292278871051708, 0.38426409711667786, -0.07531314304492155, -0.6331849822215478)', '(0.060608070652850635, 0.5803514106291702, -0.0879768426893525, -0.9486033191508999)', '(0.07221509886543404, 0.3865170328682403, -0.10694890907237051, -0.6848080634764662)', '(0.07994543952279884, 0.19302969719329616, -0.12064507034189983, -0.42761839197303797)', '(0.08380603346666476, 0.3896352898545994, -0.1291974381813606, -0.7557668212255251)', '(0.09159873926375675, 0.586278935710875, -0.14431277460587108, -1.086152397376398)', '(0.10332431797797426, 0.7829787369002542, -0.16603582255339905, -1.4204158892996237)', '(0.11898389271597934, 0.9797198163417785, -0.19444414033939153, -1.760059597108997)', '(0.1385782890428149, 0.7872585192555623, -0.22964533228157147, -1.5336150132323407)']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 9, 10, 11]</t>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 10, 11]</t>
   </si>
   <si>
     <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.1634006997254158, -0.12927896337288503, -1.7837726844292332)', '(0.11233644389439112, 1.3597171735281837, -0.16495441706146968, -2.1136922671800944)', '(0.1395307873649548, 1.5560590183238596, -0.20722826240507158, -2.4524842372594406)', '(0.17065196773143199, 1.7522535327844693, -0.2562779471502604, -2.8009696104463693)']</t>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.1634006997254158, -0.12927896337288503, -1.7837726844292332)', '(0.11233644389439112, 0.969947273561099, -0.16495441706146968, -1.5339162994420583)', '(0.1317353893656131, 1.1666272464055074, -0.19563274305031086, -1.8732085768888753)', '(0.15506793429372326, 1.3632746641462616, -0.23309691458808837, -2.219702941227257)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
   </si>
   <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+    <t>['[1,0]', '[0,0]', '[1,1]']</t>
   </si>
   <si>
     <t>[1,0]</t>
   </si>
   <si>
-    <t>[3, 7, 9, 11, 15, 17, 27, 28, 35, 42, 44, 48]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, -0.20584991601057387, 0.02973729382904814, 0.3512454526255887)', '(-0.020290514986636407, -0.011163204504964663, 0.036762202881559916, 0.06808597381183934)', '(-0.0205137790767357, -0.20679240187457895, 0.0381239223577967, 0.3721371568477781)', '(-0.02464962711422728, -0.012232205473602736, 0.04556666549475226, 0.09171464003576507)', '(-0.024894271223699336, -0.2079766532714487, 0.04740095829546756, 0.39841850743629087)', '(-0.02905380428912831, -0.013558084519260272, 0.05536932844419338, 0.1210488787977102)', '(-0.029324965979513517, 0.18072866392290235, 0.057790306020147585, -0.15366436408245687)', '(-0.02571039270105547, 0.37497757648390573, 0.05471701873849845, -0.4275704212829581)', '(-0.018210841171377355, 0.17912508534642754, 0.046165610312839285, -0.11815257707901666)', '(-0.014628339464448805, 0.3735562237533482, 0.04380255877125895, -0.39592068309803596)', '(-0.007157214989381841, 0.17784103843796029, 0.03588414510929823, -0.08975565928453583)', '(-0.003600394220622635, 0.37243075579339713, 0.034089031923607516, -0.370904655038737)', '(0.0038482208952453074, 0.5670522313872676, 0.026670938822832776, -0.6526470287414137)', '(0.01518926552299066, 0.37156921560025796, 0.013617998248004502, -0.35168646348017457)', '(0.02262064983499582, 0.5664948872481685, 0.00658426897840101, -0.6400442919260454)', '(0.03395054757995919, 0.37128176142307556, -0.006216616860119898, -0.34529518931973124)', '(0.0413761828084207, 0.17624879167615817, -0.013122520646514525, -0.05457906124650519)', '(0.04490115864194387, 0.3715564185626903, -0.014214101871444628, -0.35137318822343805)', '(0.05233228701319768, 0.176639460205993, -0.02124156563591339, -0.06320609129107596)', '(0.05586507621731754, 0.3720594213438463, -0.022505687461734907, -0.3625144554447762)', '(0.06330626464419446, 0.5674939009815199, -0.029755976570630432, -0.662208050051057)', '(0.07465614266382486, 0.7630169526035846, -0.043000137571651574, -0.9641097635126352)', '(0.08991648171589656, 0.5684982452151426, -0.06228233284190428, -0.6852395563375491)', '(0.10128644662019941, 0.37429374347411637, -0.07598712396865526, -0.41279679333050495)', '(0.10877232148968173, 0.1803265402007496, -0.08424305983526535, -0.14500428731432263)', '(0.11237885229369672, -0.01349426604277923, -0.0871431455815518, 0.1199577132182838)', '(0.11210896697284113, -0.2072665983729775, -0.08474399131718612, 0.38392561917668006)', '(0.10796363500538159, -0.40108957276457535, -0.07706547893365251, 0.6487318211013782)', '(0.09994184355009007, -0.5950581482764269, -0.06409084251162495, 0.9161862843309772)', '(0.08804068058456153, -0.3991308122619719, -0.0457671168250054, 0.6040688618553304)', '(0.0800580643393221, -0.20339967505910495, -0.03368573958789879, 0.29732875501940403)', '(0.07599007083814, -0.007814124322155669, -0.02773916448751071, -0.005784868930352349)', '(0.07583378835169688, -0.2025275003253937, -0.027854861866117755, 0.27801856544864895)', '(0.071783238345189, -0.007019473110208063, -0.022294490557144775, -0.023317983121457164)', '(0.07164284888298485, -0.2018147231191224, -0.022760850219573917, 0.262248241245643)', '(0.0676065544206024, -0.39660450767471156, -0.017515885394661056, 0.5476661250888313)', '(0.059674464267108165, -0.20124091500029245, -0.0065625628928844305, 0.249516282020106)', '(0.05564964596710231, -0.3962685361987014, -0.00157223725248231, 0.5401220347239135)', '(0.047724275243128285, -0.20112451961387803, 0.00923020344199596, 0.24694413407156912)', '(0.043701784850850724, -0.006135601873670932, 0.014169086123427342, -0.04281314204507858)', '(0.043579072813377306, 0.18878033333030983, 0.01331282328252577, -0.33099212447600485)', '(0.0473546794799835, 0.3837102768915951, 0.006692980793005673, -0.6194472750073223)', '(0.0550288850178154, 0.18849548679522168, -0.005695964707140774, -0.32466392680633555)']</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[0,0]', '[1,1]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 7, 10, 11, 12, 13, 14, 18]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.009882199210565407, 0.056718967558805795, 0.039842350584417374)', '(-0.0352940394312487, -0.20576969102121356, 0.05751581457049414, 0.3498675183875401)', '(-0.039409433251672975, -0.011510887231409084, 0.06451316493824495, 0.07586147396499004)', '(-0.03963965099630116, -0.2074955236924974, 0.06603039441754475, 0.3881805990438164)', '(-0.0437895614701511, -0.013369935836982483, 0.07379400639842108, 0.11702561147342927)', '(-0.04405696018689075, 0.18062136764268785, 0.07613451862788967, -0.15149365780686297)', '(-0.040444532834037, -0.015503524303829452, 0.07310464547175241, 0.16420339909102705)', '(-0.04075460332011359, -0.21159170748771022, 0.07638871345357295, 0.4790236868288213)', '(-0.044986437469867795, -0.4077042724261008, 0.08596918719014938, 0.7947711258162793)', '(-0.05314052291838981, -0.6038943329685973, 0.10186460970647497, 1.1132132189408488)', '(-0.06521840957776176, -0.800195616885756, 0.12412887408529194, 1.4360352197639892)', '(-0.08122232191547687, -0.6068034468685863, 0.15284957848057174, 1.1845791783057456)', '(-0.0933583908528486, -0.4139582683835527, 0.17654116204668666, 0.943446917621974)', '(-0.10163755622051965, -0.22159752542673933, 0.19541010039912612, 0.7110244986802481)', '(-0.10606950672905444, -0.41881133194115183, 0.20963059037273107, 1.0583008261136022)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18]</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.009702865384165815, 0.04501637570661563, 0.035863081415907105)', '(-0.02748620968219769, -0.2054404849013698, 0.045733637334933776, 0.3424024129264372)', '(-0.03159501938022509, -0.4011822443393892, 0.05258168559346252, 0.6491490533294441)', '(-0.039618664267012875, -0.5969957199031356, 0.0655646666600514, 0.9579152094019416)', '(-0.051558578665075586, -0.792935076494455, 0.08472297084809023, 1.2704549580064808)', '(-0.06741728019496468, -0.9890302737122824, 0.11013207000821984, 1.5884214745998224)', '(-0.08719788566921033, -1.18527492934796, 0.1419004995002163, 1.9133184765031723)', '(-0.11090338425616952, -1.3816122974726983, 0.18016686903027973, 2.246443331620023)', '(-0.13853563020562348, -1.57791907498321, 0.2250957356626802, 2.5888202688256623)']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 5, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.40211259170445557, 0.09967117051882238, 0.6718791392529884)', '(-0.07086477751268125, -0.2085070661330625, 0.11310875330388215, 0.4121669947743199)', '(-0.0750349188353425, -0.4050354656691434, 0.12135209319936854, 0.7382589883515283)', '(-0.08313562814872537, -0.6016056051670152, 0.1361172729663991, 1.0665358063524102)', '(-0.09516774025206567, -0.7982401279438637, 0.15744798909344732, 1.398654402607817)', '(-0.11113254281094295, -0.9949298921542513, 0.18542107714560366, 1.7361383551779639)', '(-0.131031140654028, -0.8023434353370544, 0.22014384424916295, 1.5064124013486306)']</t>
+    <t>[5, 12, 14, 17, 21, 23, 24, 30, 32, 37, 38, 47, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, -0.20479400662066377, 0.0221124503711613, 0.32788878955093564)', '(-0.01596358060234466, -0.0099937261243348, 0.028670226162180013, 0.04226033375042554)', '(-0.016163455124831354, 0.18470562033696747, 0.029515432837188525, -0.24124077287849488)', '(-0.012469342718092004, -0.01082524381590183, 0.024690617379618626, 0.0606040558979552)', '(-0.01268584759441004, 0.1839341543439064, 0.02590269849757773, -0.22418769400385924)', '(-0.009007164507531912, 0.378676500559468, 0.021418944617500546, -0.5085886802584161)', '(-0.0014336344963425517, 0.1832594278843146, 0.011247171012332224, -0.20923361923189032)', '(0.00223155406134374, 0.37821876771160423, 0.007062498627694418, -0.49834753400464055)', '(0.009795929415575826, 0.18299795695435092, -0.002904452052398393, -0.2034472635505789)', '(0.013455888554662844, 0.37816132428163307, -0.006973397323409971, -0.4970449874697445)', '(0.021019115040295508, 0.18313839168479565, -0.01691429707280486, -0.20656786346358041)', '(0.02468188287399142, -0.011737655045338358, -0.02104565434207647, 0.0807318268303917)', '(0.024447129773084653, -0.20655169096336945, -0.019431017805468635, 0.36670120225314656)', '(0.020316095953817264, -0.011159087013678348, -0.012096993760405704, 0.06795526480898695)', '(0.020092914213543697, 0.1841341903543302, -0.010737888464225964, -0.22851964691675486)', '(0.0237755980206303, -0.010832677902825022, -0.01530828140256106, 0.06075691700043262)', '(0.0235589444625738, -0.20573183369954876, -0.014093143062552408, 0.34857093740271333)', '(0.019444307788582825, -0.01041230184364883, -0.007121724314498141, 0.05147748752099823)', '(0.01923606175170985, -0.2054314152479163, -0.006092174564078177, 0.34190497003481035)', '(0.015127433446751524, -0.4004661630758353, 0.0007459248366180303, 0.6326605745747798)', '(0.0071181101852348175, -0.20535462616821443, 0.013399136328113626, 0.3402126525155831)', '(0.0030110176618705293, -0.01042586276127172, 0.020203389378425286, 0.05178498289044403)', '(0.0028025004066450946, 0.18440065596627078, 0.021239089036234168, -0.23445576205586832)', '(0.00649051352597051, -0.011018215068828802, 0.0165499737951168, 0.06485025477501583)', '(0.006270149224593934, 0.1838625911830165, 0.017846978890617118, -0.22256545170963893)', '(0.009947401048254263, 0.3787249664318809, 0.01339566985642434, -0.509565732670161)', '(0.017521900376891882, 0.18341688228062078, 0.0032043552030211198, -0.21269168203983285)', '(0.021190238022504297, 0.3784928735319383, -0.0010494784377755376, -0.5043620878361557)', '(0.028760095493143064, 0.18338572862574656, -0.01113672019449865, -0.21201007824990753)', '(0.032427810065657994, -0.011575238071815541, -0.0153769217594968, 0.07713910867734619)', '(0.032196305304221684, 0.18376373735128937, -0.013834139585949876, -0.22035535109675486)', '(0.03587158005124747, -0.011157763265567805, -0.018241246607884974, 0.06793181441157325)', '(0.03564842478593611, -0.2060135048257, -0.016882610319653508, 0.35480417133086395)', '(0.03152815468942211, -0.4008913902085832, -0.009786526893036229, 0.6421160903004735)', '(0.023510326885250447, -0.20563439978476444, 0.003055794912973241, 0.34636743729053066)', '(0.01939763888955516, -0.01055604848933897, 0.009983143658783854, 0.05464967886659544)', '(0.01918651791976838, 0.18442134662996726, 0.011076137236115762, -0.2348668444030071)', '(0.022874944852367726, -0.0108570906691412, 0.00637880034805562, 0.06128916180598698)', '(0.022657803038984903, 0.18417282443147237, 0.00760458358417536, -0.22937440458769887)', '(0.02634125952761435, -0.01105696701849826, 0.0030170954924213823, 0.06569754109415116)', '(0.026120120187244387, 0.18402159766934692, 0.004331046314304405, -0.22603194937919097)', '(0.029800552140631327, -0.011161982543850146, -0.00018959267327941457, 0.06801399864580626)', '(0.029577312489754325, -0.20628121506949348, 0.0011706872996367107, 0.3606371019284346)', '(0.025451688188364456, -0.011175924224186978, 0.008383429338205404, 0.06832354819305947)', '(0.025228169703880716, -0.2064170582567004, 0.009749900302066593, 0.36363965722012126)']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 7, 8, 12]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.40211259170445557, 0.09967117051882238, 0.6718791392529884)', '(-0.07086477751268125, -0.5984684418770909, 0.11310875330388215, 0.9942059556295573)', '(-0.08283414635022307, -0.7949067893111601, 0.13299287241647328, 1.3201637342001895)', '(-0.09873228213644628, -0.6016928575737438, 0.1593961471004771, 1.0718868529756398)', '(-0.11076613928792114, -0.40899565385957315, 0.18083388415998988, 0.8331694710535072)', '(-0.1189460523651126, -0.21674417099556356, 0.19749727358106003, 0.6023703855294634)', '(-0.12328093578502387, -0.41400028740675804, 0.2095446812916493, 0.9501902522477066)']</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 5, 6, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.5956248027752826, 0.0574309101881717, 0.9272407954660062)', '(-0.0472027292383609, -0.7914732264619257, 0.07597572609749183, 1.2374044949200487)', '(-0.06303219376759941, -0.5974051147633381, 0.10072381599589281, 0.9694574698774219)', '(-0.07498029606286617, -0.40376899812380984, 0.12011296539344124, 0.7100381757572216)', '(-0.08305567602534236, -0.6003315841628472, 0.13431372890858567, 1.0379860976800928)', '(-0.0950623077085993, -0.796957957263068, 0.15507345086218752, 1.3696388875749015)', '(-0.11100146685386067, -0.9936424133369934, 0.18246622861368555, 1.7065343919019968)', '(-0.13087431512060055, -1.1903340690709054, 0.2165969164517255, 2.0500218999226862)']</t>
+  </si>
+  <si>
+    <t>[1, 4, 7, 8, 9, 10, 13, 14, 15, 16, 17]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, 0.18594877956501746, 0.03869444837171655, -0.26877324231361266)', '(-0.019488118724880973, 0.3804977726146236, 0.033318983525444296, -0.5490049620910891)', '(-0.011878163272588501, 0.18492400853079954, 0.022338884283622514, -0.24601316996089195)', '(-0.00817968310197251, -0.010509754592115533, 0.017418620884404674, 0.05363141866164617)', '(-0.008389878193814822, -0.20587707808693356, 0.018491249257637597, 0.35175876355059577)', '(-0.012507419755553494, -0.40125704071261237, 0.025526424528649512, 0.6502147222335684)', '(-0.020532560569805743, -0.5967250740449945, 0.03853071897332088, 0.9508252062552869)', '(-0.03246706205070563, -0.7923438493760513, 0.05754722309842662, 1.2553608107034322)', '(-0.04831393903822666, -0.5980039991271885, 0.08265443931249526, 0.9812431429087694)', '(-0.060274019020770425, -0.4040812070949279, 0.10227930217067065, 0.7156247597864889)', '(-0.06835564316266898, -0.6004589796558463, 0.11659179736640042, 1.038669736929876)', '(-0.08036482275578591, -0.7969209497377835, 0.13736519210499795, 1.3655623646827661)', '(-0.09630324175054158, -0.9934694434193666, 0.16467643939865328, 1.6978664218772932)', '(-0.11617263061892892, -1.1900629969593242, 0.19863376783619915, 2.0369636613476905)', '(-0.1399738905581154, -1.3866005322277755, 0.23937304106315296, 2.38398827819985)']</t>
   </si>
 </sst>
 </file>
@@ -668,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -718,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -768,13 +753,13 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -786,19 +771,19 @@
         <v>27</v>
       </c>
       <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
         <v>23</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -818,13 +803,13 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -836,19 +821,19 @@
         <v>27</v>
       </c>
       <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
         <v>23</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -865,25 +850,25 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
         <v>31</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
       </c>
       <c r="L6">
         <v>13</v>
@@ -898,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -915,25 +900,25 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
       </c>
       <c r="H7">
         <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
         <v>31</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
       </c>
       <c r="L7">
         <v>13</v>
@@ -948,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -965,40 +950,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
         <v>36</v>
       </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
         <v>37</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1015,40 +1000,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
         <v>36</v>
       </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
         <v>37</v>
-      </c>
-      <c r="L9">
-        <v>14</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1065,25 +1050,25 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
         <v>41</v>
-      </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1098,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1115,25 +1100,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
       <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
         <v>41</v>
-      </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1148,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1156,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -1165,19 +1150,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
         <v>44</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
       </c>
       <c r="H12">
         <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -1198,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1206,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -1215,19 +1200,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
       </c>
       <c r="H13">
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -1248,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1256,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -1268,7 +1253,7 @@
         <v>47</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -1298,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1306,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>0.4</v>
@@ -1318,7 +1303,7 @@
         <v>47</v>
       </c>
       <c r="F15">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
@@ -1348,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1356,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1365,40 +1350,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
         <v>23</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1406,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1415,40 +1400,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
         <v>23</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1456,7 +1441,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>0.8</v>
@@ -1465,25 +1450,25 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18">
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18">
         <v>12</v>
@@ -1498,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1506,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>0.8</v>
@@ -1515,25 +1500,25 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H19">
         <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L19">
         <v>12</v>
@@ -1548,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1556,7 +1541,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1565,25 +1550,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="L20">
         <v>11</v>
@@ -1598,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1606,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1615,25 +1600,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="L21">
         <v>11</v>
@@ -1648,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1656,7 +1641,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -1665,19 +1650,19 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -1698,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1706,7 +1691,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>0.2</v>
@@ -1715,19 +1700,19 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -1748,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1756,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>0.4</v>
@@ -1765,28 +1750,28 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1798,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1806,7 +1791,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>0.4</v>
@@ -1815,28 +1800,28 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1848,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="P25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1856,7 +1841,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -1865,25 +1850,25 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L26">
         <v>13</v>
@@ -1906,7 +1891,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>0.6</v>
@@ -1915,25 +1900,25 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27">
         <v>13</v>
@@ -1956,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -1965,28 +1950,28 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1998,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2006,7 +1991,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -2015,28 +2000,28 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2048,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2056,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2065,25 +2050,25 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>9</v>
       </c>
       <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
         <v>41</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30" t="s">
-        <v>42</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -2098,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2106,7 +2091,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2115,25 +2100,25 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>9</v>
       </c>
       <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31" t="s">
         <v>41</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31" t="s">
-        <v>42</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -2148,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/experimental results/e3000_CartPole.xlsx
+++ b/experimental results/e3000_CartPole.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="75">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,13 +70,13 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[1, 3, 4, 5, 10, 30, 35, 37, 39, 40, 43]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.5956248027752826, 0.0574309101881717, 0.9272407954660062)', '(-0.0472027292383609, -0.4013233792000955, 0.07597572609749183, 0.6531445849773836)', '(-0.05522919682236281, -0.20733702810799612, 0.0890386177970395, 0.3853198470539871)', '(-0.05937593738452274, -0.013584499374372339, 0.09674501473811925, 0.12198510636795673)', '(-0.05964762737201018, 0.180027848286615, 0.09918471686547839, -0.13867668869199345)', '(-0.056047070406277884, -0.01636448321923309, 0.09641118309163851, 0.183576491992188)', '(-0.056374360070662544, 0.1772552285097267, 0.10008271293148227, -0.07720333579285737)', '(-0.05282925550046801, 0.3708106064570766, 0.09853864621562512, -0.3367083277706396)', '(-0.045413043371326484, 0.5644022829034105, 0.09180447966021232, -0.596763669380681)', '(-0.034124997713258276, 0.7581277277603421, 0.0798692062725987, -0.8591755288228657)', '(-0.018962443158051435, 0.5620140032912275, 0.0626856956961414, -0.5424861243342046)', '(-0.007722163092226885, 0.7562015287503885, 0.0518359732094573, -0.8147777784394346)', '(0.007401867482780886, 0.5604095220934291, 0.035540417640668606, -0.5062512930314003)', '(0.018610057924649467, 0.75501310707412, 0.0254153917800406, -0.7875256507348121)', '(0.033710320066131866, 0.5595514316405885, 0.009664878765344359, -0.48695650440449)', '(0.04490134869894363, 0.7545356862037311, -7.425132274544062e-05, -0.7765777961431899)', '(0.05999206242301826, 0.5594147562487539, -0.015605807245609239, -0.48391823190640537)', '(0.07118035754799333, 0.3645164863897747, -0.02528417188373735, -0.19619434681749992)', '(0.07847068727578882, 0.5599908039008202, -0.029208058820087347, -0.49674485911822497)', '(0.08967050335380522, 0.365292620466971, -0.03914295600245185, -0.2134080978165871)', '(0.09697635576314464, 0.17075152340358143, -0.04341111795878359, 0.06667493307092126)', '(0.10039138623121627, 0.36646811266086643, -0.04207761929736517, -0.23938223002630388)', '(0.1077207484844336, 0.17197173460961998, -0.04686526389789125, 0.03973693455715788)', '(0.111160183176626, 0.36773330884985, -0.04607052520674809, -0.26735635912520395)', '(0.118514849353623, 0.17329810550812996, -0.05141765238925217, 0.010447041583067473)', '(0.1219808114637856, -0.021050182840357978, -0.051208711557590825, 0.28647406935806746)', '(0.12155980780697845, 0.17476325528352202, -0.04547923017042947, -0.02190983810916558)', '(0.1250550729126489, 0.37050692082103964, -0.04591742693261278, -0.328588022261152)', '(0.1324652113290697, 0.17606770819776396, -0.052489187377835825, -0.050731597699544495)', '(0.13598656549302496, -0.018263844819245922, -0.05350381933182671, 0.22493953371730235)', '(0.13562128859664005, -0.2125819128207489, -0.049005028657480666, 0.5002769165443919)', '(0.13136965034022507, -0.01680461757962831, -0.03899949032659283, 0.19256180890782476)', '(0.1310335579886325, -0.21134759679302342, -0.03514825414843633, 0.4726914428908999)', '(0.12680660605277203, -0.01574731755889741, -0.02569442529061833, 0.16914077962148594)', '(0.12649165970159407, -0.2104922467740536, -0.022311609698188614, 0.4536084204387448)', '(0.122281814766113, -0.40529170716095103, -0.013239441289413718, 0.7391758154725374)', '(0.11417598062289397, -0.20998946701974125, 0.00154407502003703, 0.4423558477007372)', '(0.10997619128249915, -0.01488939932273528, 0.010391191974051774, 0.1501600528941195)', '(0.10967840329604445, -0.21015859341535922, 0.013394393031934165, 0.44610298622021893)', '(0.10547523142773726, -0.015228672718956032, 0.02231645275633854, 0.15767216783315552)', '(0.10517065797335814, 0.1795667780621714, 0.025469896113001652, -0.12788775921014456)', '(0.10876199353460157, 0.3743147759107447, 0.02291214092879876, -0.412427669185536)', '(0.11624828905281646, 0.5691045693886316, 0.014663587545088041, -0.6978000891422337)', '(0.1276303804405891, 0.3737823895066685, 0.0007075857622433675, -0.40053737725929556)', '(0.13510602823072249, 0.17865040837324503, -0.007303161782942543, -0.10763144863607771)']</t>
+    <t>[9, 13]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, -0.205795726467411, 0.013974886535729519, 0.34994676770407274)', '(-0.008986967383984194, -0.010875285114496508, 0.02097382188981097, 0.06170313871853211)', '(-0.009204473086274124, 0.18393976714461902, 0.022207884664181613, -0.22428931594269658)', '(-0.005525677743381745, -0.01149243166815972, 0.017722098345327682, 0.07531527774385866)', '(-0.0057555263767449395, -0.20686390308079405, 0.019228403900204853, 0.37353648960532637)', '(-0.009892804438360821, -0.012020300570695697, 0.02669913369231138, 0.08697791643607211)', '(-0.010133210449774735, 0.18270897044573678, 0.028438692021032823, -0.19716327486092305)', '(-0.006479031040859999, 0.37741284848650375, 0.02449542652381436, -0.48074114996933276)', '(0.0010692259288700764, 0.18195383985290986, 0.014880603524427705, -0.18043965775155968)', '(0.004708302725928273, 0.3768597278954582, 0.011271810369396512, -0.4683913855787544)', '(0.012245497283837437, 0.1815803640334391, 0.0019039826578214226, -0.1721771057394012)', '(0.01587710456450622, -0.013568786186731407, -0.0015395594569666015, 0.12110585957050468)', '(0.01560572884077159, 0.18157518865984595, 0.0008825577344434921, -0.1720623860969434)', '(0.019237232613968508, -0.013559383109949946, -0.002558689987495376, 0.12089882950406822)', '(0.01896604495176951, 0.18159913333256222, -0.00014071339741401163, -0.17259024093406816)', '(0.022598027618420752, -0.013520803657499636, -0.003592518216095375, 0.12004829191475236)', '(0.02232761154527076, 0.18165243426419286, -0.0011915523778003277, -0.17376587384668296)', '(0.025960660230554617, -0.01345244319858685, -0.004666869854733987, 0.11854091827433444)', '(0.02569161136658288, 0.18173606175658252, -0.0022960514892472984, -0.17561070556446112)', '(0.029326332601714532, -0.013352954666806721, -0.0058082656005365215, 0.11634700916585983)', '(0.0290592735083784, 0.18185173514740494, -0.003481325417219325, -0.17816270699285963)', '(0.0326963082113265, -0.013220223993525071, -0.007044579557076517, 0.11341995096560087)', '(0.032431903731456, 0.1820019561777085, -0.004776180537764499, -0.1814771424942227)', '(0.03607194285501017, -0.013051326553097903, -0.008405723387648953, 0.10969525271689318)', '(0.035810916323948214, 0.18219006131685384, -0.00621181833331109, -0.1856277364643098)', '(0.03945471755028529, -0.012842463800842752, -0.009924373062597285, 0.10508914414109738)', '(0.03919786827426844, 0.1824202940022731, -0.007822590179775338, -0.19070828642837012)', '(0.0428462741543139, -0.012588878824211919, -0.01163675590834274, 0.09949670491462631)', '(0.04259449657782966, 0.18269789816995283, -0.009646821810050214, -0.19683475638913805)', '(0.046248454541228716, -0.012284749060034517, -0.013583516937832975, 0.09278948395339237)', '(0.04600275956002803, 0.18302923486500505, -0.011727727258765128, -0.20414789520043153)', '(0.04966334425732813, -0.011923053956696739, -0.015810685162773758, 0.08481255524339049)', '(0.04942488317819419, 0.18342192412084068, -0.014114434057905948, -0.21281643648663418)', '(0.053093321660611, -0.011495414887692762, -0.01837076278763863, 0.07538094350333796)', '(0.052863413362857145, 0.1838850146601135, -0.01686314391757187, -0.2230409492186764)', '(0.05654111365605941, -0.010991904171996802, -0.0213239629019454, 0.06427533844660849)', '(0.05632127557261948, 0.1844291842631839, -0.02003845613301323, -0.23505842157262968)', '(0.06000985925788316, -0.010400819666470273, -0.024739624564465823, 0.051237000450171155)', '(0.059801842864553756, -0.20515945626926496, -0.0237148845554624, 0.33601285084571075)', '(0.055698653739168456, -0.009708179862454758, -0.016994627538548183, 0.03594685053986696)', '(0.05550449014191936, -0.204582353726972, -0.016275690527750845, 0.3232197200775537)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
@@ -85,51 +85,54 @@
     <t>Omitted</t>
   </si>
   <si>
+    <t>['[1,0]', '[1,1]', '[0,0]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 7, 8, 9, 11, 12, 15]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.20543871750851112, 0.0574309101881717, 0.34255459391818766)', '(-0.03939900753302547, -0.011178859621362947, 0.06428200206653545, 0.06852062916750595)', '(-0.03962258472545273, -0.20716070266072686, 0.06565241464988557, 0.38077212496967605)', '(-0.043765798778667264, -0.40315049926572394, 0.0732678571492791, 0.6934114221766585)', '(-0.05182880876398174, -0.5992082511848367, 0.08713608559281226, 1.0082305310355233)', '(-0.06381297378767847, -0.4053507641855476, 0.10730069621352273, 0.744133131332519)', '(-0.07191998907138943, -0.6017770796219798, 0.1221833588401731, 1.0685639793074835)', '(-0.08395553066382902, -0.7982845712250702, 0.14355463842632277, 1.39696033658418)', '(-0.09992122208833043, -0.6052100013634932, 0.17149384515800636, 1.1523877646982918)', '(-0.11202542211560029, -0.4126887349220147, 0.1945416004519722, 0.9180144398825633)', '(-0.12027919681404059, -0.6098328006206857, 0.21290188924962344, 1.2649874049973338)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
+  </si>
+  <si>
+    <t>['[0,0]', '[1,0]', '[1,1]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 8, 10, 11, 12, 13, 14, 16, 17]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.2057675226194045, 0.06920609820418122, 0.35006240883399925)', '(-0.047212819080784105, -0.011694559111823488, 0.07620734638086121, 0.07998017254192302)', '(-0.047446710263020574, 0.18225690997682453, 0.07780694983169967, -0.18771937153962787)', '(-0.04380157206348408, -0.01388702574823203, 0.07405256240090712, 0.1284585706804547)', '(-0.04407931257844872, 0.18010027711004498, 0.07662173381451622, -0.13997334959462487)', '(-0.04047730703624782, -0.016030694228310688, 0.07382226682262372, 0.1758646864648018)', '(-0.04079792092081404, -0.21212724337962996, 0.07733956055191975, 0.49089240818620944)', '(-0.04504046578840663, -0.40825011030541214, 0.08715740871564394, 0.8069124991324104)', '(-0.05320546799451488, -0.6044516312379551, 0.10329565869829214, 1.1256895153801452)', '(-0.06529450061927398, -0.8007642806410986, 0.12580944900589505, 1.4489038413260646)', '(-0.08130978623209595, -0.6073934216590353, 0.15478752583241634, 1.1980305154761164)', '(-0.09345765466527665, -0.8041419084981484, 0.17874813614193866, 1.5349508795859683)', '(-0.10954049283523962, -1.0009092873938221, 0.20944715373365802, 1.877671870249867)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
+  </si>
+  <si>
+    <t>['[0,0]', '[1,1]', '[1,0]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.5960454243559449, 0.09259983441740222, 0.9386914580939902)', '(-0.07062574476046063, -0.7922855510514539, 0.11137366357928202, 1.2589759812869332)', '(-0.08647145578148971, -0.9886422388918867, 0.1365531832050207, 1.5843623866357988)', '(-0.10624430055932745, -1.1850985480310545, 0.16824043093773666, 1.9163256445881882)', '(-0.12994627151994853, -1.3815850038887512, 0.20656694382950042, 2.2561236968378333)', '(-0.15757797159772355, -1.188916488193607, 0.2516894177662571, 2.0335645964112166)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
     <t>['[1,1]', '[1,0]', '[0,0]']</t>
   </si>
   <si>
-    <t>[3, 4, 5, 8, 9, 10, 16, 17]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.3995926886560538, 0.03324521137881013, 0.6136121422661903)', '(-0.02747662635541598, -0.5951630534519876, 0.04551745422413394, 0.9165778814353094)', '(-0.03937988742445573, -0.40068515562440654, 0.06384901185284013, 0.6385406887243138)', '(-0.047393590536943864, -0.2065088679539981, 0.0766198256273264, 0.36662861159510374)', '(-0.05152376789602382, -0.40263124532874317, 0.08395239785922848, 0.6824532781397541)', '(-0.05957639280259869, -0.5988125110957992, 0.09760146342202355, 1.0003417928355505)', '(-0.07155264302451467, -0.7950938232084819, 0.11760829927873456, 1.3220118292199068)', '(-0.08745451948868431, -0.6016378576497645, 0.1440485358631327, 1.0683296247657184)', '(-0.0994872766416796, -0.40868441002828143, 0.16541512835844707, 0.8241010599687244)', '(-0.10766096484224523, -0.21616455772928703, 0.18189714955782155, 0.5876736723542353)', '(-0.11198425599683097, -0.02399329773719594, 0.19365062300490626, 0.35735571493798773)', '(-0.11246412195157489, 0.16792424822280694, 0.200797737303666, 0.13143842234578634)', '(-0.10910563698711875, -0.029422854615087396, 0.20342650575058174, 0.4801499888449752)', '(-0.1096940940794205, -0.2267476780276798, 0.21302950552748123, 0.8294297424167503)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 5, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.40211259170445557, 0.09967117051882238, 0.6718791392529884)', '(-0.07086477751268125, -0.2085070661330625, 0.11310875330388215, 0.4121669947743199)', '(-0.0750349188353425, -0.4050354656691434, 0.12135209319936854, 0.7382589883515283)', '(-0.08313562814872537, -0.6016056051670152, 0.1361172729663991, 1.0665358063524102)', '(-0.09516774025206567, -0.7982401279438637, 0.15744798909344732, 1.398654402607817)', '(-0.11113254281094295, -0.9949298921542513, 0.18542107714560366, 1.7361383551779639)', '(-0.131031140654028, -1.1916192157326233, 0.22014384424916295, 2.0803170371011985)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[1,1]', '[0,0]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.7921700633318426, 0.09967117051882238, 1.2550513000759314)', '(-0.07866592694522898, -0.988416901412974, 0.12477219652034101, 1.5772154098656272)', '(-0.09843426497348845, -1.1847851949795187, 0.15631650471765357, 1.9060659311545185)', '(-0.12212996887307882, -1.3812124622389594, 0.19443782334074394, 2.2428845249413913)', '(-0.14975421811785802, -1.188387736442827, 0.23929551383957176, 2.01590289586726)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[0,0]', '[1,0]', '[1,1]']</t>
-  </si>
-  <si>
     <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
   </si>
   <si>
@@ -145,28 +148,52 @@
     <t>[1,1]</t>
   </si>
   <si>
-    <t>[4, 8, 19, 34, 35]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, 0.3802478236181868, 0.0009930658321914924, -0.5430831938294477)', '(0.010758013827932775, 0.18511193022202863, -0.009868598044397462, -0.2500875367578215)', '(0.014460252432373347, -0.009867712816153923, -0.014870348779553892, 0.03946636549582372)', '(0.01426289817605027, -0.20477330215763803, -0.014081021469637418, 0.32742070447839394)', '(0.01016743213289751, -0.009453741352684342, -0.007532607380069539, 0.030330724545252208)', '(0.009978357305843823, 0.1857754171116128, -0.006925992889164495, -0.26471927081529784)', '(0.013693865648076078, -0.00924699740825144, -0.012220378305470452, 0.025771109034767925)', '(0.013508925699911049, -0.20419158580358335, -0.011704956124775094, 0.3145734556757393)', '(0.009425093983839382, -0.008904871347055782, -0.005413487011260308, 0.018222271827824266)', '(0.009246996556898266, 0.18629429536054548, -0.0050490415747038225, -0.2761637452947864)', '(0.012972882464109176, -0.008755258294893958, -0.01057231648059955, 0.01492244400783338)', '(0.012797777298211297, 0.18651670483268, -0.010273867600442882, -0.28107733424978154)', '(0.016528111394864896, -0.008457200531533371, -0.015895414285438513, 0.008347625028384209)', '(0.01635896738423423, -0.20334762496860398, -0.01572846178487083, 0.29597327607888513)', '(0.01229201488486215, -0.008005021609525403, -0.009808996263293127, -0.001628363265420485)', '(0.01213191445267164, -0.202984933858294, -0.009841563528601537, 0.28794363636440284)', '(0.008072215775505761, -0.007724029172838459, -0.00408269080131348, -0.007826909550995298)', '(0.007917735192048992, -0.20278719162142436, -0.004239228992333386, 0.2835650878263467)', '(0.0038619913596205048, -0.007605033595039501, 0.0014320727641935482, -0.010451848084867543)', '(0.003709890687719715, -0.20274749336976633, 0.0012230358024961975, 0.28268257067267716)', '(-0.00034505917967561205, -0.007643008261785794, 0.00687668721594974, -0.00961436567263757)', '(-0.0004979193449113279, 0.18737965013026886, 0.006684399902496988, -0.30011970638620805)', '(0.003249673657694049, -0.007836936700281932, 0.0006820057747728269, -0.005336169063161644)', '(0.0030929349236884104, -0.2029686622175625, 0.000575282393509594, 0.2875618608235119)', '(-0.0009664383206628396, -0.007854919701596741, 0.0063265196099798315, -0.0049395715064301515)', '(-0.0011235367146947743, 0.18717573137155025, 0.006227728179851229, -0.2956197092235302)', '(0.0026199779127362307, 0.3822083476588586, 0.0003153339953806244, -0.5863320202271303)', '(0.010264144865913403, 0.5773258808711756, -0.011411306409161982, -0.8789155973012892)', '(0.021810662483336914, 0.3823608278921569, -0.028989618355187766, -0.5898419098559087)', '(0.029457879041180052, 0.18765652833406085, -0.040786456552305936, -0.3064299278169081)', '(0.03321100960786127, -0.0068612053021434305, -0.0469150551086441, -0.02688387788751273)', '(0.0330737855018184, -0.2012800576136548, -0.047452732666394354, 0.2506355522902441)', '(0.029048184349545304, -0.3956933873540992, -0.04244002162058947, 0.5279814108857925)', '(0.02113431660246332, -0.20000082865717764, -0.031880393402873616, 0.22223326661989)', '(0.017134300029319767, -0.39465294300705756, -0.027435728070475816, 0.5046918252734851)', '(0.009241241169178616, -0.1991553023986395, -0.017341891565006113, 0.2034906313828972)', '(0.005258135121205826, -0.39402500816064795, -0.01327207893734817, 0.49065297654684276)', '(-0.0026223650420071328, -0.1987183724981648, -0.0034590194064113133, 0.19381694818705286)', '(-0.006596732491970429, -0.0035471119094402648, 0.0004173195573297442, -0.09995514098426961)', '(-0.0066676747301592345, -0.19867504154712964, -0.0015817832623556479, 0.19285941993159045)', '(-0.010641175561101827, -0.003530498403958693, 0.0022754051362761612, -0.10032207267410936)', '(-0.010711785529181, -0.19868498587603556, 0.0002689636827939738, 0.1930778692624735)']</t>
-  </si>
-  <si>
-    <t>['[1,1]', '[0,0]', '[1,0]']</t>
-  </si>
-  <si>
-    <t>[6, 7, 9, 12, 15, 23, 28, 32, 39, 41, 49]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, 0.38023603625130564, 0.01696602298203639, -0.5429484893896719)', '(-0.0005542468138891605, 0.5751154916696841, 0.006107053194242953, -0.8302378306182653)', '(0.010948063019504522, 0.37991059811469263, -0.010497703418122353, -0.5356404880761081)', '(0.018546274981798373, 0.5751785778202176, -0.021210513179644515, -0.831612586742662)', '(0.030049846538202727, 0.3803528276709872, -0.037842764914497756, -0.5456751193804581)', '(0.03765690309162247, 0.18578246693985118, -0.048756267302106915, -0.2651516504215351)', '(0.0413725524304195, 0.3815651764971851, -0.054059300310537614, -0.5728053908412897)', '(0.0490038559603632, 0.18724122177026162, -0.06551540812736341, -0.2976309696767902)', '(0.05274868039576843, -0.006888604112311569, -0.07146802752089922, -0.026308704050765852)', '(0.0526109083135222, 0.1891816152968106, -0.07199420160191454, -0.34065697291409386)', '(0.05639454061945841, -0.004846082564850057, -0.07880734106019642, -0.07151737385494333)', '(0.056297618968161406, -0.19875495125084613, -0.08023768853729529, 0.19529779603116681)', '(0.052322519943144484, -0.3926429509190926, -0.07633173261667196, 0.4616295206014173)', '(0.044469660924762636, -0.5866077620860309, -0.06709914220464362, 0.7293097989669459)', '(0.03273750568304202, -0.3906256564622035, -0.0525129462253047, 0.4162858209652274)', '(0.02492499255379795, -0.5849655759256716, -0.04418722980600016, 0.691962145839055)', '(0.013225681035284518, -0.389259316047718, -0.030347986889219056, 0.3857024799556524)', '(0.005440494714330157, -0.1937199748413794, -0.02263393729010601, 0.08360758799132739)', '(0.0015660952175025693, -0.38851028700246787, -0.02096178553027946, 0.3690644074233519)', '(-0.006204110522546788, -0.5833282262609842, -0.013580497381812422, 0.6550648032887227)', '(-0.017870675047766474, -0.3880198554967429, -0.0004792013160379669, 0.3581367187524231)', '(-0.025631072157701332, -0.19289109507295674, 0.006683533059010495, 0.06530272654135394)', '(-0.029488894059160466, 0.0021343977293594163, 0.007989587589837574, -0.22526403481091684)', '(-0.02944620610457328, -0.19310082358759523, 0.003484306893619237, 0.06992836406349195)', '(-0.03330822257632519, -0.38827255446537956, 0.004882874174889076, 0.36370856743958924)', '(-0.041073673665632776, -0.19322033980475617, 0.01215704552368086, 0.07256929263808126)', '(-0.0449380804617279, 0.0017252331566672274, 0.013608431376442486, -0.21625337492179958)', '(-0.04490357579859455, -0.19358859149960927, 0.009283363878006493, 0.08069099028218357)', '(-0.048775347628586735, -0.3888423819056871, 0.010897183683650166, 0.37628832540741086)', '(-0.05655219526670048, -0.19387688854769675, 0.018422950191798383, 0.08706115770604822)', '(-0.060429733037654414, -0.38925800418116085, 0.02016417334591935, 0.3854991385257917)', '(-0.06821489312127763, -0.19442803058827812, 0.027874156116435185, 0.09924145386960775)', '(-0.0721034537330432, 0.00028357251984145737, 0.02985898519382734, -0.18451855381100896)', '(-0.07209778228264636, 0.19496585181840578, 0.02616861411760716, -0.4676345671032967)', '(-0.06819846524627825, -0.000515849142091962, 0.016815922775541225, -0.16681971430971743)', '(-0.0682087822291201, 0.19436140732868737, 0.013479528489346877, -0.4541506218417407)', '(-0.06432155408254635, -0.0009485278618479587, 0.004396516052512062, -0.15724947280953672)', '(-0.0643405246397833, -0.19613314862427894, 0.0012515265963213276, 0.13681720029961664)', '(-0.06826318761226888, -0.3912730033273736, 0.00398787060231366, 0.4298947018391324)', '(-0.07608864767881635, -0.19620775136806967, 0.012585764639096308, 0.13847158135502102)', '(-0.08001280270617774, -0.3915076829031066, 0.01535519626619673, 0.43509839423452007)', '(-0.08784295636423986, -0.1966064394045436, 0.02405716415088713, 0.14729524427173218)', '(-0.09177508515233074, -0.00183710723466729, 0.027003069036321777, -0.13770209236151015)', '(-0.09181182729702408, 0.19288788141057556, 0.024249027189091575, -0.4217451541715838)']</t>
-  </si>
-  <si>
-    <t>['[0,0]', '[1,1]', '[1,0]']</t>
+    <t>[4, 22, 23, 25, 30, 42, 43]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, -0.009995037369338766, 0.0009930658321914924, 0.04227042267664122)', '(0.0029531566081822625, 0.1851126594944886, 0.0018384742857243167, -0.2500990170039908)', '(0.006655409798072035, -0.010035497623232886, -0.003163506054355499, 0.0431632351094689)', '(0.006454699845607377, 0.18513167393412924, -0.0023002413521661207, -0.25051612656525013)', '(0.010157333324289962, -0.009957353883328801, -0.0073105638834711235, 0.041440370621941724)', '(0.009958186246623386, 0.18526866210720294, -0.006481756471032289, -0.2535401147409823)', '(0.013663559488767445, -0.009760140805028628, -0.011552558765851935, 0.03709132125676301)', '(0.013468356672666873, 0.1855255537923259, -0.010810732340716675, -0.2592140502270008)', '(0.01717886774851339, -0.009440409240812048, -0.01599501334525669, 0.030039511553866804)', '(0.01699005956369715, -0.20432937374884574, -0.015394223114179354, 0.31763323034294655)', '(0.012903472088720235, -0.008991583835146671, -0.009041558507320423, 0.020135540619211467)', '(0.012723640412017302, -0.20398271017237296, -0.008638847694936194, 0.30995209286202646)', '(0.008643986208569841, -0.00873874722690704, -0.0024398058376956643, 0.01455728699169384)', '(0.0084692112640317, 0.1864181087331489, -0.0021486600978617874, -0.2788944278777489)', '(0.012197573438694678, 0.38157064581267675, -0.007726548655416765, -0.572254263353577)', '(0.019828986354948213, 0.5768000813278547, -0.019171633922488305, -0.8673612580395984)', '(0.031364987981505305, 0.3819441813703708, -0.03651885908328027, -0.580767236246726)', '(0.03900387160891272, 0.5775583065563445, -0.048134203808214794, -0.8847269468551164)', '(0.05055503774003961, 0.3831217982278978, -0.06582874274531712, -0.6075559787873106)', '(0.05821747370459757, 0.18897898315452172, -0.07797986232106334, -0.33631218108031996)', '(0.061997053367688, -0.004951634116738185, -0.08470610594266974, -0.06920310716765554)', '(0.06189802068535324, -0.19876346387562163, -0.08609016808602285, 0.19559846818709037)', '(0.057922751407840804, -0.0025223146077997527, -0.08217819872228105, -0.12295235193193021)', '(0.05787230511568481, -0.19637664386544298, -0.08463724576091965, 0.14271462735560358)', '(0.053944772238375946, -0.39019089486515374, -0.08178295321380757, 0.40754168694419923)', '(0.04614095434107287, -0.584063749196867, -0.0736321194749236, 0.6733615843609324)', '(0.03445967935713553, -0.7780892303849938, -0.06016488778770495, 0.9419829160554352)', '(0.018897894749435654, -0.5822103788325647, -0.041325229466596246, 0.6310184546068527)', '(0.0072536871727843615, -0.3865369242855564, -0.02870486037445919, 0.32561270211233123)', '(-0.000477051312926767, -0.5812386652299304, -0.022192606332212567, 0.6091069305860033)', '(-0.012101824617525375, -0.38581361773982537, -0.010010467720492501, 0.30951745254205715)', '(-0.019818096972321883, -0.5807915197925808, -0.0038201186696513578, 0.5990266234142377)', '(-0.0314339273681735, -0.3856163287687886, 0.008160413798633397, 0.30514286090729187)', '(-0.03914625394354927, -0.19061161349768155, 0.014263271016779235, 0.015044662343014548)', '(-0.0429584862135029, 0.004302911148992561, 0.014564164263639526, -0.27310412544596124)', '(-0.04287242799052305, 0.19921405529922126, 0.009102081754720302, -0.5611581216332401)', '(-0.03888814688453862, 0.003965553973271169, -0.0021210806779445, -0.26562152641994435)', '(-0.038808835805073195, -0.19112605971590896, -0.007433511206343387, 0.026391638576923948)', '(-0.04263135699939138, -0.38614062401615024, -0.006905678434804908, 0.31671997094390536)', '(-0.050354169479714384, -0.5811635361668052, -0.0005712790159268007, 0.607217110627252)', '(-0.06197744020305049, -0.38603360213193166, 0.01157306319661824, 0.31435430131530584)', '(-0.06969811224568911, -0.1910784055501902, 0.01786014922292436, 0.025343494461066263)']</t>
+  </si>
+  <si>
+    <t>[4, 8, 9, 10, 12, 13, 15]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, 0.3802478236181868, 0.0009930658321914924, -0.5430831938294477)', '(0.010758013827932775, 0.5753558045012619, -0.009868598044397462, -0.835453059538741)', '(0.022265129917958013, 0.7706111653268025, -0.02657765923517228, -1.1312231597978708)', '(0.037677353224494066, 0.5758470842321526, -0.0492021224311297, -0.8469931259337694)', '(0.04919429490913712, 0.7716044573942316, -0.06614198494980508, -1.1547334213814318)', '(0.06462638405702176, 0.9675236136254655, -0.08923665337743372, -1.4674011335183674)', '(0.08397685632953107, 0.7736001424636361, -0.11858467604780107, -1.203874114267977)', '(0.09944885917880379, 0.9700384112626529, -0.1426621583331606, -1.5312444009815376)', '(0.11884962740405686, 0.7768952435383929, -0.17328704635279135, -1.2862734072748148)', '(0.13438753227482472, 0.5843495601660582, -0.19901251449828766, -1.0524722220904958)', '(0.1460745234781459, 0.3923424507252501, -0.22006195894009759, -0.828270452067901)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18]</t>
+  </si>
+  <si>
+    <t>[2, 3, 11, 12, 14, 18, 19, 20, 21, 22, 23, 26]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.18592608100371844, -0.013061057913666957, -0.2680588366431443)', '(0.015267371510351105, -0.009007059353799696, -0.018422234646529843, 0.020476091983435085)', '(0.015087230323275112, -0.20386003791969498, -0.01801271280686114, 0.30729013388006127)', '(0.011010029564881212, -0.008486111063197549, -0.011866910129259915, 0.00898133406309054)', '(0.010840307343617262, -0.2034358816365489, -0.011687283447998104, 0.29789661033210013)', '(0.006771589710886284, -0.008149296488200092, -0.005729351241356101, 0.0015507552970182026)', '(0.006608603781122282, 0.18705435135362433, -0.005698336135415737, -0.2929343307904983)', '(0.010349690808194768, 0.3822570824520565, -0.011557022751225703, -0.5874089753823313)', '(0.017994832457235897, 0.18729887594746272, -0.02330520225887233, -0.29838888412220915)', '(0.021740809976185153, 0.3827451467553024, -0.029272979941316515, -0.5983297882762659)', '(0.0293957129112912, 0.18804475482900257, -0.041239575706841836, -0.31500934862805474)', '(0.03315660800787125, -0.006466230614868118, -0.04753976267940293, -0.03561193817990749)', '(0.033027283395573884, -0.2008753528123006, -0.048252001443001076, 0.2417008532760307)', '(0.029009776339327872, -0.005098546610226268, -0.04341798437748046, -0.06580314276870586)', '(0.028907805407123347, 0.19061813707107458, -0.04473404723285458, -0.3718623767054856)', '(0.03272016814854484, 0.3863461111775709, -0.05217129476696429, -0.6783080521784348)', '(0.040447090372096255, 0.5821525488449457, -0.06573745581053299, -0.9869494869063913)', '(0.05209014134899517, 0.7780902650829915, -0.08547644554866081, -1.2995341392212718)', '(0.067651946650655, 0.9741868734255439, -0.11146712833308625, -1.6177046468698166)', '(0.08713568411916589, 0.7805416357587185, -0.14382122127048258, -1.361742957102464)', '(0.10274651683434026, 0.5874848558030563, -0.17105608041253187, -1.1172854176104525)', '(0.11449621395040138, 0.784387644584122, -0.19340178876474093, -1.4583746628066627)', '(0.13018396684208383, 0.5920916658188935, -0.22256928202087417, -1.2318147360393588)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
+  </si>
+  <si>
+    <t>[8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, 0.3797437874814581, 0.012910514665105136, -0.532040829553236)', '(0.002933644048253645, 0.5746817915426519, 0.0022696980740404167, -0.8206278807133297)', '(0.014427279879106683, 0.769772609746117, -0.014142859540226177, -1.112596063595955)', '(0.029822732074029024, 0.9650774255497784, -0.03639478081214528, -1.4096818511601423)', '(0.04912428058502459, 1.160631381333048, -0.06458841783534813, -1.7135162396565267)', '(0.07233690821168555, 1.3564324805121815, -0.09885874262847866, -2.0255812840875524)', '(0.09946555782192917, 1.5524282125649003, -0.1393703683102297, -2.3471565966113146)', '(0.13051412207322718, 1.7484996227530742, -0.186313500242456, -2.679254316514289)', '(0.16548411452828868, 1.9444429424972856, -0.23989858657274177, -3.022542555141353)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[0,0]', '[1,1]']</t>
   </si>
   <si>
     <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
@@ -178,52 +205,40 @@
     <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
   </si>
   <si>
-    <t>[2, 3, 4, 5, 6, 7, 10, 11]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.1634006997254158, -0.12927896337288503, -1.7837726844292332)', '(0.11233644389439112, 0.969947273561099, -0.16495441706146968, -1.5339162994420583)', '(0.1317353893656131, 1.1666272464055074, -0.19563274305031086, -1.8732085768888753)', '(0.15506793429372326, 1.3632746641462616, -0.23309691458808837, -2.219702941227257)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[0,0]', '[1,1]']</t>
-  </si>
-  <si>
     <t>[1,0]</t>
   </si>
   <si>
-    <t>[5, 12, 14, 17, 21, 23, 24, 30, 32, 37, 38, 47, 49]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, -0.20479400662066377, 0.0221124503711613, 0.32788878955093564)', '(-0.01596358060234466, -0.0099937261243348, 0.028670226162180013, 0.04226033375042554)', '(-0.016163455124831354, 0.18470562033696747, 0.029515432837188525, -0.24124077287849488)', '(-0.012469342718092004, -0.01082524381590183, 0.024690617379618626, 0.0606040558979552)', '(-0.01268584759441004, 0.1839341543439064, 0.02590269849757773, -0.22418769400385924)', '(-0.009007164507531912, 0.378676500559468, 0.021418944617500546, -0.5085886802584161)', '(-0.0014336344963425517, 0.1832594278843146, 0.011247171012332224, -0.20923361923189032)', '(0.00223155406134374, 0.37821876771160423, 0.007062498627694418, -0.49834753400464055)', '(0.009795929415575826, 0.18299795695435092, -0.002904452052398393, -0.2034472635505789)', '(0.013455888554662844, 0.37816132428163307, -0.006973397323409971, -0.4970449874697445)', '(0.021019115040295508, 0.18313839168479565, -0.01691429707280486, -0.20656786346358041)', '(0.02468188287399142, -0.011737655045338358, -0.02104565434207647, 0.0807318268303917)', '(0.024447129773084653, -0.20655169096336945, -0.019431017805468635, 0.36670120225314656)', '(0.020316095953817264, -0.011159087013678348, -0.012096993760405704, 0.06795526480898695)', '(0.020092914213543697, 0.1841341903543302, -0.010737888464225964, -0.22851964691675486)', '(0.0237755980206303, -0.010832677902825022, -0.01530828140256106, 0.06075691700043262)', '(0.0235589444625738, -0.20573183369954876, -0.014093143062552408, 0.34857093740271333)', '(0.019444307788582825, -0.01041230184364883, -0.007121724314498141, 0.05147748752099823)', '(0.01923606175170985, -0.2054314152479163, -0.006092174564078177, 0.34190497003481035)', '(0.015127433446751524, -0.4004661630758353, 0.0007459248366180303, 0.6326605745747798)', '(0.0071181101852348175, -0.20535462616821443, 0.013399136328113626, 0.3402126525155831)', '(0.0030110176618705293, -0.01042586276127172, 0.020203389378425286, 0.05178498289044403)', '(0.0028025004066450946, 0.18440065596627078, 0.021239089036234168, -0.23445576205586832)', '(0.00649051352597051, -0.011018215068828802, 0.0165499737951168, 0.06485025477501583)', '(0.006270149224593934, 0.1838625911830165, 0.017846978890617118, -0.22256545170963893)', '(0.009947401048254263, 0.3787249664318809, 0.01339566985642434, -0.509565732670161)', '(0.017521900376891882, 0.18341688228062078, 0.0032043552030211198, -0.21269168203983285)', '(0.021190238022504297, 0.3784928735319383, -0.0010494784377755376, -0.5043620878361557)', '(0.028760095493143064, 0.18338572862574656, -0.01113672019449865, -0.21201007824990753)', '(0.032427810065657994, -0.011575238071815541, -0.0153769217594968, 0.07713910867734619)', '(0.032196305304221684, 0.18376373735128937, -0.013834139585949876, -0.22035535109675486)', '(0.03587158005124747, -0.011157763265567805, -0.018241246607884974, 0.06793181441157325)', '(0.03564842478593611, -0.2060135048257, -0.016882610319653508, 0.35480417133086395)', '(0.03152815468942211, -0.4008913902085832, -0.009786526893036229, 0.6421160903004735)', '(0.023510326885250447, -0.20563439978476444, 0.003055794912973241, 0.34636743729053066)', '(0.01939763888955516, -0.01055604848933897, 0.009983143658783854, 0.05464967886659544)', '(0.01918651791976838, 0.18442134662996726, 0.011076137236115762, -0.2348668444030071)', '(0.022874944852367726, -0.0108570906691412, 0.00637880034805562, 0.06128916180598698)', '(0.022657803038984903, 0.18417282443147237, 0.00760458358417536, -0.22937440458769887)', '(0.02634125952761435, -0.01105696701849826, 0.0030170954924213823, 0.06569754109415116)', '(0.026120120187244387, 0.18402159766934692, 0.004331046314304405, -0.22603194937919097)', '(0.029800552140631327, -0.011161982543850146, -0.00018959267327941457, 0.06801399864580626)', '(0.029577312489754325, -0.20628121506949348, 0.0011706872996367107, 0.3606371019284346)', '(0.025451688188364456, -0.011175924224186978, 0.008383429338205404, 0.06832354819305947)', '(0.025228169703880716, -0.2064170582567004, 0.009749900302066593, 0.36363965722012126)']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 5, 7, 8, 12]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.4000488989761811, 0.06841635973997713, 0.6246595521869002)', '(-0.05090140707619442, -0.5960559301198853, 0.08090955078371513, 0.9380809867553619)', '(-0.06282252567859213, -0.40211259170445557, 0.09967117051882238, 0.6718791392529884)', '(-0.07086477751268125, -0.5984684418770909, 0.11310875330388215, 0.9942059556295573)', '(-0.08283414635022307, -0.7949067893111601, 0.13299287241647328, 1.3201637342001895)', '(-0.09873228213644628, -0.6016928575737438, 0.1593961471004771, 1.0718868529756398)', '(-0.11076613928792114, -0.40899565385957315, 0.18083388415998988, 0.8331694710535072)', '(-0.1189460523651126, -0.21674417099556356, 0.19749727358106003, 0.6023703855294634)', '(-0.12328093578502387, -0.41400028740675804, 0.2095446812916493, 0.9501902522477066)']</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 5, 6, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.5956248027752826, 0.0574309101881717, 0.9272407954660062)', '(-0.0472027292383609, -0.7914732264619257, 0.07597572609749183, 1.2374044949200487)', '(-0.06303219376759941, -0.5974051147633381, 0.10072381599589281, 0.9694574698774219)', '(-0.07498029606286617, -0.40376899812380984, 0.12011296539344124, 0.7100381757572216)', '(-0.08305567602534236, -0.6003315841628472, 0.13431372890858567, 1.0379860976800928)', '(-0.0950623077085993, -0.796957957263068, 0.15507345086218752, 1.3696388875749015)', '(-0.11100146685386067, -0.9936424133369934, 0.18246622861368555, 1.7065343919019968)', '(-0.13087431512060055, -1.1903340690709054, 0.2165969164517255, 2.0500218999226862)']</t>
-  </si>
-  <si>
-    <t>[1, 4, 7, 8, 9, 10, 13, 14, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, 0.18594877956501746, 0.03869444837171655, -0.26877324231361266)', '(-0.019488118724880973, 0.3804977726146236, 0.033318983525444296, -0.5490049620910891)', '(-0.011878163272588501, 0.18492400853079954, 0.022338884283622514, -0.24601316996089195)', '(-0.00817968310197251, -0.010509754592115533, 0.017418620884404674, 0.05363141866164617)', '(-0.008389878193814822, -0.20587707808693356, 0.018491249257637597, 0.35175876355059577)', '(-0.012507419755553494, -0.40125704071261237, 0.025526424528649512, 0.6502147222335684)', '(-0.020532560569805743, -0.5967250740449945, 0.03853071897332088, 0.9508252062552869)', '(-0.03246706205070563, -0.7923438493760513, 0.05754722309842662, 1.2553608107034322)', '(-0.04831393903822666, -0.5980039991271885, 0.08265443931249526, 0.9812431429087694)', '(-0.060274019020770425, -0.4040812070949279, 0.10227930217067065, 0.7156247597864889)', '(-0.06835564316266898, -0.6004589796558463, 0.11659179736640042, 1.038669736929876)', '(-0.08036482275578591, -0.7969209497377835, 0.13736519210499795, 1.3655623646827661)', '(-0.09630324175054158, -0.9934694434193666, 0.16467643939865328, 1.6978664218772932)', '(-0.11617263061892892, -1.1900629969593242, 0.19863376783619915, 2.0369636613476905)', '(-0.1399738905581154, -1.3866005322277755, 0.23937304106315296, 2.38398827819985)']</t>
+    <t>[3, 7, 10, 19, 28, 30, 35, 39, 43, 45, 48]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, -0.20584991601057387, 0.02973729382904814, 0.3512454526255887)', '(-0.020290514986636407, -0.011163204504964663, 0.036762202881559916, 0.06808597381183934)', '(-0.0205137790767357, 0.18341293159795002, 0.0381239223577967, -0.21277537785557532)', '(-0.0168455204447767, -0.012232762736956448, 0.03386841480068519, 0.09168563923012446)', '(-0.01709017569951583, 0.18238778628259583, 0.03570212758528768, -0.19012235738965755)', '(-0.013442419973863914, 0.37698126915451957, 0.031899680437494526, -0.4713323779112896)', '(-0.005902794590773522, 0.18142360860968812, 0.02247303287926873, -0.168768206970143)', '(-0.00227432241857976, 0.3762167994174709, 0.01909766873986587, -0.454277697385924)', '(0.005250013569769658, 0.18083008469507156, 0.010012114792147392, -0.15563669658421114)', '(0.00886661526367109, 0.37580726366098777, 0.0068993808604631696, -0.44514429384319815)', '(0.016382760536890844, 0.1805883820870695, -0.002003505016400793, -0.15029453910155688)', '(0.019994528178632235, -0.014504822866986289, -0.005009395798431931, 0.14175565091613884)', '(0.01970443172129251, -0.20955467329060173, -0.0021742827801091535, 0.4328539994116084)', '(0.015513338255480475, -0.01440200472140929, 0.006482797208123014, 0.13948644986286396)', '(0.01522529816105229, 0.18062649963114075, 0.009272526205380292, -0.15114423036090968)', '(0.018837828153675105, 0.375614456861941, 0.006249641598162098, -0.4408875088971466)', '(0.026350117290913924, 0.1804046220327518, -0.002568108579780834, -0.14624109234794036)', '(0.02995820973156896, 0.3755632557641364, -0.005492930426739641, -0.4397331007080996)', '(0.03746947484685169, 0.1805194739896365, -0.014287592440901633, -0.1487867551471277)', '(0.04107986432664442, -0.014394997510093266, -0.017263327543844187, 0.13935470165176234)', '(0.04079196437644256, 0.18096989904083655, -0.01447623351080894, -0.1587241431147115)', '(0.04441136235725929, 0.3762960809580329, -0.01765071637310317, -0.4559385809192499)', '(0.051937283976419946, 0.181428076502003, -0.026769487991488167, -0.16887114723979924)', '(0.05556584550646001, 0.3769227650539323, -0.030146910936284153, -0.46987740644530684)', '(0.06310430080753865, 0.18223935265710936, -0.03954445906519029, -0.18684682864990848)', '(0.06674908786068083, -0.012295163356420308, -0.04328139563818846, 0.09310377938067904)', '(0.06650318459355242, -0.206770896837105, -0.04141932005057488, 0.37182343388014755)', '(0.06236776665681032, -0.011085746241844552, -0.033982851372971926, 0.06637365563292047)', '(0.06214605173197343, 0.18450652643910823, -0.03265537826031352, -0.23683439763986058)', '(0.06583618226075559, -0.01013403651358566, -0.03739206621311073, 0.045371815954477535)', '(0.06563350153048388, -0.20470040976200082, -0.03648462989402118, 0.3260266665331402)', '(0.06153949333524386, -0.009078507465461239, -0.029964096563358376, 0.02206498817416508)', '(0.06135792318593464, 0.18646005906121052, -0.029522796799875076, -0.2799193248618755)', '(0.06508712436715886, -0.008228581816473263, -0.035121183297112585, 0.0033079369370452305)', '(0.06492255273082939, -0.20282970166109585, -0.03505502455837168, 0.2847060999627393)', '(0.060865958697607477, -0.0072257742131757174, -0.029360902559116893, -0.018823599609198716)', '(0.06072144321334396, 0.18830467313530927, -0.029737374551300867, -0.32062372526921046)', '(0.06448753667605014, -0.006381440394251703, -0.03614984905668508, -0.037465167445719094)', '(0.06435990786816512, 0.18923975429523415, -0.03689915240559946, -0.34133099128861105)', '(0.0681447029540698, -0.005338306365177348, -0.04372577223137168, -0.060508462418498055)', '(0.06803793682676625, -0.19980693267084904, -0.04493594147974164, 0.2180643807787293)', '(0.06404179817334926, -0.004072385607001128, -0.04057465386416706, -0.08844778475434029)', '(0.06396035046120924, -0.19858996598916945, -0.04234360955925386, 0.19116276728201576)']</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 5, 10, 11, 14, 19, 22, 24, 30, 32, 34, 35]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.5956248027752826, 0.0574309101881717, 0.9272407954660062)', '(-0.0472027292383609, -0.4013233792000955, 0.07597572609749183, 0.6531445849773836)', '(-0.05522919682236281, -0.20733702810799612, 0.0890386177970395, 0.3853198470539871)', '(-0.05937593738452274, -0.013584499374372339, 0.09674501473811925, 0.12198510636795673)', '(-0.05964762737201018, 0.180027848286615, 0.09918471686547839, -0.13867668869199345)', '(-0.056047070406277884, -0.01636448321923309, 0.09641118309163851, 0.183576491992188)', '(-0.056374360070662544, -0.21272425778850657, 0.10008271293148227, 0.5050493203835824)', '(-0.06062884522643268, -0.019144614200988758, 0.11018369933915392, 0.24550811208692463)', '(-0.061011737510452455, 0.17424526712264163, 0.11509386158089241, -0.010489109786070427)', '(-0.05752683216799962, -0.0223230614077993, 0.114884079385171, 0.31617558102843096)', '(-0.05797329339615561, 0.170991052824173, 0.12120759100573962, 0.061817547302318865)', '(-0.05455347233967215, 0.36418547231108345, 0.122443941951786, -0.1903001399805469)', '(-0.04726976289345048, 0.5573623516934195, 0.11863793915217506, -0.4419873805976633)', '(-0.03612251585958209, 0.750623236961458, 0.1097981915402218, -0.6950432054516658)', '(-0.021110051120352927, 0.5541634943191229, 0.09589732743118848, -0.36991229730609393)', '(-0.010026781233970468, 0.7478014363138215, 0.0884990814850666, -0.6308840484130958)', '(0.004929247492305961, 0.941584354409572, 0.07588140051680468, -0.8944360949707723)', '(0.0237609345804974, 0.745519941012692, 0.05799267861738924, -0.5788980422945773)', '(0.03867133340075124, 0.9397832543241489, 0.04641471777149769, -0.8527628547140089)', '(0.05746699848723422, 0.7440603520251098, 0.029359460677217515, -0.5458536547796053)', '(0.07234820552773641, 0.9387577444396384, 0.01844238758162541, -0.8291434423614261)', '(0.09112336041652919, 1.1336227845664935, 0.0018595187343968846, -1.1159695410008432)', '(0.11379581610785905, 0.9384764739001382, -0.02045987208561998, -0.8227038828924523)', '(0.1325653455858618, 0.7436403228618333, -0.036913949743469024, -0.5365256066759703)', '(0.14743815204309846, 0.9392613332352104, -0.047644461876988425, -0.8406074608948697)', '(0.16622337870780268, 1.1350002220903925, -0.06445661109488582, -1.1478847854363794)', '(0.18892338314961055, 0.940776275197653, -0.08741430680361341, -0.8760909801048395)', '(0.2077389086535636, 1.136970708673348, -0.1049361264057102, -1.1949260553311114)', '(0.23047832282703057, 0.9433521929846349, -0.12883464751233242, -0.9368904830426873)', '(0.24934536668672327, 1.1399539629643476, -0.14757245717318618, -1.267121759794398)', '(0.2721444459460102, 1.3366202845622102, -0.17291489236907415, -1.60214387130504)', '(0.2988768516372544, 1.1439155897067512, -0.20495776979517494, -1.367981434693699)', '(0.32175516343138943, 0.9518619222820315, -0.23231739848904892, -1.1457671685948965)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 8]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -0.9886983365154707, 0.15990118414356524, 1.5905077322082546)', '(-0.12184725169900645, -1.1853169349858783, 0.19171133878773033, 1.9284841128542352)', '(-0.145553590398724, -0.992697878202941, 0.23028102104481504, 1.7008673290687473)']</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.595919684308709, 0.06920609820418122, 0.9343495519973364)', '(-0.055015862314570195, -0.791903516316987, 0.08789308924412795, 1.2479519400188712)', '(-0.07085393264090993, -0.9880355484185881, 0.11285212804450537, 1.5668216613877721)', '(-0.09061464360928169, -1.184310416098135, 0.14418856127226082, 1.892469338400986)', '(-0.1143008519312444, -1.3806729853307276, 0.18203794804028053, 2.2262013605705073)', '(-0.14191431163785895, -1.5770022075612058, 0.2265619752516907, 2.5690532739686676)']</t>
   </si>
 </sst>
 </file>
@@ -653,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -703,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -753,13 +768,13 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -771,7 +786,7 @@
         <v>27</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -783,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -803,13 +818,13 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -821,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -833,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -850,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -883,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -900,28 +915,28 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -933,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -950,25 +965,25 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -983,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1000,25 +1015,25 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9">
         <v>11</v>
@@ -1033,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1050,25 +1065,25 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1100,25 +1115,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1141,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -1150,19 +1165,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -1183,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1191,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -1200,19 +1215,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -1233,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1241,7 +1256,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -1253,13 +1268,13 @@
         <v>47</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
@@ -1268,10 +1283,10 @@
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1283,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1291,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>0.4</v>
@@ -1303,13 +1318,13 @@
         <v>47</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
@@ -1318,10 +1333,10 @@
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1333,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1341,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1353,13 +1368,13 @@
         <v>51</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
         <v>53</v>
@@ -1368,10 +1383,10 @@
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1391,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1403,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
         <v>52</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
         <v>53</v>
@@ -1418,10 +1433,10 @@
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1441,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>0.8</v>
@@ -1450,28 +1465,28 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1483,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1491,7 +1506,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>0.8</v>
@@ -1500,28 +1515,28 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1533,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1541,7 +1556,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1550,25 +1565,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L20">
         <v>11</v>
@@ -1583,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1591,7 +1606,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1600,25 +1615,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L21">
         <v>11</v>
@@ -1633,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1641,7 +1656,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -1650,19 +1665,19 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -1683,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1691,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <v>0.2</v>
@@ -1700,19 +1715,19 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H23">
         <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -1733,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1741,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>0.4</v>
@@ -1750,28 +1765,28 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1783,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="P24" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1791,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>0.4</v>
@@ -1800,28 +1815,28 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1833,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="P25" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1841,7 +1856,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -1850,28 +1865,28 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26">
-        <v>12</v>
-      </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1891,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>0.6</v>
@@ -1900,28 +1915,28 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27">
-        <v>12</v>
-      </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1941,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -1950,29 +1965,29 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28">
-        <v>17</v>
-      </c>
-      <c r="I28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28">
-        <v>18</v>
-      </c>
       <c r="M28">
         <v>0</v>
       </c>
@@ -1983,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1991,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -2000,29 +2015,29 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
-      </c>
       <c r="M29">
         <v>0</v>
       </c>
@@ -2033,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2041,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2050,25 +2065,25 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -2083,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2091,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2100,25 +2115,25 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -2133,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/experimental results/e3000_CartPole.xlsx
+++ b/experimental results/e3000_CartPole.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,13 +70,13 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[9, 13]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, -0.205795726467411, 0.013974886535729519, 0.34994676770407274)', '(-0.008986967383984194, -0.010875285114496508, 0.02097382188981097, 0.06170313871853211)', '(-0.009204473086274124, 0.18393976714461902, 0.022207884664181613, -0.22428931594269658)', '(-0.005525677743381745, -0.01149243166815972, 0.017722098345327682, 0.07531527774385866)', '(-0.0057555263767449395, -0.20686390308079405, 0.019228403900204853, 0.37353648960532637)', '(-0.009892804438360821, -0.012020300570695697, 0.02669913369231138, 0.08697791643607211)', '(-0.010133210449774735, 0.18270897044573678, 0.028438692021032823, -0.19716327486092305)', '(-0.006479031040859999, 0.37741284848650375, 0.02449542652381436, -0.48074114996933276)', '(0.0010692259288700764, 0.18195383985290986, 0.014880603524427705, -0.18043965775155968)', '(0.004708302725928273, 0.3768597278954582, 0.011271810369396512, -0.4683913855787544)', '(0.012245497283837437, 0.1815803640334391, 0.0019039826578214226, -0.1721771057394012)', '(0.01587710456450622, -0.013568786186731407, -0.0015395594569666015, 0.12110585957050468)', '(0.01560572884077159, 0.18157518865984595, 0.0008825577344434921, -0.1720623860969434)', '(0.019237232613968508, -0.013559383109949946, -0.002558689987495376, 0.12089882950406822)', '(0.01896604495176951, 0.18159913333256222, -0.00014071339741401163, -0.17259024093406816)', '(0.022598027618420752, -0.013520803657499636, -0.003592518216095375, 0.12004829191475236)', '(0.02232761154527076, 0.18165243426419286, -0.0011915523778003277, -0.17376587384668296)', '(0.025960660230554617, -0.01345244319858685, -0.004666869854733987, 0.11854091827433444)', '(0.02569161136658288, 0.18173606175658252, -0.0022960514892472984, -0.17561070556446112)', '(0.029326332601714532, -0.013352954666806721, -0.0058082656005365215, 0.11634700916585983)', '(0.0290592735083784, 0.18185173514740494, -0.003481325417219325, -0.17816270699285963)', '(0.0326963082113265, -0.013220223993525071, -0.007044579557076517, 0.11341995096560087)', '(0.032431903731456, 0.1820019561777085, -0.004776180537764499, -0.1814771424942227)', '(0.03607194285501017, -0.013051326553097903, -0.008405723387648953, 0.10969525271689318)', '(0.035810916323948214, 0.18219006131685384, -0.00621181833331109, -0.1856277364643098)', '(0.03945471755028529, -0.012842463800842752, -0.009924373062597285, 0.10508914414109738)', '(0.03919786827426844, 0.1824202940022731, -0.007822590179775338, -0.19070828642837012)', '(0.0428462741543139, -0.012588878824211919, -0.01163675590834274, 0.09949670491462631)', '(0.04259449657782966, 0.18269789816995283, -0.009646821810050214, -0.19683475638913805)', '(0.046248454541228716, -0.012284749060034517, -0.013583516937832975, 0.09278948395339237)', '(0.04600275956002803, 0.18302923486500505, -0.011727727258765128, -0.20414789520043153)', '(0.04966334425732813, -0.011923053956696739, -0.015810685162773758, 0.08481255524339049)', '(0.04942488317819419, 0.18342192412084068, -0.014114434057905948, -0.21281643648663418)', '(0.053093321660611, -0.011495414887692762, -0.01837076278763863, 0.07538094350333796)', '(0.052863413362857145, 0.1838850146601135, -0.01686314391757187, -0.2230409492186764)', '(0.05654111365605941, -0.010991904171996802, -0.0213239629019454, 0.06427533844660849)', '(0.05632127557261948, 0.1844291842631839, -0.02003845613301323, -0.23505842157262968)', '(0.06000985925788316, -0.010400819666470273, -0.024739624564465823, 0.051237000450171155)', '(0.059801842864553756, -0.20515945626926496, -0.0237148845554624, 0.33601285084571075)', '(0.055698653739168456, -0.009708179862454758, -0.016994627538548183, 0.03594685053986696)', '(0.05550449014191936, -0.204582353726972, -0.016275690527750845, 0.3232197200775537)']</t>
+    <t>[19, 21, 22, 28]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, 0.1838783157507662, 0.007299072508378151, -0.22287552841176522)', '(0.005736964334697355, -0.011347196378286711, 0.0028415619401428466, 0.07210084738632738)', '(0.00551002040713162, 0.18373390205906265, 0.004283578887869394, -0.21968420080137002)', '(0.009184698448312873, -0.011449017457679123, -0.00011010512815800687, 0.0743468607539246)', '(0.00895571809915929, 0.18367451206364416, 0.0013768320869204853, -0.21837080266154113)', '(0.012629208340432173, -0.011467093796386357, -0.002990583966310337, 0.0747461171916447)', '(0.012399866464504446, -0.20654604456079387, -0.001495661622477443, 0.3664840044337423)', '(0.00826894557328857, -0.011402871321903624, 0.0058340184661974034, 0.07332984762428052)', '(0.008040888146850497, -0.2066079722619717, 0.0073006154186830135, 0.36784770778074066)', '(0.003908728701611063, -0.4018328961632578, 0.014657569574297827, 0.6628236515660311)', '(-0.004127929221654093, -0.20691790744245622, 0.027914042605618448, 0.3747917463607584)', '(-0.008266287370503219, -0.012203350206742597, 0.03540987753283362, 0.09103935619238201)', '(-0.008510354374638072, 0.18239363620813515, 0.037230664656681255, -0.19026481602126982)', '(-0.004862481650475369, 0.37696372820084506, 0.03342536833625586, -0.4709744170254129)', '(0.0026767929135415322, 0.18138597998628522, 0.024005879995747603, -0.16794643364081968)', '(0.006304512513267237, -0.014071217638710998, 0.02064695132293121, 0.1322119388290675)', '(0.006023088160493017, 0.18074898625776922, 0.02329119009951256, -0.15388630842205253)', '(0.009638067885648402, 0.3755298364136519, 0.02021346393107151, -0.4391313479780772)', '(0.01714866461392144, 0.1801277170825535, 0.011430836971509966, -0.14014569187761794)', '(0.02075121895557251, 0.3750841028275297, 0.008627923133957608, -0.4292005724785327)', '(0.0282529010121231, 0.17984103474129248, 4.3911684386954e-05, -0.13381029292672875)', '(0.03184972170694895, 0.3749623569425311, -0.002632294174147621, -0.42647936591120106)', '(0.03934896884579957, 0.17987778831053605, -0.011161881492371642, -0.1346274203578331)', '(0.04294652461201029, -0.015082518638370929, -0.013854429899528304, 0.15451329800912322)', '(0.04264487423924287, 0.18023503425323142, -0.01076416393934584, -0.1425079861603074)', '(0.04624957492430749, -0.014731115418976204, -0.013614323662551987, 0.1467596927864553)', '(0.04595495261592797, 0.18058312620635839, -0.010679129806822882, -0.1501870064886447)', '(0.049566615140055136, -0.014384290431230184, -0.013682869936595775, 0.139107838018455)', '(0.049278929331430535, 0.18093093488986606, -0.010900713176226675, -0.15786021330578975)', '(0.05289754802922786, -0.01403326648840214, -0.01405791744234247, 0.13136396768233627)', '(0.05261688269945981, 0.18128720839278428, -0.011430638088695745, -0.16572068655106853)', '(0.0562426268673155, -0.01366926749762934, -0.014745051819717116, 0.1233343883916958)', '(0.05596924151736291, 0.18166079269111, -0.012278364051883199, -0.17396373962878042)', '(0.059602457371185115, -0.013283298692020162, -0.015757638844458806, 0.11482060732433147)', '(0.05933679139734471, 0.1820608512301758, -0.013461226697972176, -0.1827917939829249)', '(0.06297800842194823, -0.01286592406050549, -0.017117062577630675, 0.10561439700062603)', '(0.06272068994073812, 0.18249708877857318, -0.015004774637618155, -0.1924193638448825)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
@@ -85,160 +85,169 @@
     <t>Omitted</t>
   </si>
   <si>
+    <t>['[0,0]', '[1,0]', '[1,1]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 5, 12, 13, 14, 22, 25, 26, 31, 35, 36, 39, 40, 43, 48]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.009882199210565407, 0.056718967558805795, 0.039842350584417374)', '(-0.0352940394312487, -0.20576969102121356, 0.05751581457049414, 0.3498675183875401)', '(-0.039409433251672975, -0.011510887231409084, 0.06451316493824495, 0.07586147396499004)', '(-0.03963965099630116, 0.18262973753309925, 0.06603039441754475, -0.19578995417103678)', '(-0.03598705624563917, 0.3767480953442379, 0.06211459533412402, -0.4669341203085862)', '(-0.028452094338754414, 0.5709399741453058, 0.0527759129279523, -0.739410242136233)', '(-0.0170332948558483, 0.37513055032793163, 0.03798770808522764, -0.430596135454884)', '(-0.009530683849289666, 0.179491841319433, 0.02937578537612996, -0.12618408590119085)', '(-0.005940847022901007, -0.016038360506487825, 0.02685210365810614, 0.1756199171189224)', '(-0.0062616142330307635, -0.21153410559505698, 0.03036450200048459, 0.47665139138400225)', '(-0.010492296344931904, -0.4070713435745349, 0.039897529828164635, 0.7787478361440401)', '(-0.0186337232164226, -0.21252002309077558, 0.05547248655104543, 0.49887985364028015)', '(-0.02288412367823811, -0.018222238418754144, 0.06545008362385103, 0.2241820290849833)', '(-0.023248568446613195, 0.17590618672125152, 0.0699337242055507, -0.04715854890103477)', '(-0.019730444712188166, 0.36995927420485575, 0.06899055322753, -0.31698291514289867)', '(-0.01233125922809105, 0.5640342107244563, 0.06265089492467203, -0.5871356551883224)', '(-0.001050575013601925, 0.7582253630047998, 0.05090818182090558, -0.8594435850354614)', '(0.01411393224649407, 0.5624483383444254, 0.033719310120196355, -0.5511979625429878)', '(0.02536289901338258, 0.36686942708478487, 0.0226953508693366, -0.24808475988508777)', '(0.032700287555078277, 0.5616600279942232, 0.017733655671634842, -0.5335235547099824)', '(0.04393348811496274, 0.3662932230789822, 0.007063184577435195, -0.2353060042143968)', '(0.051259352576542384, 0.17107107298828275, 0.002357064493147259, 0.05959647543523139)', '(0.05468077403630804, -0.02408459435849039, 0.003548994001851887, 0.35302213959756806)', '(0.05419908214913823, 0.17098671124509726, 0.010609436793803249, 0.06146042598121593)', '(0.05761881637404018, 0.36595495241082643, 0.011838645313427567, -0.2278563607791284)', '(0.0649379154222567, 0.5609057364813291, 0.0072815180978449984, -0.5167815644242888)', '(0.07615603015188328, 0.365682015872987, -0.003054113190640778, -0.2218129992193869)', '(0.08346967046934302, 0.17060385137545556, -0.007490373175028517, 0.06990497493641762)', '(0.08688174749685212, 0.3658323843240716, -0.006092273676300164, -0.22513175857235085)', '(0.09419839518333356, 0.5610408741134525, -0.010594908847747182, -0.5197301766649856)', '(0.10541921266560261, 0.3660696673336875, -0.02098951238104689, -0.23040462571222164)', '(0.11274060601227637, 0.17125384021020956, -0.025597604895291323, 0.055584282804146234)', '(0.11616568281648056, -0.023491906495457265, -0.024485919239208398, 0.34008233055586934)', '(0.11569584468657142, 0.1719697324581838, -0.01768427262809101, 0.03977962008507574)', '(0.1191352393357351, 0.367340751656247, -0.016888680226389497, -0.25842999077364004)', '(0.12648205436886004, 0.17246392915927433, -0.022057280041862297, 0.028878519836912808)', '(0.12993133295204554, -0.022334875348822864, -0.02147970964512404, 0.31452133431161217)', '(0.12948463544506908, 0.17308636244956865, -0.015189282958891798, 0.015142548254282906)', '(0.13294636269406046, 0.3684228159877024, -0.01488643199380614, -0.2822938099924707)', '(0.1403148190138145, 0.1735163293160605, -0.020532308193655556, 0.005657076938019923)', '(0.14378514560013572, 0.368926633514429, -0.020419166654895158, -0.2934326708339356)', '(0.1511636782704243, 0.1741016693792489, -0.02628782007157387, -0.007258963438733446)', '(0.15464571165800928, 0.3695905688543466, -0.026432999340348536, -0.30811872809737995)', '(0.16203752303509622, 0.17485503445677517, -0.03259537390229614, -0.02388786421745903)', '(0.16553462372423172, -0.01978467448145843, -0.033073131186645316, 0.25833527238896964)', '(0.16513893023460255, 0.1757934473745177, -0.027906425738865922, -0.044593205832358096)']</t>
+  </si>
+  <si>
+    <t>[7, 8, 10, 11, 12, 13, 17]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, -0.20535498527219764, 0.017811089502435474, 0.3402405405228112)', '(-0.01246594538384614, -0.4007257735531117, 0.024615900312891698, 0.6384864238007459)', '(-0.020480460854908372, -0.20595555231548998, 0.03738562878890662, 0.3536559459868527)', '(-0.02459957190121817, -0.40158860989834333, 0.04445874770864367, 0.6578892957972458)', '(-0.032631344099185035, -0.5973002710173932, 0.05761653362458859, 0.9642332717227169)', '(-0.0445773495195329, -0.7931469478962471, 0.07690119905904293, 1.274445703235819)', '(-0.06044028847745784, -0.9891610430382135, 0.10239011312375931, 1.5901845590132704)', '(-0.08022350933822212, -0.7953932389350284, 0.13419380430402472, 1.3311052027580068)', '(-0.09613137411692269, -0.6021945715524115, 0.16081590835918486, 1.083247299826135)', '(-0.10817526554797091, -0.4095175617128118, 0.18248085435570754, 0.8450373124612733)', '(-0.11636561678222715, -0.6065975341354181, 0.199381600604933, 1.1891010699445699)', '(-0.1284975674649355, -0.4145378947655146, 0.22316362200382442, 0.9649494666397327)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[0,0]', '[1,1]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 6, 7, 12, 13, 14, 15, 16, 18, 22]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.009702865384165815, 0.04501637570661563, 0.035863081415907105)', '(-0.02748620968219769, 0.18474560036540177, 0.045733637334933776, -0.24228378862138145)', '(-0.023791297674889657, -0.010998769621198362, 0.040887961562506146, 0.06446676351011005)', '(-0.024011273067313623, -0.20668237058004738, 0.04217729683270835, 0.3697645489792695)', '(-0.02814492047891457, -0.012184263883037894, 0.04957258781229374, 0.09067329764822685)', '(-0.02838860575657533, 0.18219338254328513, 0.051386053765258274, -0.18596661929979075)', '(-0.024744738105709627, 0.37654389488832274, 0.04766672137926246, -0.4620067296819313)', '(-0.017213860207943174, 0.18078181198539575, 0.03842658678562383, -0.15468842806098887)', '(-0.013598223968235259, -0.014868665066518044, 0.03533281822440405, 0.149865277100259)', '(-0.013895597269565619, -0.2104782840302001, 0.038330123766409235, 0.45348226144649967)', '(-0.01810516295016962, -0.40612069703284226, 0.04739976899533923, 0.7579966263815202)', '(-0.026227576890826467, -0.6018626977941299, 0.06255970152296964, 1.0652101679374133)', '(-0.038264830846709064, -0.7977542750881016, 0.08386390488171791, 1.3768532807379537)', '(-0.05421991634847109, -0.6037740925497065, 0.11140097049647699, 1.1115327234519108)', '(-0.06629539819946523, -0.800168907389127, 0.1336316249655152, 1.436983049256065)', '(-0.08229877634724778, -0.6069232901330598, 0.1623712859506365, 1.188869796698075)', '(-0.09443724214990898, -0.4142348108349193, 0.186148681884598, 0.9511664801646266)', '(-0.10272193836660737, -0.22203960307703274, 0.20517201148789052, 0.7222663218198737)', '(-0.10716273042814803, -0.41931927226406, 0.219617337924288, 1.071877452947799)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22]</t>
+  </si>
+  <si>
+    <t>['[1,1]', '[0,0]', '[1,0]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
     <t>['[1,0]', '[1,1]', '[0,0]']</t>
   </si>
   <si>
-    <t>[1, 3, 4, 7, 8, 9, 11, 12, 15]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.20543871750851112, 0.0574309101881717, 0.34255459391818766)', '(-0.03939900753302547, -0.011178859621362947, 0.06428200206653545, 0.06852062916750595)', '(-0.03962258472545273, -0.20716070266072686, 0.06565241464988557, 0.38077212496967605)', '(-0.043765798778667264, -0.40315049926572394, 0.0732678571492791, 0.6934114221766585)', '(-0.05182880876398174, -0.5992082511848367, 0.08713608559281226, 1.0082305310355233)', '(-0.06381297378767847, -0.4053507641855476, 0.10730069621352273, 0.744133131332519)', '(-0.07191998907138943, -0.6017770796219798, 0.1221833588401731, 1.0685639793074835)', '(-0.08395553066382902, -0.7982845712250702, 0.14355463842632277, 1.39696033658418)', '(-0.09992122208833043, -0.6052100013634932, 0.17149384515800636, 1.1523877646982918)', '(-0.11202542211560029, -0.4126887349220147, 0.1945416004519722, 0.9180144398825633)', '(-0.12027919681404059, -0.6098328006206857, 0.21290188924962344, 1.2649874049973338)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
-  </si>
-  <si>
-    <t>['[0,0]', '[1,0]', '[1,1]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 8, 10, 11, 12, 13, 14, 16, 17]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.2057675226194045, 0.06920609820418122, 0.35006240883399925)', '(-0.047212819080784105, -0.011694559111823488, 0.07620734638086121, 0.07998017254192302)', '(-0.047446710263020574, 0.18225690997682453, 0.07780694983169967, -0.18771937153962787)', '(-0.04380157206348408, -0.01388702574823203, 0.07405256240090712, 0.1284585706804547)', '(-0.04407931257844872, 0.18010027711004498, 0.07662173381451622, -0.13997334959462487)', '(-0.04047730703624782, -0.016030694228310688, 0.07382226682262372, 0.1758646864648018)', '(-0.04079792092081404, -0.21212724337962996, 0.07733956055191975, 0.49089240818620944)', '(-0.04504046578840663, -0.40825011030541214, 0.08715740871564394, 0.8069124991324104)', '(-0.05320546799451488, -0.6044516312379551, 0.10329565869829214, 1.1256895153801452)', '(-0.06529450061927398, -0.8007642806410986, 0.12580944900589505, 1.4489038413260646)', '(-0.08130978623209595, -0.6073934216590353, 0.15478752583241634, 1.1980305154761164)', '(-0.09345765466527665, -0.8041419084981484, 0.17874813614193866, 1.5349508795859683)', '(-0.10954049283523962, -1.0009092873938221, 0.20944715373365802, 1.877671870249867)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[14, 15, 18, 21, 28, 30, 45]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, 0.1838783157507662, 0.007299072508378151, -0.22287552841176522)', '(0.005736964334697355, 0.37889518481465034, 0.0028415619401428466, -0.5132471314229992)', '(0.013314868030990362, 0.5739769991137685, -0.007423380688317136, -0.8050332533990147)', '(0.024794408013265733, 0.3789575989155256, -0.02352404575629743, -0.5146946670815349)', '(0.03237355999157625, 0.1841746988277678, -0.03381793909792813, -0.2295165866494141)', '(0.0360570539681316, 0.3797631804300992, -0.03840827083091641, -0.5326721401046928)', '(0.04365231757673359, 0.1852018797683274, -0.04906171363301027, -0.25233468008693377)', '(0.047356355172100136, -0.009186420390773858, -0.05410840723474895, 0.024478555620511433)', '(0.04717262676428466, 0.18666806356505286, -0.05361883612233872, -0.284773330513157)', '(0.050905988035585714, -0.0076497898698496825, -0.05931430273260186, -0.009471830289263072)', '(0.05075299223818872, -0.2018731461671734, -0.059503739338387124, 0.26392268735513885)', '(0.04671552931484525, -0.39609752150944577, -0.054225285591284346, 0.5372598579284669)', '(0.038793578884656336, -0.20025678049369736, -0.04348008843271501, 0.22799610306905904)', '(0.03478844327478239, -0.3947312687774748, -0.03892016637133383, 0.5066530171946757)', '(0.02689381789923289, -0.1990831276877706, -0.028787106027440317, 0.20196341001251727)', '(0.022912155345477477, -0.0035615531434651237, -0.02474783782718997, -0.09965967930581476)', '(0.022840924282608175, -0.19832024272864332, -0.026741031413306266, 0.1851137772146948)', '(0.018874519428035308, -0.0028260890942557737, -0.02303875586901237, -0.11588353989869943)', '(0.018817997646150192, -0.19761048588557129, -0.02535642666698636, 0.16944272230780222)', '(0.014865787928438765, -0.3923604948116086, -0.021967572220830317, 0.45401983945232643)', '(0.007018578032206593, -0.1969349146956083, -0.012887175431783788, 0.15449425014827728)', '(0.0030798797382944262, -0.39186999676138506, -0.009797290428818243, 0.4430838678694195)', '(-0.004757520196933275, -0.1966107948899114, -0.0009356130714298534, 0.1473287643877182)', '(-0.008689736094731504, -0.3917193353724826, 0.0020109622163245106, 0.4397163768143268)', '(-0.016524122802181157, -0.19662590260752377, 0.010805289752611046, 0.14766804187365834)', '(-0.02045664085433163, -0.001660338652241966, 0.013758650590084211, -0.14158653855536762)', '(-0.020489847627376472, -0.19697660987003895, 0.010926919818976859, 0.1554050542661537)', '(-0.02442937982477725, -0.0020127999619889425, 0.014035020904299932, -0.1338107516153697)', '(-0.024469635824017028, -0.19733294730084378, 0.011358805871992539, 0.16326677465885758)', '(-0.028416294770033903, -0.0023754290291708724, 0.01462414136516969, -0.1258112204106424)', '(-0.02846380335061732, -0.19770379969520543, 0.012107916956956842, 0.17144934995610128)', '(-0.03241787934452143, -0.0027572206116708575, 0.015536903956078867, -0.11738944370400972)', '(-0.03247302375675484, 0.19213871121287782, 0.013189115081998673, -0.40513039092783165)', '(-0.028630249532497286, -0.0031677716394359068, 0.0050865072634420395, -0.10831865944058539)', '(-0.028693604965286005, -0.19836224181258566, 0.002920134074630332, 0.18596468487940365)', '(-0.03266084980153772, -0.0032821925455689682, 0.006639427772218405, -0.1057956232117297)', '(-0.0327264936524491, -0.19849865791327687, 0.004523515307983811, 0.1889745981379844)']</t>
+  </si>
+  <si>
+    <t>['[1,1]', '[1,0]', '[0,0]']</t>
+  </si>
+  <si>
+    <t>[8, 12, 20, 23, 25, 31, 34, 38, 40, 47, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, 0.3797437874814581, 0.012910514665105136, -0.532040829553236)', '(0.002933644048253645, 0.18444264827351967, 0.0022696980740404167, -0.23531794933382472)', '(0.006622497013724039, -0.010711657446601935, -0.002436660912636078, 0.058080045900171184)', '(0.006408263864792, 0.18444514611551735, -0.0012750599946326543, -0.2353706680120906)', '(0.010097166787102346, 0.379585291413127, -0.005982473354874467, -0.5284555155544692)', '(0.017688872615364885, 0.1845480163844057, -0.01655158366596385, -0.23766367495682322)', '(0.021379832943052998, -0.010333610170808055, -0.021304857165100315, 0.049752780788707485)', '(0.021173160739636838, -0.20514369340755884, -0.020309801549326167, 0.3356384361998935)', '(0.017070286871485662, -0.009738678922365351, -0.013597032825328297, 0.036620692903581)', '(0.016875513293038356, -0.20466303388981794, -0.012864618967256677, 0.32498279318710427)', '(0.012782252615241997, -0.00936029598525065, -0.006364963103514591, 0.02827083406440062)', '(0.012595046695536984, 0.18585235202093012, -0.005799546422226579, -0.2664134930304255)', '(0.016312093735955588, 0.38105659336322517, -0.011127816282835089, -0.5609199879148371)', '(0.02393322560322009, 0.18609256886524334, -0.02234621604113183, -0.27176356799669504)', '(0.027655076980524957, -0.008703505309238246, -0.02778148740106573, 0.013788351488036699)', '(0.027481006874340193, 0.18680562462962685, -0.027505720371304995, -0.28752888529560283)', '(0.03121711936693273, -0.00791349485523532, -0.03325629807721705, -0.0036463494496517534)', '(0.031058849469828023, 0.187669226543544, -0.03332922506621008, -0.3066337628390033)', '(0.034812234000698904, -0.006962331524712706, -0.03946190032299015, -0.024645541840651597)', '(0.03467298737020465, -0.20149679744847931, -0.039954811159803184, 0.2553301958632065)', '(0.03064305142123506, -0.3960261777738108, -0.03484820724253906, 0.5351477998661018)', '(0.022722527865758846, -0.20043196448563066, -0.02414525124521702, 0.23169130935998333)', '(0.018713888576046233, -0.0049734702555079835, -0.019511425058017354, -0.0685089870504999)', '(0.018614419170936074, 0.1904227007798862, -0.020881604799027353, -0.36728345051686995)', '(0.022422873186533798, -0.004396397789137418, -0.028227273809364753, -0.08125725790907767)', '(0.02233494523075105, -0.19910257687096494, -0.029852418967546306, 0.20238794860523618)', '(0.018352893693331748, -0.003566691954174861, -0.025804659995441584, -0.09956050480495887)', '(0.01828155985424825, -0.19830949402591153, -0.02779587009154076, 0.18487071901823054)', '(0.014315369973730022, -0.39302293898311563, -0.02409845571117615, 0.4686571319405804)', '(0.006454911194067709, -0.19756898159498013, -0.014725313072364542, 0.16847706178496963)', '(0.002503531562168106, -0.002239384993479143, -0.01135577183666515, -0.12881465358403982)', '(0.002458743862298523, -0.19719683618955125, -0.013932064908345946, 0.1602641429040782)', '(-0.0014851928614925017, -0.0018782275813918892, -0.010726782050264382, -0.13678123118148555)', '(-0.0015227574131203394, -0.19684490721773393, -0.013462406673894093, 0.1524983497771646)', '(-0.005459655557475018, -0.391771531779564, -0.010412439678350802, 0.4409039631620726)', '(-0.013295086193066298, -0.19650378548607067, -0.0015943604151093492, 0.14495701966470115)', '(-0.017225161902787712, -0.3916028676790157, 0.0013047799781846737, 0.4371365292365197)', '(-0.025057219256368026, -0.19649940994952575, 0.010047510562915068, 0.14486519696251787)', '(-0.02898720745535854, -0.0015227795257265475, 0.012944814502165426, -0.1446310678642465)', '(-0.029017663045873072, 0.19341141904615405, 0.010052193144880496, -0.43320219830460654)', '(-0.02514943466494999, -0.0018514015708651632, 0.0013881491787883643, -0.13736747022207202)', '(-0.025186462696367293, 0.19325063963002584, -0.0013592002256530762, -0.4296121343308602)']</t>
+  </si>
+  <si>
+    <t>[2, 3, 5, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.5761698848745367, -0.013061057913666957, -0.8534235321243873)', '(0.02307224758776747, 0.3812283797144056, -0.0301295285561547, -0.5648760573640947)', '(0.03069681518205558, 0.1865418184533283, -0.041427049703436594, -0.2818354973558184)', '(0.034427651551122145, 0.38222944569552497, -0.04706375965055296, -0.5872911639977849)', '(0.04207224046503264, 0.5779778307046264, -0.05880958293050866, -0.8944202527410718)', '(0.05363179707912517, 0.7738458706808836, -0.0766979879853301, -1.2049944447170065)', '(0.06910871449274283, 0.9698707207933478, -0.10079787687967023, -1.5206944017112907)', '(0.08850612890860979, 1.1660561063746218, -0.13121176491389605, -1.8430632006154253)', '(0.11182725103610222, 1.362358833363228, -0.16807302892620457, -2.1734518497879227)', '(0.13907442770336678, 1.1692266578683066, -0.21154206592196304, -1.9370168960968093)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 8, 9, 11]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 0.9673508153748098, -0.08832149577837754, -1.4634688048927638)', '(0.08126518704761529, 1.1634369092515942, -0.11759087187623282, -1.7823842601131068)', '(0.10453392523264718, 1.3596685305375775, -0.15323855707849496, -2.1091910721001104)', '(0.13172729584339873, 1.1663770403066074, -0.19542237852049715, -1.8675273649065207)', '(0.15505483664953087, 1.3630275465814514, -0.23277292581862757, -2.2139776607818105)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
     <t>['[0,0]', '[1,1]', '[1,0]']</t>
   </si>
   <si>
-    <t>[1, 2, 3, 4, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.5960454243559449, 0.09259983441740222, 0.9386914580939902)', '(-0.07062574476046063, -0.7922855510514539, 0.11137366357928202, 1.2589759812869332)', '(-0.08647145578148971, -0.9886422388918867, 0.1365531832050207, 1.5843623866357988)', '(-0.10624430055932745, -1.1850985480310545, 0.16824043093773666, 1.9163256445881882)', '(-0.12994627151994853, -1.3815850038887512, 0.20656694382950042, 2.2561236968378333)', '(-0.15757797159772355, -1.188916488193607, 0.2516894177662571, 2.0335645964112166)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[1,1]', '[1,0]', '[0,0]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>[4, 22, 23, 25, 30, 42, 43]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, -0.009995037369338766, 0.0009930658321914924, 0.04227042267664122)', '(0.0029531566081822625, 0.1851126594944886, 0.0018384742857243167, -0.2500990170039908)', '(0.006655409798072035, -0.010035497623232886, -0.003163506054355499, 0.0431632351094689)', '(0.006454699845607377, 0.18513167393412924, -0.0023002413521661207, -0.25051612656525013)', '(0.010157333324289962, -0.009957353883328801, -0.0073105638834711235, 0.041440370621941724)', '(0.009958186246623386, 0.18526866210720294, -0.006481756471032289, -0.2535401147409823)', '(0.013663559488767445, -0.009760140805028628, -0.011552558765851935, 0.03709132125676301)', '(0.013468356672666873, 0.1855255537923259, -0.010810732340716675, -0.2592140502270008)', '(0.01717886774851339, -0.009440409240812048, -0.01599501334525669, 0.030039511553866804)', '(0.01699005956369715, -0.20432937374884574, -0.015394223114179354, 0.31763323034294655)', '(0.012903472088720235, -0.008991583835146671, -0.009041558507320423, 0.020135540619211467)', '(0.012723640412017302, -0.20398271017237296, -0.008638847694936194, 0.30995209286202646)', '(0.008643986208569841, -0.00873874722690704, -0.0024398058376956643, 0.01455728699169384)', '(0.0084692112640317, 0.1864181087331489, -0.0021486600978617874, -0.2788944278777489)', '(0.012197573438694678, 0.38157064581267675, -0.007726548655416765, -0.572254263353577)', '(0.019828986354948213, 0.5768000813278547, -0.019171633922488305, -0.8673612580395984)', '(0.031364987981505305, 0.3819441813703708, -0.03651885908328027, -0.580767236246726)', '(0.03900387160891272, 0.5775583065563445, -0.048134203808214794, -0.8847269468551164)', '(0.05055503774003961, 0.3831217982278978, -0.06582874274531712, -0.6075559787873106)', '(0.05821747370459757, 0.18897898315452172, -0.07797986232106334, -0.33631218108031996)', '(0.061997053367688, -0.004951634116738185, -0.08470610594266974, -0.06920310716765554)', '(0.06189802068535324, -0.19876346387562163, -0.08609016808602285, 0.19559846818709037)', '(0.057922751407840804, -0.0025223146077997527, -0.08217819872228105, -0.12295235193193021)', '(0.05787230511568481, -0.19637664386544298, -0.08463724576091965, 0.14271462735560358)', '(0.053944772238375946, -0.39019089486515374, -0.08178295321380757, 0.40754168694419923)', '(0.04614095434107287, -0.584063749196867, -0.0736321194749236, 0.6733615843609324)', '(0.03445967935713553, -0.7780892303849938, -0.06016488778770495, 0.9419829160554352)', '(0.018897894749435654, -0.5822103788325647, -0.041325229466596246, 0.6310184546068527)', '(0.0072536871727843615, -0.3865369242855564, -0.02870486037445919, 0.32561270211233123)', '(-0.000477051312926767, -0.5812386652299304, -0.022192606332212567, 0.6091069305860033)', '(-0.012101824617525375, -0.38581361773982537, -0.010010467720492501, 0.30951745254205715)', '(-0.019818096972321883, -0.5807915197925808, -0.0038201186696513578, 0.5990266234142377)', '(-0.0314339273681735, -0.3856163287687886, 0.008160413798633397, 0.30514286090729187)', '(-0.03914625394354927, -0.19061161349768155, 0.014263271016779235, 0.015044662343014548)', '(-0.0429584862135029, 0.004302911148992561, 0.014564164263639526, -0.27310412544596124)', '(-0.04287242799052305, 0.19921405529922126, 0.009102081754720302, -0.5611581216332401)', '(-0.03888814688453862, 0.003965553973271169, -0.0021210806779445, -0.26562152641994435)', '(-0.038808835805073195, -0.19112605971590896, -0.007433511206343387, 0.026391638576923948)', '(-0.04263135699939138, -0.38614062401615024, -0.006905678434804908, 0.31671997094390536)', '(-0.050354169479714384, -0.5811635361668052, -0.0005712790159268007, 0.607217110627252)', '(-0.06197744020305049, -0.38603360213193166, 0.01157306319661824, 0.31435430131530584)', '(-0.06969811224568911, -0.1910784055501902, 0.01786014922292436, 0.025343494461066263)']</t>
-  </si>
-  <si>
-    <t>[4, 8, 9, 10, 12, 13, 15]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, 0.3802478236181868, 0.0009930658321914924, -0.5430831938294477)', '(0.010758013827932775, 0.5753558045012619, -0.009868598044397462, -0.835453059538741)', '(0.022265129917958013, 0.7706111653268025, -0.02657765923517228, -1.1312231597978708)', '(0.037677353224494066, 0.5758470842321526, -0.0492021224311297, -0.8469931259337694)', '(0.04919429490913712, 0.7716044573942316, -0.06614198494980508, -1.1547334213814318)', '(0.06462638405702176, 0.9675236136254655, -0.08923665337743372, -1.4674011335183674)', '(0.08397685632953107, 0.7736001424636361, -0.11858467604780107, -1.203874114267977)', '(0.09944885917880379, 0.9700384112626529, -0.1426621583331606, -1.5312444009815376)', '(0.11884962740405686, 0.7768952435383929, -0.17328704635279135, -1.2862734072748148)', '(0.13438753227482472, 0.5843495601660582, -0.19901251449828766, -1.0524722220904958)', '(0.1460745234781459, 0.3923424507252501, -0.22006195894009759, -0.828270452067901)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18]</t>
-  </si>
-  <si>
-    <t>[2, 3, 11, 12, 14, 18, 19, 20, 21, 22, 23, 26]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.18592608100371844, -0.013061057913666957, -0.2680588366431443)', '(0.015267371510351105, -0.009007059353799696, -0.018422234646529843, 0.020476091983435085)', '(0.015087230323275112, -0.20386003791969498, -0.01801271280686114, 0.30729013388006127)', '(0.011010029564881212, -0.008486111063197549, -0.011866910129259915, 0.00898133406309054)', '(0.010840307343617262, -0.2034358816365489, -0.011687283447998104, 0.29789661033210013)', '(0.006771589710886284, -0.008149296488200092, -0.005729351241356101, 0.0015507552970182026)', '(0.006608603781122282, 0.18705435135362433, -0.005698336135415737, -0.2929343307904983)', '(0.010349690808194768, 0.3822570824520565, -0.011557022751225703, -0.5874089753823313)', '(0.017994832457235897, 0.18729887594746272, -0.02330520225887233, -0.29838888412220915)', '(0.021740809976185153, 0.3827451467553024, -0.029272979941316515, -0.5983297882762659)', '(0.0293957129112912, 0.18804475482900257, -0.041239575706841836, -0.31500934862805474)', '(0.03315660800787125, -0.006466230614868118, -0.04753976267940293, -0.03561193817990749)', '(0.033027283395573884, -0.2008753528123006, -0.048252001443001076, 0.2417008532760307)', '(0.029009776339327872, -0.005098546610226268, -0.04341798437748046, -0.06580314276870586)', '(0.028907805407123347, 0.19061813707107458, -0.04473404723285458, -0.3718623767054856)', '(0.03272016814854484, 0.3863461111775709, -0.05217129476696429, -0.6783080521784348)', '(0.040447090372096255, 0.5821525488449457, -0.06573745581053299, -0.9869494869063913)', '(0.05209014134899517, 0.7780902650829915, -0.08547644554866081, -1.2995341392212718)', '(0.067651946650655, 0.9741868734255439, -0.11146712833308625, -1.6177046468698166)', '(0.08713568411916589, 0.7805416357587185, -0.14382122127048258, -1.361742957102464)', '(0.10274651683434026, 0.5874848558030563, -0.17105608041253187, -1.1172854176104525)', '(0.11449621395040138, 0.784387644584122, -0.19340178876474093, -1.4583746628066627)', '(0.13018396684208383, 0.5920916658188935, -0.22256928202087417, -1.2318147360393588)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
-  </si>
-  <si>
-    <t>[8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, 0.3797437874814581, 0.012910514665105136, -0.532040829553236)', '(0.002933644048253645, 0.5746817915426519, 0.0022696980740404167, -0.8206278807133297)', '(0.014427279879106683, 0.769772609746117, -0.014142859540226177, -1.112596063595955)', '(0.029822732074029024, 0.9650774255497784, -0.03639478081214528, -1.4096818511601423)', '(0.04912428058502459, 1.160631381333048, -0.06458841783534813, -1.7135162396565267)', '(0.07233690821168555, 1.3564324805121815, -0.09885874262847866, -2.0255812840875524)', '(0.09946555782192917, 1.5524282125649003, -0.1393703683102297, -2.3471565966113146)', '(0.13051412207322718, 1.7484996227530742, -0.186313500242456, -2.679254316514289)', '(0.16548411452828868, 1.9444429424972856, -0.23989858657274177, -3.022542555141353)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[0,0]', '[1,1]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
-  </si>
-  <si>
     <t>[1,0]</t>
   </si>
   <si>
-    <t>[3, 7, 10, 19, 28, 30, 35, 39, 43, 45, 48]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, -0.20584991601057387, 0.02973729382904814, 0.3512454526255887)', '(-0.020290514986636407, -0.011163204504964663, 0.036762202881559916, 0.06808597381183934)', '(-0.0205137790767357, 0.18341293159795002, 0.0381239223577967, -0.21277537785557532)', '(-0.0168455204447767, -0.012232762736956448, 0.03386841480068519, 0.09168563923012446)', '(-0.01709017569951583, 0.18238778628259583, 0.03570212758528768, -0.19012235738965755)', '(-0.013442419973863914, 0.37698126915451957, 0.031899680437494526, -0.4713323779112896)', '(-0.005902794590773522, 0.18142360860968812, 0.02247303287926873, -0.168768206970143)', '(-0.00227432241857976, 0.3762167994174709, 0.01909766873986587, -0.454277697385924)', '(0.005250013569769658, 0.18083008469507156, 0.010012114792147392, -0.15563669658421114)', '(0.00886661526367109, 0.37580726366098777, 0.0068993808604631696, -0.44514429384319815)', '(0.016382760536890844, 0.1805883820870695, -0.002003505016400793, -0.15029453910155688)', '(0.019994528178632235, -0.014504822866986289, -0.005009395798431931, 0.14175565091613884)', '(0.01970443172129251, -0.20955467329060173, -0.0021742827801091535, 0.4328539994116084)', '(0.015513338255480475, -0.01440200472140929, 0.006482797208123014, 0.13948644986286396)', '(0.01522529816105229, 0.18062649963114075, 0.009272526205380292, -0.15114423036090968)', '(0.018837828153675105, 0.375614456861941, 0.006249641598162098, -0.4408875088971466)', '(0.026350117290913924, 0.1804046220327518, -0.002568108579780834, -0.14624109234794036)', '(0.02995820973156896, 0.3755632557641364, -0.005492930426739641, -0.4397331007080996)', '(0.03746947484685169, 0.1805194739896365, -0.014287592440901633, -0.1487867551471277)', '(0.04107986432664442, -0.014394997510093266, -0.017263327543844187, 0.13935470165176234)', '(0.04079196437644256, 0.18096989904083655, -0.01447623351080894, -0.1587241431147115)', '(0.04441136235725929, 0.3762960809580329, -0.01765071637310317, -0.4559385809192499)', '(0.051937283976419946, 0.181428076502003, -0.026769487991488167, -0.16887114723979924)', '(0.05556584550646001, 0.3769227650539323, -0.030146910936284153, -0.46987740644530684)', '(0.06310430080753865, 0.18223935265710936, -0.03954445906519029, -0.18684682864990848)', '(0.06674908786068083, -0.012295163356420308, -0.04328139563818846, 0.09310377938067904)', '(0.06650318459355242, -0.206770896837105, -0.04141932005057488, 0.37182343388014755)', '(0.06236776665681032, -0.011085746241844552, -0.033982851372971926, 0.06637365563292047)', '(0.06214605173197343, 0.18450652643910823, -0.03265537826031352, -0.23683439763986058)', '(0.06583618226075559, -0.01013403651358566, -0.03739206621311073, 0.045371815954477535)', '(0.06563350153048388, -0.20470040976200082, -0.03648462989402118, 0.3260266665331402)', '(0.06153949333524386, -0.009078507465461239, -0.029964096563358376, 0.02206498817416508)', '(0.06135792318593464, 0.18646005906121052, -0.029522796799875076, -0.2799193248618755)', '(0.06508712436715886, -0.008228581816473263, -0.035121183297112585, 0.0033079369370452305)', '(0.06492255273082939, -0.20282970166109585, -0.03505502455837168, 0.2847060999627393)', '(0.060865958697607477, -0.0072257742131757174, -0.029360902559116893, -0.018823599609198716)', '(0.06072144321334396, 0.18830467313530927, -0.029737374551300867, -0.32062372526921046)', '(0.06448753667605014, -0.006381440394251703, -0.03614984905668508, -0.037465167445719094)', '(0.06435990786816512, 0.18923975429523415, -0.03689915240559946, -0.34133099128861105)', '(0.0681447029540698, -0.005338306365177348, -0.04372577223137168, -0.060508462418498055)', '(0.06803793682676625, -0.19980693267084904, -0.04493594147974164, 0.2180643807787293)', '(0.06404179817334926, -0.004072385607001128, -0.04057465386416706, -0.08844778475434029)', '(0.06396035046120924, -0.19858996598916945, -0.04234360955925386, 0.19116276728201576)']</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 5, 10, 11, 14, 19, 22, 24, 30, 32, 34, 35]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.39990404041704386, 0.04501637570661563, 0.6207267240778034)', '(-0.03529023318285525, -0.5956248027752826, 0.0574309101881717, 0.9272407954660062)', '(-0.0472027292383609, -0.4013233792000955, 0.07597572609749183, 0.6531445849773836)', '(-0.05522919682236281, -0.20733702810799612, 0.0890386177970395, 0.3853198470539871)', '(-0.05937593738452274, -0.013584499374372339, 0.09674501473811925, 0.12198510636795673)', '(-0.05964762737201018, 0.180027848286615, 0.09918471686547839, -0.13867668869199345)', '(-0.056047070406277884, -0.01636448321923309, 0.09641118309163851, 0.183576491992188)', '(-0.056374360070662544, -0.21272425778850657, 0.10008271293148227, 0.5050493203835824)', '(-0.06062884522643268, -0.019144614200988758, 0.11018369933915392, 0.24550811208692463)', '(-0.061011737510452455, 0.17424526712264163, 0.11509386158089241, -0.010489109786070427)', '(-0.05752683216799962, -0.0223230614077993, 0.114884079385171, 0.31617558102843096)', '(-0.05797329339615561, 0.170991052824173, 0.12120759100573962, 0.061817547302318865)', '(-0.05455347233967215, 0.36418547231108345, 0.122443941951786, -0.1903001399805469)', '(-0.04726976289345048, 0.5573623516934195, 0.11863793915217506, -0.4419873805976633)', '(-0.03612251585958209, 0.750623236961458, 0.1097981915402218, -0.6950432054516658)', '(-0.021110051120352927, 0.5541634943191229, 0.09589732743118848, -0.36991229730609393)', '(-0.010026781233970468, 0.7478014363138215, 0.0884990814850666, -0.6308840484130958)', '(0.004929247492305961, 0.941584354409572, 0.07588140051680468, -0.8944360949707723)', '(0.0237609345804974, 0.745519941012692, 0.05799267861738924, -0.5788980422945773)', '(0.03867133340075124, 0.9397832543241489, 0.04641471777149769, -0.8527628547140089)', '(0.05746699848723422, 0.7440603520251098, 0.029359460677217515, -0.5458536547796053)', '(0.07234820552773641, 0.9387577444396384, 0.01844238758162541, -0.8291434423614261)', '(0.09112336041652919, 1.1336227845664935, 0.0018595187343968846, -1.1159695410008432)', '(0.11379581610785905, 0.9384764739001382, -0.02045987208561998, -0.8227038828924523)', '(0.1325653455858618, 0.7436403228618333, -0.036913949743469024, -0.5365256066759703)', '(0.14743815204309846, 0.9392613332352104, -0.047644461876988425, -0.8406074608948697)', '(0.16622337870780268, 1.1350002220903925, -0.06445661109488582, -1.1478847854363794)', '(0.18892338314961055, 0.940776275197653, -0.08741430680361341, -0.8760909801048395)', '(0.2077389086535636, 1.136970708673348, -0.1049361264057102, -1.1949260553311114)', '(0.23047832282703057, 0.9433521929846349, -0.12883464751233242, -0.9368904830426873)', '(0.24934536668672327, 1.1399539629643476, -0.14757245717318618, -1.267121759794398)', '(0.2721444459460102, 1.3366202845622102, -0.17291489236907415, -1.60214387130504)', '(0.2988768516372544, 1.1439155897067512, -0.20495776979517494, -1.367981434693699)', '(0.32175516343138943, 0.9518619222820315, -0.23231739848904892, -1.1457671685948965)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 8]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -0.9886983365154707, 0.15990118414356524, 1.5905077322082546)', '(-0.12184725169900645, -1.1853169349858783, 0.19171133878773033, 1.9284841128542352)', '(-0.145553590398724, -0.992697878202941, 0.23028102104481504, 1.7008673290687473)']</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.595919684308709, 0.06920609820418122, 0.9343495519973364)', '(-0.055015862314570195, -0.791903516316987, 0.08789308924412795, 1.2479519400188712)', '(-0.07085393264090993, -0.9880355484185881, 0.11285212804450537, 1.5668216613877721)', '(-0.09061464360928169, -1.184310416098135, 0.14418856127226082, 1.892469338400986)', '(-0.1143008519312444, -1.3806729853307276, 0.18203794804028053, 2.2262013605705073)', '(-0.14191431163785895, -1.5770022075612058, 0.2265619752516907, 2.5690532739686676)']</t>
+    <t>[4, 10, 13, 19, 27, 29, 31, 39, 40, 41, 42]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, -0.009995037369338766, 0.0009930658321914924, 0.04227042267664122)', '(0.0029531566081822625, 0.1851126594944886, 0.0018384742857243167, -0.2500990170039908)', '(0.006655409798072035, 0.3802083083022956, -0.003163506054355499, -0.5422014845146548)', '(0.014259575964117945, 0.185130961605942, -0.014007535744648594, -0.25051699791455684)', '(0.017962195196236784, -0.009788186702095414, -0.01901787570293973, 0.0377149602103119)', '(0.017766431462194875, 0.18560124630373379, -0.018263576498733492, -0.26090710803969486)', '(0.021478456388269552, -0.009255294323694818, -0.02348171865952739, 0.025959764265578222)', '(0.021293350501795656, -0.2040327655620164, -0.022962523374215824, 0.3111424350289726)', '(0.01721269519055533, -0.008591321540890401, -0.016739674673636372, 0.011307165891101922)', '(0.01704086875973752, -0.2034692529239597, -0.016513531355814334, 0.2986618733715765)', '(0.012971483701258326, -0.008115851162209725, -0.010540293888382804, 0.0008169664291077239)', '(0.012809166678014131, 0.18715566476967552, -0.010523954559800649, -0.29517282596752015)', '(0.016552279973407642, -0.007814683257940463, -0.016427411079151053, -0.005827484558599549)', '(0.016395986308248834, -0.20269723651527682, -0.016543960770323045, 0.28162746134581595)', '(0.012342041577943297, -0.007343256085819316, -0.010911411543406725, -0.01622711112953884)', '(0.01219517645622691, -0.20230703853496365, -0.011235953765997501, 0.2729932622483135)', '(0.008149035685527637, -0.007026581618968797, -0.005776088521031232, -0.02321223409261597)', '(0.008008504053148261, -0.20206522403010435, -0.006240333202883551, 0.2676426886204662)', '(0.003967199572546175, -0.006854771954307781, -0.0008874794304742266, -0.027001934187224963)', '(0.003830104133460019, 0.18827989513527466, -0.0014275181142187259, -0.31996473847097806)', '(0.007595702036165513, -0.0068216969031378305, -0.007826812883638288, -0.027732338781031485)', '(0.007459268098102756, 0.1884116167210654, -0.008381459659258917, -0.3228743989091573)', '(0.011227500432524063, -0.006589987842972045, -0.014838947637442063, -0.03284638627346076)', '(0.011095700675664621, 0.18874158183519782, -0.015495875362911278, -0.33017397370111967)', '(0.014870532312368578, -0.006156395374572798, -0.02209935483693367, -0.04241771171022779)', '(0.014747404404877122, -0.200954591450201, -0.022947709071138224, 0.24321155195088556)', '(0.010728312575873103, -0.005512505558905562, -0.018083478032120515, -0.0566204251662607)', '(0.010618062464694992, -0.20037056433044706, -0.019215886535445727, 0.23030262079094932)', '(0.006610651178086051, -0.0049793697802490156, -0.014609834119626741, -0.06837918447687658)', '(0.0065110637824810705, -0.19988884715757047, -0.01597741780916427, 0.2196586915449233)', '(0.0025132868393296613, -0.004542195998140708, -0.011584243978265806, -0.07802104621369854)', '(0.0024224429193668473, 0.19074388912217685, -0.013144664902539778, -0.3743362109019673)', '(0.006237320701810384, 0.3860500663693485, -0.020631389120579123, -0.6711345882569026)', '(0.013958322029197355, 0.581452667384027, -0.034054080885717174, -0.970241309636297)', '(0.025587375376877896, 0.7770147690269834, -0.05345890707844311, -1.2734243511738559)', '(0.041127670757417564, 0.5826141147447862, -0.07892739410192023, -0.9979493807898524)', '(0.05277995305231329, 0.3886310333273995, -0.09888638171771728, -0.7310611753578937)', '(0.06055257371886128, 0.19500464257024896, -0.11350760522487516, -0.4710657048299657)', '(0.06445266657026626, 0.0016535860132194102, -0.12292891932147447, -0.21620508576848763)', '(0.06448573829053064, -0.19151616578711797, -0.12725302103684422, 0.03531283468608715)', '(0.06065541497478828, -0.3846053601341124, -0.12654676434312248, 0.2852932230171201)', '(0.05296330777210603, -0.5777167058533009, -0.12084089988278007, 0.5355384310425901)']</t>
+  </si>
+  <si>
+    <t>[3, 9, 12, 13, 14, 18, 21, 24, 27, 29, 31, 32, 34, 35]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, 0.18437040116260206, 0.02973729382904814, -0.2338432242158895)', '(-0.01248610864317289, 0.3790551202362022, 0.02506042934473035, -0.5169997157029684)', '(-0.004905006238448845, 0.5738154050360953, 0.014720435030670982, -0.8016814168792781)', '(0.006571301862273061, 0.37849469804643954, -0.0013131933069145795, -0.5044044474304192)', '(0.014141195823201853, 0.18339127857878582, -0.011401282255522964, -0.21213564928864137)', '(0.01780902139477757, 0.3786743688143266, -0.01564399524129579, -0.5083931506866917)', '(0.0253825087710641, 0.5740131988659343, -0.025811858255029622, -0.8059646888699243)', '(0.03686277274838279, 0.7694792825422476, -0.04193115203242811, -1.1066539912434619)', '(0.05225235839922774, 0.574932909377613, -0.06406423185729734, -0.827415082150899)', '(0.06375101658678001, 0.38074269814595313, -0.08061253350031533, -0.5555493142863767)', '(0.07136587054969908, 0.18683959954623294, -0.09172351978604286, -0.2893136213147877)', '(0.07510266254062374, 0.38314164976805365, -0.09750979221233862, -0.6094578358864859)', '(0.08276549553598482, 0.1895082925730556, -0.10969894893006833, -0.34900999970394625)', '(0.08655566138744593, -0.003896400571691161, -0.11667914892414726, -0.09283360878297264)', '(0.08647773337601211, 0.1926878355861699, -0.1185358210998067, -0.41993089992432)', '(0.09033149008773551, -0.0005726002672226393, -0.1269344390982931, -0.16684243028810541)', '(0.09032003808239106, -0.19367062179295633, -0.13027128770405522, 0.08325569558904428)', '(0.08644662564653192, 0.0030547609092573536, -0.12860617379227432, -0.24752352756385165)', '(0.08650772086471707, -0.1900183517157828, -0.13355664434355136, 0.0019883601363474)', '(0.08270735383040141, -0.3829972247344573, -0.1335168771408244, 0.24972980240321918)', '(0.07504740933571226, -0.18624634127125234, -0.12852228109276004, -0.08190729310705203)', '(0.07132248251028721, -0.3793140981310308, -0.13016042695490107, 0.16762420311788404)', '(0.06373620054766659, -0.18259251562512036, -0.12680794289254338, -0.16312129864743072)', '(0.06008435023516418, -0.3756925845610958, -0.130070368865492, 0.08702140066684796)', '(0.052570498543942266, -0.17896931894930523, -0.12832994085215504, -0.24370379917566717)', '(0.04899111216495616, 0.017729788595907597, -0.13320401683566838, -0.5739518082754359)', '(0.04934570793687432, -0.17529789522572456, -0.1446830530011771, -0.32602147232654344)', '(0.04583975003235983, 0.0215558135181812, -0.15120348244770795, -0.6606054091924652)', '(0.04627086630272345, 0.2184223836824022, -0.16441559063155725, -0.9968206752185418)', '(0.050639313976371496, 0.025834972630352115, -0.1843520041359281, -0.7599560523727782)', '(0.05115601342897854, -0.1663333964373908, -0.19955112518338367, -0.5304808784273469)', '(0.04782934550023073, -0.3581717064554617, -0.2101607427519306, -0.30671321008101515)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38]</t>
+  </si>
+  <si>
+    <t>[2, 6, 8, 9, 10, 12, 13, 17, 18]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, 0.18576798339470538, 0.010344260345701474, -0.26457614791114553)', '(-0.00034492595914050513, 0.38074077330267914, 0.005052737387478563, -0.5539785274968766)', '(0.007269889506913077, 0.18554823711507773, -0.006026833162458969, -0.25970796220825093)', '(0.010980854249214632, 0.380755704458433, -0.011220992406623987, -0.5542857236131895)', '(0.01859596833838329, 0.576033405308437, -0.022306706878887778, -0.8504827369606776)', '(0.030116636444552033, 0.77145230734941, -0.03931636161810133, -1.1500957922556303)', '(0.04554568259154023, 0.5768649039161928, -0.06231827746321393, -0.8699962820990513)', '(0.057082980669864086, 0.7727766912853318, -0.07971820310519495, -1.18160323731488)', '(0.07253851449557072, 0.9688376336062623, -0.10335026785149255, -1.4981730070778825)', '(0.09191526716769596, 0.7751123021154007, -0.1333137279930502, -1.2394664704216047)', '(0.10741751321000398, 0.5819302071032892, -0.15810305740148228, -0.9913427625385114)', '(0.11905611735206977, 0.38923664436578564, -0.1779299126522525, -0.7521963002781853)', '(0.1268408502393855, 0.5863074329735648, -0.1929738386578162, -1.0951713187210455)', '(0.1385669988988568, 0.7833739719614693, -0.2148772650322371, -1.4416671228084583)']</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.5760082163585145, -0.0013614871701066334, -0.8498680372101901)', '(0.015264623176380358, 0.7711487074207513, -0.018358847914310437, -1.142978779616701)', '(0.030687597324795382, 0.9665056771590287, -0.04121842350664446, -1.4413620502969484)', '(0.050017710867975955, 1.1621102689106992, -0.07004566451258343, -1.7466345155681449)', '(0.07325991624618994, 1.3579549924664167, -0.10497835482394632, -2.0602578163979106)', '(0.10041901609551827, 1.5539800288874153, -0.14618351115190453, -2.383483623618145)', '(0.13149861667326657, 1.7500569815548495, -0.19385318362426743, -2.7172871229411517)', '(0.16649975630436356, 1.9459702533623404, -0.24819892608309047, -3.062289173566951)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
   </si>
 </sst>
 </file>
@@ -668,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -718,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -768,13 +777,13 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -783,10 +792,10 @@
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -798,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -818,13 +827,13 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -833,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -848,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -865,40 +874,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
         <v>30</v>
       </c>
-      <c r="H6">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
         <v>31</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6">
-        <v>18</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -915,40 +924,40 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7">
+        <v>19</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
         <v>31</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7">
-        <v>18</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -965,40 +974,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
         <v>35</v>
       </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
         <v>36</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1015,40 +1024,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
         <v>36</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1065,25 +1074,25 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1098,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1115,25 +1124,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1148,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1156,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -1165,19 +1174,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -1198,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1206,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -1215,19 +1224,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13">
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -1248,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1256,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -1268,13 +1277,13 @@
         <v>47</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
@@ -1283,11 +1292,11 @@
         <v>100</v>
       </c>
       <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14">
         <v>50</v>
       </c>
-      <c r="L14">
-        <v>19</v>
-      </c>
       <c r="M14">
         <v>0</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1306,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>0.4</v>
@@ -1318,13 +1327,13 @@
         <v>47</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
@@ -1333,11 +1342,11 @@
         <v>100</v>
       </c>
       <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15">
         <v>50</v>
       </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
       <c r="M15">
         <v>0</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1356,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1365,28 +1374,28 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
         <v>52</v>
       </c>
-      <c r="H16">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
         <v>53</v>
       </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>54</v>
-      </c>
       <c r="L16">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1398,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1406,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1415,28 +1424,28 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
         <v>52</v>
       </c>
-      <c r="H17">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
         <v>53</v>
       </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
-        <v>54</v>
-      </c>
       <c r="L17">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1448,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1456,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>0.8</v>
@@ -1465,28 +1474,28 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
         <v>55</v>
       </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
         <v>56</v>
       </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
         <v>57</v>
       </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18" t="s">
-        <v>58</v>
-      </c>
       <c r="L18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1498,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1506,7 +1515,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>0.8</v>
@@ -1515,28 +1524,28 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
         <v>55</v>
       </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="H19">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
         <v>57</v>
       </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>58</v>
-      </c>
       <c r="L19">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1548,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1556,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1565,25 +1574,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="L20">
         <v>11</v>
@@ -1598,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1606,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1615,25 +1624,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="L21">
         <v>11</v>
@@ -1648,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1698,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1748,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1774,7 +1783,7 @@
         <v>68</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
         <v>69</v>
@@ -1786,7 +1795,7 @@
         <v>70</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1798,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="P24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1824,7 +1833,7 @@
         <v>68</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s">
         <v>69</v>
@@ -1836,7 +1845,7 @@
         <v>70</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1848,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="P25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1868,25 +1877,25 @@
         <v>71</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1898,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1918,25 +1927,25 @@
         <v>71</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1948,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1965,28 +1974,28 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1998,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2015,28 +2024,28 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2048,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2065,25 +2074,25 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -2098,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2115,25 +2124,25 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -2148,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/experimental results/e3000_CartPole.xlsx
+++ b/experimental results/e3000_CartPole.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="73">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,13 +70,13 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[19, 21, 22, 28]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, 0.1838783157507662, 0.007299072508378151, -0.22287552841176522)', '(0.005736964334697355, -0.011347196378286711, 0.0028415619401428466, 0.07210084738632738)', '(0.00551002040713162, 0.18373390205906265, 0.004283578887869394, -0.21968420080137002)', '(0.009184698448312873, -0.011449017457679123, -0.00011010512815800687, 0.0743468607539246)', '(0.00895571809915929, 0.18367451206364416, 0.0013768320869204853, -0.21837080266154113)', '(0.012629208340432173, -0.011467093796386357, -0.002990583966310337, 0.0747461171916447)', '(0.012399866464504446, -0.20654604456079387, -0.001495661622477443, 0.3664840044337423)', '(0.00826894557328857, -0.011402871321903624, 0.0058340184661974034, 0.07332984762428052)', '(0.008040888146850497, -0.2066079722619717, 0.0073006154186830135, 0.36784770778074066)', '(0.003908728701611063, -0.4018328961632578, 0.014657569574297827, 0.6628236515660311)', '(-0.004127929221654093, -0.20691790744245622, 0.027914042605618448, 0.3747917463607584)', '(-0.008266287370503219, -0.012203350206742597, 0.03540987753283362, 0.09103935619238201)', '(-0.008510354374638072, 0.18239363620813515, 0.037230664656681255, -0.19026481602126982)', '(-0.004862481650475369, 0.37696372820084506, 0.03342536833625586, -0.4709744170254129)', '(0.0026767929135415322, 0.18138597998628522, 0.024005879995747603, -0.16794643364081968)', '(0.006304512513267237, -0.014071217638710998, 0.02064695132293121, 0.1322119388290675)', '(0.006023088160493017, 0.18074898625776922, 0.02329119009951256, -0.15388630842205253)', '(0.009638067885648402, 0.3755298364136519, 0.02021346393107151, -0.4391313479780772)', '(0.01714866461392144, 0.1801277170825535, 0.011430836971509966, -0.14014569187761794)', '(0.02075121895557251, 0.3750841028275297, 0.008627923133957608, -0.4292005724785327)', '(0.0282529010121231, 0.17984103474129248, 4.3911684386954e-05, -0.13381029292672875)', '(0.03184972170694895, 0.3749623569425311, -0.002632294174147621, -0.42647936591120106)', '(0.03934896884579957, 0.17987778831053605, -0.011161881492371642, -0.1346274203578331)', '(0.04294652461201029, -0.015082518638370929, -0.013854429899528304, 0.15451329800912322)', '(0.04264487423924287, 0.18023503425323142, -0.01076416393934584, -0.1425079861603074)', '(0.04624957492430749, -0.014731115418976204, -0.013614323662551987, 0.1467596927864553)', '(0.04595495261592797, 0.18058312620635839, -0.010679129806822882, -0.1501870064886447)', '(0.049566615140055136, -0.014384290431230184, -0.013682869936595775, 0.139107838018455)', '(0.049278929331430535, 0.18093093488986606, -0.010900713176226675, -0.15786021330578975)', '(0.05289754802922786, -0.01403326648840214, -0.01405791744234247, 0.13136396768233627)', '(0.05261688269945981, 0.18128720839278428, -0.011430638088695745, -0.16572068655106853)', '(0.0562426268673155, -0.01366926749762934, -0.014745051819717116, 0.1233343883916958)', '(0.05596924151736291, 0.18166079269111, -0.012278364051883199, -0.17396373962878042)', '(0.059602457371185115, -0.013283298692020162, -0.015757638844458806, 0.11482060732433147)', '(0.05933679139734471, 0.1820608512301758, -0.013461226697972176, -0.1827917939829249)', '(0.06297800842194823, -0.01286592406050549, -0.017117062577630675, 0.10561439700062603)', '(0.06272068994073812, 0.18249708877857318, -0.015004774637618155, -0.1924193638448825)']</t>
+    <t>[1, 27, 45, 47]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, 0.18594877956501746, 0.03869444837171655, -0.26877324231361266)', '(-0.019488118724880973, -0.009703402418254486, 0.033318983525444296, 0.0358586805708071)', '(-0.019682186773246062, 0.18492529718191608, 0.03403615713686044, -0.246128364066799)', '(-0.01598368082960774, 0.3795450175582019, 0.02911358985552446, -0.5278841683214563)', '(-0.008392780478443702, 0.18402580719474337, 0.01855590648909533, -0.22617144941287243)', '(-0.004712264334548835, -0.011356353854746565, 0.014032477500837883, 0.07230646131810359)', '(-0.004939391411643766, 0.18356164088285176, 0.015478606727199955, -0.2159163322291212)', '(-0.001268158593986731, -0.011778132587385526, 0.01116028008261753, 0.08160875664990119)', '(-0.0015037212457344414, 0.18318207298051023, 0.012792455215615554, -0.20753228566696746)', '(0.002159920213875763, -0.012120444782189488, 0.008641809502276205, 0.08915840006913389)', '(0.0019175113182319733, 0.18287657790643175, 0.010424977503658884, -0.20078555175080548)', '(0.005575042876360609, -0.012392909124185836, 0.006409266468642774, 0.09516765037049968)', '(0.005327184693876892, 0.18263659678023433, 0.008312619476052767, -0.19548628839738796)', '(0.008979916629481579, -0.01260326703736439, 0.0044028937081050075, 0.09980727111417653)', '(0.008727851288734292, 0.18245530716977032, 0.006399039130388538, -0.1914833076561332)', '(0.012376957432129698, -0.01275759934429993, 0.002569372977265874, 0.10321136166060718)', '(0.012121805445243699, 0.18232743593616216, 0.004633600210478018, -0.1886598305200819)', '(0.015768354163966943, -0.012860499404697273, 0.0008604036000763797, 0.10548120303351327)', '(0.015511144175872998, 0.1822491111450849, 0.002970027660746645, -0.1869301458350474)', '(0.019156126398774696, -0.012915207149845648, -0.0007685752559543034, 0.1066882272890648)', '(0.018897822255777783, 0.18221774959025983, 0.0013651892898269924, -0.18623708247416426)', '(0.02254217724758298, -0.012923707609830692, -0.002359552359656293, 0.10687619608258181)', '(0.022283703095386364, 0.18223197712146255, -0.00022202843800465683, -0.18655022386967046)', '(0.025928342637815616, -0.012886796719976251, -0.003953032915398066, 0.10606265331822762)', '(0.02567060670341609, -0.20795187660094816, -0.0018317798490335136, 0.39749579835850707)', '(0.021511569171397127, -0.01280398531605112, 0.006118136118136627, 0.10423590955855588)', '(0.021255489465076105, 0.18222975574967432, 0.008202854309307745, -0.18651050594271523)', '(0.024900084580069592, -0.013008591524710816, 0.004472644190453441, 0.10874877442040698)', '(0.024639912749575377, 0.1820489823786616, 0.00664761967886158, -0.1825197069030549)', '(0.028280892397148608, -0.013167455355964724, 0.0029972255408004817, 0.11225286542903812)', '(0.028017543290029312, 0.18191142013780529, 0.005242282849381244, -0.1794829504749746)', '(0.03165577169278542, -0.013285154449898445, 0.0016526238398817525, 0.1148491122889777)', '(0.03139006860378745, 0.18181307804671656, 0.003949606085661307, -0.17731196563409696)', '(0.03502633016472178, -0.013365171791147518, 0.00040336677297936763, 0.11661430679992363)', '(0.03475902672889883, 0.1817509975878269, 0.0027356529089778404, -0.17594133363075204)', '(0.038394046680655367, -0.013409997215598685, -0.0007831737636372006, 0.117603344118202)', '(0.038125846736343394, 0.18172316653207646, 0.0015688931187268396, -0.17532656480096115)', '(0.041760310066984926, -0.013421202676907662, -0.0019376381772923837, 0.11785088315025849)', '(0.04149188601344677, 0.1817284571744281, 0.00041937948571278607, -0.17544272238606196)', '(0.045126455156935336, -0.013399493455068773, -0.003089474962008453, 0.11737247538416501)', '(0.04485846528783396, 0.1817665872469165, -0.0007420254543251529, -0.17628355273977925)', '(0.04849379703277229, -0.013344736881648056, -0.004267696509120738, 0.11616519741803816)', '(0.04822690229513933, -0.20840528006511924, -0.001944392560759975, 0.4074986487198894)', '(0.044058796693836944, -0.013255812467157957, 0.006205580413637814, 0.11420334961580841)', '(0.043793680444493784, -0.20846612949870486, 0.008489647405953982, 0.4088376160642259)', '(0.03962435785451969, -0.013465570347377692, 0.0166663997272385, 0.11884324449833977)', '(0.03935504644757214, 0.1814136737423565, 0.019043264617205295, -0.16853532935199195)']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
@@ -85,169 +85,154 @@
     <t>Omitted</t>
   </si>
   <si>
+    <t>['[0,0]', '[1,1]', '[1,0]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 6, 7, 8, 11, 12, 15, 17, 18, 21]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.009882199210565407, 0.056718967558805795, 0.039842350584417374)', '(-0.0352940394312487, 0.18438247066809094, 0.05751581457049414, -0.23441962477579703)', '(-0.031606390017886885, -0.011512076960013967, 0.0528274220749782, 0.07583663411384034)', '(-0.031836631557087165, -0.20734999272311222, 0.05434415475725501, 0.3847077432127951)', '(-0.03598363141154941, -0.40319966184369926, 0.06203830962151091, 0.6940178718692676)', '(-0.04404762464842339, -0.20899063798003817, 0.07591866705889626, 0.42149231860055925)', '(-0.048227437408024154, -0.015021792446858279, 0.08434851343090745, 0.1536757766389849)', '(-0.04852787325696132, -0.21124384580621386, 0.08742202896368714, 0.4717315036107549)', '(-0.052752750173085595, -0.4074847615245451, 0.09685665903590224, 0.7906380991713983)', '(-0.0609024454035765, -0.213816752891265, 0.1126694210193302, 0.5299290074612248)', '(-0.0651787804614018, -0.020445058746007327, 0.12326800116855469, 0.27476534347116227)', '(-0.06558768163632195, -0.21709041239009436, 0.12876330803797792, 0.6036442728042744)', '(-0.06992948988412384, -0.023982103825803902, 0.1408361934940634, 0.35413168372225057)', '(-0.07040913196063991, -0.22079631655607423, 0.1479188271685084, 0.6876991031154605)', '(-0.07482505829176139, -0.41762800037109393, 0.16167280923081762, 1.0230522310263437)', '(-0.08317761829918327, -0.22498535292709426, 0.18213385385134448, 0.7851815365697159)', '(-0.08767732535772516, -0.03277056120151814, 0.1978374845827388, 0.5548801538466692)', '(-0.08833273658175551, -0.23003967301907, 0.2089350876596722, 0.9027974392996383)', '(-0.09293353004213692, -0.03826647675582867, 0.22699103644566496, 0.6823745387683017)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22]</t>
+  </si>
+  <si>
+    <t>['[1,1]', '[1,0]', '[0,0]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 10, 11, 12, 13, 14, 16, 17, 18, 19, 20]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.009702865384165815, 0.04501637570661563, 0.035863081415907105)', '(-0.02748620968219769, 0.18474560036540177, 0.045733637334933776, -0.24228378862138145)', '(-0.023791297674889657, 0.37918546010376175, 0.040887961562506146, -0.5201976158225745)', '(-0.01620758847281442, 0.18351248374394377, 0.030484009246054655, -0.2149157539319616)', '(-0.012537338797935546, 0.3781856610750537, 0.026185694167415424, -0.4978289410641264)', '(-0.004973625576434472, 0.18270447654920793, 0.016229115346132895, -0.19700997392961078)', '(-0.0013195360454503133, -0.012645804096258095, 0.01228891586754068, 0.10074800921912824)', '(-0.0015724521273754752, -0.20794169899861897, 0.014303876051923244, 0.3972825823640856)', '(-0.005731286107347855, -0.40326363433719137, 0.022249527699204956, 0.6944407097625727)', '(-0.013796558794091682, -0.5986870262585658, 0.03613834189445641, 0.9940440650729292)', '(-0.025770299319263, -0.7942732904639458, 0.05601922319591499, 1.2978542685201166)', '(-0.04165576512854192, -0.5999056307653914, 0.08197630856631732, 1.023221164918109)', '(-0.05365387774384975, -0.7960181258849613, 0.1024407318646795, 1.34047608725139)', '(-0.06957424026154897, -0.9922695331520219, 0.1292502536097073, 1.6633748631565448)', '(-0.0894196309245894, -1.188637928260525, 0.1625177508728382, 1.9933643977888922)', '(-0.1131923894897999, -1.3850463076404844, 0.20238503882861605, 2.3316650338921874)', '(-0.1408933156426096, -1.5813456663715326, 0.2490183395064598, 2.679200194923027)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.40005365906793083, 0.056718967558805795, 0.6243565322687714)', '(-0.043097468628396016, -0.595919684308709, 0.06920609820418122, 0.9343495519973364)', '(-0.055015862314570195, -0.791903516316987, 0.08789308924412795, 1.2479519400188712)', '(-0.07085393264090993, -0.9880355484185881, 0.11285212804450537, 1.5668216613877721)', '(-0.09061464360928169, -1.184310416098135, 0.14418856127226082, 1.892469338400986)', '(-0.1143008519312444, -1.3806729853307276, 0.18203794804028053, 2.2262013605705073)', '(-0.14191431163785895, -1.5770022075612058, 0.2265619752516907, 2.5690532739686676)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[0,0]', '[1,1]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>['[1,0]', '[1,1]', '[0,0]']</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[20, 31, 37, 39, 40]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, 0.1838783157507662, 0.007299072508378151, -0.22287552841176522)', '(0.005736964334697355, -0.011347196378286711, 0.0028415619401428466, 0.07210084738632738)', '(0.00551002040713162, 0.18373390205906265, 0.004283578887869394, -0.21968420080137002)', '(0.009184698448312873, -0.011449017457679123, -0.00011010512815800687, 0.0743468607539246)', '(0.00895571809915929, 0.18367451206364416, 0.0013768320869204853, -0.21837080266154113)', '(0.012629208340432173, -0.011467093796386357, -0.002990583966310337, 0.0747461171916447)', '(0.012399866464504446, 0.18369760249995726, -0.001495661622477443, -0.218878848524231)', '(0.016073818514503593, 0.3788409018158684, -0.0058732385929620625, -0.5120331944490126)', '(0.02365063655082096, 0.18380216950329087, -0.016113902481942315, -0.22120686407053175)', '(0.027326679940886778, -0.011085791578541587, -0.02053803976335295, 0.06634984291986651)', '(0.027104964109315947, 0.18432450382284135, -0.019211042904955622, -0.2327415418886959)', '(0.030791454185772775, -0.010517754894441927, -0.02386587374272954, 0.0538202166684123)', '(0.030581099087883937, -0.20528951606923707, -0.022789469409361295, 0.33887875799856715)', '(0.026475308766499193, -0.009850822486631133, -0.016011894249389952, 0.039097317537029996)', '(0.02627829231676657, -0.2047395471197339, -0.015229947898649352, 0.32668563523822547)', '(0.022183501374371892, -0.009404110607538596, -0.008696235193884842, 0.02923902945983886)', '(0.02199541916222112, 0.1858414634457727, -0.008111454604688066, -0.2661749185996195)', '(0.025712248431136574, -0.009163784616178366, -0.013434952976680455, 0.023938589163959634)', '(0.025528972738813008, 0.18614823343117556, -0.012956181193401263, -0.2729527555910504)', '(0.02925193740743652, -0.008786475512951364, -0.018415236305222273, 0.015615755774906426)', '(0.029076207897177492, -0.20363955489522073, -0.018102921189724144, 0.30243204370666943)', '(0.02500341679927308, -0.008264337754564394, -0.012054280315590755, 0.0040952692004255775)', '(0.02483813004418179, -0.20321135729706175, -0.011972374931582245, 0.29295068100318683)', '(0.020773902898240555, -0.007920771628741746, -0.0061133613115185075, -0.0034839975054319905)', '(0.02061548746566572, 0.18728831806483456, -0.006183041261627147, -0.2980894774038408)', '(0.02436125382696241, -0.007744951996637328, -0.012144830809703962, -0.0073629669335776304)', '(0.024206354787029663, 0.1875490485024404, -0.012292090148375515, -0.3038528564845054)', '(0.02795733575707847, 0.3828440023211661, -0.01836914727806562, -0.600386939850255)', '(0.03561421580350179, 0.18798378322922266, -0.030376886075070723, -0.313546148533449)', '(0.039373891468086245, -0.006692559793745195, -0.0366478090457397, -0.030595783674533472)', '(0.03924004027221134, -0.2012703185833881, -0.03725972471923037, 0.2503028347355243)', '(0.03521463390054358, -0.39584092644093405, -0.032253668024519885, 0.5310043554509789)', '(0.027297815371724897, -0.20028048302215098, -0.021633580915500307, 0.22833532374579218)', '(0.023292205711281877, -0.004856162918108392, -0.017066874440584464, -0.07109234010321808)', '(0.023195082452919707, -0.19972932892297515, -0.018488721242648824, 0.21615742070833155)', '(0.019200495874460204, -0.004348011906904509, -0.014165572828482194, -0.08229983980182182)', '(0.019113535636322114, -0.1992640671609776, -0.01581156962451863, 0.20588037004336618)']</t>
+  </si>
+  <si>
+    <t>[12, 21, 23, 24, 25, 26, 27, 30, 33]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, 0.37908278880605706, 0.005940528003011952, -0.5174016279565493)', '(0.00986421309051564, 0.18387769928444458, -0.004407504556119034, -0.22285265527052334)', '(0.013541767076204532, -0.01118097898124401, -0.0088645576615295, 0.06843671806699941)', '(0.013318147496579651, 0.1840669331991002, -0.007495823300189512, -0.22702978910733507)', '(0.016999486160561655, -0.01094709615795808, -0.012036419082336214, 0.06327928556015505)', '(0.016780544237402495, 0.18434534110889442, -0.010770833371133113, -0.233176772561694)', '(0.020467451059580383, -0.010621068947484269, -0.015434368822366993, 0.05608931523811189)', '(0.0202550296806307, 0.1847187465436186, -0.014312582517604755, -0.2414230326153104)', '(0.02394940461150307, -0.010195861783402427, -0.019141043169910964, 0.0467111785936683)', '(0.023745487375835022, 0.18519525476206966, -0.018206819598037598, -0.25194893045097244)', '(0.027449392471076417, -0.00966204341823243, -0.023245798207057047, 0.03493606424005036)', '(0.02725615160271177, 0.18578541238661425, -0.022547076922256038, -0.2649895621853351)', '(0.030971859850444053, 0.3812217990259378, -0.02784686816596274, -0.5646979086828678)', '(0.03859629583096281, 0.5767231565503529, -0.0391408263396201, -0.8660221726400499)', '(0.05013075896196986, 0.7723553205045429, -0.056461269792421095, -1.1707501302189298)', '(0.06557786537206073, 0.9681642021371042, -0.07987627239679969, -1.480586211490074)', '(0.08494114941480281, 0.7741026841246454, -0.10948799662660116, -1.2138807173404362)', '(0.10042320309729572, 0.5805504458817339, -0.1337656109734099, -0.9574159925210549)', '(0.1120342120149304, 0.7771927963837717, -0.15291393082383098, -1.2889544374641715)', '(0.12757806794260584, 0.5843103816402526, -0.1786930195731144, -1.0477885078802969)', '(0.1392642755754109, 0.3919512352869414, -0.19964878973072034, -0.81610084197452)', '(0.14710330028114973, 0.5891645116380161, -0.21597080657021073, -1.1643522582053356)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33]</t>
+  </si>
+  <si>
+    <t>['[1,1]', '[0,0]', '[1,0]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 7, 8, 9, 10, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.5760082163585145, -0.0013614871701066334, -0.8498680372101901)', '(0.015264623176380358, 0.38090485791153295, -0.018358847914310437, -0.5576135478836375)', '(0.022882720334611018, 0.5762796560999941, -0.02951111887198319, -0.856023556732514)', '(0.0344083134566109, 0.7717910444010303, -0.04663159000663347, -1.1578379540349204)', '(0.0498441343446315, 0.9674887099196555, -0.06978834908733188, -1.4647700703226665)', '(0.06919390854302461, 1.1633926163796129, -0.0990837504937852, -1.7784117442853067)', '(0.09246176087061686, 0.9695159732956166, -0.13465198537949136, -1.5181061437247916)', '(0.11185208033652919, 1.1659848532867503, -0.16501410825398719, -1.8496100055369205)', '(0.1351717774022642, 1.362494376313866, -0.2020063083647256, -2.1886645000169107)', '(0.16242166492854151, 1.5589190101484098, -0.24577959836506383, -2.536297069181889)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 0.771597127803412, -0.053540969303457364, -1.1538662491508425)', '(0.05411364290672023, 0.5772127867847788, -0.07661829428647421, -0.8784410849842941)', '(0.06565789864241581, 0.38321090243168654, -0.09418711598616009, -0.610795732711781)', '(0.07332211669104954, 0.5795143825464375, -0.1064030306403957, -0.9315959187978637)', '(0.08491240434197829, 0.7758988216029068, -0.12503494901635298, -1.2557301061964594)', '(0.10043038077403643, 0.9723798810053244, -0.15014955114028217, -1.5848154614648513)', '(0.11987797839414292, 1.1689346221603454, -0.1818458603695792, -1.9203086188125145)', '(0.14325667083734983, 0.9761741615497488, -0.2202520327458295, -1.6891039285778133)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
+  </si>
+  <si>
+    <t>[1,0]</t>
+  </si>
+  <si>
+    <t>[2, 10, 17, 21, 26, 27, 47]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, 0.18576798339470538, 0.010344260345701474, -0.26457614791114553)', '(-0.00034492595914050513, -0.00950007383875101, 0.005052737387478563, 0.03135142557715925)', '(-0.0005349274359155254, 0.18554905545054978, 0.005679765899021748, -0.259733035167779)', '(0.0031760536730954707, -0.009653515590723472, 0.00048510519566616773, 0.03473594071475372)', '(0.0029829833612810015, 0.18546147572281405, 0.0011798240099612422, -0.2577938908967446)', '(0.0066922128757372825, 0.3805665631791757, -0.00397605380797365, -0.550104450215383)', '(0.014303544139320796, 0.18550068556802346, -0.01497814281228131, -0.2586769033830518)', '(0.018013557850681264, -0.009404267835119162, -0.020151680879942346, 0.02924432357017792)', '(0.01782547249397888, -0.204231521210469, -0.019566794408538788, 0.3155016743561342)', '(0.0137408420697695, -0.008836398342888574, -0.013256760921416104, 0.016712824427829787)', '(0.01356411410291173, -0.20376574761832789, -0.012922504432859508, 0.30518378225099263)', '(0.009488799150545173, -0.008462049839008723, -0.006818828787839655, 0.008453585164257205)', '(0.009319558153764998, 0.18675702569774338, -0.006649757084554511, -0.2863729405534225)', '(0.013054698667719866, -0.00826946211332652, -0.012377215895622962, 0.004205309065861529)', '(0.012889309425453336, -0.20321173920654337, -0.01229310971430573, 0.2929575182223334)', '(0.008825074641322468, -0.007916693237439487, -0.006433959349859063, -0.0035769994168864394)', '(0.008666740776573678, 0.18729693646116827, -0.006505499338196792, -0.2982829542108766)', '(0.012412679505797043, -0.007731679764596239, -0.012471158422414325, -0.0076588235958983675)', '(0.012258045910505118, -0.20267257722277676, -0.012624334894332293, 0.28106335801337623)', '(0.008204594366049582, -0.007372844098965603, -0.007003067734064768, -0.015574353604581592)', '(0.00805713748407027, -0.20239366619714444, -0.0073145548061564, 0.27489082118880864)', '(0.004009264160127382, -0.3974104955317049, -0.0018167383823802273, 0.5652577798416125)', '(-0.003938945750506715, -0.59250691132455, 0.009488417214452025, 0.857367799798006)', '(-0.015789083976997714, -0.39751550968255456, 0.026635773210412144, 0.5676834163554464)', '(-0.023739394170648805, -0.20277710724318493, 0.03798944153752107, 0.28350941794249424)', '(-0.027794936315512504, -0.0082170134914539, 0.043659629896370955, 0.003046053012740635)', '(-0.027959276585341582, 0.18625248404827544, 0.04372055095662577, -0.2755483658131068)', '(-0.024234226904376075, 0.3807242724268903, 0.03820958364036363, -0.5541275477468263)', '(-0.01661974145583827, 0.18508720585193042, 0.027127032685427103, -0.24965525601570937)', '(-0.012917997338799662, -0.010411422599361314, 0.022133927565112916, 0.05145916573157727)', '(-0.01312622579078689, 0.1843862747531623, 0.023163110879744462, -0.23415896472649628)', '(-0.009438500295723642, -0.01105884014460648, 0.018479931585214535, 0.06573941021179941)', '(-0.009659677098615772, 0.18379335157306925, 0.01979471978945052, -0.22105618046682673)', '(-0.005983810067154387, -0.011605865641157398, 0.015373596180113986, 0.0778044922090596)', '(-0.006215927379977535, 0.1832923609915081, 0.016929686024295176, -0.20998864140777979)', '(-0.002550080160147373, -0.01206751538283124, 0.01272991319613958, 0.08798626939300158)', '(-0.002791430467803998, 0.18286967480129923, 0.014489638583999612, -0.20065333052469458)', '(0.0008659630282219868, -0.012456480402827652, 0.010476571973505721, 0.09656495101227797)', '(0.0006168334201654337, 0.18251376197324837, 0.01240787099375128, -0.192794307143064)', '(0.004267108659630401, -0.012783468160738831, 0.00855198485089, 0.10377680854025273)', '(0.004011439296415624, 0.18221488741708788, 0.010627521021695055, -0.18619577587816505)', '(0.007655737044757382, -0.01305749336829598, 0.006903605504131754, 0.1098206866582071)', '(0.007394587177391462, -0.20827768723711762, 0.009100019237295896, 0.40467364327321775)', '(0.0032290334326491093, -0.013285964026315517, 0.01719349210276025, 0.1148735376037987)', '(0.002963314152122799, 0.18158546254553065, 0.019490962854836223, -0.17233576032878345)']</t>
+  </si>
+  <si>
+    <t>[2, 9, 11, 12, 13, 14, 16, 19, 20, 21, 22]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, 0.18576798339470538, 0.010344260345701474, -0.26457614791114553)', '(-0.00034492595914050513, -0.00950007383875101, 0.005052737387478563, 0.03135142557715925)', '(-0.0005349274359155254, 0.18554905545054978, 0.005679765899021748, -0.259733035167779)', '(0.0031760536730954707, -0.009653515590723472, 0.00048510519566616773, 0.03473594071475372)', '(0.0029829833612810015, -0.2047824199965807, 0.0011798240099612422, 0.3275718838061401)', '(-0.0011126650386506128, -0.009677285524939877, 0.007731261686084044, 0.03526125396463198)', '(-0.0013062107491494104, -0.20490924670699073, 0.008436486765376684, 0.3303734119601689)', '(-0.005404395683289225, -0.40015026864067915, 0.015043955004580062, 0.6257048205004377)', '(-0.013407401056102808, -0.5954789592958097, 0.027558051414588815, 0.9230874578713564)', '(-0.025316980242019005, -0.7909621668066948, 0.04601980057201594, 1.2243019735909835)', '(-0.0411362235781529, -0.596462120799057, 0.07050584004383562, 0.9463858336725426)', '(-0.053065465994134045, -0.7924591508641767, 0.08943355671728646, 1.2603624919486238)', '(-0.06891464901141758, -0.5985877230683421, 0.11464080655625894, 0.9969759944712102)', '(-0.08088640347278442, -0.4051697819037207, 0.13458032644568313, 0.742384113070638)', '(-0.08898979911085883, -0.6018673417218606, 0.14942800870709588, 1.074209850082916)', '(-0.10102714594529605, -0.798613891804711, 0.1709122057087542, 1.4098095026489075)', '(-0.11699942378139028, -0.9953932021647567, 0.19910839576173237, 1.7506817769295657)', '(-0.13690728782468542, -1.1921411286592485, 0.2341220313003237, 2.0981248923316045)']</t>
+  </si>
+  <si>
     <t>['[0,0]', '[1,0]', '[1,1]']</t>
   </si>
   <si>
-    <t>[1, 2, 5, 12, 13, 14, 22, 25, 26, 31, 35, 36, 39, 40, 43, 48]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.2042514664103063, 0.0503946404027063, 0.31621635780497453)', '(-0.035096395447037396, -0.009882199210565407, 0.056718967558805795, 0.039842350584417374)', '(-0.0352940394312487, -0.20576969102121356, 0.05751581457049414, 0.3498675183875401)', '(-0.039409433251672975, -0.011510887231409084, 0.06451316493824495, 0.07586147396499004)', '(-0.03963965099630116, 0.18262973753309925, 0.06603039441754475, -0.19578995417103678)', '(-0.03598705624563917, 0.3767480953442379, 0.06211459533412402, -0.4669341203085862)', '(-0.028452094338754414, 0.5709399741453058, 0.0527759129279523, -0.739410242136233)', '(-0.0170332948558483, 0.37513055032793163, 0.03798770808522764, -0.430596135454884)', '(-0.009530683849289666, 0.179491841319433, 0.02937578537612996, -0.12618408590119085)', '(-0.005940847022901007, -0.016038360506487825, 0.02685210365810614, 0.1756199171189224)', '(-0.0062616142330307635, -0.21153410559505698, 0.03036450200048459, 0.47665139138400225)', '(-0.010492296344931904, -0.4070713435745349, 0.039897529828164635, 0.7787478361440401)', '(-0.0186337232164226, -0.21252002309077558, 0.05547248655104543, 0.49887985364028015)', '(-0.02288412367823811, -0.018222238418754144, 0.06545008362385103, 0.2241820290849833)', '(-0.023248568446613195, 0.17590618672125152, 0.0699337242055507, -0.04715854890103477)', '(-0.019730444712188166, 0.36995927420485575, 0.06899055322753, -0.31698291514289867)', '(-0.01233125922809105, 0.5640342107244563, 0.06265089492467203, -0.5871356551883224)', '(-0.001050575013601925, 0.7582253630047998, 0.05090818182090558, -0.8594435850354614)', '(0.01411393224649407, 0.5624483383444254, 0.033719310120196355, -0.5511979625429878)', '(0.02536289901338258, 0.36686942708478487, 0.0226953508693366, -0.24808475988508777)', '(0.032700287555078277, 0.5616600279942232, 0.017733655671634842, -0.5335235547099824)', '(0.04393348811496274, 0.3662932230789822, 0.007063184577435195, -0.2353060042143968)', '(0.051259352576542384, 0.17107107298828275, 0.002357064493147259, 0.05959647543523139)', '(0.05468077403630804, -0.02408459435849039, 0.003548994001851887, 0.35302213959756806)', '(0.05419908214913823, 0.17098671124509726, 0.010609436793803249, 0.06146042598121593)', '(0.05761881637404018, 0.36595495241082643, 0.011838645313427567, -0.2278563607791284)', '(0.0649379154222567, 0.5609057364813291, 0.0072815180978449984, -0.5167815644242888)', '(0.07615603015188328, 0.365682015872987, -0.003054113190640778, -0.2218129992193869)', '(0.08346967046934302, 0.17060385137545556, -0.007490373175028517, 0.06990497493641762)', '(0.08688174749685212, 0.3658323843240716, -0.006092273676300164, -0.22513175857235085)', '(0.09419839518333356, 0.5610408741134525, -0.010594908847747182, -0.5197301766649856)', '(0.10541921266560261, 0.3660696673336875, -0.02098951238104689, -0.23040462571222164)', '(0.11274060601227637, 0.17125384021020956, -0.025597604895291323, 0.055584282804146234)', '(0.11616568281648056, -0.023491906495457265, -0.024485919239208398, 0.34008233055586934)', '(0.11569584468657142, 0.1719697324581838, -0.01768427262809101, 0.03977962008507574)', '(0.1191352393357351, 0.367340751656247, -0.016888680226389497, -0.25842999077364004)', '(0.12648205436886004, 0.17246392915927433, -0.022057280041862297, 0.028878519836912808)', '(0.12993133295204554, -0.022334875348822864, -0.02147970964512404, 0.31452133431161217)', '(0.12948463544506908, 0.17308636244956865, -0.015189282958891798, 0.015142548254282906)', '(0.13294636269406046, 0.3684228159877024, -0.01488643199380614, -0.2822938099924707)', '(0.1403148190138145, 0.1735163293160605, -0.020532308193655556, 0.005657076938019923)', '(0.14378514560013572, 0.368926633514429, -0.020419166654895158, -0.2934326708339356)', '(0.1511636782704243, 0.1741016693792489, -0.02628782007157387, -0.007258963438733446)', '(0.15464571165800928, 0.3695905688543466, -0.026432999340348536, -0.30811872809737995)', '(0.16203752303509622, 0.17485503445677517, -0.03259537390229614, -0.02388786421745903)', '(0.16553462372423172, -0.01978467448145843, -0.033073131186645316, 0.25833527238896964)', '(0.16513893023460255, 0.1757934473745177, -0.027906425738865922, -0.044593205832358096)']</t>
-  </si>
-  <si>
-    <t>[7, 8, 10, 11, 12, 13, 17]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, -0.20535498527219764, 0.017811089502435474, 0.3402405405228112)', '(-0.01246594538384614, -0.4007257735531117, 0.024615900312891698, 0.6384864238007459)', '(-0.020480460854908372, -0.20595555231548998, 0.03738562878890662, 0.3536559459868527)', '(-0.02459957190121817, -0.40158860989834333, 0.04445874770864367, 0.6578892957972458)', '(-0.032631344099185035, -0.5973002710173932, 0.05761653362458859, 0.9642332717227169)', '(-0.0445773495195329, -0.7931469478962471, 0.07690119905904293, 1.274445703235819)', '(-0.06044028847745784, -0.9891610430382135, 0.10239011312375931, 1.5901845590132704)', '(-0.08022350933822212, -0.7953932389350284, 0.13419380430402472, 1.3311052027580068)', '(-0.09613137411692269, -0.6021945715524115, 0.16081590835918486, 1.083247299826135)', '(-0.10817526554797091, -0.4095175617128118, 0.18248085435570754, 0.8450373124612733)', '(-0.11636561678222715, -0.6065975341354181, 0.199381600604933, 1.1891010699445699)', '(-0.1284975674649355, -0.4145378947655146, 0.22316362200382442, 0.9649494666397327)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18]</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[0,0]', '[1,1]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 6, 7, 12, 13, 14, 15, 16, 18, 22]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.008601042343346021, 0.03846384713806068, 0.01153006168279358)', '(-0.023207094316181322, -0.20425290291665268, 0.03869444837171655, 0.31609636674495395)', '(-0.027292152374514374, -0.009702865384165815, 0.04501637570661563, 0.035863081415907105)', '(-0.02748620968219769, 0.18474560036540177, 0.045733637334933776, -0.24228378862138145)', '(-0.023791297674889657, -0.010998769621198362, 0.040887961562506146, 0.06446676351011005)', '(-0.024011273067313623, -0.20668237058004738, 0.04217729683270835, 0.3697645489792695)', '(-0.02814492047891457, -0.012184263883037894, 0.04957258781229374, 0.09067329764822685)', '(-0.02838860575657533, 0.18219338254328513, 0.051386053765258274, -0.18596661929979075)', '(-0.024744738105709627, 0.37654389488832274, 0.04766672137926246, -0.4620067296819313)', '(-0.017213860207943174, 0.18078181198539575, 0.03842658678562383, -0.15468842806098887)', '(-0.013598223968235259, -0.014868665066518044, 0.03533281822440405, 0.149865277100259)', '(-0.013895597269565619, -0.2104782840302001, 0.038330123766409235, 0.45348226144649967)', '(-0.01810516295016962, -0.40612069703284226, 0.04739976899533923, 0.7579966263815202)', '(-0.026227576890826467, -0.6018626977941299, 0.06255970152296964, 1.0652101679374133)', '(-0.038264830846709064, -0.7977542750881016, 0.08386390488171791, 1.3768532807379537)', '(-0.05421991634847109, -0.6037740925497065, 0.11140097049647699, 1.1115327234519108)', '(-0.06629539819946523, -0.800168907389127, 0.1336316249655152, 1.436983049256065)', '(-0.08229877634724778, -0.6069232901330598, 0.1623712859506365, 1.188869796698075)', '(-0.09443724214990898, -0.4142348108349193, 0.186148681884598, 0.9511664801646266)', '(-0.10272193836660737, -0.22203960307703274, 0.20517201148789052, 0.7222663218198737)', '(-0.10716273042814803, -0.41931927226406, 0.219617337924288, 1.071877452947799)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22]</t>
-  </si>
-  <si>
-    <t>['[1,1]', '[0,0]', '[1,0]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -1.182266511478129, 0.12304959880142835, 1.8425792671068442)', '(-0.10207328496869704, -1.3785125418350686, 0.15990118414356524, 2.1708079305885084)', '(-0.12964353580539842, -1.5747927147279073, 0.20331734275533542, 2.508283148799749)', '(-0.16113939009995656, -1.770926329198504, 0.2534830057313304, 2.8557879869215794)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>['[1,0]', '[1,1]', '[0,0]']</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>[14, 15, 18, 21, 28, 30, 45]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, -0.010491057663022746, 0.012910514665105136, 0.05321859353121916)', '(-0.004871052854635972, 0.18444341680172113, 0.013974886535729519, -0.23536316367543225)', '(-0.0011821845186015495, -0.010875382469220513, 0.009267623262220873, 0.06169490965754798)', '(-0.0013996921679859597, 0.18411247411902293, 0.010501521455371832, -0.22804967261799397)', '(0.0022825573143944993, -0.011157964735623443, 0.005940528003011952, 0.06792722526830997)', '(0.0020593980196820304, 0.1838783157507662, 0.007299072508378151, -0.22287552841176522)', '(0.005736964334697355, 0.37889518481465034, 0.0028415619401428466, -0.5132471314229992)', '(0.013314868030990362, 0.5739769991137685, -0.007423380688317136, -0.8050332533990147)', '(0.024794408013265733, 0.3789575989155256, -0.02352404575629743, -0.5146946670815349)', '(0.03237355999157625, 0.1841746988277678, -0.03381793909792813, -0.2295165866494141)', '(0.0360570539681316, 0.3797631804300992, -0.03840827083091641, -0.5326721401046928)', '(0.04365231757673359, 0.1852018797683274, -0.04906171363301027, -0.25233468008693377)', '(0.047356355172100136, -0.009186420390773858, -0.05410840723474895, 0.024478555620511433)', '(0.04717262676428466, 0.18666806356505286, -0.05361883612233872, -0.284773330513157)', '(0.050905988035585714, -0.0076497898698496825, -0.05931430273260186, -0.009471830289263072)', '(0.05075299223818872, -0.2018731461671734, -0.059503739338387124, 0.26392268735513885)', '(0.04671552931484525, -0.39609752150944577, -0.054225285591284346, 0.5372598579284669)', '(0.038793578884656336, -0.20025678049369736, -0.04348008843271501, 0.22799610306905904)', '(0.03478844327478239, -0.3947312687774748, -0.03892016637133383, 0.5066530171946757)', '(0.02689381789923289, -0.1990831276877706, -0.028787106027440317, 0.20196341001251727)', '(0.022912155345477477, -0.0035615531434651237, -0.02474783782718997, -0.09965967930581476)', '(0.022840924282608175, -0.19832024272864332, -0.026741031413306266, 0.1851137772146948)', '(0.018874519428035308, -0.0028260890942557737, -0.02303875586901237, -0.11588353989869943)', '(0.018817997646150192, -0.19761048588557129, -0.02535642666698636, 0.16944272230780222)', '(0.014865787928438765, -0.3923604948116086, -0.021967572220830317, 0.45401983945232643)', '(0.007018578032206593, -0.1969349146956083, -0.012887175431783788, 0.15449425014827728)', '(0.0030798797382944262, -0.39186999676138506, -0.009797290428818243, 0.4430838678694195)', '(-0.004757520196933275, -0.1966107948899114, -0.0009356130714298534, 0.1473287643877182)', '(-0.008689736094731504, -0.3917193353724826, 0.0020109622163245106, 0.4397163768143268)', '(-0.016524122802181157, -0.19662590260752377, 0.010805289752611046, 0.14766804187365834)', '(-0.02045664085433163, -0.001660338652241966, 0.013758650590084211, -0.14158653855536762)', '(-0.020489847627376472, -0.19697660987003895, 0.010926919818976859, 0.1554050542661537)', '(-0.02442937982477725, -0.0020127999619889425, 0.014035020904299932, -0.1338107516153697)', '(-0.024469635824017028, -0.19733294730084378, 0.011358805871992539, 0.16326677465885758)', '(-0.028416294770033903, -0.0023754290291708724, 0.01462414136516969, -0.1258112204106424)', '(-0.02846380335061732, -0.19770379969520543, 0.012107916956956842, 0.17144934995610128)', '(-0.03241787934452143, -0.0027572206116708575, 0.015536903956078867, -0.11738944370400972)', '(-0.03247302375675484, 0.19213871121287782, 0.013189115081998673, -0.40513039092783165)', '(-0.028630249532497286, -0.0031677716394359068, 0.0050865072634420395, -0.10831865944058539)', '(-0.028693604965286005, -0.19836224181258566, 0.002920134074630332, 0.18596468487940365)', '(-0.03266084980153772, -0.0032821925455689682, 0.006639427772218405, -0.1057956232117297)', '(-0.0327264936524491, -0.19849865791327687, 0.004523515307983811, 0.1889745981379844)']</t>
-  </si>
-  <si>
-    <t>['[1,1]', '[1,0]', '[0,0]']</t>
-  </si>
-  <si>
-    <t>[8, 12, 20, 23, 25, 31, 34, 38, 40, 47, 49]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, -0.009369849307344524, 0.021542700222035718, 0.028487507456279093)', '(-0.011867700469931382, 0.1854366465508055, 0.0221124503711613, -0.2573213694562454)', '(-0.008158967538915273, -0.009993906974345684, 0.01696602298203639, 0.04225332601995413)', '(-0.008358845678402187, 0.1848806988513335, 0.017811089502435474, -0.2450287418665169)', '(-0.004661231701375517, 0.3797437874814581, 0.012910514665105136, -0.532040829553236)', '(0.002933644048253645, 0.18444264827351967, 0.0022696980740404167, -0.23531794933382472)', '(0.006622497013724039, -0.010711657446601935, -0.002436660912636078, 0.058080045900171184)', '(0.006408263864792, 0.18444514611551735, -0.0012750599946326543, -0.2353706680120906)', '(0.010097166787102346, 0.379585291413127, -0.005982473354874467, -0.5284555155544692)', '(0.017688872615364885, 0.1845480163844057, -0.01655158366596385, -0.23766367495682322)', '(0.021379832943052998, -0.010333610170808055, -0.021304857165100315, 0.049752780788707485)', '(0.021173160739636838, -0.20514369340755884, -0.020309801549326167, 0.3356384361998935)', '(0.017070286871485662, -0.009738678922365351, -0.013597032825328297, 0.036620692903581)', '(0.016875513293038356, -0.20466303388981794, -0.012864618967256677, 0.32498279318710427)', '(0.012782252615241997, -0.00936029598525065, -0.006364963103514591, 0.02827083406440062)', '(0.012595046695536984, 0.18585235202093012, -0.005799546422226579, -0.2664134930304255)', '(0.016312093735955588, 0.38105659336322517, -0.011127816282835089, -0.5609199879148371)', '(0.02393322560322009, 0.18609256886524334, -0.02234621604113183, -0.27176356799669504)', '(0.027655076980524957, -0.008703505309238246, -0.02778148740106573, 0.013788351488036699)', '(0.027481006874340193, 0.18680562462962685, -0.027505720371304995, -0.28752888529560283)', '(0.03121711936693273, -0.00791349485523532, -0.03325629807721705, -0.0036463494496517534)', '(0.031058849469828023, 0.187669226543544, -0.03332922506621008, -0.3066337628390033)', '(0.034812234000698904, -0.006962331524712706, -0.03946190032299015, -0.024645541840651597)', '(0.03467298737020465, -0.20149679744847931, -0.039954811159803184, 0.2553301958632065)', '(0.03064305142123506, -0.3960261777738108, -0.03484820724253906, 0.5351477998661018)', '(0.022722527865758846, -0.20043196448563066, -0.02414525124521702, 0.23169130935998333)', '(0.018713888576046233, -0.0049734702555079835, -0.019511425058017354, -0.0685089870504999)', '(0.018614419170936074, 0.1904227007798862, -0.020881604799027353, -0.36728345051686995)', '(0.022422873186533798, -0.004396397789137418, -0.028227273809364753, -0.08125725790907767)', '(0.02233494523075105, -0.19910257687096494, -0.029852418967546306, 0.20238794860523618)', '(0.018352893693331748, -0.003566691954174861, -0.025804659995441584, -0.09956050480495887)', '(0.01828155985424825, -0.19830949402591153, -0.02779587009154076, 0.18487071901823054)', '(0.014315369973730022, -0.39302293898311563, -0.02409845571117615, 0.4686571319405804)', '(0.006454911194067709, -0.19756898159498013, -0.014725313072364542, 0.16847706178496963)', '(0.002503531562168106, -0.002239384993479143, -0.01135577183666515, -0.12881465358403982)', '(0.002458743862298523, -0.19719683618955125, -0.013932064908345946, 0.1602641429040782)', '(-0.0014851928614925017, -0.0018782275813918892, -0.010726782050264382, -0.13678123118148555)', '(-0.0015227574131203394, -0.19684490721773393, -0.013462406673894093, 0.1524983497771646)', '(-0.005459655557475018, -0.391771531779564, -0.010412439678350802, 0.4409039631620726)', '(-0.013295086193066298, -0.19650378548607067, -0.0015943604151093492, 0.14495701966470115)', '(-0.017225161902787712, -0.3916028676790157, 0.0013047799781846737, 0.4371365292365197)', '(-0.025057219256368026, -0.19649940994952575, 0.010047510562915068, 0.14486519696251787)', '(-0.02898720745535854, -0.0015227795257265475, 0.012944814502165426, -0.1446310678642465)', '(-0.029017663045873072, 0.19341141904615405, 0.010052193144880496, -0.43320219830460654)', '(-0.02514943466494999, -0.0018514015708651632, 0.0013881491787883643, -0.13736747022207202)', '(-0.025186462696367293, 0.19325063963002584, -0.0013592002256530762, -0.4296121343308602)']</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.38102190616652365, -0.0018579412158836826, -0.5601558348891638)', '(0.011548849890276736, 0.5761698848745367, -0.013061057913666957, -0.8534235321243873)', '(0.02307224758776747, 0.3812283797144056, -0.0301295285561547, -0.5648760573640947)', '(0.03069681518205558, 0.1865418184533283, -0.041427049703436594, -0.2818354973558184)', '(0.034427651551122145, 0.38222944569552497, -0.04706375965055296, -0.5872911639977849)', '(0.04207224046503264, 0.5779778307046264, -0.05880958293050866, -0.8944202527410718)', '(0.05363179707912517, 0.7738458706808836, -0.0766979879853301, -1.2049944447170065)', '(0.06910871449274283, 0.9698707207933478, -0.10079787687967023, -1.5206944017112907)', '(0.08850612890860979, 1.1660561063746218, -0.13121176491389605, -1.8430632006154253)', '(0.11182725103610222, 1.362358833363228, -0.16807302892620457, -2.1734518497879227)', '(0.13907442770336678, 1.1692266578683066, -0.21154206592196304, -1.9370168960968093)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 8, 9, 11]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 0.9673508153748098, -0.08832149577837754, -1.4634688048927638)', '(0.08126518704761529, 1.1634369092515942, -0.11759087187623282, -1.7823842601131068)', '(0.10453392523264718, 1.3596685305375775, -0.15323855707849496, -2.1091910721001104)', '(0.13172729584339873, 1.1663770403066074, -0.19542237852049715, -1.8675273649065207)', '(0.15505483664953087, 1.3630275465814514, -0.23277292581862757, -2.2139776607818105)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.5763488478797438, 0.015294224939778731, -0.8576083077831207)', '(0.003928411766946263, 0.7712591299787576, -0.0018579412158836826, -1.1454432106795691)', '(0.019353594366521412, 0.9664052992065291, -0.024766805429475063, -1.4387081936991148)', '(0.03868170035065199, 1.1618235194733544, -0.053540969303457364, -1.7390263237460089)', '(0.061918170740119086, 1.3575129579881862, -0.08832149577837754, -2.0478733797253734)', '(0.08906842989988281, 1.5534225629803073, -0.12927896337288503, -2.3665251334985395)', '(0.12013688115948895, 1.7494352078482025, -0.17660946604285582, -2.6959927759770563)', '(0.15512558531645299, 1.9453493043909325, -0.23052932156239694, -3.0369464494455816)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[0,0]', '[1,1]', '[1,0]']</t>
-  </si>
-  <si>
-    <t>[1,0]</t>
-  </si>
-  <si>
-    <t>[4, 10, 13, 19, 27, 29, 31, 39, 40, 41, 42]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, 0.18612667547570355, 0.026994416970768483, -0.27258583743663833)', '(-0.011680303483784491, 0.3808532517211452, 0.021542700222035718, -0.5566338907814913)', '(-0.004063238449361587, 0.1854355886462096, 0.010410022406405891, -0.25724234778407434)', '(-0.0003545266764373952, -0.00983342637637502, 0.005265175450724404, 0.03870579543563807)', '(-0.0005511952039648956, 0.1852126279766967, 0.006039291359437166, -0.2523112763622837)', '(0.003153057355569038, -0.009995037369338766, 0.0009930658321914924, 0.04227042267664122)', '(0.0029531566081822625, 0.1851126594944886, 0.0018384742857243167, -0.2500990170039908)', '(0.006655409798072035, 0.3802083083022956, -0.003163506054355499, -0.5422014845146548)', '(0.014259575964117945, 0.185130961605942, -0.014007535744648594, -0.25051699791455684)', '(0.017962195196236784, -0.009788186702095414, -0.01901787570293973, 0.0377149602103119)', '(0.017766431462194875, 0.18560124630373379, -0.018263576498733492, -0.26090710803969486)', '(0.021478456388269552, -0.009255294323694818, -0.02348171865952739, 0.025959764265578222)', '(0.021293350501795656, -0.2040327655620164, -0.022962523374215824, 0.3111424350289726)', '(0.01721269519055533, -0.008591321540890401, -0.016739674673636372, 0.011307165891101922)', '(0.01704086875973752, -0.2034692529239597, -0.016513531355814334, 0.2986618733715765)', '(0.012971483701258326, -0.008115851162209725, -0.010540293888382804, 0.0008169664291077239)', '(0.012809166678014131, 0.18715566476967552, -0.010523954559800649, -0.29517282596752015)', '(0.016552279973407642, -0.007814683257940463, -0.016427411079151053, -0.005827484558599549)', '(0.016395986308248834, -0.20269723651527682, -0.016543960770323045, 0.28162746134581595)', '(0.012342041577943297, -0.007343256085819316, -0.010911411543406725, -0.01622711112953884)', '(0.01219517645622691, -0.20230703853496365, -0.011235953765997501, 0.2729932622483135)', '(0.008149035685527637, -0.007026581618968797, -0.005776088521031232, -0.02321223409261597)', '(0.008008504053148261, -0.20206522403010435, -0.006240333202883551, 0.2676426886204662)', '(0.003967199572546175, -0.006854771954307781, -0.0008874794304742266, -0.027001934187224963)', '(0.003830104133460019, 0.18827989513527466, -0.0014275181142187259, -0.31996473847097806)', '(0.007595702036165513, -0.0068216969031378305, -0.007826812883638288, -0.027732338781031485)', '(0.007459268098102756, 0.1884116167210654, -0.008381459659258917, -0.3228743989091573)', '(0.011227500432524063, -0.006589987842972045, -0.014838947637442063, -0.03284638627346076)', '(0.011095700675664621, 0.18874158183519782, -0.015495875362911278, -0.33017397370111967)', '(0.014870532312368578, -0.006156395374572798, -0.02209935483693367, -0.04241771171022779)', '(0.014747404404877122, -0.200954591450201, -0.022947709071138224, 0.24321155195088556)', '(0.010728312575873103, -0.005512505558905562, -0.018083478032120515, -0.0566204251662607)', '(0.010618062464694992, -0.20037056433044706, -0.019215886535445727, 0.23030262079094932)', '(0.006610651178086051, -0.0049793697802490156, -0.014609834119626741, -0.06837918447687658)', '(0.0065110637824810705, -0.19988884715757047, -0.01597741780916427, 0.2196586915449233)', '(0.0025132868393296613, -0.004542195998140708, -0.011584243978265806, -0.07802104621369854)', '(0.0024224429193668473, 0.19074388912217685, -0.013144664902539778, -0.3743362109019673)', '(0.006237320701810384, 0.3860500663693485, -0.020631389120579123, -0.6711345882569026)', '(0.013958322029197355, 0.581452667384027, -0.034054080885717174, -0.970241309636297)', '(0.025587375376877896, 0.7770147690269834, -0.05345890707844311, -1.2734243511738559)', '(0.041127670757417564, 0.5826141147447862, -0.07892739410192023, -0.9979493807898524)', '(0.05277995305231329, 0.3886310333273995, -0.09888638171771728, -0.7310611753578937)', '(0.06055257371886128, 0.19500464257024896, -0.11350760522487516, -0.4710657048299657)', '(0.06445266657026626, 0.0016535860132194102, -0.12292891932147447, -0.21620508576848763)', '(0.06448573829053064, -0.19151616578711797, -0.12725302103684422, 0.03531283468608715)', '(0.06065541497478828, -0.3846053601341124, -0.12654676434312248, 0.2852932230171201)', '(0.05296330777210603, -0.5777167058533009, -0.12084089988278007, 0.5355384310425901)']</t>
-  </si>
-  <si>
-    <t>[3, 9, 12, 13, 14, 18, 21, 24, 27, 29, 31, 32, 34, 35]</t>
-  </si>
-  <si>
-    <t>[1, 0, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, -0.008601427704964998, 0.02676373472144081, 0.011534112466383584)', '(-0.015402836993298563, -0.20409677944981686, 0.026994416970768483, 0.3125397204020826)', '(-0.0194847725822949, -0.009369587627564041, 0.03324521137881013, 0.028490744028419945)', '(-0.01967216433484618, 0.18526022195347203, 0.03381502625937853, -0.2535203583332872)', '(-0.01596695989577674, -0.010327838532409511, 0.028744619092712788, 0.04963373681676758)', '(-0.01617351666642493, 0.18437040116260206, 0.02973729382904814, -0.2338432242158895)', '(-0.01248610864317289, 0.3790551202362022, 0.02506042934473035, -0.5169997157029684)', '(-0.004905006238448845, 0.5738154050360953, 0.014720435030670982, -0.8016814168792781)', '(0.006571301862273061, 0.37849469804643954, -0.0013131933069145795, -0.5044044474304192)', '(0.014141195823201853, 0.18339127857878582, -0.011401282255522964, -0.21213564928864137)', '(0.01780902139477757, 0.3786743688143266, -0.01564399524129579, -0.5083931506866917)', '(0.0253825087710641, 0.5740131988659343, -0.025811858255029622, -0.8059646888699243)', '(0.03686277274838279, 0.7694792825422476, -0.04193115203242811, -1.1066539912434619)', '(0.05225235839922774, 0.574932909377613, -0.06406423185729734, -0.827415082150899)', '(0.06375101658678001, 0.38074269814595313, -0.08061253350031533, -0.5555493142863767)', '(0.07136587054969908, 0.18683959954623294, -0.09172351978604286, -0.2893136213147877)', '(0.07510266254062374, 0.38314164976805365, -0.09750979221233862, -0.6094578358864859)', '(0.08276549553598482, 0.1895082925730556, -0.10969894893006833, -0.34900999970394625)', '(0.08655566138744593, -0.003896400571691161, -0.11667914892414726, -0.09283360878297264)', '(0.08647773337601211, 0.1926878355861699, -0.1185358210998067, -0.41993089992432)', '(0.09033149008773551, -0.0005726002672226393, -0.1269344390982931, -0.16684243028810541)', '(0.09032003808239106, -0.19367062179295633, -0.13027128770405522, 0.08325569558904428)', '(0.08644662564653192, 0.0030547609092573536, -0.12860617379227432, -0.24752352756385165)', '(0.08650772086471707, -0.1900183517157828, -0.13355664434355136, 0.0019883601363474)', '(0.08270735383040141, -0.3829972247344573, -0.1335168771408244, 0.24972980240321918)', '(0.07504740933571226, -0.18624634127125234, -0.12852228109276004, -0.08190729310705203)', '(0.07132248251028721, -0.3793140981310308, -0.13016042695490107, 0.16762420311788404)', '(0.06373620054766659, -0.18259251562512036, -0.12680794289254338, -0.16312129864743072)', '(0.06008435023516418, -0.3756925845610958, -0.130070368865492, 0.08702140066684796)', '(0.052570498543942266, -0.17896931894930523, -0.12832994085215504, -0.24370379917566717)', '(0.04899111216495616, 0.017729788595907597, -0.13320401683566838, -0.5739518082754359)', '(0.04934570793687432, -0.17529789522572456, -0.1446830530011771, -0.32602147232654344)', '(0.04583975003235983, 0.0215558135181812, -0.15120348244770795, -0.6606054091924652)', '(0.04627086630272345, 0.2184223836824022, -0.16441559063155725, -0.9968206752185418)', '(0.050639313976371496, 0.025834972630352115, -0.1843520041359281, -0.7599560523727782)', '(0.05115601342897854, -0.1663333964373908, -0.19955112518338367, -0.5304808784273469)', '(0.04782934550023073, -0.3581717064554617, -0.2101607427519306, -0.30671321008101515)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38]</t>
-  </si>
-  <si>
-    <t>[2, 6, 8, 9, 10, 12, 13, 17, 18]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, -0.009211414773523385, 0.009844569940890738, 0.024984520240536767)', '(-0.004060285627034613, 0.18576798339470538, 0.010344260345701474, -0.26457614791114553)', '(-0.00034492595914050513, 0.38074077330267914, 0.005052737387478563, -0.5539785274968766)', '(0.007269889506913077, 0.18554823711507773, -0.006026833162458969, -0.25970796220825093)', '(0.010980854249214632, 0.380755704458433, -0.011220992406623987, -0.5542857236131895)', '(0.01859596833838329, 0.576033405308437, -0.022306706878887778, -0.8504827369606776)', '(0.030116636444552033, 0.77145230734941, -0.03931636161810133, -1.1500957922556303)', '(0.04554568259154023, 0.5768649039161928, -0.06231827746321393, -0.8699962820990513)', '(0.057082980669864086, 0.7727766912853318, -0.07971820310519495, -1.18160323731488)', '(0.07253851449557072, 0.9688376336062623, -0.10335026785149255, -1.4981730070778825)', '(0.09191526716769596, 0.7751123021154007, -0.1333137279930502, -1.2394664704216047)', '(0.10741751321000398, 0.5819302071032892, -0.15810305740148228, -0.9913427625385114)', '(0.11905611735206977, 0.38923664436578564, -0.1779299126522525, -0.7521963002781853)', '(0.1268408502393855, 0.5863074329735648, -0.1929738386578162, -1.0951713187210455)', '(0.1385669988988568, 0.7833739719614693, -0.2148772650322371, -1.4416671228084583)']</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, 0.186969673090352, 0.032588657654782506, -0.2912461466670848)', '(-0.015230808439199262, 0.38161216242753243, 0.02676373472144081, -0.573475489083104)', '(-0.007598565190648613, 0.1861253929542234, 0.015294224939778731, -0.27248274994439964)', '(-0.003876057331564145, 0.38102580903871064, 0.009844569940890738, -0.5603028555498686)', '(0.003744458849210068, 0.5760082163585145, -0.0013614871701066334, -0.8498680372101901)', '(0.015264623176380358, 0.7711487074207513, -0.018358847914310437, -1.142978779616701)', '(0.030687597324795382, 0.9665056771590287, -0.04121842350664446, -1.4413620502969484)', '(0.050017710867975955, 1.1621102689106992, -0.07004566451258343, -1.7466345155681449)', '(0.07325991624618994, 1.3579549924664167, -0.10497835482394632, -2.0602578163979106)', '(0.10041901609551827, 1.5539800288874153, -0.14618351115190453, -2.383483623618145)', '(0.13149861667326657, 1.7500569815548495, -0.19385318362426743, -2.7172871229411517)', '(0.16649975630436356, 1.9459702533623404, -0.24819892608309047, -3.062289173566951)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+    <t>[1, 2, 3, 4, 5, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>['[-0.01881685 -0.00766736  0.03277026 -0.00908009]', '(-0.018970201901006303, -0.203243578415405, 0.032588657654782506, 0.29375947416390885)', '(-0.023035073469314403, -0.3988146324758434, 0.03846384713806068, 0.5965396632322811)', '(-0.03101136611883127, -0.5944531488919764, 0.0503946404027063, 0.9010859668635411)', '(-0.0429004290966708, -0.7902203588335466, 0.06841635973997713, 1.209173733871254)', '(-0.058704836273341734, -0.9861559232896362, 0.09259983441740222, 1.5224882192013063)', '(-0.07842795473913446, -0.7922666038825532, 0.12304959880142835, 1.2600857217662162)', '(-0.09427328681678551, -0.988728810183323, 0.14825131323675267, 1.5886361973865297)', '(-0.11404786302045197, -1.1852684336415282, 0.18002403718448326, 1.9236382374880445)', '(-0.13775323169328255, -1.38180930900808, 0.21849680193424414, 2.266326866958363)']</t>
   </si>
 </sst>
 </file>
@@ -777,13 +762,13 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -792,10 +777,10 @@
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -807,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -827,13 +812,13 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -842,10 +827,10 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -857,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -874,40 +859,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
-      </c>
-      <c r="H6">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6">
-        <v>19</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -924,40 +909,40 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7">
-        <v>19</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -974,29 +959,29 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8">
-        <v>23</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
@@ -1007,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1024,29 +1009,29 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
       <c r="M9">
         <v>0</v>
       </c>
@@ -1057,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1074,25 +1059,25 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1107,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1124,25 +1109,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1157,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1165,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -1174,19 +1159,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -1207,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1215,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -1224,19 +1209,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -1257,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1265,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -1277,13 +1262,13 @@
         <v>47</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
@@ -1292,10 +1277,10 @@
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1307,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1315,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>0.4</v>
@@ -1327,13 +1312,13 @@
         <v>47</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
@@ -1342,10 +1327,10 @@
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1357,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1365,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1374,25 +1359,25 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L16">
         <v>15</v>
@@ -1407,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1415,7 +1400,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1424,25 +1409,25 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H17">
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L17">
         <v>15</v>
@@ -1457,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1465,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>0.8</v>
@@ -1474,28 +1459,28 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1507,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1515,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>0.8</v>
@@ -1524,28 +1509,28 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1557,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1565,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1574,25 +1559,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L20">
         <v>11</v>
@@ -1607,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1615,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1624,25 +1609,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L21">
         <v>11</v>
@@ -1657,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1677,7 +1662,7 @@
         <v>64</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -1707,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1727,7 +1712,7 @@
         <v>64</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
@@ -1757,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1777,13 +1762,13 @@
         <v>67</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>68</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
         <v>69</v>
@@ -1792,22 +1777,22 @@
         <v>100</v>
       </c>
       <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
         <v>70</v>
-      </c>
-      <c r="L24">
-        <v>39</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1827,13 +1812,13 @@
         <v>67</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>68</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
         <v>69</v>
@@ -1842,22 +1827,22 @@
         <v>100</v>
       </c>
       <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
         <v>70</v>
-      </c>
-      <c r="L25">
-        <v>39</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1874,28 +1859,28 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1907,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1924,28 +1909,28 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F27">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1957,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1974,29 +1959,29 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28">
         <v>10</v>
       </c>
-      <c r="G28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28">
-        <v>13</v>
-      </c>
       <c r="M28">
         <v>0</v>
       </c>
@@ -2007,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2024,29 +2009,29 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29">
         <v>10</v>
       </c>
-      <c r="G29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29">
-        <v>13</v>
-      </c>
       <c r="M29">
         <v>0</v>
       </c>
@@ -2057,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2074,25 +2059,25 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -2107,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2124,25 +2109,25 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -2157,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
